--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1256.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1256.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.775048945656135</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04976558278100217</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04976558278100217</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07962493244960347</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.07988575857601569</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01567615857601569</v>
+        <v>0.02743647067927105</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008951086546904951</v>
+        <v>0.01566622475786377</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9295,10 +9269,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.002790399999999971</v>
+        <v>0</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0002946213092035198</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.001000453700193776</v>
+        <v>0.001793588347843142</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007037561113948646</v>
+        <v>0.0007981046355214959</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002790399999999998</v>
+        <v>0.006724215858434301</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001115322879999999</v>
+        <v>0.0007908324058805289</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004656514950284518</v>
+        <v>0.00789576188997293</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000806971413469547</v>
+        <v>0.000788600585711765</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.00556799942811953</v>
+        <v>0.001793588347843142</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007349294467750651</v>
+        <v>0.0007981046355214959</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003902838338411832</v>
+        <v>0.003942934260984812</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001407512222789729</v>
+        <v>0.001596209271042992</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003309502083290963</v>
+        <v>0.01330440665001026</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001600799570900512</v>
+        <v>0.001581664811761058</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01079039999999998</v>
+        <v>0.01694782299791231</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001621585209459127</v>
+        <v>0.00157720117142353</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01154585829524818</v>
+        <v>0.003942934260984812</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00146985889355013</v>
+        <v>0.001596209271042992</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003641308124602866</v>
+        <v>0.00598953469649656</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002111268334184594</v>
+        <v>0.002394313906564487</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005212592162926716</v>
+        <v>0.01959211194260049</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002401199356350768</v>
+        <v>0.002372497217641587</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01500004543340719</v>
+        <v>0.02475184412130926</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002420914240408641</v>
+        <v>0.002365801757135295</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01619886510863522</v>
+        <v>0.00598953469649656</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002204788340325196</v>
+        <v>0.002394313906564487</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007464837417150323</v>
+        <v>0.007774886611449885</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002983695515634984</v>
+        <v>0.003192418542085984</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00672899614637619</v>
+        <v>0.02563887130407763</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003201599141801023</v>
+        <v>0.003163329623522116</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01892009897032665</v>
+        <v>0.033203486057655</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003227885653878188</v>
+        <v>0.00315440234284706</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02194697111868088</v>
+        <v>0.007774886611449885</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002939717787100261</v>
+        <v>0.003192418542085984</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002983695515634984</v>
+        <v>0.003913222879999997</v>
       </c>
       <c r="B70" t="n">
-        <v>0.007464837417150323</v>
+        <v>0.009790399999999991</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007416683169577311</v>
+        <v>0.009790399999999991</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003518780556974323</v>
+        <v>0.003913222879999997</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008069401838017687</v>
+        <v>0.03189622430231429</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00400199892725128</v>
+        <v>0.003954162029402645</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02273322334795921</v>
+        <v>0.03979840960444075</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004034857067347734</v>
+        <v>0.003943002928558825</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02771012757578567</v>
+        <v>0.009790399999999991</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003674647233875326</v>
+        <v>0.003913222879999997</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009583054324342748</v>
+        <v>0.01126391095001907</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004222536668369188</v>
+        <v>0.004788627813128975</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009244497042229571</v>
+        <v>0.03721571050518307</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004802398712701535</v>
+        <v>0.004744994435283174</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02676446294389759</v>
+        <v>0.04733227555915748</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004841828480817282</v>
+        <v>0.00473160351427059</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03320828573035001</v>
+        <v>0.01126391095001907</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004409576680650391</v>
+        <v>0.004788627813128975</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008662003234412519</v>
+        <v>0.01252154447305612</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004926292779764052</v>
+        <v>0.005586732448650471</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0105649695633902</v>
+        <v>0.04054886948055658</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005602798498151791</v>
+        <v>0.005535826841163703</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03033886213573422</v>
+        <v>0.05379039999999996</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005648799894286828</v>
+        <v>0.005679400111303459</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03796139683277439</v>
+        <v>0.01252154447305612</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005144506127425456</v>
+        <v>0.005586732448650471</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009664115004014526</v>
+        <v>0.014018366563533</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005630048891158917</v>
+        <v>0.006384837084171967</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01214150720587794</v>
+        <v>0.04474724079630746</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006403198283602047</v>
+        <v>0.006326659247044232</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03318146530106178</v>
+        <v>0.05698613997824897</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006455771307756376</v>
+        <v>0.00630880468569412</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04208941213345924</v>
+        <v>0.014018366563533</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005879435574200521</v>
+        <v>0.006384837084171967</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01259997473737669</v>
+        <v>0.01545839295646596</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006333805002553781</v>
+        <v>0.007182941719693463</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01308479777407114</v>
+        <v>0.04776236402030837</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007203598069052303</v>
+        <v>0.00711749165292476</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03651731681747286</v>
+        <v>0.06075487480100572</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007262742721225923</v>
+        <v>0.007097405271405884</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04601228288280479</v>
+        <v>0.01545839295646596</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006614365020975586</v>
+        <v>0.007182941719693463</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01348016753872693</v>
+        <v>0.01654563938687123</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007037561113948647</v>
+        <v>0.007981046355214958</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01480552907234815</v>
+        <v>0.05044577872043188</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00800399785450256</v>
+        <v>0.00790832405880529</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04047146106255997</v>
+        <v>0.06536807921343057</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008069714134695469</v>
+        <v>0.007886005857117649</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05044996033121185</v>
+        <v>0.01654563938687123</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007349294467750652</v>
+        <v>0.007981046355214958</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01431527851229315</v>
+        <v>0.01788412158976506</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007741317225343512</v>
+        <v>0.008779150990736456</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01561438890508735</v>
+        <v>0.05279039999999999</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008804397639952815</v>
+        <v>0.00887171483324569</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04316894241391575</v>
+        <v>0.06917599158496485</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008876685548165016</v>
+        <v>0.008674606442829415</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05492239572908053</v>
+        <v>0.01788412158976506</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008084223914525717</v>
+        <v>0.008779150990736456</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01311589276230327</v>
+        <v>0.01917785530016364</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008445073336738376</v>
+        <v>0.00957725562625795</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01722206507666706</v>
+        <v>0.0524919447290271</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00960479742540307</v>
+        <v>0.009489988870566348</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04573480524913279</v>
+        <v>0.07242885028504981</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009683656961634564</v>
+        <v>0.009463207028541179</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06064954032681147</v>
+        <v>0.01917785530016364</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008819153361300782</v>
+        <v>0.00957725562625795</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01567615857601569</v>
+        <v>0.02013085625308329</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008951086546904951</v>
+        <v>0.01037536026177945</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01793924539146564</v>
+        <v>0.05367278995545896</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01040519721085333</v>
+        <v>0.01028082127644687</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04899409394580362</v>
+        <v>0.0754768936831266</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01049062837510411</v>
+        <v>0.01025180761425294</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06515134537480494</v>
+        <v>0.02013085625308329</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009554082808075848</v>
+        <v>0.01037536026177945</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01468226170138717</v>
+        <v>0.02164714018354018</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009852585559528105</v>
+        <v>0.01117346489730094</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01937661765386148</v>
+        <v>0.0539013336703684</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01120559699630358</v>
+        <v>0.01107165368232741</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05247185288152084</v>
+        <v>0.07717036014863676</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01129759978857366</v>
+        <v>0.01104040819996471</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06954776212346148</v>
+        <v>0.02164714018354018</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01028901225485091</v>
+        <v>0.01117346489730094</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01648686677370823</v>
+        <v>0.0227307228265506</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01055634167092297</v>
+        <v>0.01197156953282244</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02044486966823289</v>
+        <v>0.05447540013601684</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01200599678175384</v>
+        <v>0.01186248608820793</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0564605801377295</v>
+        <v>0.0801594880510213</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01212130910926433</v>
+        <v>0.01182900878567648</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07265874182318144</v>
+        <v>0.0227307228265506</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01102394170162598</v>
+        <v>0.01197156953282244</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01730335442401176</v>
+        <v>0.02358561991713076</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01126009778231783</v>
+        <v>0.01276967416834393</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02175468923895828</v>
+        <v>0.05529281361466573</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01280639656720409</v>
+        <v>0.01265331849408846</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05957612056519954</v>
+        <v>0.08548468959618805</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01291154261551275</v>
+        <v>0.0128940096482254</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07740423572436533</v>
+        <v>0.02358561991713076</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01175887114840104</v>
+        <v>0.01276967416834393</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01912720478179969</v>
+        <v>0.02431584719029689</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0119638538937127</v>
+        <v>0.01356777880386543</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02321676417041596</v>
+        <v>0.0564605801377295</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01360679635265435</v>
+        <v>0.01355501233724184</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06289500020773794</v>
+        <v>0.08673080963567814</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0137185140289823</v>
+        <v>0.0134062099571</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0818041950774136</v>
+        <v>0.02431584719029689</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01249380059517611</v>
+        <v>0.01356777880386543</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01695389797657396</v>
+        <v>0.02582542038106529</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01266761000510756</v>
+        <v>0.01436588343938693</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0247417822669843</v>
+        <v>0.05660088532012314</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01440719613810461</v>
+        <v>0.01423498330584952</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06669525088732359</v>
+        <v>0.09021062563594195</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01452548544245185</v>
+        <v>0.01419481054281177</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08548468959618805</v>
+        <v>0.02582542038106529</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0128940096482254</v>
+        <v>0.01436588343938693</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01777891413783646</v>
+        <v>0.02661835522445211</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01337136611650243</v>
+        <v>0.01516398807490842</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02604043133304165</v>
+        <v>0.05779664342684587</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01520759592355486</v>
+        <v>0.01502581571173005</v>
       </c>
       <c r="L84" t="n">
-        <v>0.07072231062642473</v>
+        <v>0.09153024179189445</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01533245685592139</v>
+        <v>0.01498341112852353</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09106158246344104</v>
+        <v>0.02661835522445211</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01396365948872624</v>
+        <v>0.01516398807490842</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01959773339508912</v>
+        <v>0.02743647067927105</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01407512222789729</v>
+        <v>0.01566622475786377</v>
       </c>
       <c r="J85" t="n">
+        <v>0.0586285080364842</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01581664811761058</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.09448328373069775</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0157720117142353</v>
+      </c>
+      <c r="N85" t="n">
         <v>0.02743647067927105</v>
       </c>
-      <c r="K85" t="n">
+      <c r="O85" t="n">
         <v>0.01566622475786377</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.07412161744750978</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.01613942826939094</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.09682989130917136</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.0146985889355013</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02040583587783382</v>
+        <v>0.02849900553075828</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01477887833929216</v>
+        <v>0.01676019734595141</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02953905850752631</v>
+        <v>0.05948724224302032</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01680839549445537</v>
+        <v>0.01660748052349111</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07803860937304713</v>
+        <v>0.09906337707951413</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01694639968286048</v>
+        <v>0.01656061229994707</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1024429884423992</v>
+        <v>0.02849900553075828</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01543351838227637</v>
+        <v>0.01676019734595141</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02319870171557255</v>
+        <v>0.02981658787085953</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01548263445068702</v>
+        <v>0.01755830198147291</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03189327112150531</v>
+        <v>0.06186360914043657</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01760879527990563</v>
+        <v>0.01739831292937163</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08291872442550505</v>
+        <v>0.1017641474655055</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01775337109633003</v>
+        <v>0.01734921288565883</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1082263238148255</v>
+        <v>0.02981658787085953</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01616844782905143</v>
+        <v>0.01755830198147291</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02297181103780713</v>
+        <v>0.03045069303913338</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01618639056208189</v>
+        <v>0.0183564066169944</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03413968129303402</v>
+        <v>0.06254837182271517</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01840919506535589</v>
+        <v>0.01818914533525217</v>
       </c>
       <c r="L88" t="n">
-        <v>0.08590740062735197</v>
+        <v>0.1046792205158343</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01856034250979958</v>
+        <v>0.01813781347137059</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1144053473781511</v>
+        <v>0.03045069303913338</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0169033772758265</v>
+        <v>0.0183564066169944</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02472064397403956</v>
+        <v>0.03179834512490526</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01689014667347675</v>
+        <v>0.0191545112525159</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03700819666211863</v>
+        <v>0.06483229338383842</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01920959485080614</v>
+        <v>0.0189799777411327</v>
       </c>
       <c r="L89" t="n">
-        <v>0.08965007600105618</v>
+        <v>0.1065022218576628</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01936731392326913</v>
+        <v>0.01892641405708236</v>
       </c>
       <c r="N89" t="n">
-        <v>0.118905509084077</v>
+        <v>0.03179834512490526</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01763830672260156</v>
+        <v>0.0191545112525159</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02344068065377171</v>
+        <v>0.03285656821750071</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01759390278487162</v>
+        <v>0.0199526158880374</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03912872486876527</v>
+        <v>0.06590613691778863</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0200099946362564</v>
+        <v>0.01977081014701322</v>
       </c>
       <c r="L90" t="n">
-        <v>0.094292188569086</v>
+        <v>0.1096267771181529</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02017428533673868</v>
+        <v>0.01971501464279412</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1250522588843039</v>
+        <v>0.03285656821750071</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01837323616937663</v>
+        <v>0.0199526158880374</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02612740120650552</v>
+        <v>0.03402238640624522</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01829765889626648</v>
+        <v>0.02075072052355889</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0420311735529801</v>
+        <v>0.06746066551854799</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02081039442170665</v>
+        <v>0.02056164255289375</v>
       </c>
       <c r="L91" t="n">
-        <v>0.09727917635390992</v>
+        <v>0.1135465119244669</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02098125675020822</v>
+        <v>0.02050361522850589</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1313710467305331</v>
+        <v>0.03402238640624522</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0191081656161517</v>
+        <v>0.02075072052355889</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02477628576174289</v>
+        <v>0.03479282378046424</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01900141500766135</v>
+        <v>0.02154882515908039</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04434545035476929</v>
+        <v>0.06918664228009885</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02161079420715691</v>
+        <v>0.02135247495877428</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09995647737799612</v>
+        <v>0.1168550519037669</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02178822816367777</v>
+        <v>0.02129221581421765</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1357873225744651</v>
+        <v>0.03479282378046424</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01984309506292676</v>
+        <v>0.02154882515908039</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02638281444898574</v>
+        <v>0.03566490442948327</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01970517111905621</v>
+        <v>0.02234692979460189</v>
       </c>
       <c r="J93" t="n">
-        <v>0.046301462914139</v>
+        <v>0.07207483029642342</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02241119399260717</v>
+        <v>0.02214330736465481</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1027695296638131</v>
+        <v>0.1197460226832154</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02259519957714731</v>
+        <v>0.02208081639992942</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1418265363678011</v>
+        <v>0.03566490442948327</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02057802450970182</v>
+        <v>0.02234692979460189</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02794246739773597</v>
+        <v>0.03713565244262776</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02040892723045108</v>
+        <v>0.02314503443012338</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04852911887109537</v>
+        <v>0.073415992661504</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02321159377805742</v>
+        <v>0.02293413977053534</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1042637712338292</v>
+        <v>0.1227130498899742</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02340217099061686</v>
+        <v>0.02286941698564118</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1461141380622418</v>
+        <v>0.03713565244262776</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02131295395647689</v>
+        <v>0.02314503443012338</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02545072473749553</v>
+        <v>0.03810209190922324</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02111268334184594</v>
+        <v>0.02394313906564487</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05045832586564458</v>
+        <v>0.07540089246932291</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02401199356350768</v>
+        <v>0.02372497217641586</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1064846401105127</v>
+        <v>0.1255497591512056</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02420914240408641</v>
+        <v>0.02365801757135295</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1513755776094883</v>
+        <v>0.03810209190922324</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02204788340325195</v>
+        <v>0.02394313906564487</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02690306659776633</v>
+        <v>0.03906124691859522</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02181643945324081</v>
+        <v>0.02474124370116637</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0516189915377928</v>
+        <v>0.07772029281386236</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02481239334895793</v>
+        <v>0.0245158045822964</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1074775743163319</v>
+        <v>0.127849776094072</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02501611381755596</v>
+        <v>0.02444661815706472</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1547363049612414</v>
+        <v>0.03906124691859522</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02278281285002702</v>
+        <v>0.02474124370116637</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02729497310805024</v>
+        <v>0.03991014156006911</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02252019556463567</v>
+        <v>0.02553934833668787</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05264102352754614</v>
+        <v>0.07996495678910465</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02561279313440819</v>
+        <v>0.02530663698817693</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1087880118737554</v>
+        <v>0.1303067263457354</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0258230852310255</v>
+        <v>0.02523521874277648</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1586217700692021</v>
+        <v>0.03991014156006911</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02351774229680208</v>
+        <v>0.02553934833668787</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02662192439784923</v>
+        <v>0.04114579992297047</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02322395167603053</v>
+        <v>0.02633745297220936</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05315432947491081</v>
+        <v>0.08212564748903203</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02641319291985845</v>
+        <v>0.02609746939405745</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1088294979038497</v>
+        <v>0.1345142355333578</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02663005664449505</v>
+        <v>0.02602381932848824</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1614574228850713</v>
+        <v>0.04114579992297047</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02425267174357715</v>
+        <v>0.02633745297220936</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02887940059666519</v>
+        <v>0.04236524609662472</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0239277077874254</v>
+        <v>0.02713555760773086</v>
       </c>
       <c r="J99" t="n">
-        <v>0.052939767923864</v>
+        <v>0.08429312800762678</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0272135927053087</v>
+        <v>0.02688830179993798</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1078303933716952</v>
+        <v>0.1359659292841017</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0274370280579646</v>
+        <v>0.02681241991420001</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1624687133605497</v>
+        <v>0.04236524609662472</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02498760119035221</v>
+        <v>0.02713555760773086</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02706288183400005</v>
+        <v>0.04306550417035739</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02463146389882026</v>
+        <v>0.02793366224325236</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05271537344395598</v>
+        <v>0.08625816143887122</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02801399249075895</v>
+        <v>0.02767913420581851</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1074576876097803</v>
+        <v>0.1397554332251292</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02824399947143414</v>
+        <v>0.02760102049991177</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1639810914473385</v>
+        <v>0.04306550417035739</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02572253063712728</v>
+        <v>0.02793366224325236</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02916784823935571</v>
+        <v>0.04434359823349393</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02533522001021513</v>
+        <v>0.02873176687877385</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05230481961514484</v>
+        <v>0.08801151087674758</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02881439227620921</v>
+        <v>0.02846996661169904</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1072302466019818</v>
+        <v>0.1422763729836024</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02905097088490369</v>
+        <v>0.02838962108562354</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1636381351624346</v>
+        <v>0.04434359823349393</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02645746008390235</v>
+        <v>0.02873176687877385</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02719014215073118</v>
+        <v>0.04509655237535988</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02603897612160999</v>
+        <v>0.02952987151429535</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05221887783226148</v>
+        <v>0.08984393941523816</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02961479206165947</v>
+        <v>0.02926079901757957</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1066669363321763</v>
+        <v>0.1441223741866835</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02985794229837323</v>
+        <v>0.0291782216713353</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1641301722641896</v>
+        <v>0.04509655237535988</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02719238953067741</v>
+        <v>0.02952987151429535</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03013685984671065</v>
+        <v>0.04602139068528066</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02674273223300486</v>
+        <v>0.03032797614981684</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05216831949013676</v>
+        <v>0.09134621014832517</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03041519184710972</v>
+        <v>0.0300516314234601</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1059866227842409</v>
+        <v>0.1473870624615347</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03066491371184278</v>
+        <v>0.02996682225704706</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1632613616216033</v>
+        <v>0.04602139068528066</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02792731897745248</v>
+        <v>0.03032797614981684</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02701822850937483</v>
+        <v>0.04691513725258181</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02744648834439972</v>
+        <v>0.03112608078533834</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05136391598360154</v>
+        <v>0.09410908616999086</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03121559163255998</v>
+        <v>0.03084246382934063</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1050081719420523</v>
+        <v>0.1488640634353182</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03147188512531233</v>
+        <v>0.03075542284275883</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1632579270318654</v>
+        <v>0.04691513725258181</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02866224842422754</v>
+        <v>0.03112608078533834</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02984212368554834</v>
+        <v>0.04757481616658878</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02815024445579459</v>
+        <v>0.03192418542085983</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05111643870748669</v>
+        <v>0.09582333057421766</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03201599141801024</v>
+        <v>0.03163329623522116</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1037504497894872</v>
+        <v>0.1517470027351962</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03227885653878187</v>
+        <v>0.0315440234284706</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1617460922921651</v>
+        <v>0.04757481616658878</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02939717787100261</v>
+        <v>0.03192418542085983</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02661642092205582</v>
+        <v>0.04879745151662704</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02885400056718945</v>
+        <v>0.03272229005638133</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0508366590566231</v>
+        <v>0.0970797064549877</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03281639120346049</v>
+        <v>0.03242412864110169</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1024323223104224</v>
+        <v>0.1531295059883308</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03308582795225143</v>
+        <v>0.03233262401418237</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1609520811996918</v>
+        <v>0.04879745151662704</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03013210731777767</v>
+        <v>0.03272229005638133</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02634899576572189</v>
+        <v>0.04958006739202214</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02955775667858431</v>
+        <v>0.03352039469190283</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05003534842584162</v>
+        <v>0.09946897690628337</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03361679098891075</v>
+        <v>0.03321496104698221</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1016726554887347</v>
+        <v>0.1550051988218843</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03389279936572097</v>
+        <v>0.03312122459989413</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1584021175516352</v>
+        <v>0.04958006739202214</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03086703676455274</v>
+        <v>0.03352039469190283</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02604772376337118</v>
+        <v>0.05031968788209951</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03026151278997918</v>
+        <v>0.03431849932742432</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04942327820997311</v>
+        <v>0.1009819050220869</v>
       </c>
       <c r="K108" t="n">
-        <v>0.034417190774361</v>
+        <v>0.03400579345286275</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1003903153083011</v>
+        <v>0.1585677068630189</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03469977077919052</v>
+        <v>0.0339098251856059</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1573224251451846</v>
+        <v>0.05031968788209951</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0316019662113278</v>
+        <v>0.03431849932742432</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02572048046182833</v>
+        <v>0.05111333707618466</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03096526890137405</v>
+        <v>0.03511660396294582</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04901121980384845</v>
+        <v>0.1033092538963804</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03521759055981126</v>
+        <v>0.03479662585874327</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0994041677529981</v>
+        <v>0.1596106557388965</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03550674219266006</v>
+        <v>0.03469842577131766</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1560392277775295</v>
+        <v>0.05111333707618466</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03233689565810287</v>
+        <v>0.03511660396294582</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02737514140791794</v>
+        <v>0.05165803906360306</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03166902501276891</v>
+        <v>0.03591470859846731</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04880994460229851</v>
+        <v>0.1039417866231464</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03601799034526152</v>
+        <v>0.0355874582646238</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09883307880670267</v>
+        <v>0.1612276710766796</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03631371360612962</v>
+        <v>0.03548702635702942</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1550787492458593</v>
+        <v>0.05165803906360306</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03307182510487793</v>
+        <v>0.03591470859846731</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02701958214846469</v>
+        <v>0.05225081793368021</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03237278112416377</v>
+        <v>0.0367128132339888</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04803022400015415</v>
+        <v>0.105970266296367</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03681839013071177</v>
+        <v>0.03637829067050433</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09719591445329157</v>
+        <v>0.1621123785035303</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03712068501959916</v>
+        <v>0.03627562694274119</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1530672133473635</v>
+        <v>0.05225081793368021</v>
       </c>
       <c r="O111" t="n">
-        <v>0.033806754551653</v>
+        <v>0.0367128132339888</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02566167823029317</v>
+        <v>0.05278869777574159</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03307653723555864</v>
+        <v>0.03751091786951031</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04738282939224624</v>
+        <v>0.1074854560100245</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03761878991616202</v>
+        <v>0.03716912307638486</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09681154067664149</v>
+        <v>0.1648584036466107</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0379276564330687</v>
+        <v>0.03706422752845295</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1512308438792315</v>
+        <v>0.05278869777574159</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03454168399842807</v>
+        <v>0.03751091786951031</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02630930520022802</v>
+        <v>0.05296870267911269</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0337802933469535</v>
+        <v>0.0383090225050318</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04727853217340565</v>
+        <v>0.1084781188581013</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03841918970161228</v>
+        <v>0.03795995548226539</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0952988234606294</v>
+        <v>0.1656593721330831</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03873462784653826</v>
+        <v>0.03785282811416472</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1506958646386527</v>
+        <v>0.05296870267911269</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03527661344520313</v>
+        <v>0.0383090225050318</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02597033860509387</v>
+        <v>0.05328785673311896</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03448404945834837</v>
+        <v>0.0391071271405533</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04712810373846325</v>
+        <v>0.1088390179345795</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03921958948706254</v>
+        <v>0.03875078788814592</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09457662878913198</v>
+        <v>0.1670089095901097</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0395415992600078</v>
+        <v>0.03864142869987648</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1482884994228166</v>
+        <v>0.05328785673311896</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03601154289197819</v>
+        <v>0.0391071271405533</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02365265399171534</v>
+        <v>0.05374318402708593</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03518780556974323</v>
+        <v>0.03990523177607479</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04644231548224992</v>
+        <v>0.1096589163334415</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0400199892725128</v>
+        <v>0.03954162029402645</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09386382264602611</v>
+        <v>0.1681006416448524</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04034857067347735</v>
+        <v>0.03943002928558825</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1466349720289127</v>
+        <v>0.05374318402708593</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03674647233875326</v>
+        <v>0.03990523177607479</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02536412690691706</v>
+        <v>0.05443170865033907</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0358915616811381</v>
+        <v>0.04070333641159629</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04613193879959648</v>
+        <v>0.1109285771486694</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04082038905796305</v>
+        <v>0.04033245269990698</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09307927101518848</v>
+        <v>0.1685281939244737</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04115554208694689</v>
+        <v>0.04021862987130001</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1452615062541304</v>
+        <v>0.05443170865033907</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03748140178552833</v>
+        <v>0.04070333641159629</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02411263289752368</v>
+        <v>0.05465045469220388</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03659531779253296</v>
+        <v>0.04150144104711778</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04640774508533387</v>
+        <v>0.1116387634742457</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0416207888434133</v>
+        <v>0.0411232851057875</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09294183988049587</v>
+        <v>0.1690851920561358</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04196251350041644</v>
+        <v>0.04100723045701177</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1432943258956592</v>
+        <v>0.05465045469220388</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03821633123230339</v>
+        <v>0.04150144104711778</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02590604751035981</v>
+        <v>0.05459644624200582</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03729907390392782</v>
+        <v>0.04229954568263928</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04648001239681673</v>
+        <v>0.1122802384041526</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04242118862886356</v>
+        <v>0.04191411751166804</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09337039522582524</v>
+        <v>0.1700652616670005</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04276948491388599</v>
+        <v>0.04179583104272354</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1418596547506885</v>
+        <v>0.05459644624200582</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03895126067907845</v>
+        <v>0.04229954568263928</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02375224629225009</v>
+        <v>0.05487294135854208</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0380028300153227</v>
+        <v>0.04309765031816078</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04644258561397387</v>
+        <v>0.112921160275459</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04322158841431382</v>
+        <v>0.04270494991754856</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09258378373825266</v>
+        <v>0.170969379192376</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04357645632735554</v>
+        <v>0.0425844316284353</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1420837166164076</v>
+        <v>0.05487294135854208</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03968619012585352</v>
+        <v>0.04309765031816078</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02365910479001913</v>
+        <v>0.05477185286931573</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03870658612671755</v>
+        <v>0.04389575495368227</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04658449588537003</v>
+        <v>0.1124210919110758</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04402198819976407</v>
+        <v>0.04349578232342909</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09288845901543319</v>
+        <v>0.1705691178349875</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04438342774082508</v>
+        <v>0.04337303221414707</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1401927352900063</v>
+        <v>0.05477185286931573</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04042111957262858</v>
+        <v>0.04389575495368227</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02563385982942148</v>
+        <v>0.05486529178906112</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03941034223811242</v>
+        <v>0.04469385958920377</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04659832616762224</v>
+        <v>0.1123134593885239</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04482238798521433</v>
+        <v>0.04428661472930962</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09296940652253133</v>
+        <v>0.1697499793390667</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04519039915429462</v>
+        <v>0.04416163279985884</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1396129345686736</v>
+        <v>0.05486529178906112</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04115604901940365</v>
+        <v>0.04469385958920377</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0246513892490359</v>
+        <v>0.0544528524056076</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04011409834950729</v>
+        <v>0.04549196422472526</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04687665941734745</v>
+        <v>0.1128933142423553</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04562278777066459</v>
+        <v>0.04507744713519015</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09321137585397093</v>
+        <v>0.1701884314971454</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04599737056776418</v>
+        <v>0.0449502333855706</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1399705382495994</v>
+        <v>0.0544528524056076</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04189097846617871</v>
+        <v>0.04549196422472526</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02569425957805326</v>
+        <v>0.05473459871020847</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04081785446090215</v>
+        <v>0.04629006886024676</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04711207859116266</v>
+        <v>0.1119608326590513</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04642318755611484</v>
+        <v>0.04586827954107068</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0946991166041759</v>
+        <v>0.1699861501417501</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04680434198123373</v>
+        <v>0.04573883397128237</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1387917701299728</v>
+        <v>0.05473459871020847</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04262590791295378</v>
+        <v>0.04629006886024676</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02276099645886824</v>
+        <v>0.05471059469411703</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04152161057229702</v>
+        <v>0.04708817349576826</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04759716664568489</v>
+        <v>0.1122161908250935</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04722358734156509</v>
+        <v>0.04665911194695121</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09511737836756989</v>
+        <v>0.1695446078437195</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04761131339470327</v>
+        <v>0.04652743455699413</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1386687733445168</v>
+        <v>0.05471059469411703</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04336083735972884</v>
+        <v>0.04708817349576826</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0248501255338755</v>
+        <v>0.05448090434858653</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04222536668369188</v>
+        <v>0.04788627813128975</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04812450653753107</v>
+        <v>0.1125595649269634</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04802398712701535</v>
+        <v>0.04744994435283173</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09585091073857699</v>
+        <v>0.1702652771738922</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04841828480817282</v>
+        <v>0.0473160351427059</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1403488810949929</v>
+        <v>0.05448090434858653</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04409576680650391</v>
+        <v>0.04788627813128975</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02596017244546972</v>
+        <v>0.0543455916648703</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04292912279508674</v>
+        <v>0.04868438276681125</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04858668122331827</v>
+        <v>0.1117911311511424</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04882438691246561</v>
+        <v>0.04824077675871227</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09638446331162093</v>
+        <v>0.169249630703107</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04922525622164237</v>
+        <v>0.04810463572841767</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1406173353181936</v>
+        <v>0.0543455916648703</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04483069625327898</v>
+        <v>0.04868438276681125</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02608966283604558</v>
+        <v>0.05430472063422156</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04363287890648161</v>
+        <v>0.04948248740233274</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04887627365966343</v>
+        <v>0.111911065684112</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04962478669791587</v>
+        <v>0.04903160916459279</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09760278568112568</v>
+        <v>0.1685991410022026</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05003222763511191</v>
+        <v>0.04889323631412943</v>
       </c>
       <c r="N127" t="n">
-        <v>0.140960037796848</v>
+        <v>0.05430472063422156</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04556562570005404</v>
+        <v>0.04948248740233274</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02523712234799773</v>
+        <v>0.05465835524789367</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04433663501787647</v>
+        <v>0.05028059203785424</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04928586680318356</v>
+        <v>0.1123195447123538</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05042518648336611</v>
+        <v>0.04982244157047332</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09859062744151487</v>
+        <v>0.1687152806420176</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05083919904858145</v>
+        <v>0.04968183689984119</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1420628903136855</v>
+        <v>0.05465835524789367</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0463005551468291</v>
+        <v>0.05028059203785424</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02440107662372086</v>
+        <v>0.05440655949713985</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04504039112927134</v>
+        <v>0.05107869667337574</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04990804361049564</v>
+        <v>0.1116167444223492</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05122558626881638</v>
+        <v>0.05061327397635385</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09963273818721263</v>
+        <v>0.1688995221933908</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05164617046205101</v>
+        <v>0.05047043748555296</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1428117946514355</v>
+        <v>0.05440655949713985</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04703548459360417</v>
+        <v>0.05107869667337574</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02558005130560963</v>
+        <v>0.05404939737321345</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0457441472406662</v>
+        <v>0.05187680130889723</v>
       </c>
       <c r="J130" t="n">
-        <v>0.05083538703821665</v>
+        <v>0.1115028410005796</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05202598605426664</v>
+        <v>0.05140410638223438</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1013138675126427</v>
+        <v>0.1675533382271608</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05245314187552055</v>
+        <v>0.05125903807126472</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1435926525928272</v>
+        <v>0.05404939737321345</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04777041404037924</v>
+        <v>0.05187680130889723</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02377257203605872</v>
+        <v>0.0540869328673677</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04644790335206107</v>
+        <v>0.05267490594441872</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05096048004296361</v>
+        <v>0.1119780106335266</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0528263858397169</v>
+        <v>0.05219493878811491</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1023187650122289</v>
+        <v>0.1682782013141664</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0532601132889901</v>
+        <v>0.05204763865697649</v>
       </c>
       <c r="N131" t="n">
-        <v>0.14539136592059</v>
+        <v>0.0540869328673677</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0485053434871543</v>
+        <v>0.05267490594441872</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02697716445746279</v>
+        <v>0.05431922997085589</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04715165946345593</v>
+        <v>0.05347301057994022</v>
       </c>
       <c r="J132" t="n">
-        <v>0.05177590558135346</v>
+        <v>0.1114424295076717</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05362678562516714</v>
+        <v>0.05298577119399544</v>
       </c>
       <c r="L132" t="n">
-        <v>0.103532180280395</v>
+        <v>0.1677755840252462</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05406708470245965</v>
+        <v>0.05283623924268826</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1463938364174534</v>
+        <v>0.05431922997085589</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04924027293392937</v>
+        <v>0.05347301057994022</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0261923542122165</v>
+        <v>0.05434635267493135</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04785541557485079</v>
+        <v>0.05427111521546171</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05207424661000326</v>
+        <v>0.1118962738094963</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0544271854106174</v>
+        <v>0.05377660359987596</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1043388629115651</v>
+        <v>0.1671469589312392</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05487405611592919</v>
+        <v>0.05362483982840002</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1482859658661465</v>
+        <v>0.05434635267493135</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04997520238070443</v>
+        <v>0.05427111521546171</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02741666694271455</v>
+        <v>0.05386836497084732</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04855917168624566</v>
+        <v>0.05506921985098322</v>
       </c>
       <c r="J134" t="n">
-        <v>0.05234808608552993</v>
+        <v>0.1116397197254819</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05522758519606766</v>
+        <v>0.05456743600575649</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1057235625001628</v>
+        <v>0.1662937986029837</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05568102752939873</v>
+        <v>0.05441344041411179</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1483536560493987</v>
+        <v>0.05386836497084732</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0507101318274795</v>
+        <v>0.05506921985098322</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02764862829135159</v>
+        <v>0.05388533084985711</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04926292779764053</v>
+        <v>0.05586732448650471</v>
       </c>
       <c r="J135" t="n">
-        <v>0.05319000696455053</v>
+        <v>0.11157294344211</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0560279849815179</v>
+        <v>0.05535826841163703</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1071710286406122</v>
+        <v>0.1655175756113185</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05648799894286829</v>
+        <v>0.05520204099982354</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1511828087499394</v>
+        <v>0.05388533084985711</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05144506127425456</v>
+        <v>0.05586732448650471</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0248867639005223</v>
+        <v>0.05409731430321399</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04996668390903539</v>
+        <v>0.0566654291220262</v>
       </c>
       <c r="J136" t="n">
-        <v>0.05339259220368202</v>
+        <v>0.110996121145862</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05682838476696817</v>
+        <v>0.05614910081751755</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1076660109273371</v>
+        <v>0.1647197625270825</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05729497035633783</v>
+        <v>0.05599064158553532</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1527593257504979</v>
+        <v>0.05409731430321399</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05217999072102963</v>
+        <v>0.0566654291220262</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02512959941262133</v>
+        <v>0.05350437932217127</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05067044002043025</v>
+        <v>0.0574635337575477</v>
       </c>
       <c r="J137" t="n">
-        <v>0.05384842475954134</v>
+        <v>0.1109094290232196</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05762878455241843</v>
+        <v>0.05693993322339808</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1095932589547612</v>
+        <v>0.1642018319211143</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05810194176980738</v>
+        <v>0.05677924217124707</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1532691088338036</v>
+        <v>0.05350437932217127</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05291492016780469</v>
+        <v>0.0574635337575477</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02637566047004337</v>
+        <v>0.05390658989798219</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05137419613182512</v>
+        <v>0.05826163839306919</v>
       </c>
       <c r="J138" t="n">
-        <v>0.05405008758874556</v>
+        <v>0.1105130432606641</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05842918433786868</v>
+        <v>0.05773076562927861</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1097375223173083</v>
+        <v>0.1645652563642525</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05890891318327694</v>
+        <v>0.05756784275695884</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1559980597825858</v>
+        <v>0.05390658989798219</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05364984961457975</v>
+        <v>0.05826163839306919</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0266234727151831</v>
+        <v>0.05380401002190009</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05207795224321998</v>
+        <v>0.0590597430285907</v>
       </c>
       <c r="J139" t="n">
-        <v>0.05409016364791164</v>
+        <v>0.109707140044677</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05922958412331894</v>
+        <v>0.05852159803515913</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1112835506094025</v>
+        <v>0.164311508427336</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05971588459674647</v>
+        <v>0.0583564433426706</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1572320803795739</v>
+        <v>0.05380401002190009</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05438477906135482</v>
+        <v>0.0590597430285907</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02687156179043516</v>
+        <v>0.0535967036851782</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05278170835461485</v>
+        <v>0.05985784766411219</v>
       </c>
       <c r="J140" t="n">
-        <v>0.05476123589365657</v>
+        <v>0.1096918955617397</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06002998390876919</v>
+        <v>0.05931243044103968</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1121160934254677</v>
+        <v>0.1629420606812033</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06052285601021602</v>
+        <v>0.05914504392838237</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1581570724074971</v>
+        <v>0.0535967036851782</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05511970850812988</v>
+        <v>0.05985784766411219</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02811845333819425</v>
+        <v>0.05358473487906985</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05348546446600971</v>
+        <v>0.06065595229963369</v>
       </c>
       <c r="J141" t="n">
-        <v>0.05487294135854208</v>
+        <v>0.110167485998334</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06083038369421945</v>
+        <v>0.0601032628469202</v>
       </c>
       <c r="L141" t="n">
-        <v>0.112921160275459</v>
+        <v>0.1636583856966933</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06132982742368557</v>
+        <v>0.05993364451409413</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1609589376490849</v>
+        <v>0.05358473487906985</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05585463795490495</v>
+        <v>0.06065595229963369</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02736267300085503</v>
+        <v>0.05336816759482831</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05418922057740459</v>
+        <v>0.06145405693515518</v>
       </c>
       <c r="J142" t="n">
-        <v>0.05467239370666435</v>
+        <v>0.1099340875409411</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06163078347966971</v>
+        <v>0.06089409525280073</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1123563360721654</v>
+        <v>0.1630619560446445</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06213679883715512</v>
+        <v>0.0607222450998059</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1617235778870665</v>
+        <v>0.05336816759482831</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05658956740168002</v>
+        <v>0.06145405693515518</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02960274642081215</v>
+        <v>0.05324706582370686</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05489297668879944</v>
+        <v>0.06225216157067667</v>
       </c>
       <c r="J143" t="n">
-        <v>0.05446564139960142</v>
+        <v>0.1091918763760424</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06243118326511995</v>
+        <v>0.06168492765868126</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1134961217880752</v>
+        <v>0.1607542442958957</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06294377025062467</v>
+        <v>0.06151084568551766</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1637368949041713</v>
+        <v>0.05324706582370686</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05732449684845508</v>
+        <v>0.06225216157067667</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02783719924046033</v>
+        <v>0.0530214935569588</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0555967328001943</v>
+        <v>0.06305026620619818</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0546514491829441</v>
+        <v>0.1093410286901197</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06323158305057021</v>
+        <v>0.06247576006456178</v>
       </c>
       <c r="L144" t="n">
-        <v>0.113736985541075</v>
+        <v>0.1614367230212856</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06375074166409421</v>
+        <v>0.06229944627122943</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1641847904831287</v>
+        <v>0.0530214935569588</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05805942629523014</v>
+        <v>0.06305026620619818</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03006455710219418</v>
+        <v>0.0526915147858374</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05630048891158917</v>
+        <v>0.06384837084171967</v>
       </c>
       <c r="J145" t="n">
-        <v>0.05433014223297912</v>
+        <v>0.1089817206696543</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06403198283602048</v>
+        <v>0.06326659247044232</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1140766549483988</v>
+        <v>0.160010864791653</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06455771307756375</v>
+        <v>0.06308804685694119</v>
       </c>
       <c r="N145" t="n">
-        <v>0.165953166406668</v>
+        <v>0.0526915147858374</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05879435574200521</v>
+        <v>0.06384837084171967</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02828334564840841</v>
+        <v>0.05275719350159594</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05700424502298404</v>
+        <v>0.06464647547724116</v>
       </c>
       <c r="J146" t="n">
-        <v>0.05440204572599318</v>
+        <v>0.1089141285011277</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06483238262147073</v>
+        <v>0.06405742487632285</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1155128576272805</v>
+        <v>0.1603781421778364</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0653646844910333</v>
+        <v>0.06387664744265296</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1683279244575185</v>
+        <v>0.05275719350159594</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05952928518878028</v>
+        <v>0.06464647547724116</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03049209052149769</v>
+        <v>0.05251859369548773</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05770800113437891</v>
+        <v>0.06544458011276266</v>
       </c>
       <c r="J147" t="n">
-        <v>0.05426748483827294</v>
+        <v>0.1086384283710213</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06563278240692098</v>
+        <v>0.06484825728220338</v>
       </c>
       <c r="L147" t="n">
-        <v>0.115143321194954</v>
+        <v>0.1586400277506747</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06617165590450286</v>
+        <v>0.06466524802836474</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1693949664184095</v>
+        <v>0.05251859369548773</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06026421463555534</v>
+        <v>0.06544458011276266</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03068931736385666</v>
+        <v>0.05257577935876602</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05841175724577376</v>
+        <v>0.06624268474828417</v>
       </c>
       <c r="J148" t="n">
-        <v>0.05462678474610516</v>
+        <v>0.1075547964658168</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06643318219237124</v>
+        <v>0.06563908968808389</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1159657732686533</v>
+        <v>0.1581979940810064</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0669786273179724</v>
+        <v>0.06545384861407649</v>
       </c>
       <c r="N148" t="n">
-        <v>0.170969379192376</v>
+        <v>0.05257577935876602</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0609991440823304</v>
+        <v>0.06624268474828417</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02887355181788002</v>
+        <v>0.05232881448268413</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05911551335716863</v>
+        <v>0.06704078938380566</v>
       </c>
       <c r="J149" t="n">
-        <v>0.05468027062577652</v>
+        <v>0.1073634089719954</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06723358197782149</v>
+        <v>0.06642992209396442</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1166779414656122</v>
+        <v>0.1579535137396704</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06778559873144194</v>
+        <v>0.06624244919978826</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1702744686062714</v>
+        <v>0.05232881448268413</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06173407352910548</v>
+        <v>0.06704078938380566</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03004331952596245</v>
+        <v>0.05207776305849535</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05981926946856349</v>
+        <v>0.06783889401932715</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0545282676535737</v>
+        <v>0.1076644420760388</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06803398176327176</v>
+        <v>0.06722075449984496</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1168775534030648</v>
+        <v>0.1579080592975053</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06859257014491149</v>
+        <v>0.06703104978550002</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1712125381460298</v>
+        <v>0.05207776305849535</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06246900297588054</v>
+        <v>0.06783889401932715</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03019714613049859</v>
+        <v>0.05172268907745292</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06052302557995836</v>
+        <v>0.06863699865484864</v>
       </c>
       <c r="J151" t="n">
-        <v>0.05447110100578341</v>
+        <v>0.1071580719644285</v>
       </c>
       <c r="K151" t="n">
-        <v>0.068834381548722</v>
+        <v>0.06801158690572549</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1176623366982449</v>
+        <v>0.1570631033253498</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06939954155838104</v>
+        <v>0.06781965037121179</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1717677747315121</v>
+        <v>0.05172268907745292</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06320393242265561</v>
+        <v>0.06863699865484864</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03135231715203138</v>
+        <v>0.05196365653081016</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06122678169135323</v>
+        <v>0.06943510329037013</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05420909585869239</v>
+        <v>0.1063444748236458</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06963478133417227</v>
+        <v>0.06880241931160602</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1179300189683863</v>
+        <v>0.1556201183940427</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07020651297185058</v>
+        <v>0.06860825095692355</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1733368634786647</v>
+        <v>0.05196365653081016</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06393886186943067</v>
+        <v>0.06943510329037013</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.028458772566088</v>
+        <v>0.05180072940982035</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0619305378027481</v>
+        <v>0.07023320792589165</v>
       </c>
       <c r="J153" t="n">
-        <v>0.05394257738858729</v>
+        <v>0.1061238268401723</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07043518111962252</v>
+        <v>0.06959325171748654</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1188783278307233</v>
+        <v>0.1549805770744225</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07101348438532012</v>
+        <v>0.06939685154263532</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1741164895034341</v>
+        <v>0.05180072940982035</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06467379131620574</v>
+        <v>0.07023320792589165</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02858530757299062</v>
+        <v>0.05133397170573677</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06263429391414295</v>
+        <v>0.07103131256141314</v>
       </c>
       <c r="J154" t="n">
-        <v>0.05427187077175483</v>
+        <v>0.1063963042004895</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07123558090507277</v>
+        <v>0.07038408412336707</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1189049909024896</v>
+        <v>0.1554459519373281</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07182045579878968</v>
+        <v>0.07018545212834708</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1754033379217669</v>
+        <v>0.05133397170573677</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06540872076298081</v>
+        <v>0.07103131256141314</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03171308594813445</v>
+        <v>0.0510634474098127</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06333805002553781</v>
+        <v>0.07182941719693463</v>
       </c>
       <c r="J155" t="n">
-        <v>0.05419730118448171</v>
+        <v>0.1053620830910788</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07203598069052304</v>
+        <v>0.07117491652924761</v>
       </c>
       <c r="L155" t="n">
-        <v>0.119307735800919</v>
+        <v>0.1545101612916409</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07262742721225923</v>
+        <v>0.07097405271405885</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1769940938496093</v>
+        <v>0.0510634474098127</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06614365020975586</v>
+        <v>0.07182941719693463</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02984179932889194</v>
+        <v>0.05128922051330143</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06404180613693268</v>
+        <v>0.07262752183245612</v>
       </c>
       <c r="J156" t="n">
-        <v>0.05381919380305464</v>
+        <v>0.1058213396984218</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07283638047597328</v>
+        <v>0.07196574893512814</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1200842901432457</v>
+        <v>0.1539140253981943</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07343439862572877</v>
+        <v>0.07176265329977061</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1770854424029082</v>
+        <v>0.05128922051330143</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06687857965653093</v>
+        <v>0.07262752183245612</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03197113935263554</v>
+        <v>0.05101135500745625</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06474556224832755</v>
+        <v>0.07342562646797761</v>
       </c>
       <c r="J157" t="n">
-        <v>0.05373787380376031</v>
+        <v>0.1050742502089998</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07363678026142355</v>
+        <v>0.07275658134100867</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1203323815467034</v>
+        <v>0.1523480857773349</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07424137003919833</v>
+        <v>0.07255125388548238</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1776740686976097</v>
+        <v>0.05101135500745625</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06761350910330599</v>
+        <v>0.07342562646797761</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0301007976567377</v>
+        <v>0.05102991488353047</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06544931835972241</v>
+        <v>0.07422373110349911</v>
       </c>
       <c r="J158" t="n">
-        <v>0.05385366636288542</v>
+        <v>0.1051209908092945</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0744371800468738</v>
+        <v>0.07354741374688918</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1207497376285263</v>
+        <v>0.1518165949998429</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07504834145266787</v>
+        <v>0.07333985447119414</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1801566578496602</v>
+        <v>0.05102991488353047</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06834843855008106</v>
+        <v>0.07422373110349911</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02923046587857082</v>
+        <v>0.05034496413277732</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06615307447111728</v>
+        <v>0.07502183573902062</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0535668966567167</v>
+        <v>0.1047617376857872</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07523757983232404</v>
+        <v>0.07433824615276971</v>
       </c>
       <c r="L159" t="n">
-        <v>0.120534086005948</v>
+        <v>0.1515238056364984</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07585531286613741</v>
+        <v>0.07412845505690591</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1801298949750064</v>
+        <v>0.05034496413277732</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06908336799685613</v>
+        <v>0.07502183573902062</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02935983565550737</v>
+        <v>0.05065656674645014</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06685683058251214</v>
+        <v>0.07581994037454211</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05367788986154082</v>
+        <v>0.1041966670249594</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07603797961777431</v>
+        <v>0.07512907855865025</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1206831542962026</v>
+        <v>0.1494739702580814</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07666228427960696</v>
+        <v>0.07491705564261766</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1807904651895946</v>
+        <v>0.05065656674645014</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06981829744363119</v>
+        <v>0.07581994037454211</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03048859862491977</v>
+        <v>0.04996478671580218</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06756058669390701</v>
+        <v>0.0766180450100636</v>
       </c>
       <c r="J161" t="n">
-        <v>0.05358697115364448</v>
+        <v>0.1036259550132927</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07683837940322456</v>
+        <v>0.07591991096453078</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1216946701165242</v>
+        <v>0.1479713414353723</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07746925569307651</v>
+        <v>0.07570565622832943</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1822350536093714</v>
+        <v>0.04996478671580218</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07055322689040626</v>
+        <v>0.0766180450100636</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0296164464241805</v>
+        <v>0.04986968803208673</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06826434280530187</v>
+        <v>0.07741614964558509</v>
       </c>
       <c r="J162" t="n">
-        <v>0.05369446570931441</v>
+        <v>0.1028497778372686</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07763877918867483</v>
+        <v>0.07671074337041131</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1217663610841464</v>
+        <v>0.148420171739151</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07827622710654607</v>
+        <v>0.07649425681404121</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1834603453502833</v>
+        <v>0.04986968803208673</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07128815633718133</v>
+        <v>0.07741614964558509</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03174307069066197</v>
+        <v>0.04987133468655706</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06896809891669674</v>
+        <v>0.07821425428110659</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0536006987048373</v>
+        <v>0.1031683116833684</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07843917897412508</v>
+        <v>0.07750157577629184</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1215959548163033</v>
+        <v>0.1463247137401979</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07908319852001559</v>
+        <v>0.07728285739975296</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1837630255282765</v>
+        <v>0.04987133468655706</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07202308578395639</v>
+        <v>0.07821425428110659</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03186816306173661</v>
+        <v>0.04976979067046651</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06967185502809159</v>
+        <v>0.0790123589166281</v>
       </c>
       <c r="J164" t="n">
-        <v>0.05330599531649982</v>
+        <v>0.1024817327380738</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07923957875957532</v>
+        <v>0.07829240818217235</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1217811789302288</v>
+        <v>0.144689220009293</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07989016993348515</v>
+        <v>0.07807145798546473</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1843397792592977</v>
+        <v>0.04976979067046651</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07275801523073146</v>
+        <v>0.0790123589166281</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02999141517477688</v>
+        <v>0.04916511997506832</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07037561113948647</v>
+        <v>0.07981046355214959</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05311068072058872</v>
+        <v>0.1015902171878661</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08003997854502559</v>
+        <v>0.0790832405880529</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1221197610431569</v>
+        <v>0.1436179431172165</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0806971413469547</v>
+        <v>0.07886005857117649</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1863872916592933</v>
+        <v>0.04916511997506832</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07349294467750651</v>
+        <v>0.07981046355214959</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03011251866715524</v>
+        <v>0.04905738659161579</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07107936725088133</v>
+        <v>0.08060856818767108</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05311508009339065</v>
+        <v>0.1018932744511067</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08084037833047585</v>
+        <v>0.07987407299393343</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1210995196505351</v>
+        <v>0.1428151356347486</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08150411276042424</v>
+        <v>0.07964865915688826</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1871022478442097</v>
+        <v>0.04905738659161579</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07422787412428158</v>
+        <v>0.08060856818767108</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03223116517624409</v>
+        <v>0.04894665451136219</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0717831233622762</v>
+        <v>0.08140667282319258</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05281951861119237</v>
+        <v>0.1016181300843861</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0816407781159261</v>
+        <v>0.08066490539981395</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1219934883330254</v>
+        <v>0.1422850501326693</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08231108417389378</v>
+        <v>0.08043725974260002</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1867813329299935</v>
+        <v>0.04894665451136219</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07496280357105665</v>
+        <v>0.08140667282319258</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0313470463394159</v>
+        <v>0.04903298772556082</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07248687947367106</v>
+        <v>0.08220477745871407</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05282432145028053</v>
+        <v>0.1010232947648599</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08244117790137635</v>
+        <v>0.08145573780569448</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1214047570323307</v>
+        <v>0.1411319391817589</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08311805558736333</v>
+        <v>0.08122586032831179</v>
       </c>
       <c r="N168" t="n">
-        <v>0.188921232032591</v>
+        <v>0.04903298772556082</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07569773301783171</v>
+        <v>0.08220477745871407</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03045985379404308</v>
+        <v>0.04871645022546496</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07319063558506592</v>
+        <v>0.08300288209423556</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05252981378694184</v>
+        <v>0.09971989221348493</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08324157768682661</v>
+        <v>0.082246570211575</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1207382462817989</v>
+        <v>0.1399600553527974</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08392502700083289</v>
+        <v>0.08201446091402355</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1896186302679488</v>
+        <v>0.04871645022546496</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07643266246460678</v>
+        <v>0.08300288209423556</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03156927917749811</v>
+        <v>0.04819710600232791</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07389439169646078</v>
+        <v>0.08380098672975707</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05283632079746305</v>
+        <v>0.09911904615121769</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08404197747227687</v>
+        <v>0.08303740261745554</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1207988766147776</v>
+        <v>0.1381736512165652</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08473199841430243</v>
+        <v>0.08280306149973532</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1896702127520133</v>
+        <v>0.04819710600232791</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07716759191138185</v>
+        <v>0.08380098672975707</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03167501412715339</v>
+        <v>0.04837501904740293</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07459814780785565</v>
+        <v>0.08459909136527856</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05264416765813078</v>
+        <v>0.09863188029901487</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08484237725772713</v>
+        <v>0.08382823502333607</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1200915685646148</v>
+        <v>0.1367769793438423</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08553896982777198</v>
+        <v>0.08359166208544708</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1903726646007309</v>
+        <v>0.04837501904740293</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07790252135815691</v>
+        <v>0.08459909136527856</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03377675028038138</v>
+        <v>0.04764885954831442</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07530190391925051</v>
+        <v>0.08539719600080006</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05245367954523181</v>
+        <v>0.09746951837783302</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08564277704317738</v>
+        <v>0.0846190674292166</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1200212426646579</v>
+        <v>0.1352742923054089</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08634594124124152</v>
+        <v>0.08438026267115885</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1912226709300482</v>
+        <v>0.04764885954831442</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07863745080493197</v>
+        <v>0.08539719600080006</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03187417927455453</v>
+        <v>0.04746850906993205</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07600566003064539</v>
+        <v>0.08619530063632155</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05266518163505281</v>
+        <v>0.09674308410862881</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08644317682862764</v>
+        <v>0.08540989983509713</v>
       </c>
       <c r="L173" t="n">
-        <v>0.119692819448255</v>
+        <v>0.134669842672045</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08715291265471108</v>
+        <v>0.08516886325687061</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1904169168559116</v>
+        <v>0.04746850906993205</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07937238025170704</v>
+        <v>0.08619530063632155</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03296699274704527</v>
+        <v>0.04731501214286235</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07670941614204026</v>
+        <v>0.08699340527184304</v>
       </c>
       <c r="J174" t="n">
-        <v>0.05217899910388046</v>
+        <v>0.09536370121235899</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08724357661407789</v>
+        <v>0.08620073224097764</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1187112194487535</v>
+        <v>0.132767883014531</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08795988406818062</v>
+        <v>0.08595746384258238</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1921520874942675</v>
+        <v>0.04731501214286235</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08010730969848209</v>
+        <v>0.08699340527184304</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03205488233522605</v>
+        <v>0.04659679499842828</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07741317225343511</v>
+        <v>0.08779150990736455</v>
       </c>
       <c r="J175" t="n">
-        <v>0.05249545712800148</v>
+        <v>0.09364249340998004</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08804397639952814</v>
+        <v>0.08699156464685817</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1176813631995014</v>
+        <v>0.1311726659036468</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08876685548165017</v>
+        <v>0.08674606442829413</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1919248679610626</v>
+        <v>0.04659679499842828</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08084223914525716</v>
+        <v>0.08779150990736455</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03113753967646928</v>
+        <v>0.04652228386795272</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07811692836482997</v>
+        <v>0.08858961454288604</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05221488088370257</v>
+        <v>0.0926905844224486</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0888443761849784</v>
+        <v>0.08778239705273871</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1175081712338463</v>
+        <v>0.1299884439101728</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08957382689511972</v>
+        <v>0.08753466501400591</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1924319433722431</v>
+        <v>0.04652228386795272</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08157716859203223</v>
+        <v>0.08858961454288604</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03121465640814744</v>
+        <v>0.04589990498275856</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07882068447622484</v>
+        <v>0.08938771917840754</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05213687635917552</v>
+        <v>0.09201909797072133</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08964477597042866</v>
+        <v>0.08857322945861924</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1162965640851361</v>
+        <v>0.1290194696048889</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09038079830858925</v>
+        <v>0.08832326559971768</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1918699988437554</v>
+        <v>0.04589990498275856</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08231209803880729</v>
+        <v>0.08938771917840754</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03128592416763296</v>
+        <v>0.04503808457416876</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0795244405876197</v>
+        <v>0.09018582381392903</v>
       </c>
       <c r="J178" t="n">
-        <v>0.05185982189563301</v>
+        <v>0.091039157775755</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09044517575587892</v>
+        <v>0.08936406186449977</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1161514622867184</v>
+        <v>0.1272699955585754</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0911877697220588</v>
+        <v>0.08911186618542943</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1918357194915463</v>
+        <v>0.04503808457416876</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08304702748558236</v>
+        <v>0.09018582381392903</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03235103459229827</v>
+        <v>0.04454524887350622</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08022819669901457</v>
+        <v>0.09098392844945052</v>
       </c>
       <c r="J179" t="n">
-        <v>0.05178349562785746</v>
+        <v>0.08896188755850604</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09124557554132917</v>
+        <v>0.0901548942703803</v>
       </c>
       <c r="L179" t="n">
-        <v>0.114977786371941</v>
+        <v>0.1266442743420125</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09199474113552836</v>
+        <v>0.0899004667711412</v>
       </c>
       <c r="N179" t="n">
-        <v>0.193525790431562</v>
+        <v>0.04454524887350622</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08378195693235742</v>
+        <v>0.09098392844945052</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0344096793195158</v>
+        <v>0.04432982411209384</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08093195281040944</v>
+        <v>0.09178203308497201</v>
       </c>
       <c r="J180" t="n">
-        <v>0.05210774275959559</v>
+        <v>0.08829841103993114</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09204597532677943</v>
+        <v>0.09094572667626082</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1146804568741516</v>
+        <v>0.1252465585259803</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0928017125489979</v>
+        <v>0.09068906735685296</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1932351849117853</v>
+        <v>0.04432982411209384</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08451688637913249</v>
+        <v>0.09178203308497201</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03146154998665801</v>
+        <v>0.04370023652125454</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0816357089218043</v>
+        <v>0.09258013772049352</v>
       </c>
       <c r="J181" t="n">
-        <v>0.05193240849459412</v>
+        <v>0.08705985194098692</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09284637511222968</v>
+        <v>0.09173655908214136</v>
       </c>
       <c r="L181" t="n">
-        <v>0.114064394326698</v>
+        <v>0.123381100681259</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09360868396246745</v>
+        <v>0.09147766794256473</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1923436021266908</v>
+        <v>0.04370023652125454</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08525181582590756</v>
+        <v>0.09258013772049352</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03250633823109733</v>
+        <v>0.04276491233231121</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08233946503319917</v>
+        <v>0.09337824235601502</v>
       </c>
       <c r="J182" t="n">
-        <v>0.05185733803659981</v>
+        <v>0.08635733398263012</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09364677489767995</v>
+        <v>0.09252739148802189</v>
       </c>
       <c r="L182" t="n">
-        <v>0.112934519262928</v>
+        <v>0.1232521533786285</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09441565537593699</v>
+        <v>0.0922662685282765</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1921490547127568</v>
+        <v>0.04276491233231121</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08598674527268262</v>
+        <v>0.09337824235601502</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03154373569020621</v>
+        <v>0.0420322777765868</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08304322114459403</v>
+        <v>0.09417634699153651</v>
       </c>
       <c r="J183" t="n">
-        <v>0.05158237658935935</v>
+        <v>0.08470198088581724</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09444717468313019</v>
+        <v>0.09331822389390242</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1120957522161892</v>
+        <v>0.1213639691888694</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09522262678940654</v>
+        <v>0.09305486911398826</v>
       </c>
       <c r="N183" t="n">
-        <v>0.191555411331729</v>
+        <v>0.0420322777765868</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08672167471945769</v>
+        <v>0.09417634699153651</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03157343400135709</v>
+        <v>0.0417107590854042</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0837469772559889</v>
+        <v>0.094974451627058</v>
       </c>
       <c r="J184" t="n">
-        <v>0.05130736935661949</v>
+        <v>0.08410491637150488</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09524757446858045</v>
+        <v>0.09410905629978294</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1114530137198295</v>
+        <v>0.1209208006827614</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09602959820287608</v>
+        <v>0.09384346969970003</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1916665406453534</v>
+        <v>0.0417107590854042</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08745660416623276</v>
+        <v>0.094974451627058</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03159512480192241</v>
+        <v>0.04090878249008632</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08445073336738376</v>
+        <v>0.09577255626257949</v>
       </c>
       <c r="J185" t="n">
-        <v>0.05173216154212695</v>
+        <v>0.08257726416064987</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09604797425403071</v>
+        <v>0.09489988870566346</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1105112243071965</v>
+        <v>0.1200269004310849</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09683656961634564</v>
+        <v>0.0946320702854118</v>
       </c>
       <c r="N185" t="n">
-        <v>0.191486311315376</v>
+        <v>0.04090878249008632</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08819153361300781</v>
+        <v>0.09577255626257949</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0346084997292746</v>
+        <v>0.04043477422195607</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08515448947877861</v>
+        <v>0.096570660898101</v>
       </c>
       <c r="J186" t="n">
-        <v>0.05165659834962848</v>
+        <v>0.08263014797420862</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09684837403948096</v>
+        <v>0.095690721111544</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1088753045116381</v>
+        <v>0.11838652100462</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09764354102981518</v>
+        <v>0.09542067087112356</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1904185920035425</v>
+        <v>0.04043477422195607</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08892646305978288</v>
+        <v>0.096570660898101</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03161325042078611</v>
+        <v>0.03999716051233639</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08585824559017348</v>
+        <v>0.0973687655336225</v>
       </c>
       <c r="J187" t="n">
-        <v>0.05108052498287076</v>
+        <v>0.08117469153313792</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09764877382493123</v>
+        <v>0.09648155351742453</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1080501748665019</v>
+        <v>0.117303914974147</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09845051244328473</v>
+        <v>0.09620927145683533</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1898672513715989</v>
+        <v>0.03999716051233639</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08966139250655795</v>
+        <v>0.0973687655336225</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03159901681671394</v>
+        <v>0.03910436759255016</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08656200170156836</v>
+        <v>0.09816687016914399</v>
       </c>
       <c r="J188" t="n">
-        <v>0.05100378664560057</v>
+        <v>0.08022201855839428</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09844917361038147</v>
+        <v>0.09727238592330506</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1071407559051357</v>
+        <v>0.1171833349104458</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09925748385675427</v>
+        <v>0.09699787204254709</v>
       </c>
       <c r="N188" t="n">
-        <v>0.188636158081291</v>
+        <v>0.03910436759255016</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09039632195333301</v>
+        <v>0.09816687016914399</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03455516872930842</v>
+        <v>0.03896482169392032</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08726575781296322</v>
+        <v>0.09896497480466548</v>
       </c>
       <c r="J189" t="n">
-        <v>0.05112622854156461</v>
+        <v>0.08045938884487855</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09924957339583174</v>
+        <v>0.09806321832918559</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1066519681608873</v>
+        <v>0.1163290333842967</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1000644552702238</v>
+        <v>0.09778647262825886</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1879291807943647</v>
+        <v>0.03896482169392032</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09113125140010808</v>
+        <v>0.09896497480466548</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03248343008834878</v>
+        <v>0.03878694904776976</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08796951392435809</v>
+        <v>0.09976307944018697</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0513476958745096</v>
+        <v>0.07972793780526485</v>
       </c>
       <c r="K190" t="n">
-        <v>0.100049973181282</v>
+        <v>0.0988540507350661</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1061887321671044</v>
+        <v>0.1162452629664798</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1008714266836934</v>
+        <v>0.09857507321397062</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1877501881725658</v>
+        <v>0.03878694904776976</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09186618084688314</v>
+        <v>0.09976307944018697</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03438554061991358</v>
+        <v>0.03807044769858335</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08867327003575294</v>
+        <v>0.1005611840757085</v>
       </c>
       <c r="J191" t="n">
-        <v>0.05126803384818231</v>
+        <v>0.07902248517174726</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1008503729667322</v>
+        <v>0.09964488314094665</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1051559684571347</v>
+        <v>0.1149362762277754</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1016783980971629</v>
+        <v>0.09936367379968239</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1863030488776404</v>
+        <v>0.03807044769858335</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09260111029365821</v>
+        <v>0.1005611840757085</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03426324005008141</v>
+        <v>0.03777200572652684</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08937702614714781</v>
+        <v>0.10135928871123</v>
       </c>
       <c r="J192" t="n">
-        <v>0.05108708766632941</v>
+        <v>0.07884112319626771</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1016507727521825</v>
+        <v>0.1004357155468272</v>
       </c>
       <c r="L192" t="n">
-        <v>0.104358597564326</v>
+        <v>0.1156063257389634</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1024853695106325</v>
+        <v>0.1001522743853941</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1856916315713341</v>
+        <v>0.03777200572652684</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09333603974043328</v>
+        <v>0.10135928871123</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03311826810493083</v>
+        <v>0.03738408603553764</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09008078225854267</v>
+        <v>0.1021573933467515</v>
       </c>
       <c r="J193" t="n">
-        <v>0.05070470253269767</v>
+        <v>0.07838194413076793</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1024511725376328</v>
+        <v>0.1012265479527077</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1042015400220261</v>
+        <v>0.1151596640708241</v>
       </c>
       <c r="M193" t="n">
-        <v>0.103292340924102</v>
+        <v>0.1009408749711059</v>
       </c>
       <c r="N193" t="n">
-        <v>0.184119804915393</v>
+        <v>0.03738408603553764</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09407096918720834</v>
+        <v>0.1021573933467515</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03395236451054047</v>
+        <v>0.03730622233727678</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09078453836993754</v>
+        <v>0.102955497982273</v>
       </c>
       <c r="J194" t="n">
-        <v>0.05052072365103381</v>
+        <v>0.0774430402271899</v>
       </c>
       <c r="K194" t="n">
-        <v>0.103251572323083</v>
+        <v>0.1020173803585882</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1039897163635827</v>
+        <v>0.1135005437941376</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1040993123375716</v>
+        <v>0.1017294755568177</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1829914375715629</v>
+        <v>0.03730622233727678</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09480589863398341</v>
+        <v>0.102955497982273</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03376726899298886</v>
+        <v>0.03693794834340532</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0914882944813324</v>
+        <v>0.1037536026177945</v>
       </c>
       <c r="J195" t="n">
-        <v>0.05083499622508454</v>
+        <v>0.07742250373747533</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1040519721085333</v>
+        <v>0.1028082127644688</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1024280471223434</v>
+        <v>0.1134172524981107</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1049062837510411</v>
+        <v>0.1025180761425294</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1827103982015897</v>
+        <v>0.03693794834340532</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09554082808075848</v>
+        <v>0.1037536026177945</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03256472127835461</v>
+        <v>0.0370787977655843</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09219205059272727</v>
+        <v>0.104551707253316</v>
       </c>
       <c r="J196" t="n">
-        <v>0.05044736545859664</v>
+        <v>0.0769184269135661</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1048523718939835</v>
+        <v>0.1035990451703493</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1029214528316562</v>
+        <v>0.1125593166926098</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1057132551645106</v>
+        <v>0.1033066767282412</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1813805554672193</v>
+        <v>0.0370787977655843</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09627575752753353</v>
+        <v>0.104551707253316</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0313464610927163</v>
+        <v>0.0367283043154748</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09289580670412213</v>
+        <v>0.1053498118888374</v>
       </c>
       <c r="J197" t="n">
-        <v>0.05055767655531676</v>
+        <v>0.07602890200740406</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1056527716794338</v>
+        <v>0.1043898775762298</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1022748540248686</v>
+        <v>0.1127213230583414</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1065202265779802</v>
+        <v>0.104095277313953</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1805057780301975</v>
+        <v>0.0367283043154748</v>
       </c>
       <c r="O197" t="n">
-        <v>0.0970106869743086</v>
+        <v>0.1053498118888374</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03111422816215249</v>
+        <v>0.03658600170473783</v>
       </c>
       <c r="G198" t="n">
-        <v>0.093599562815517</v>
+        <v>0.106147916524359</v>
       </c>
       <c r="J198" t="n">
-        <v>0.05036577471899172</v>
+        <v>0.07645202127093104</v>
       </c>
       <c r="K198" t="n">
-        <v>0.106453171464884</v>
+        <v>0.1051807099821103</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1010931712353286</v>
+        <v>0.1129017792362119</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1073271979914497</v>
+        <v>0.1048838778996647</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1789899345522701</v>
+        <v>0.03658600170473783</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09774561642108366</v>
+        <v>0.106147916524359</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03186976221274179</v>
+        <v>0.03635142364503446</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09430331892691186</v>
+        <v>0.1069460211598804</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05057150515336814</v>
+        <v>0.07608587695608887</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1072535712503343</v>
+        <v>0.1059715423879909</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1015813249963838</v>
+        <v>0.1120991928671269</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1081341694049193</v>
+        <v>0.1056724784853765</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1769368936951832</v>
+        <v>0.03635142364503446</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09848054586785873</v>
+        <v>0.1069460211598804</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03261480297056277</v>
+        <v>0.03592410384802573</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09500707503830673</v>
+        <v>0.1077441257954019</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04997471306219282</v>
+        <v>0.07522856131481936</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1080539710357846</v>
+        <v>0.1067623747938714</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1012442358413819</v>
+        <v>0.1121120715919925</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1089411408183888</v>
+        <v>0.1064610790710883</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1756505241206827</v>
+        <v>0.03592410384802573</v>
       </c>
       <c r="O200" t="n">
-        <v>0.0992154753146338</v>
+        <v>0.1077441257954019</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.030351090161694</v>
+        <v>0.03540357602537271</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09571083114970158</v>
+        <v>0.1085422304309234</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04997524364921251</v>
+        <v>0.07477816659906442</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1088543708212348</v>
+        <v>0.1075532071997519</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1002868243036707</v>
+        <v>0.1123389230517149</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1097481122318584</v>
+        <v>0.1072496796568</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1751346944905142</v>
+        <v>0.03540357602537271</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09995040476140886</v>
+        <v>0.1085422304309234</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03208036351221409</v>
+        <v>0.03558937388873641</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09641458726109646</v>
+        <v>0.1093403350664449</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04997294211817387</v>
+        <v>0.07483278506076588</v>
       </c>
       <c r="K202" t="n">
-        <v>0.109654770606685</v>
+        <v>0.1083440396056325</v>
       </c>
       <c r="L202" t="n">
-        <v>0.100414010916598</v>
+        <v>0.1126782548871998</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1105550836453279</v>
+        <v>0.1080382802425118</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1721932734664238</v>
+        <v>0.03558937388873641</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1006853342081839</v>
+        <v>0.1093403350664449</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02980436274820158</v>
+        <v>0.03528103114977792</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09711834337249133</v>
+        <v>0.1101384397019664</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04986765367282367</v>
+        <v>0.07419050895186552</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1104551703921353</v>
+        <v>0.109134872011513</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1005093931306325</v>
+        <v>0.1116285747393534</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1113620550587975</v>
+        <v>0.1088268808282236</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1716301297101573</v>
+        <v>0.03528103114977792</v>
       </c>
       <c r="O203" t="n">
-        <v>0.101420263654959</v>
+        <v>0.1101384397019664</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02952482759573509</v>
+        <v>0.03507808152015823</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09782209948388619</v>
+        <v>0.1109365443374879</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04995922351690861</v>
+        <v>0.07454943052430524</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1112555701775856</v>
+        <v>0.1099257044173935</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1008095578964364</v>
+        <v>0.1122883902490815</v>
       </c>
       <c r="M204" t="n">
-        <v>0.112169026472267</v>
+        <v>0.1096154814139353</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1695491318834605</v>
+        <v>0.03507808152015823</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1021551931017341</v>
+        <v>0.1109365443374879</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03024349778089318</v>
+        <v>0.03468005871153845</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09852585559528106</v>
+        <v>0.1117346489730094</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04944749685417546</v>
+        <v>0.07430764203002679</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1120559699630358</v>
+        <v>0.1107165368232741</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1010100977083621</v>
+        <v>0.1119562090572905</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1129759978857366</v>
+        <v>0.1104040819996471</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1678541486480795</v>
+        <v>0.03468005871153845</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1028901225485091</v>
+        <v>0.1117346489730094</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02896211302975443</v>
+        <v>0.03478649643557961</v>
       </c>
       <c r="G206" t="n">
-        <v>0.09922961170667592</v>
+        <v>0.1125327536085309</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04953234043080466</v>
+        <v>0.07336323572097211</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1128563697484861</v>
+        <v>0.1115073692291546</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1003112357734706</v>
+        <v>0.1125305388048858</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1137829692992061</v>
+        <v>0.1111926825853589</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1678490486657601</v>
+        <v>0.03478649643557961</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1036250519952842</v>
+        <v>0.1125327536085309</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02768241306839744</v>
+        <v>0.03419692840394274</v>
       </c>
       <c r="G207" t="n">
-        <v>0.09993336781807077</v>
+        <v>0.1133308582440524</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04971382517633641</v>
+        <v>0.07311430384908293</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1136567695339363</v>
+        <v>0.1122982016350351</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1002131952988228</v>
+        <v>0.1115098871327738</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1145899407126757</v>
+        <v>0.1119812831710706</v>
       </c>
       <c r="N207" t="n">
-        <v>0.164937700598248</v>
+        <v>0.03419692840394274</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1043599814420593</v>
+        <v>0.1133308582440524</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02840613762290077</v>
+        <v>0.0340108883282889</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1006371239294656</v>
+        <v>0.1141289628795739</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04949199402591745</v>
+        <v>0.07315893866630122</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1144571693193866</v>
+        <v>0.1130890340409156</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1003161994914794</v>
+        <v>0.1114927616818603</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1153969121261452</v>
+        <v>0.1127698837567824</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1643239731072894</v>
+        <v>0.0340108883282889</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1050949108888343</v>
+        <v>0.1141289628795739</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02913502641934301</v>
+        <v>0.03432790992027915</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1013408800408605</v>
+        <v>0.1149270675150954</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04936686388600303</v>
+        <v>0.07269523242456871</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1152575691048369</v>
+        <v>0.1138798664467962</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1008204715585014</v>
+        <v>0.1115776700930515</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1162038835396148</v>
+        <v>0.1135584843424941</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1618117348546299</v>
+        <v>0.03432790992027915</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1058298403356094</v>
+        <v>0.1149270675150954</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02687081918380275</v>
+        <v>0.03384752689157453</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1020446361522554</v>
+        <v>0.1157251721506169</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04903845166304845</v>
+        <v>0.0716212773758273</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1160579688902871</v>
+        <v>0.1146706988526767</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1008262347069496</v>
+        <v>0.1105631200072532</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1170108549530843</v>
+        <v>0.1143470849282059</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1607048545020154</v>
+        <v>0.03384752689157453</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1065647697823844</v>
+        <v>0.1157251721506169</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02961525564235856</v>
+        <v>0.03396927295383606</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1027483922636502</v>
+        <v>0.1165232767861384</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04880677426350888</v>
+        <v>0.07153516577201882</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1168583686757374</v>
+        <v>0.1154615312585572</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1010337121438849</v>
+        <v>0.1117476190653715</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1178178263665539</v>
+        <v>0.1151356855139177</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1594072007111919</v>
+        <v>0.03396927295383606</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1072996992291595</v>
+        <v>0.1165232767861384</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02937007552108904</v>
+        <v>0.03369268181872481</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1034521483750451</v>
+        <v>0.1173213814216599</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04887184859383958</v>
+        <v>0.07063498986508507</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1176587684611876</v>
+        <v>0.1162523636644378</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1011431270763682</v>
+        <v>0.1116296749083123</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1186247977800234</v>
+        <v>0.1159242860996295</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1584226421439052</v>
+        <v>0.03369268181872481</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1080346286759346</v>
+        <v>0.1173213814216599</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02713701854607274</v>
+        <v>0.03331728719790186</v>
       </c>
       <c r="G213" t="n">
-        <v>0.10415590448644</v>
+        <v>0.1181194860571814</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0488336915604958</v>
+        <v>0.07051884190696792</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1184591682466379</v>
+        <v>0.1170431960703183</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1006547027114604</v>
+        <v>0.1103077951769816</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1194317691934929</v>
+        <v>0.1167128866853412</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1560550474619013</v>
+        <v>0.03331728719790186</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1087695581227096</v>
+        <v>0.1181194860571814</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02791782444338825</v>
+        <v>0.03304262280302822</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1048596605978348</v>
+        <v>0.1189175906927029</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0487923200699328</v>
+        <v>0.07058641868525631</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1192595680320881</v>
+        <v>0.1178340284761988</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1005686622562224</v>
+        <v>0.1103804875122855</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1202387406069625</v>
+        <v>0.117501487271053</v>
       </c>
       <c r="N214" t="n">
-        <v>0.154708285326926</v>
+        <v>0.03304262280302822</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1095044875694847</v>
+        <v>0.1189175906927029</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02771423293911418</v>
+        <v>0.03276822234576496</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1055634167092297</v>
+        <v>0.1197156953282244</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04824775102860578</v>
+        <v>0.07014930472933248</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1200599678175384</v>
+        <v>0.1186248608820794</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1011852289177149</v>
+        <v>0.1114462595551299</v>
       </c>
       <c r="M215" t="n">
-        <v>0.121045712020432</v>
+        <v>0.1182900878567647</v>
       </c>
       <c r="N215" t="n">
-        <v>0.154186224400725</v>
+        <v>0.03276822234576496</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1102394170162598</v>
+        <v>0.1197156953282244</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02852798375932908</v>
+        <v>0.0327936195377731</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1062671728206245</v>
+        <v>0.1205137999637459</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04840000134296996</v>
+        <v>0.06931016990638461</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1208603676029886</v>
+        <v>0.1194156932879599</v>
       </c>
       <c r="L216" t="n">
-        <v>0.101004625902999</v>
+        <v>0.1097036189464209</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1218526834339016</v>
+        <v>0.1190786884424765</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1516927333450446</v>
+        <v>0.0327936195377731</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1109743464630348</v>
+        <v>0.1205137999637459</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02836081663011154</v>
+        <v>0.0324183480907137</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1069709289320194</v>
+        <v>0.1213119045992674</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04834908791948064</v>
+        <v>0.0687690011432863</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1216607673884389</v>
+        <v>0.1202065256938404</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1011270764191354</v>
+        <v>0.1101510733270643</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1226596548473711</v>
+        <v>0.1198672890281883</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1514165408348795</v>
+        <v>0.0324183480907137</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1117092759098099</v>
+        <v>0.1213119045992674</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02721447127754013</v>
+        <v>0.03264194171624782</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1076746850434143</v>
+        <v>0.1221100092347889</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04799502766459302</v>
+        <v>0.06892578536691099</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1224611671738891</v>
+        <v>0.1209973580997209</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1003528036731851</v>
+        <v>0.1094871303379662</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1234666262608407</v>
+        <v>0.1206558896139</v>
       </c>
       <c r="N218" t="n">
-        <v>0.149121326504518</v>
+        <v>0.03264194171624782</v>
       </c>
       <c r="O218" t="n">
-        <v>0.112444205356585</v>
+        <v>0.1221100092347889</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02709068742769347</v>
+        <v>0.03246393412603651</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1083784411548092</v>
+        <v>0.1229081138703104</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04793783748476234</v>
+        <v>0.06828050950413217</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1232615669593394</v>
+        <v>0.1217881905056015</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1003820308722089</v>
+        <v>0.1091102976200327</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1242735976743102</v>
+        <v>0.1214444901996118</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1487053970109495</v>
+        <v>0.03246393412603651</v>
       </c>
       <c r="O219" t="n">
-        <v>0.11317913480336</v>
+        <v>0.1229081138703104</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02799120480665011</v>
+        <v>0.0318838590317408</v>
       </c>
       <c r="G220" t="n">
-        <v>0.109082197266204</v>
+        <v>0.1237062185058319</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04757753428644389</v>
+        <v>0.06743316048182338</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1240619667447897</v>
+        <v>0.122579022911482</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1015149812232676</v>
+        <v>0.1096190828141695</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1250805690877798</v>
+        <v>0.1222330907853236</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1467688887905375</v>
+        <v>0.0318838590317408</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1139140642501351</v>
+        <v>0.1237062185058319</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02591402765495467</v>
+        <v>0.03170125014502177</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1097859533775989</v>
+        <v>0.1245043231413533</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04761413497609285</v>
+        <v>0.06728372522685808</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1248623665302399</v>
+        <v>0.1233698553173625</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1004518779334223</v>
+        <v>0.1096119935612829</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1258875405012493</v>
+        <v>0.1230216913710353</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1460119382796453</v>
+        <v>0.03170125014502177</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1146489936969102</v>
+        <v>0.1245043231413533</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02584045247097705</v>
+        <v>0.03151564117754042</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1104897094889938</v>
+        <v>0.1253024277768749</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04724765646016447</v>
+        <v>0.06643219066610975</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1256627663156902</v>
+        <v>0.124160687723243</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1006929442097337</v>
+        <v>0.1097875375022788</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1266945119147189</v>
+        <v>0.1238102919567471</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1444346819146363</v>
+        <v>0.03151564117754042</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1153839231436852</v>
+        <v>0.1253024277768749</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02476769170838057</v>
+        <v>0.03172656584095783</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1111934656003886</v>
+        <v>0.1261005324123964</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04737811564511402</v>
+        <v>0.06587854372645197</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1264631661011404</v>
+        <v>0.1249515201291236</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1006384032592628</v>
+        <v>0.1099442222780631</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1275014833281884</v>
+        <v>0.1245988925424589</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1413372561318738</v>
+        <v>0.03172656584095783</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1161188525904603</v>
+        <v>0.1261005324123964</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02769578955042956</v>
+        <v>0.03153355784693505</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1118972217117835</v>
+        <v>0.1268986370479178</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04700552943739669</v>
+        <v>0.06602277133475815</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1272635658865907</v>
+        <v>0.1257423525350041</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1016884782890703</v>
+        <v>0.1085805555295418</v>
       </c>
       <c r="M224" t="n">
-        <v>0.128308454741658</v>
+        <v>0.1253874931281706</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1407197973677212</v>
+        <v>0.03153355784693505</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1168537820372354</v>
+        <v>0.1268986370479178</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02762479018038838</v>
+        <v>0.03103615090713313</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1126009778231783</v>
+        <v>0.1276967416834393</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04672991474346778</v>
+        <v>0.06546486041790181</v>
       </c>
       <c r="K225" t="n">
-        <v>0.128063965672041</v>
+        <v>0.1265331849408846</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1016433925062172</v>
+        <v>0.1086903061119777</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1291154261551275</v>
+        <v>0.1261760937138824</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1399824420585419</v>
+        <v>0.03103615090713313</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1175887114840104</v>
+        <v>0.1276967416834393</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02755473778152137</v>
+        <v>0.03083387882417582</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1133047339345732</v>
+        <v>0.1284948463189608</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04675128846978246</v>
+        <v>0.06530479790275648</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1288643654574912</v>
+        <v>0.1273240173467652</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1018033691177644</v>
+        <v>0.1085526656043144</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1299223975685971</v>
+        <v>0.1269646942995941</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1369253266406993</v>
+        <v>0.03083387882417582</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1183236409307855</v>
+        <v>0.1284948463189608</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02648567653709291</v>
+        <v>0.03072913526167395</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1140084900459681</v>
+        <v>0.1292929509544823</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04646966752279605</v>
+        <v>0.06434257071619565</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1296647652429415</v>
+        <v>0.1281148497526457</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1009686313307727</v>
+        <v>0.1084662150523157</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1307293689820666</v>
+        <v>0.1277532948853059</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1356485875505568</v>
+        <v>0.03072913526167395</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1190585703775606</v>
+        <v>0.1292929509544823</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02641765063036733</v>
+        <v>0.03042456211345651</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1147122461573629</v>
+        <v>0.1300910555900038</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04638506880896372</v>
+        <v>0.06347816578509283</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1304651650283917</v>
+        <v>0.1289056821585262</v>
       </c>
       <c r="L228" t="n">
-        <v>0.101139402352303</v>
+        <v>0.1074319340884258</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1315363403955362</v>
+        <v>0.1285418954710177</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1350523612244776</v>
+        <v>0.03042456211345651</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1197934998243356</v>
+        <v>0.1300910555900038</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02735070424460896</v>
+        <v>0.03012015992774524</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1154160022687578</v>
+        <v>0.1308891602255253</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04589750923474076</v>
+        <v>0.06401157003632146</v>
       </c>
       <c r="K229" t="n">
-        <v>0.131265564813842</v>
+        <v>0.1296965145644068</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1019159053894161</v>
+        <v>0.1073508023450888</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1323433118090057</v>
+        <v>0.1293304960567295</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1321367840988252</v>
+        <v>0.03012015992774524</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1205284292711107</v>
+        <v>0.1308891602255253</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02428488156308217</v>
+        <v>0.03041592925276183</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1161197583801527</v>
+        <v>0.1316872648610468</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04560700570658237</v>
+        <v>0.06324277039675505</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1320659645992922</v>
+        <v>0.1304873469702873</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1019983636491731</v>
+        <v>0.105523799454749</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1331502832224753</v>
+        <v>0.1301190966424412</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1313019926099629</v>
+        <v>0.03041592925276183</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1212633587178858</v>
+        <v>0.1316872648610468</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02622022676905134</v>
+        <v>0.03021187063672807</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1168235144915475</v>
+        <v>0.1324853694965683</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04581357513094382</v>
+        <v>0.06217175379326714</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1328663643847425</v>
+        <v>0.1312781793761678</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1011870003386346</v>
+        <v>0.1059519050498501</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1339572546359448</v>
+        <v>0.130907697228153</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1290481231942541</v>
+        <v>0.03021187063672807</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1219982881646608</v>
+        <v>0.1324853694965683</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02415678404578078</v>
+        <v>0.02950798462786562</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1175272706029424</v>
+        <v>0.1332834741320898</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04541723441428031</v>
+        <v>0.06199850715273122</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1336667641701927</v>
+        <v>0.1320690117820483</v>
       </c>
       <c r="L232" t="n">
-        <v>0.1019820386648617</v>
+        <v>0.1052360987628367</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1347642260494143</v>
+        <v>0.1316962978138647</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1274753122880623</v>
+        <v>0.02950798462786562</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1227332176114359</v>
+        <v>0.1332834741320898</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02609459757653484</v>
+        <v>0.02940427177439625</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1182310267143373</v>
+        <v>0.1340815787676113</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04511800046304713</v>
+        <v>0.0619230174020208</v>
       </c>
       <c r="K233" t="n">
-        <v>0.134467163955643</v>
+        <v>0.1328598441879288</v>
       </c>
       <c r="L233" t="n">
-        <v>0.1017837018349151</v>
+        <v>0.1049773602261528</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1355711974628839</v>
+        <v>0.1324848983995765</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1262836963277507</v>
+        <v>0.02940427177439625</v>
       </c>
       <c r="O233" t="n">
-        <v>0.123468147058211</v>
+        <v>0.1340815787676113</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02703371154457791</v>
+        <v>0.02960073262454166</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1189347828257321</v>
+        <v>0.1348796834031328</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04521589018369947</v>
+        <v>0.06114527146800933</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1352675637410932</v>
+        <v>0.1336506765938094</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1018922130558558</v>
+        <v>0.1035766690722426</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1363781688763534</v>
+        <v>0.1332734989852883</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1244734117496827</v>
+        <v>0.02960073262454166</v>
       </c>
       <c r="O234" t="n">
-        <v>0.124203076504986</v>
+        <v>0.1348796834031328</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02597417013317428</v>
+        <v>0.02919736772652354</v>
       </c>
       <c r="G235" t="n">
-        <v>0.119638538937127</v>
+        <v>0.1356777880386543</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04491092048269262</v>
+        <v>0.06066525627757033</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1360679635265435</v>
+        <v>0.1344415089996899</v>
       </c>
       <c r="L235" t="n">
-        <v>0.1022077955347446</v>
+        <v>0.1029350049335501</v>
       </c>
       <c r="M235" t="n">
-        <v>0.137185140289823</v>
+        <v>0.134062099571</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1225445949902217</v>
+        <v>0.02919736772652354</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1249380059517611</v>
+        <v>0.1356777880386543</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02691601752558836</v>
+        <v>0.02879417762856366</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1203422950485218</v>
+        <v>0.1364758926741758</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04460310826648178</v>
+        <v>0.0607829587575773</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1368683633119938</v>
+        <v>0.1352323414055704</v>
       </c>
       <c r="L236" t="n">
-        <v>0.1023306724786425</v>
+        <v>0.1016533474425194</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1379921117032925</v>
+        <v>0.1348507001567118</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1206973824857312</v>
+        <v>0.02879417762856366</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1256729353985361</v>
+        <v>0.1364758926741758</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02585929790508446</v>
+        <v>0.02889116287888371</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1210460511599167</v>
+        <v>0.1372739973096973</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04439247044152221</v>
+        <v>0.05939836583490371</v>
       </c>
       <c r="K237" t="n">
-        <v>0.137668763097444</v>
+        <v>0.136023173811451</v>
       </c>
       <c r="L237" t="n">
-        <v>0.1021610670946102</v>
+        <v>0.1010326762315948</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1387990831167621</v>
+        <v>0.1356393007424236</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1184319106725744</v>
+        <v>0.02889116287888371</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1264078648453112</v>
+        <v>0.1372739973096973</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02680405545492694</v>
+        <v>0.02878832402570544</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1217498072713116</v>
+        <v>0.1380721019452188</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04407902391426913</v>
+        <v>0.05941146443642314</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1384691628828943</v>
+        <v>0.1368140062173315</v>
       </c>
       <c r="L238" t="n">
-        <v>0.1023992025897087</v>
+        <v>0.09997397093322047</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1396060545302316</v>
+        <v>0.1364279013281353</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1176483159871147</v>
+        <v>0.02878832402570544</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1271427942920863</v>
+        <v>0.1380721019452188</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02575033435838016</v>
+        <v>0.02808566161725057</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1224535633827065</v>
+        <v>0.1388702065807403</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04396278559117782</v>
+        <v>0.05932224148900903</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1392695626683445</v>
+        <v>0.137604838623212</v>
       </c>
       <c r="L239" t="n">
-        <v>0.1027453021709988</v>
+        <v>0.1004782111798404</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1404130259437012</v>
+        <v>0.1372165019138471</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1163467348657155</v>
+        <v>0.02808566161725057</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1278777237388613</v>
+        <v>0.1388702065807403</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02369817879870846</v>
+        <v>0.0278831762017408</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1231573194941013</v>
+        <v>0.1396683112162618</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04354377237870345</v>
+        <v>0.05883068391953486</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1400699624537948</v>
+        <v>0.1383956710290926</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1027995890455414</v>
+        <v>0.09894637660389871</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1412199973571707</v>
+        <v>0.1380051024995589</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1132273037447401</v>
+        <v>0.0278831762017408</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1286126531856364</v>
+        <v>0.1396683112162618</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0246476329591762</v>
+        <v>0.02778086832739786</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1238610756054962</v>
+        <v>0.1404664158517833</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04382200118330135</v>
+        <v>0.05783677865487416</v>
       </c>
       <c r="K241" t="n">
-        <v>0.140870362239245</v>
+        <v>0.1391865034349731</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1023622864203975</v>
+        <v>0.09747944683783966</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1420269687706402</v>
+        <v>0.1387937030852706</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1124901590605519</v>
+        <v>0.02778086832739786</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1293475826324115</v>
+        <v>0.1404664158517833</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02359874102304772</v>
+        <v>0.02777873854244346</v>
       </c>
       <c r="G242" t="n">
-        <v>0.124564831716891</v>
+        <v>0.1412645204873048</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04349748891142666</v>
+        <v>0.0576405126219004</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1416707620246953</v>
+        <v>0.1399773358408536</v>
       </c>
       <c r="L242" t="n">
-        <v>0.1036336175026277</v>
+        <v>0.09627840151410738</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1428339401841098</v>
+        <v>0.1395823036709824</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1092354372495145</v>
+        <v>0.02777873854244346</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1300825120791865</v>
+        <v>0.1412645204873048</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0265515471735874</v>
+        <v>0.02747678739509936</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1252685878282859</v>
+        <v>0.1420626251228263</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04317025246953471</v>
+        <v>0.05684187274748714</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1424711618101455</v>
+        <v>0.1407681682467341</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1028138054992931</v>
+        <v>0.09554422026514603</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1436409115975794</v>
+        <v>0.1403709042566942</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1075632747479909</v>
+        <v>0.02747678739509936</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1308174415259616</v>
+        <v>0.1420626251228263</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02550609559405954</v>
+        <v>0.02717501543358726</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1259723439396808</v>
+        <v>0.1428607297583478</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04314030876408068</v>
+        <v>0.05604084595850781</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1432715615955958</v>
+        <v>0.1415590006526147</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1037030736174545</v>
+        <v>0.09407788272339956</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1444478830110489</v>
+        <v>0.1411595048424059</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1066738079923447</v>
+        <v>0.02717501543358726</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1315523709727367</v>
+        <v>0.1428607297583478</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02346243046772853</v>
+        <v>0.02697342320612887</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1266761000510756</v>
+        <v>0.1436588343938693</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04240767470151985</v>
+        <v>0.05553741918183594</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1440719613810461</v>
+        <v>0.1423498330584952</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1032016450641728</v>
+        <v>0.09328036852131238</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1452548544245185</v>
+        <v>0.1419481054281177</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1051671734189392</v>
+        <v>0.02697342320612887</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1322873004195117</v>
+        <v>0.1436588343938693</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0264205959778587</v>
+        <v>0.02707201126094594</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1273798561624705</v>
+        <v>0.1444569390293907</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04217236718830743</v>
+        <v>0.05573157934434506</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1448723611664963</v>
+        <v>0.1431406654643757</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1034097430465089</v>
+        <v>0.09305265729132844</v>
       </c>
       <c r="M246" t="n">
-        <v>0.146061825837988</v>
+        <v>0.1427367060138295</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1032435074641378</v>
+        <v>0.02707201126094594</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1330222298662868</v>
+        <v>0.1444569390293907</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02438063630771442</v>
+        <v>0.02697078014626017</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1280836122738654</v>
+        <v>0.1452550436649122</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04223440313089866</v>
+        <v>0.05532331337290855</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1456727609519466</v>
+        <v>0.1439314978702563</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1045275907715237</v>
+        <v>0.09139572866589196</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1468687972514575</v>
+        <v>0.1435253065995412</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1000029465643039</v>
+        <v>0.02697078014626017</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1337571593130619</v>
+        <v>0.1452550436649122</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02534259564056</v>
+        <v>0.02666973041029327</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1287873683852602</v>
+        <v>0.1460531483004337</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04179379943574879</v>
+        <v>0.05481260819440001</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1464731607373968</v>
+        <v>0.1447223302761368</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1041554114462779</v>
+        <v>0.0908105622774471</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1476757686649271</v>
+        <v>0.144313907185253</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09804562715580079</v>
+        <v>0.02666973041029327</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1344920887598369</v>
+        <v>0.1460531483004337</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02330651815965987</v>
+        <v>0.02656886260126699</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1294911244966551</v>
+        <v>0.1468512529359552</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04185057300931307</v>
+        <v>0.05359945073569292</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1472735605228471</v>
+        <v>0.1455131626820173</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1050934282778325</v>
+        <v>0.08909813775843795</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1484827400783967</v>
+        <v>0.1451025077709648</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09597168567499192</v>
+        <v>0.02656886260126699</v>
       </c>
       <c r="O249" t="n">
-        <v>0.135227018206612</v>
+        <v>0.1468512529359552</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02327244804827827</v>
+        <v>0.02606817726740307</v>
       </c>
       <c r="G250" t="n">
-        <v>0.13019488060805</v>
+        <v>0.1476493575714767</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04130474075804672</v>
+        <v>0.05378382792366077</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1480739603082973</v>
+        <v>0.1463039950878978</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1048418644732484</v>
+        <v>0.0881594347413085</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1492897114918662</v>
+        <v>0.1458911083566765</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09518125855824056</v>
+        <v>0.02606817726740307</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1359619476533871</v>
+        <v>0.1476493575714767</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02524042948967967</v>
+        <v>0.02586767495692317</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1308986367194448</v>
+        <v>0.1484474622069982</v>
       </c>
       <c r="J251" t="n">
-        <v>0.041456319588405</v>
+        <v>0.05266572668517711</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1488743600937476</v>
+        <v>0.1470948274937784</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1056009432395864</v>
+        <v>0.0860954328585033</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1500966829053357</v>
+        <v>0.1466797089423883</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09327448224191026</v>
+        <v>0.02586767495692317</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1366968771001621</v>
+        <v>0.1484474622069982</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02621050666712831</v>
+        <v>0.02596735621804906</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1316023928308397</v>
+        <v>0.1492455668425197</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04120532640684312</v>
+        <v>0.05204513394711532</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1496747598791978</v>
+        <v>0.1478856598996589</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1051708877839075</v>
+        <v>0.08550711174246611</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1509036543188053</v>
+        <v>0.1474683095281001</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09085149316236418</v>
+        <v>0.02596735621804906</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1374318065469372</v>
+        <v>0.1492455668425197</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02318272376388861</v>
+        <v>0.02576722159900245</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1323061489422346</v>
+        <v>0.1500436714780412</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04055177811981633</v>
+        <v>0.05192203663634898</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1504751596646481</v>
+        <v>0.1486764923055394</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1051519213132724</v>
+        <v>0.08319545102564124</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1517106257322748</v>
+        <v>0.1482569101138118</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08941242775596586</v>
+        <v>0.02576722159900245</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1381667359937123</v>
+        <v>0.1500436714780412</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02315712496322489</v>
+        <v>0.02536727164800506</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1330099050536294</v>
+        <v>0.1508417761135627</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0401956916337799</v>
+        <v>0.05119642167975158</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1512755594500984</v>
+        <v>0.14946732471142</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1060442670347421</v>
+        <v>0.08226143034047273</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1525175971457444</v>
+        <v>0.1490455106995236</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08735742245907857</v>
+        <v>0.02536727164800506</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1389016654404873</v>
+        <v>0.1508417761135627</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02513375444840153</v>
+        <v>0.02536750691327862</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1337136611650243</v>
+        <v>0.1516398807490842</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03993708385518904</v>
+        <v>0.05116827600419663</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1520759592355486</v>
+        <v>0.1502581571173005</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1058481481553775</v>
+        <v>0.08200602931940493</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1533245685592139</v>
+        <v>0.1498341112852353</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08368661370806568</v>
+        <v>0.02536750691327862</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1396365948872624</v>
+        <v>0.1516398807490842</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02411265640268284</v>
+        <v>0.02516792794304483</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1344174172764191</v>
+        <v>0.1524379853846057</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03977597169049897</v>
+        <v>0.05053758653655765</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1528763590209989</v>
+        <v>0.151048989523181</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1059637878822394</v>
+        <v>0.08003022759488171</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1541315399726835</v>
+        <v>0.1506227118709471</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08310013793929061</v>
+        <v>0.02516792794304483</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1403715243340375</v>
+        <v>0.1524379853846057</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02609387500933322</v>
+        <v>0.02486853528552545</v>
       </c>
       <c r="G257" t="n">
-        <v>0.135121173387814</v>
+        <v>0.1532360900201272</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03951237204616499</v>
+        <v>0.04960434020370802</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1536767588064491</v>
+        <v>0.1518398219290616</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1067914094223887</v>
+        <v>0.07763500479934737</v>
       </c>
       <c r="M257" t="n">
-        <v>0.154938511386153</v>
+        <v>0.1514113124566589</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08109813158911672</v>
+        <v>0.02486853528552545</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1411064537808125</v>
+        <v>0.1532360900201272</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02307745445161698</v>
+        <v>0.02476932948894217</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1358249294992089</v>
+        <v>0.1540341946556487</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03924630182864228</v>
+        <v>0.04846852393252135</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1544771585918994</v>
+        <v>0.1526306543349421</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1073312359828862</v>
+        <v>0.07722134056524599</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1557454827996226</v>
+        <v>0.1521999130423707</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07788073109390742</v>
+        <v>0.02476932948894217</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1418413832275876</v>
+        <v>0.1540341946556487</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02606343891279848</v>
+        <v>0.02427031110151673</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1365286856106037</v>
+        <v>0.1548322992911702</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03887777794438611</v>
+        <v>0.04833012464987108</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1552775583773497</v>
+        <v>0.1534214867408226</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1072834907707929</v>
+        <v>0.07479021452502171</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1565524542130921</v>
+        <v>0.1529885136280824</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07654807289002596</v>
+        <v>0.02427031110151673</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1425763126743627</v>
+        <v>0.1548322992911702</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02605187257614207</v>
+        <v>0.02387148067147081</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1372324417219986</v>
+        <v>0.1556304039266917</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03880681729985172</v>
+        <v>0.04738912928263078</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1560779581627999</v>
+        <v>0.1542123191467032</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1081483969931696</v>
+        <v>0.07364260631111874</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1573594256265617</v>
+        <v>0.1537771142137942</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07390029341383586</v>
+        <v>0.02387148067147081</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1433112421211377</v>
+        <v>0.1556304039266917</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02304279962491211</v>
+        <v>0.02407283874702619</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1379361978333935</v>
+        <v>0.1564285085622132</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03873343680149434</v>
+        <v>0.04774552475767388</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1568783579482502</v>
+        <v>0.1550031515525837</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1082261778570773</v>
+        <v>0.07287949555598117</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1581663970400312</v>
+        <v>0.1545657147995059</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07113752910170046</v>
+        <v>0.02407283874702619</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1440461715679128</v>
+        <v>0.1564285085622132</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02303626424237293</v>
+        <v>0.02367438587640458</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1386399539447883</v>
+        <v>0.1572266131977347</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03845765335576921</v>
+        <v>0.0468992980018739</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1576787577337004</v>
+        <v>0.1557939839584642</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1086170565695767</v>
+        <v>0.07030186189205317</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1589733684535007</v>
+        <v>0.1553543153852177</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06975991638998302</v>
+        <v>0.02367438587640458</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1447811010146879</v>
+        <v>0.1572266131977347</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0260323106117889</v>
+        <v>0.02377612260782767</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1393437100561832</v>
+        <v>0.1580247178332562</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03817948386913157</v>
+        <v>0.0459504359421043</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1584791575191506</v>
+        <v>0.1565848163643447</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1086212563377287</v>
+        <v>0.06921068495177879</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1597803398669703</v>
+        <v>0.1561429159709295</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06816759171504699</v>
+        <v>0.02377612260782767</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1455160304614629</v>
+        <v>0.1580247178332562</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02603098291642439</v>
+        <v>0.02317804948951724</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1400474661675781</v>
+        <v>0.1588228224687777</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03749894524803665</v>
+        <v>0.04599892550523868</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1592795573046009</v>
+        <v>0.1573756487702253</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1099390003685943</v>
+        <v>0.06820694436760233</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1605873112804398</v>
+        <v>0.1569315165566412</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06576069151325575</v>
+        <v>0.02317804948951724</v>
       </c>
       <c r="O264" t="n">
-        <v>0.146250959908238</v>
+        <v>0.1588228224687777</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1256.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1256.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.775048945656135</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04976558278100217</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04976558278100217</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07962493244960347</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.1020689496686013</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02743647067927105</v>
+        <v>0.03785934966860131</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01566622475786377</v>
+        <v>0.01309284433038567</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001793588347843142</v>
+        <v>0.0001104237923727214</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007981046355214959</v>
+        <v>0.0006369226700038956</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.006724215858434301</v>
+        <v>0.002003736127243888</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007908324058805289</v>
+        <v>0.0007981046355214959</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00789576188997293</v>
+        <v>0.004965743740781292</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000788600585711765</v>
+        <v>0.000788075277987778</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001793588347843142</v>
+        <v>0.009618061225792007</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007981046355214959</v>
+        <v>0.0007834245633068347</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003942934260984812</v>
+        <v>0.0004359711389426701</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001596209271042992</v>
+        <v>0.001273845340007791</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01330440665001026</v>
+        <v>0.004251519527633835</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001581664811761058</v>
+        <v>0.001596209271042992</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01694782299791231</v>
+        <v>0.01079039999999998</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00157720117142353</v>
+        <v>0.001703483452361103</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003942934260984812</v>
+        <v>0.01983050985127111</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001596209271042992</v>
+        <v>0.001566849126613669</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00598953469649656</v>
+        <v>0.0009680559938874816</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002394313906564487</v>
+        <v>0.001910768010011687</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01959211194260049</v>
+        <v>0.006514003992770773</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002372497217641587</v>
+        <v>0.002394313906564487</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02475184412130926</v>
+        <v>0.01374335257194995</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002365801757135295</v>
+        <v>0.002364225833963334</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.00598953469649656</v>
+        <v>0.0292050819303396</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002394313906564487</v>
+        <v>0.002350273689920504</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007774886611449885</v>
+        <v>0.001698092311384805</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003192418542085984</v>
+        <v>0.002547690680015582</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02563887130407763</v>
+        <v>0.008461843314255771</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003163329623522116</v>
+        <v>0.003192418542085984</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.033203486057655</v>
+        <v>0.01796844786165858</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00315440234284706</v>
+        <v>0.003152301111951112</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.007774886611449885</v>
+        <v>0.03750951351689974</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003192418542085984</v>
+        <v>0.003133698253227339</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003913222879999997</v>
+        <v>0.01193478206253994</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009790399999999991</v>
+        <v>0.02985934966860131</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009790399999999991</v>
+        <v>0.002617494045612304</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003913222879999997</v>
+        <v>0.003184613350019478</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.03189622430231429</v>
+        <v>0.01016569128368978</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003954162029402645</v>
+        <v>0.003990523177607479</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03979840960444075</v>
+        <v>0.0212854017376862</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003943002928558825</v>
+        <v>0.00394037638993889</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.009790399999999991</v>
+        <v>0.04571154066485389</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003913222879999997</v>
+        <v>0.003917122816534173</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01126391095001907</v>
+        <v>0.003717675150747612</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004788627813128975</v>
+        <v>0.003821536020023374</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.03721571050518307</v>
+        <v>0.01219620169267384</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004744994435283174</v>
+        <v>0.004788627813128975</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04733227555915748</v>
+        <v>0.02568717417002622</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00473160351427059</v>
+        <v>0.004728451667926668</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.01126391095001907</v>
+        <v>0.0528788994281042</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004788627813128975</v>
+        <v>0.004700547379841008</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01252154447305612</v>
+        <v>0.004990049580968388</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005586732448650471</v>
+        <v>0.00445845869002727</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.04054886948055658</v>
+        <v>0.01379039999999999</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005535826841163703</v>
+        <v>0.005512022879999997</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05379039999999996</v>
+        <v>0.02906672512867173</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005679400111303459</v>
+        <v>0.005516526945914446</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01252154447305612</v>
+        <v>0.05879039999999996</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005586732448650471</v>
+        <v>0.005438794317684743</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.014018366563533</v>
+        <v>0.006426031290452279</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006384837084171967</v>
+        <v>0.005095381360031165</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.04474724079630746</v>
+        <v>0.01500967065422691</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006326659247044232</v>
+        <v>0.006384837084171967</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05698613997824897</v>
+        <v>0.03291701458361593</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.00630880468569412</v>
+        <v>0.006304602223902224</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.014018366563533</v>
+        <v>0.06361667746091715</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006384837084171967</v>
+        <v>0.006267396506454677</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01545839295646596</v>
+        <v>0.008017034233376928</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007182941719693463</v>
+        <v>0.005732304030035061</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.04776236402030837</v>
+        <v>0.01651103920134586</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00711749165292476</v>
+        <v>0.007182941719693463</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06075487480100572</v>
+        <v>0.03623100250485203</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007097405271405884</v>
+        <v>0.007092677501890002</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01545839295646596</v>
+        <v>0.06714813232580219</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007182941719693463</v>
+        <v>0.007050821069761512</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01654563938687123</v>
+        <v>0.009754472363919998</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007981046355214958</v>
+        <v>0.006369226700038956</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.05044577872043188</v>
+        <v>0.01753705477703399</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00790832405880529</v>
+        <v>0.007981046355214958</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06536807921343057</v>
+        <v>0.03930164886237325</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007886005857117649</v>
+        <v>0.00788075277987778</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01654563938687123</v>
+        <v>0.07115111725503348</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007981046355214958</v>
+        <v>0.007834245633068346</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01788412158976506</v>
+        <v>0.01162975963625913</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008779150990736456</v>
+        <v>0.007006149370042853</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.05279039999999999</v>
+        <v>0.01899603491667125</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00887171483324569</v>
+        <v>0.008779150990736456</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06917599158496485</v>
+        <v>0.04262191362617285</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008674606442829415</v>
+        <v>0.008668828057865558</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01788412158976506</v>
+        <v>0.07400187814494968</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008779150990736456</v>
+        <v>0.008617670196375183</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01917785530016364</v>
+        <v>0.01363431000457198</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007643072040046749</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0195962971556377</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.00957725562625795</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.0524919447290271</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009489988870566348</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.07242885028504981</v>
+        <v>0.04588475676624398</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009463207028541179</v>
+        <v>0.009456903335853336</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01917785530016364</v>
+        <v>0.07787666089188977</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00957725562625795</v>
+        <v>0.009401094759682016</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02013085625308329</v>
+        <v>0.01575953742303618</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008279994710050644</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.02094615902931334</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01037536026177945</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.05367278995545896</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01028082127644687</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.0754768936831266</v>
+        <v>0.04868313825257994</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01025180761425294</v>
+        <v>0.01024497861384111</v>
       </c>
       <c r="N78" t="n">
-        <v>0.02013085625308329</v>
+        <v>0.08115171139219252</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01037536026177945</v>
+        <v>0.01018451932298885</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02164714018354018</v>
+        <v>0.0179968558458294</v>
       </c>
       <c r="G79" t="n">
+        <v>0.00891691738005454</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.02195393807307822</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01117346489730094</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.0539013336703684</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01107165368232741</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.07717036014863676</v>
+        <v>0.05061001805517382</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01104040819996471</v>
+        <v>0.01103305389182889</v>
       </c>
       <c r="N79" t="n">
-        <v>0.02164714018354018</v>
+        <v>0.08548468959618805</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01117346489730094</v>
+        <v>0.01129760845368321</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0227307228265506</v>
+        <v>0.02033767922712927</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009553840050058434</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02262795182231232</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01197156953282244</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.05447540013601684</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01186248608820793</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.0801594880510213</v>
+        <v>0.05325835614401891</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01182900878567648</v>
+        <v>0.01182112916981667</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0227307228265506</v>
+        <v>0.0855128463482982</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01197156953282244</v>
+        <v>0.01175136844960252</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02358561991713076</v>
+        <v>0.02277342152111347</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01019076272006233</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0235765178123957</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01276967416834393</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.05529281361466573</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01265331849408846</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.08548468959618805</v>
+        <v>0.0564605801377295</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0128940096482254</v>
+        <v>0.01273349643801506</v>
       </c>
       <c r="N81" t="n">
-        <v>0.02358561991713076</v>
+        <v>0.08874621286777434</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01276967416834393</v>
+        <v>0.01253479301290935</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02431584719029689</v>
+        <v>0.02529549668195964</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01082768539006623</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02450795357870834</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01356777880386543</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.0564605801377295</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01355501233724184</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.08673080963567814</v>
+        <v>0.05726176329902785</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0134062099571</v>
+        <v>0.01339727972579223</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02431584719029689</v>
+        <v>0.09230365336777063</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01356777880386543</v>
+        <v>0.01331821757621619</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02582542038106529</v>
+        <v>0.0278953186638454</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01146460806007012</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.02553057665663028</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01436588343938693</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.05660088532012314</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01423498330584952</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.09021062563594195</v>
+        <v>0.05930134597027539</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01419481054281177</v>
+        <v>0.01418535500378</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02582542038106529</v>
+        <v>0.0949802821896894</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01436588343938693</v>
+        <v>0.01410164213952302</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02661835522445211</v>
+        <v>0.02985934966860131</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01193478206253994</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.02675270458154151</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01516398807490842</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.05779664342684587</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01502581571173005</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.09153024179189445</v>
+        <v>0.06173929398154196</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01498341112852353</v>
+        <v>0.01497343028176778</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02661835522445211</v>
+        <v>0.09737121367493246</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01516398807490842</v>
+        <v>0.01488506670282986</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
+        <v>0.03609147755485277</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01273845340007791</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.02743647067927105</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.01566622475786377</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.0586285080364842</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01581664811761058</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.09448328373069775</v>
+        <v>0.06357258504482416</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0157720117142353</v>
+        <v>0.01576150555975556</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02743647067927105</v>
+        <v>0.1001715621649021</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01566622475786377</v>
+        <v>0.01566849126613669</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02849900553075828</v>
+        <v>0.03785934966860131</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01309284433038567</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02823882334269727</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01676019734595141</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.05948724224302032</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01660748052349111</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.09906337707951413</v>
+        <v>0.06609819687211876</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01656061229994707</v>
+        <v>0.01654958083774334</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02849900553075828</v>
+        <v>0.1042764420010008</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01676019734595141</v>
+        <v>0.01645191582944353</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02981658787085953</v>
+        <v>0.03936783460085778</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01401229874008571</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02931864015860493</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01755830198147291</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.06186360914043657</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01739831292937163</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.1017641474655055</v>
+        <v>0.0680131071754225</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01734921288565883</v>
+        <v>0.01733765611573112</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02981658787085953</v>
+        <v>0.1072809675246303</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01755830198147291</v>
+        <v>0.01723534039275037</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03045069303913338</v>
+        <v>0.04031544781484224</v>
       </c>
       <c r="G88" t="n">
+        <v>0.0146492214100896</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.03051989447684497</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.0183564066169944</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.06254837182271517</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01818914533525217</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1046792205158343</v>
+        <v>0.07101429366673212</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01813781347137059</v>
+        <v>0.0181257313937189</v>
       </c>
       <c r="N88" t="n">
-        <v>0.03045069303913338</v>
+        <v>0.1087802530771929</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0183564066169944</v>
+        <v>0.0180187649560572</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03179834512490526</v>
+        <v>0.04118801083618878</v>
       </c>
       <c r="G89" t="n">
+        <v>0.0152861440800935</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.03173937418518644</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.0191545112525159</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06483229338383842</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.0189799777411327</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1065022218576628</v>
+        <v>0.07269873405804433</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01892641405708236</v>
+        <v>0.01891380667170667</v>
       </c>
       <c r="N89" t="n">
-        <v>0.03179834512490526</v>
+        <v>0.1120694130000908</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0191545112525159</v>
+        <v>0.01880218951936403</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03285656821750071</v>
+        <v>0.0419895492059618</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01592306675009739</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.03267386717139825</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.0199526158880374</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.06590613691778863</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01977081014701322</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1096267771181529</v>
+        <v>0.07446340606135585</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01971501464279412</v>
+        <v>0.01970188194969445</v>
       </c>
       <c r="N90" t="n">
-        <v>0.03285656821750071</v>
+        <v>0.1152435616347263</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0199526158880374</v>
+        <v>0.01958561408267087</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03402238640624522</v>
+        <v>0.04272408846522574</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01655998942010129</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.03372016132324944</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02075072052355889</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.06746066551854799</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02056164255289375</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1135465119244669</v>
+        <v>0.07670528738866339</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02050361522850589</v>
+        <v>0.02048995722768223</v>
       </c>
       <c r="N91" t="n">
-        <v>0.03402238640624522</v>
+        <v>0.1171978133225013</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02075072052355889</v>
+        <v>0.0203690386459777</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03479282378046424</v>
+        <v>0.04339565415504493</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01719691209010518</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.03457504452850899</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02154882515908039</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.06918664228009885</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02135247495877428</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1168550519037669</v>
+        <v>0.07832135575196369</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02129221581421765</v>
+        <v>0.02127803250567</v>
       </c>
       <c r="N92" t="n">
-        <v>0.03479282378046424</v>
+        <v>0.1200272824048182</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02154882515908039</v>
+        <v>0.02115246320928453</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03566490442948327</v>
+        <v>0.04400827181648378</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01783383476010908</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.03593530467494579</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02234692979460189</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.07207483029642342</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02214330736465481</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1197460226832154</v>
+        <v>0.08070858886325349</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02208081639992942</v>
+        <v>0.02206610778365778</v>
       </c>
       <c r="N93" t="n">
-        <v>0.03566490442948327</v>
+        <v>0.1229270832230789</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02234692979460189</v>
+        <v>0.02193588777259137</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03713565244262776</v>
+        <v>0.04456596699060665</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01847075743011298</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.03669772965032891</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02314503443012338</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.073415992661504</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02293413977053534</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1227130498899742</v>
+        <v>0.0826639644345295</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02286941698564118</v>
+        <v>0.02285418306164556</v>
       </c>
       <c r="N94" t="n">
-        <v>0.03713565244262776</v>
+        <v>0.1261923301186859</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02314503443012338</v>
+        <v>0.02271931233589821</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03810209190922324</v>
+        <v>0.04507276521847794</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01910768010011687</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.03795910734242729</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02394313906564487</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.07540089246932291</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02372497217641586</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1255497591512056</v>
+        <v>0.08458446017778845</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02365801757135295</v>
+        <v>0.02364225833963334</v>
       </c>
       <c r="N95" t="n">
-        <v>0.03810209190922324</v>
+        <v>0.1298181374330411</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02394313906564487</v>
+        <v>0.02350273689920504</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03906124691859522</v>
+        <v>0.04553269204116203</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01974460277012077</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.03861622563900989</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02474124370116637</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.07772029281386236</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.0245158045822964</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.127849776094072</v>
+        <v>0.08646705380502706</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02444661815706472</v>
+        <v>0.02443033361762112</v>
       </c>
       <c r="N96" t="n">
-        <v>0.03906124691859522</v>
+        <v>0.1319996195075467</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02474124370116637</v>
+        <v>0.02428616146251188</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03991014156006911</v>
+        <v>0.04594977299972333</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02038152544012466</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.03966587242784571</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02553934833668787</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.07996495678910465</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02530663698817693</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1303067263457354</v>
+        <v>0.08840872302824215</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02523521874277648</v>
+        <v>0.0252184088956089</v>
       </c>
       <c r="N97" t="n">
-        <v>0.03991014156006911</v>
+        <v>0.1336318906836051</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02553934833668787</v>
+        <v>0.02506958602581871</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04114579992297047</v>
+        <v>0.04632803363522621</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02101844811012856</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.04080483559670374</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02633745297220936</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.08212564748903203</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02609746939405745</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1345142355333578</v>
+        <v>0.09000644555943027</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02602381932848824</v>
+        <v>0.02600648417359668</v>
       </c>
       <c r="N98" t="n">
-        <v>0.04114579992297047</v>
+        <v>0.1371100653026182</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02633745297220936</v>
+        <v>0.02585301058912555</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04236524609662472</v>
+        <v>0.04667149948873502</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02165537078013246</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.04222990303335293</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02713555760773086</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.08429312800762678</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02688830179993798</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1359659292841017</v>
+        <v>0.09145719911058825</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02681241991420001</v>
+        <v>0.02679455945158445</v>
       </c>
       <c r="N99" t="n">
-        <v>0.04236524609662472</v>
+        <v>0.1395292577059882</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02713555760773086</v>
+        <v>0.02663643515243238</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04306550417035739</v>
+        <v>0.04698419610131419</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02229229345013635</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.04283786262556227</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02793366224325236</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.08625816143887122</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02767913420581851</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1397554332251292</v>
+        <v>0.09375796139371284</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02760102049991177</v>
+        <v>0.02758263472957223</v>
       </c>
       <c r="N100" t="n">
-        <v>0.04306550417035739</v>
+        <v>0.1418845822351174</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02793366224325236</v>
+        <v>0.02741985971573921</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04434359823349393</v>
+        <v>0.04727014901402807</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02292921612014024</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.04372550226110074</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02873176687877385</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.08801151087674758</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02846996661169904</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1422763729836024</v>
+        <v>0.09500571012080078</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02838962108562354</v>
+        <v>0.02837071000756001</v>
       </c>
       <c r="N101" t="n">
-        <v>0.04434359823349393</v>
+        <v>0.1442711532314078</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02873176687877385</v>
+        <v>0.02820328427904605</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04509655237535988</v>
+        <v>0.04753338376794108</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02356613879014414</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.04478960982773732</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02952987151429535</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.08984393941523816</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02926079901757957</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1441223741866835</v>
+        <v>0.0971974230038487</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0291782216713353</v>
+        <v>0.02915878528554779</v>
       </c>
       <c r="N102" t="n">
-        <v>0.04509655237535988</v>
+        <v>0.1466840850362618</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02952987151429535</v>
+        <v>0.02898670884235288</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04602139068528066</v>
+        <v>0.04777792590411757</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02420306146014804</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.04612697321324094</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03032797614981684</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.09134621014832517</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.0300516314234601</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1473870624615347</v>
+        <v>0.09813007775485338</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02996682225704706</v>
+        <v>0.02994686056353556</v>
       </c>
       <c r="N103" t="n">
-        <v>0.04602139068528066</v>
+        <v>0.1483184919910813</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03032797614981684</v>
+        <v>0.02977013340565971</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04691513725258181</v>
+        <v>0.04800780096362196</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02483998413015193</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.04703438030538065</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03112608078533834</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.09410908616999086</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03084246382934063</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1488640634353182</v>
+        <v>0.09970065208581153</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03075542284275883</v>
+        <v>0.03073493584152334</v>
       </c>
       <c r="N104" t="n">
-        <v>0.04691513725258181</v>
+        <v>0.1504694884372687</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03112608078533834</v>
+        <v>0.03055355796896655</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04757481616658878</v>
+        <v>0.0482270344875186</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02547690680015582</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.0474086189919254</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03192418542085983</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.09582333057421766</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03163329623522116</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1517470027351962</v>
+        <v>0.1007061237087199</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0315440234284706</v>
+        <v>0.03152301111951112</v>
       </c>
       <c r="N105" t="n">
-        <v>0.04757481616658878</v>
+        <v>0.1529321887162259</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03192418542085983</v>
+        <v>0.03133698253227338</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04879745151662704</v>
+        <v>0.04843965201687191</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02611382947015972</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.04824647716064415</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03272229005638133</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.0970797064549877</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03242412864110169</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1531295059883308</v>
+        <v>0.1020434703355752</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03233262401418237</v>
+        <v>0.0323110863974989</v>
       </c>
       <c r="N106" t="n">
-        <v>0.04879745151662704</v>
+        <v>0.1542017071693554</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03272229005638133</v>
+        <v>0.03212040709558023</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04958006739202214</v>
+        <v>0.04864967909274626</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02675075214016362</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.04954474269930589</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03352039469190283</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.09946897690628337</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03321496104698221</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1550051988218843</v>
+        <v>0.1042096696783742</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03312122459989413</v>
+        <v>0.03309916167548668</v>
       </c>
       <c r="N107" t="n">
-        <v>0.04958006739202214</v>
+        <v>0.157473158138059</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03352039469190283</v>
+        <v>0.03290383165888706</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.05031968788209951</v>
+        <v>0.048861141256206</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02738767481016751</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.05020020349567959</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03431849932742432</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.1009819050220869</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03400579345286275</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1585677068630189</v>
+        <v>0.1045016994491135</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0339098251856059</v>
+        <v>0.03388723695347445</v>
       </c>
       <c r="N108" t="n">
-        <v>0.05031968788209951</v>
+        <v>0.1581416559637391</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03431849932742432</v>
+        <v>0.03368725622219389</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.05111333707618466</v>
+        <v>0.04907806404831556</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02802459748017141</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.05050964743753425</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03511660396294582</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.1033092538963804</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03479662585874327</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1596106557388965</v>
+        <v>0.10631653735979</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03469842577131766</v>
+        <v>0.03467531223146223</v>
       </c>
       <c r="N109" t="n">
-        <v>0.05111333707618466</v>
+        <v>0.1595023149877979</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03511660396294582</v>
+        <v>0.03447068078550073</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05165803906360306</v>
+        <v>0.04930426972423028</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02866152015017531</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.05126986241263881</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03591470859846731</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.1039417866231464</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.0355874582646238</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1612276710766796</v>
+        <v>0.1066511611224004</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03548702635702942</v>
+        <v>0.03546338750945002</v>
       </c>
       <c r="N110" t="n">
-        <v>0.05165803906360306</v>
+        <v>0.1616502495516374</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03591470859846731</v>
+        <v>0.03525410534880756</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05225081793368021</v>
+        <v>0.04953346499585229</v>
       </c>
       <c r="G111" t="n">
+        <v>0.0292984428201792</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.05177763630876228</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.0367128132339888</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.105970266296367</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03637829067050433</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1621123785035303</v>
+        <v>0.1085025484489413</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03627562694274119</v>
+        <v>0.03625146278743779</v>
       </c>
       <c r="N111" t="n">
-        <v>0.05225081793368021</v>
+        <v>0.1626805739966599</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0367128132339888</v>
+        <v>0.0360375299121144</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05278869777574159</v>
+        <v>0.04976092459995742</v>
       </c>
       <c r="G112" t="n">
+        <v>0.0299353654901831</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.05242975701367363</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03751091786951031</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.1074854560100245</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03716912307638486</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1648584036466107</v>
+        <v>0.1084676770514095</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03706422752845295</v>
+        <v>0.03703953806542557</v>
       </c>
       <c r="N112" t="n">
-        <v>0.05278869777574159</v>
+        <v>0.1641884026642674</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03751091786951031</v>
+        <v>0.03682095447542123</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05296870267911269</v>
+        <v>0.04998655145342711</v>
       </c>
       <c r="G113" t="n">
+        <v>0.030572288160187</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.05302301241514182</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.0383090225050318</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.1084781188581013</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03795995548226539</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1656593721330831</v>
+        <v>0.1097435246418017</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03785282811416472</v>
+        <v>0.03782761334341334</v>
       </c>
       <c r="N113" t="n">
-        <v>0.05296870267911269</v>
+        <v>0.1665688498958622</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0383090225050318</v>
+        <v>0.03760437903872806</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05328785673311896</v>
+        <v>0.05021024847314279</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03120921083019089</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.05345419040093584</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.0391071271405533</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.1088390179345795</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03875078788814592</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1670089095901097</v>
+        <v>0.1099270689321146</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03864142869987648</v>
+        <v>0.03861568862140112</v>
       </c>
       <c r="N114" t="n">
-        <v>0.05328785673311896</v>
+        <v>0.1663170300328465</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0391071271405533</v>
+        <v>0.0383878036020349</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05374318402708593</v>
+        <v>0.05043191857598599</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03184613350019478</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.05372007885882467</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03990523177607479</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.1096589163334415</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03954162029402645</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1681006416448524</v>
+        <v>0.1108152876343452</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03943002928558825</v>
+        <v>0.0394037638993889</v>
       </c>
       <c r="N115" t="n">
-        <v>0.05374318402708593</v>
+        <v>0.1670280574166225</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03990523177607479</v>
+        <v>0.03917122816534174</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05443170865033907</v>
+        <v>0.05065146467883812</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03248305617019868</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.05391746567657728</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04070333641159629</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.1109285771486694</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04033245269990698</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1685281939244737</v>
+        <v>0.1111051584604898</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04021862987130001</v>
+        <v>0.04019183917737668</v>
       </c>
       <c r="N116" t="n">
-        <v>0.05443170865033907</v>
+        <v>0.1682970463885922</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04070333641159629</v>
+        <v>0.03995465272864857</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05465045469220388</v>
+        <v>0.05086878969858066</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03311997884020258</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.05444313874196266</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04150144104711778</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.1116387634742457</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0411232851057875</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1690851920561358</v>
+        <v>0.1118936591225454</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04100723045701177</v>
+        <v>0.04097991445536445</v>
       </c>
       <c r="N117" t="n">
-        <v>0.05465045469220388</v>
+        <v>0.1695191112901577</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04150144104711778</v>
+        <v>0.0407380772919554</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.05459644624200582</v>
+        <v>0.05108379655209509</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03375690151020647</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.05469388594274976</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04229954568263928</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.1122802384041526</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04191411751166804</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1700652616670005</v>
+        <v>0.1124777673325086</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04179583104272354</v>
+        <v>0.04176798973335223</v>
       </c>
       <c r="N118" t="n">
-        <v>0.05459644624200582</v>
+        <v>0.1696893664627215</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04229954568263928</v>
+        <v>0.04152150185526224</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.05129638815626283</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03439382418021036</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.05487294135854208</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04309765031816078</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.112921160275459</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.04270494991754856</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.170969379192376</v>
-      </c>
       <c r="M119" t="n">
-        <v>0.0425844316284353</v>
+        <v>0.04255606501134001</v>
       </c>
       <c r="N119" t="n">
-        <v>0.05487294135854208</v>
+        <v>0.1696029262476855</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04309765031816078</v>
+        <v>0.04230492641856907</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05477185286931573</v>
+        <v>0.05150646742796537</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03503074685021426</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.05477091635829427</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04389575495368227</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.1124210919110758</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04349578232342909</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1705691178349875</v>
+        <v>0.1128207172441451</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04337303221414707</v>
+        <v>0.04334414028932779</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05477185286931573</v>
+        <v>0.170969379192376</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04389575495368227</v>
+        <v>0.0430883509818759</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05486529178906112</v>
+        <v>0.05171393728408415</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03566766952021816</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.05485881039841795</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04469385958920377</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.1123134593885239</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04428661472930962</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1697499793390667</v>
+        <v>0.1121107274753908</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04416163279985884</v>
+        <v>0.04413221556731556</v>
       </c>
       <c r="N121" t="n">
-        <v>0.05486529178906112</v>
+        <v>0.1694602740880409</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04469385958920377</v>
+        <v>0.04387177554518275</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0544528524056076</v>
+        <v>0.05191870064150067</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03630459219022206</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.05463609610121328</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04549196422472526</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.1128933142423553</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04507744713519015</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1701884314971454</v>
+        <v>0.1124757584136318</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0449502333855706</v>
+        <v>0.04492029084530334</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0544528524056076</v>
+        <v>0.170903332602054</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04549196422472526</v>
+        <v>0.04465520010848958</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05473459871020847</v>
+        <v>0.05212066041709633</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03694151486022595</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.05430312601838656</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04629006886024676</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.1119608326590513</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04586827954107068</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1699861501417501</v>
+        <v>0.1124169243313028</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04573883397128237</v>
+        <v>0.04570836612329112</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05473459871020847</v>
+        <v>0.1700959095184602</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04629006886024676</v>
+        <v>0.04543862467179641</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05471059469411703</v>
+        <v>0.05231971952775266</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03757843753022985</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.05456025270164405</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04708817349576826</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.1122161908250935</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04665911194695121</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1695446078437195</v>
+        <v>0.111934995338816</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04652743455699413</v>
+        <v>0.0464964414012789</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05471059469411703</v>
+        <v>0.169740011869681</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04708817349576826</v>
+        <v>0.04622204923510325</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05448090434858653</v>
+        <v>0.05251578089035108</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03821536020023374</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.05460782870269201</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04788627813128975</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.1125595649269634</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04744994435283173</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1702652771738922</v>
+        <v>0.1126307415465833</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0473160351427059</v>
+        <v>0.04728451667926668</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05448090434858653</v>
+        <v>0.1702376466881383</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04788627813128975</v>
+        <v>0.04700547379841008</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0543455916648703</v>
+        <v>0.05270874742177303</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03885228287023763</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.05444620657323675</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04868438276681125</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.1117911311511424</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04824077675871227</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.169249630703107</v>
+        <v>0.1122049330650168</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04810463572841767</v>
+        <v>0.04807259195725446</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0543455916648703</v>
+        <v>0.1698908210062539</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04868438276681125</v>
+        <v>0.04778889836171692</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05430472063422156</v>
+        <v>0.05289852203890004</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03948920554024153</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.05457573886498451</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04948248740233274</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.111911065684112</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04903160916459279</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1685991410022026</v>
+        <v>0.1120583400045286</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04889323631412943</v>
+        <v>0.04886066723524224</v>
       </c>
       <c r="N127" t="n">
-        <v>0.05430472063422156</v>
+        <v>0.1685015418564496</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04948248740233274</v>
+        <v>0.04857232292502375</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05465835524789367</v>
+        <v>0.05308500765861353</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04012612821024543</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.0543967781296416</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05028059203785424</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.1123195447123538</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04982244157047332</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1687152806420176</v>
+        <v>0.1110917324755306</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04968183689984119</v>
+        <v>0.04964874251323002</v>
       </c>
       <c r="N128" t="n">
-        <v>0.05465835524789367</v>
+        <v>0.1691718162711471</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05028059203785424</v>
+        <v>0.04935574748833058</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05440655949713985</v>
+        <v>0.05326810719779493</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04076305088024932</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.05440967691891425</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05107869667337574</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.1116167444223492</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05061327397635385</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1688995221933908</v>
+        <v>0.111105880588435</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05047043748555296</v>
+        <v>0.05043681779121779</v>
       </c>
       <c r="N129" t="n">
-        <v>0.05440655949713985</v>
+        <v>0.1687036512827683</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05107869667337574</v>
+        <v>0.05013917205163742</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05404939737321345</v>
+        <v>0.05344772357332575</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04139997355025322</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.05381478778450879</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05187680130889723</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.1115028410005796</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05140410638223438</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1675533382271608</v>
+        <v>0.1108015544536537</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05125903807126472</v>
+        <v>0.05122489306920557</v>
       </c>
       <c r="N130" t="n">
-        <v>0.05404939737321345</v>
+        <v>0.167599053923735</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05187680130889723</v>
+        <v>0.05092259661494426</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0540869328673677</v>
+        <v>0.05362375970208745</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04203689622025712</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.05371246327813148</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05267490594441872</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.1119780106335266</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05219493878811491</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1682782013141664</v>
+        <v>0.1114795241815989</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05204763865697649</v>
+        <v>0.05201296834719335</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0540869328673677</v>
+        <v>0.1683600312264688</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05267490594441872</v>
+        <v>0.05170602117825109</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05431922997085589</v>
+        <v>0.05379611850096144</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04267381889026101</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.05410305595148858</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05347301057994022</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.1114424295076717</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05298577119399544</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1677755840252462</v>
+        <v>0.1110405598826825</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05283623924268826</v>
+        <v>0.05280104362518112</v>
       </c>
       <c r="N132" t="n">
-        <v>0.05431922997085589</v>
+        <v>0.1675885902233916</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05347301057994022</v>
+        <v>0.05248944574155792</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05434635267493135</v>
+        <v>0.05396470288682925</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04331074156026491</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.05378691835628636</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05427111521546171</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.1118962738094963</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05377660359987596</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1671469589312392</v>
+        <v>0.1106854316673166</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05362483982840002</v>
+        <v>0.05358911890316891</v>
       </c>
       <c r="N133" t="n">
-        <v>0.05434635267493135</v>
+        <v>0.1673867379469253</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05427111521546171</v>
+        <v>0.05327287030486476</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05386836497084732</v>
+        <v>0.05412941577657231</v>
       </c>
       <c r="G134" t="n">
+        <v>0.0439476642302688</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.05336440304423112</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05506921985098322</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.1116397197254819</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05456743600575649</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1662937986029837</v>
+        <v>0.1102149096459133</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05441344041411179</v>
+        <v>0.05437719418115668</v>
       </c>
       <c r="N134" t="n">
-        <v>0.05386836497084732</v>
+        <v>0.1655564814294914</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05506921985098322</v>
+        <v>0.05405629486817159</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05388533084985711</v>
+        <v>0.05429016008707206</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04458458690027269</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.05353586256702914</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05586732448650471</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.11157294344211</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05535826841163703</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1655175756113185</v>
+        <v>0.1097297639288846</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05520204099982354</v>
+        <v>0.05516526945914446</v>
       </c>
       <c r="N135" t="n">
-        <v>0.05388533084985711</v>
+        <v>0.164999827703512</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05586732448650471</v>
+        <v>0.05483971943147842</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05409731430321399</v>
+        <v>0.05444683873521</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04522150957027659</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.05310164947638667</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.0566654291220262</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.110996121145862</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05614910081751755</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1647197625270825</v>
+        <v>0.1096307646266426</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05599064158553532</v>
+        <v>0.05595334473713223</v>
       </c>
       <c r="N136" t="n">
-        <v>0.05409731430321399</v>
+        <v>0.1656187838014087</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0566654291220262</v>
+        <v>0.05562314399478527</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05350437932217127</v>
+        <v>0.05459935463786755</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04585843224028049</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.05326211632401001</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.0574635337575477</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.1109094290232196</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05693993322339808</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1642018319211143</v>
+        <v>0.1095186818495992</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05677924217124707</v>
+        <v>0.05674142001512002</v>
       </c>
       <c r="N137" t="n">
-        <v>0.05350437932217127</v>
+        <v>0.1638153567556033</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0574635337575477</v>
+        <v>0.0564065685580921</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05390658989798219</v>
+        <v>0.0547476107119262</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04649535491028439</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.05301761566160543</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05826163839306919</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.1105130432606641</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05773076562927861</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1645652563642525</v>
+        <v>0.1085942857081666</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05756784275695884</v>
+        <v>0.05752949529310779</v>
       </c>
       <c r="N138" t="n">
-        <v>0.05390658989798219</v>
+        <v>0.1636915535985177</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05826163839306919</v>
+        <v>0.05718999312139893</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05380401002190009</v>
+        <v>0.05489150987426743</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04713227758028828</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.05306850004087919</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.0590597430285907</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.109707140044677</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05852159803515913</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.164311508427336</v>
+        <v>0.1092583463127567</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0583564433426706</v>
+        <v>0.05831757057109557</v>
       </c>
       <c r="N139" t="n">
-        <v>0.05380401002190009</v>
+        <v>0.1628493813625736</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0590597430285907</v>
+        <v>0.05797341768470576</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0535967036851782</v>
+        <v>0.05503095504177265</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04776920025029217</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.05291512201353758</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05985784766411219</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.1096918955617397</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05931243044103968</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1629420606812033</v>
+        <v>0.1078116337737817</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05914504392838237</v>
+        <v>0.05910564584908334</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0535967036851782</v>
+        <v>0.1618908470801927</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05985784766411219</v>
+        <v>0.05875684224801261</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05358473487906985</v>
+        <v>0.05516584913132333</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04840612292029607</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.05245783413128689</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06065595229963369</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.110167485998334</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.0601032628469202</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1636583856966933</v>
+        <v>0.1076549182016535</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05993364451409413</v>
+        <v>0.05989372112707113</v>
       </c>
       <c r="N141" t="n">
-        <v>0.05358473487906985</v>
+        <v>0.161417957783797</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06065595229963369</v>
+        <v>0.05954026681131943</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05336816759482831</v>
+        <v>0.05529609505980099</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04904304559029997</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.05229698894583339</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06145405693515518</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.1099340875409411</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06089409525280073</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1630619560446445</v>
+        <v>0.1078889697067843</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0607222450998059</v>
+        <v>0.06068179640505891</v>
       </c>
       <c r="N142" t="n">
-        <v>0.05336816759482831</v>
+        <v>0.1601327205058081</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06145405693515518</v>
+        <v>0.06032369137462627</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05324706582370686</v>
+        <v>0.05542159574408703</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04967996826030387</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.05223293900888333</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06225216157067667</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.1091918763760424</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06168492765868126</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1607542442958957</v>
+        <v>0.107414558399586</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06151084568551766</v>
+        <v>0.06146987168304668</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05324706582370686</v>
+        <v>0.1607371422786478</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06225216157067667</v>
+        <v>0.0611071159379331</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0530214935569588</v>
+        <v>0.05554225410106292</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05031689093030776</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.05216603687214298</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06305026620619818</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.1093410286901197</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06247576006456178</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1614367230212856</v>
+        <v>0.1063324543904708</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06229944627122943</v>
+        <v>0.06225794696103446</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0530214935569588</v>
+        <v>0.1593332301347379</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06305026620619818</v>
+        <v>0.06189054050123994</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0526915147858374</v>
+        <v>0.05565797304761015</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05095381360031165</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.05169663508731868</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06384837084171967</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.1089817206696543</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06326659247044232</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.160010864791653</v>
+        <v>0.1062434277898505</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06308804685694119</v>
+        <v>0.06304602223902224</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0526915147858374</v>
+        <v>0.1588229911065003</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06384837084171967</v>
+        <v>0.06267396506454677</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05275719350159594</v>
+        <v>0.05576865550061015</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05159073627031555</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.05182508620611666</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06464647547724116</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.1089141285011277</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06405742487632285</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1603781421778364</v>
+        <v>0.1058482487081374</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06387664744265296</v>
+        <v>0.06383409751701001</v>
       </c>
       <c r="N146" t="n">
-        <v>0.05275719350159594</v>
+        <v>0.1579084322263568</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06464647547724116</v>
+        <v>0.06345738962785361</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05251859369548773</v>
+        <v>0.0558742043769444</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05222765894031944</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.05185174278024321</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06544458011276266</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.1086384283710213</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06484825728220338</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1586400277506747</v>
+        <v>0.1053476872557434</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06466524802836474</v>
+        <v>0.0646221727949978</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05251859369548773</v>
+        <v>0.158091560526729</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06544458011276266</v>
+        <v>0.06424081419116046</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05257577935876602</v>
+        <v>0.05597452259349438</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05286458161032334</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.0516769573614046</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06624268474828417</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.1075547964658168</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06563908968808389</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1581979940810064</v>
+        <v>0.1049425135430807</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06545384861407649</v>
+        <v>0.06541024807298557</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05257577935876602</v>
+        <v>0.1567743830400387</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06624268474828417</v>
+        <v>0.06502423875446728</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05232881448268413</v>
+        <v>0.05606951306714149</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05350150428032724</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.05130108250130708</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06704078938380566</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.1073634089719954</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06642992209396442</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1579535137396704</v>
+        <v>0.1046334976805611</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06624244919978826</v>
+        <v>0.06619832335097335</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05232881448268413</v>
+        <v>0.1551589067987079</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06704078938380566</v>
+        <v>0.06580766331777411</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05207776305849535</v>
+        <v>0.05615907871476725</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05413842695033113</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.05112447075165698</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06783889401932715</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.1076644420760388</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06722075449984496</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1579080592975053</v>
+        <v>0.1047214097785969</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06703104978550002</v>
+        <v>0.06698639862896112</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05207776305849535</v>
+        <v>0.1559471388351581</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06783889401932715</v>
+        <v>0.06659108788108095</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05172268907745292</v>
+        <v>0.05624312245325308</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05477534962033503</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.05064747466416054</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06863699865484864</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.1071580719644285</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06801158690572549</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1570631033253498</v>
+        <v>0.1045070199475999</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06781965037121179</v>
+        <v>0.06777447390694891</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05172268907745292</v>
+        <v>0.1550410861818113</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06863699865484864</v>
+        <v>0.06737451244438779</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05196365653081016</v>
+        <v>0.05632154719948049</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05541227229033893</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.05087044679052405</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06943510329037013</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.1063444748236458</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06880241931160602</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1556201183940427</v>
+        <v>0.1031910982979824</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06860825095692355</v>
+        <v>0.06856254918493669</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05196365653081016</v>
+        <v>0.1536427558710893</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06943510329037013</v>
+        <v>0.06815793700769461</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05180072940982035</v>
+        <v>0.05639425587033087</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05604919496034282</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.05049373968245378</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07023320792589165</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.1061238268401723</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06959325171748654</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1549805770744225</v>
+        <v>0.1034744149401562</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06939685154263532</v>
+        <v>0.06935062446292446</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05180072940982035</v>
+        <v>0.1534541549354138</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07023320792589165</v>
+        <v>0.06894136157100146</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05133397170573677</v>
+        <v>0.05646115138268575</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05668611763034672</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.050317705891656</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07103131256141314</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.1063963042004895</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.07038408412336707</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1554459519373281</v>
+        <v>0.1027577399845335</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07018545212834708</v>
+        <v>0.07013869974091225</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05133397170573677</v>
+        <v>0.1524772904072064</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07103131256141314</v>
+        <v>0.06972478613430828</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0510634474098127</v>
+        <v>0.05652213665342656</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05732304030035061</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.049942697969837</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07182941719693463</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.1053620830910788</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07117491652924761</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1545101612916409</v>
+        <v>0.1027418435415263</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07097405271405885</v>
+        <v>0.07092677501890003</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0510634474098127</v>
+        <v>0.1515141693188893</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07182941719693463</v>
+        <v>0.07050821069761512</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05128922051330143</v>
+        <v>0.05657711459943476</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05795996297035451</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.04976906846870305</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07262752183245612</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.1058213396984218</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07196574893512814</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1539140253981943</v>
+        <v>0.1017274957215467</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07176265329977061</v>
+        <v>0.0717148502968878</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05128922051330143</v>
+        <v>0.1505667987028839</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07262752183245612</v>
+        <v>0.07129163526092196</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05101135500745625</v>
+        <v>0.05662598813759182</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05859688564035841</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.04999716993996042</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07342562646797761</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.1050742502089998</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07275658134100867</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1523480857773349</v>
+        <v>0.1021154666350066</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07255125388548238</v>
+        <v>0.07250292557487559</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05101135500745625</v>
+        <v>0.1506371855916122</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07342562646797761</v>
+        <v>0.07207505982422879</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05102991488353047</v>
+        <v>0.0566686601847792</v>
       </c>
       <c r="G158" t="n">
+        <v>0.0592338083103623</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.04982379863781264</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07422373110349911</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.1051209908092945</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07354741374688918</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1518165949998429</v>
+        <v>0.1012926194823693</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07333985447119414</v>
+        <v>0.07329100085286336</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05102991488353047</v>
+        <v>0.1497178011690322</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07422373110349911</v>
+        <v>0.07285848438753562</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05034496413277732</v>
+        <v>0.05670503365787836</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05987073098036619</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.04954333912175729</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07502183573902062</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.1047617376857872</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07433824615276971</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1515238056364984</v>
+        <v>0.1007368476047437</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07412845505690591</v>
+        <v>0.07407907613085114</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05034496413277732</v>
+        <v>0.1493927763343464</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07502183573902062</v>
+        <v>0.07364190895084247</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05065656674645014</v>
+        <v>0.05673501147377076</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06050765365037009</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.04955591639435478</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07581994037454211</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.1041966670249594</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07512907855865025</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1494739702580814</v>
+        <v>0.099949462573246</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07491705564261766</v>
+        <v>0.07486715140883891</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05065656674645014</v>
+        <v>0.1488617717744025</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07581994037454211</v>
+        <v>0.07442533351414929</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04996478671580218</v>
+        <v>0.05675849654933786</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06114457632037399</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.04906174340450402</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.0766180450100636</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.1036259550132927</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07591991096453078</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1479713414353723</v>
+        <v>0.09933215319788874</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07570565622832943</v>
+        <v>0.07565522668682668</v>
       </c>
       <c r="N161" t="n">
-        <v>0.04996478671580218</v>
+        <v>0.1472247493823982</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0766180450100636</v>
+        <v>0.07520875807745613</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04986968803208673</v>
+        <v>0.05677539180146111</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06178149899037787</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.0488610331011039</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07741614964558509</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.1028497778372686</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07671074337041131</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.148420171739151</v>
+        <v>0.09888660828868395</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07649425681404121</v>
+        <v>0.07644330196481447</v>
       </c>
       <c r="N162" t="n">
-        <v>0.04986968803208673</v>
+        <v>0.1470816710515313</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07741614964558509</v>
+        <v>0.07599218264076298</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04987133468655706</v>
+        <v>0.05678560014702201</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06241842166038177</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.04845399843305336</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07821425428110659</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.1031683116833684</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07750157577629184</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1463247137401979</v>
+        <v>0.09881451665564439</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07728285739975296</v>
+        <v>0.07723137724280224</v>
       </c>
       <c r="N163" t="n">
-        <v>0.04987133468655706</v>
+        <v>0.1471324986749996</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07821425428110659</v>
+        <v>0.0767756072040698</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04976979067046651</v>
+        <v>0.05678902450290198</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06305534433038566</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.04834085234925128</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.0790123589166281</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.1024817327380738</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07829240818217235</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.144689220009293</v>
+        <v>0.09801756710878218</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07807145798546473</v>
+        <v>0.07801945252079003</v>
       </c>
       <c r="N164" t="n">
-        <v>0.04976979067046651</v>
+        <v>0.1459771941460006</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0790123589166281</v>
+        <v>0.07755903176737663</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04916511997506832</v>
+        <v>0.05678902450290196</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06305534433038566</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.04812180779859661</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07981046355214959</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.1015902171878661</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.0790832405880529</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1436179431172165</v>
+        <v>0.09729744845810978</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07886005857117649</v>
+        <v>0.0788075277987778</v>
       </c>
       <c r="N165" t="n">
-        <v>0.04916511997506832</v>
+        <v>0.1453157193577323</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07981046355214959</v>
+        <v>0.07834245633068347</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04905738659161579</v>
+        <v>0.05581041273261796</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06305507580192166</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.04809707772998824</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08060856818767108</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.1018932744511067</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07987407299393343</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1428151356347486</v>
+        <v>0.09675584951363947</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07964865915688826</v>
+        <v>0.07959560307676558</v>
       </c>
       <c r="N166" t="n">
-        <v>0.04905738659161579</v>
+        <v>0.1441480362033923</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08060856818767108</v>
+        <v>0.07912588089399031</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04894665451136219</v>
+        <v>0.05484295847600083</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06305480727345764</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.04806687509232509</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08140667282319258</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.1016181300843861</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08066490539981395</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1422850501326693</v>
+        <v>0.09589445908538369</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08043725974260002</v>
+        <v>0.08038367835475335</v>
       </c>
       <c r="N167" t="n">
-        <v>0.04894665451136219</v>
+        <v>0.1447741065761785</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08140667282319258</v>
+        <v>0.07990930545729713</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04903298772556082</v>
+        <v>0.05388723438685397</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06305453874499362</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.04753141283450607</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08220477745871407</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.1010232947648599</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08145573780569448</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1411319391817589</v>
+        <v>0.09571496598335472</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08122586032831179</v>
+        <v>0.08117175363274114</v>
       </c>
       <c r="N168" t="n">
-        <v>0.04903298772556082</v>
+        <v>0.1434938923692884</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08220477745871407</v>
+        <v>0.08069273002060398</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04871645022546496</v>
+        <v>0.05294381311910534</v>
       </c>
       <c r="G169" t="n">
+        <v>0.0630542702165296</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.04749090390543009</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08300288209423556</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.09971989221348493</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.082246570211575</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1399600553527974</v>
+        <v>0.09421905901756494</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08201446091402355</v>
+        <v>0.08195982891072891</v>
       </c>
       <c r="N169" t="n">
-        <v>0.04871645022546496</v>
+        <v>0.1426073554759199</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08300288209423556</v>
+        <v>0.0814761545839108</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04819710600232791</v>
+        <v>0.05201326732655775</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06305400168806559</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0468455612539961</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08380098672975707</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.09911904615121769</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08303740261745554</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1381736512165652</v>
+        <v>0.09450842699802675</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08280306149973532</v>
+        <v>0.08274790418871669</v>
       </c>
       <c r="N170" t="n">
-        <v>0.04819710600232791</v>
+        <v>0.1413144577892708</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08380098672975707</v>
+        <v>0.08225957914721764</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04837501904740293</v>
+        <v>0.05109616966305593</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06305373315960157</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.04659559782910296</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08459909136527856</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.09863188029901487</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08382823502333607</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1367769793438423</v>
+        <v>0.09288475873475249</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08359166208544708</v>
+        <v>0.08353597946670446</v>
       </c>
       <c r="N171" t="n">
-        <v>0.04837501904740293</v>
+        <v>0.1417151612025387</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08459909136527856</v>
+        <v>0.08304300371052448</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04764885954831442</v>
+        <v>0.05019309278240562</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06305346463113755</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.04684122657964959</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08539719600080006</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.09746951837783302</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.0846190674292166</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1352742923054089</v>
+        <v>0.09214974303775453</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08438026267115885</v>
+        <v>0.08432405474469225</v>
       </c>
       <c r="N172" t="n">
-        <v>0.04764885954831442</v>
+        <v>0.1408094276089215</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08539719600080006</v>
+        <v>0.08382642827383131</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04746850906993205</v>
+        <v>0.04930460933853012</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06305319610267353</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.04608266045453493</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08619530063632155</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.09674308410862881</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08540989983509713</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.134669842672045</v>
+        <v>0.09220506871704526</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08516886325687061</v>
+        <v>0.08511213002268002</v>
       </c>
       <c r="N173" t="n">
-        <v>0.04746850906993205</v>
+        <v>0.1405972189016167</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08619530063632155</v>
+        <v>0.08460985283713814</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04731501214286235</v>
+        <v>0.04843129198523458</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06305292757420951</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.04582011240265788</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08699340527184304</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.09536370121235899</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08620073224097764</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.132767883014531</v>
+        <v>0.09085242458263681</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08595746384258238</v>
+        <v>0.0859002053006678</v>
       </c>
       <c r="N174" t="n">
-        <v>0.04731501214286235</v>
+        <v>0.1388784969738223</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08699340527184304</v>
+        <v>0.08539327740044499</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04659679499842828</v>
+        <v>0.04757371337636367</v>
       </c>
       <c r="G175" t="n">
+        <v>0.0630526590457455</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.04575379537291735</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08779150990736455</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.09364249340998004</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08699156464685817</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1311726659036468</v>
+        <v>0.0897934994445419</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08674606442829413</v>
+        <v>0.08668828057865557</v>
       </c>
       <c r="N175" t="n">
-        <v>0.04659679499842828</v>
+        <v>0.1390532237187359</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08779150990736455</v>
+        <v>0.08617670196375181</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04652228386795272</v>
+        <v>0.04673244616572585</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06305239051728147</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.04568392231421226</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08858961454288604</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.0926905844224486</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08778239705273871</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1299884439101728</v>
+        <v>0.09002998211277263</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08753466501400591</v>
+        <v>0.08747635585664336</v>
       </c>
       <c r="N176" t="n">
-        <v>0.04652228386795272</v>
+        <v>0.1376213610295554</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08858961454288604</v>
+        <v>0.08696012652705865</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04589990498275856</v>
+        <v>0.0459080630072391</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06305212198881746</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.04501070617544151</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08938771917840754</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.09201909797072133</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08857322945861924</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1290194696048889</v>
+        <v>0.08836356139734147</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08832326559971768</v>
+        <v>0.08826443113463113</v>
       </c>
       <c r="N177" t="n">
-        <v>0.04589990498275856</v>
+        <v>0.1371828707994783</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08938771917840754</v>
+        <v>0.0877435510903655</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04503808457416876</v>
+        <v>0.04510113655471115</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06305185346035344</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.04513435990550403</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09018582381392903</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.091039157775755</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08936406186449977</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1272699955585754</v>
+        <v>0.08739592610826075</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08911186618542943</v>
+        <v>0.08905250641261891</v>
       </c>
       <c r="N178" t="n">
-        <v>0.04503808457416876</v>
+        <v>0.1359377149217025</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09018582381392903</v>
+        <v>0.08852697565367232</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04454524887350622</v>
+        <v>0.04431223946198673</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06305158493188943</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.04465509645329874</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09098392844945052</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.08896188755850604</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.0901548942703803</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1266442743420125</v>
+        <v>0.08662876505554284</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0899004667711412</v>
+        <v>0.08984058169060669</v>
       </c>
       <c r="N179" t="n">
-        <v>0.04454524887350622</v>
+        <v>0.1349858552894257</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09098392844945052</v>
+        <v>0.08931040021697915</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04432982411209384</v>
+        <v>0.0435419443828774</v>
       </c>
       <c r="G180" t="n">
+        <v>0.0630513164034254</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.0442731287677245</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09178203308497201</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.08829841103993114</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09094572667626082</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1252465585259803</v>
+        <v>0.08626376704920014</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09068906735685296</v>
+        <v>0.09062865696859447</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04432982411209384</v>
+        <v>0.1341272537958457</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09178203308497201</v>
+        <v>0.09009382478028599</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04370023652125454</v>
+        <v>0.04279082397129498</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06305104787496139</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.04408866979768028</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09258013772049352</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.08705985194098692</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09173655908214136</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.123381100681259</v>
+        <v>0.08520262089924491</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09147766794256473</v>
+        <v>0.09141673224658224</v>
       </c>
       <c r="N181" t="n">
-        <v>0.04370023652125454</v>
+        <v>0.1344618723341602</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09258013772049352</v>
+        <v>0.09087724934359283</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04276491233231121</v>
+        <v>0.04205945088105024</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06305077934649737</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.04390193249206495</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09337824235601502</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.08635733398263012</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09252739148802189</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1232521533786285</v>
+        <v>0.08464701541568956</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0922662685282765</v>
+        <v>0.09220480752457003</v>
       </c>
       <c r="N182" t="n">
-        <v>0.04276491233231121</v>
+        <v>0.1330896727975669</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09337824235601502</v>
+        <v>0.09166067390689965</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0420322777765868</v>
+        <v>0.04134839776598788</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06305051081803337</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.04361312979977748</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09417634699153651</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.08470198088581724</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09331822389390242</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1213639691888694</v>
+        <v>0.08459863940854648</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09305486911398826</v>
+        <v>0.0929928828025578</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0420322777765868</v>
+        <v>0.1332106170792637</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09417634699153651</v>
+        <v>0.0924440984702065</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0417107590854042</v>
+        <v>0.04065823727992306</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06305024228956933</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.04322247466971674</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.094974451627058</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.08410491637150488</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09410905629978294</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1209208006827614</v>
+        <v>0.08385918168782797</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09384346969970003</v>
+        <v>0.09378095808054558</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0417107590854042</v>
+        <v>0.1318246670724481</v>
       </c>
       <c r="O184" t="n">
-        <v>0.094974451627058</v>
+        <v>0.09322752303351332</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04090878249008632</v>
+        <v>0.03998954207676056</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06304997376110533</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.04273018005078166</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09577255626257949</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.08257726416064987</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09489988870566346</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1200269004310849</v>
+        <v>0.08243033106354641</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0946320702854118</v>
+        <v>0.09456903335853335</v>
       </c>
       <c r="N185" t="n">
-        <v>0.04090878249008632</v>
+        <v>0.1313317846703181</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09577255626257949</v>
+        <v>0.09401094759682016</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04043477422195607</v>
+        <v>0.03934288481031459</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06304970523264131</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.04293645889187113</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.096570660898101</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.08263014797420862</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.095690721111544</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.11838652100462</v>
+        <v>0.08181377634571418</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09542067087112356</v>
+        <v>0.09535710863652114</v>
       </c>
       <c r="N186" t="n">
-        <v>0.04043477422195607</v>
+        <v>0.1302319317660713</v>
       </c>
       <c r="O186" t="n">
-        <v>0.096570660898101</v>
+        <v>0.094794372160127</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03999716051233639</v>
+        <v>0.0387188381344299</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06304943670417729</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.04234152414188409</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.0973687655336225</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.08117469153313792</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09648155351742453</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.117303914974147</v>
+        <v>0.08171120634434365</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09620927145683533</v>
+        <v>0.09614518391450892</v>
       </c>
       <c r="N187" t="n">
-        <v>0.03999716051233639</v>
+        <v>0.1288250702529053</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0973687655336225</v>
+        <v>0.09557779672343383</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03910436759255016</v>
+        <v>0.03811797470292552</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06304916817571327</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.04194558874971942</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09816687016914399</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.08022201855839428</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09727238592330506</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1171833349104458</v>
+        <v>0.08012430986944707</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09699787204254709</v>
+        <v>0.09693325919249669</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03910436759255016</v>
+        <v>0.1291111620240183</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09816687016914399</v>
+        <v>0.09636122128674067</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03896482169392032</v>
+        <v>0.03754086716969854</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06304889964724925</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.04174886566427607</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09896497480466548</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.08045938884487855</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09806321832918559</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1163290333842967</v>
+        <v>0.07935477573103697</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09778647262825886</v>
+        <v>0.09772133447048448</v>
       </c>
       <c r="N189" t="n">
-        <v>0.03896482169392032</v>
+        <v>0.1272901689726076</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09896497480466548</v>
+        <v>0.09714464585004751</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03878694904776976</v>
+        <v>0.03698574985203415</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06304863111878524</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.04175156783445294</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09976307944018697</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.07972793780526485</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.0988540507350661</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1162452629664798</v>
+        <v>0.07910429273912559</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09857507321397062</v>
+        <v>0.09850940974847226</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03878694904776976</v>
+        <v>0.1264620529918711</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09976307944018697</v>
+        <v>0.09792807041335433</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03807044769858335</v>
+        <v>0.03643916538458154</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06304836259032122</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.04115390820914892</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1005611840757085</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.07902248517174726</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09964488314094665</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1149362762277754</v>
+        <v>0.07817454970372537</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09936367379968239</v>
+        <v>0.09929748502646003</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03807044769858335</v>
+        <v>0.1265267759750065</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1005611840757085</v>
+        <v>0.09871149497666117</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03777200572652684</v>
+        <v>0.03589934808462968</v>
       </c>
       <c r="G192" t="n">
+        <v>0.0630480940618572</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.04085609973726297</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.10135928871123</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.07884112319626771</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1004357155468272</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.1156063257389634</v>
+        <v>0.07826723543484862</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1001522743853941</v>
+        <v>0.1000855603044478</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03777200572652684</v>
+        <v>0.1244842998152117</v>
       </c>
       <c r="O192" t="n">
-        <v>0.10135928871123</v>
+        <v>0.099494919539968</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03738408603553764</v>
+        <v>0.03536687060607029</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06304782553339318</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.04044700151402086</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1021573933467515</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.07838194413076793</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1012265479527077</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1151596640708241</v>
+        <v>0.07687430867502126</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1009408749711059</v>
+        <v>0.1008736355824356</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03738408603553764</v>
+        <v>0.1249275194609886</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1021573933467515</v>
+        <v>0.1002783441032748</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03730622233727678</v>
+        <v>0.03484230560272443</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06304755700492917</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.04011429356245122</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.102955497982273</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.0774430402271899</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1020173803585882</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1135005437941376</v>
+        <v>0.07668401477923095</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1017294755568177</v>
+        <v>0.1016617108604234</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03730622233727678</v>
+        <v>0.123648050086703</v>
       </c>
       <c r="O194" t="n">
-        <v>0.102955497982273</v>
+        <v>0.1010617686665817</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03693794834340532</v>
+        <v>0.03432622572843683</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06304728847646515</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.0396597041403539</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1037536026177945</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.07742250373747533</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1028082127644688</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1134172524981107</v>
+        <v>0.07639637927074019</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1025180761425294</v>
+        <v>0.1024497861384111</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03693794834340532</v>
+        <v>0.1230470309227658</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1037536026177945</v>
+        <v>0.1018451932298885</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0370787977655843</v>
+        <v>0.0338192036370303</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06304701994800113</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03958498713032801</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.104551707253316</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.0769184269135661</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1035990451703493</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1125593166926098</v>
+        <v>0.0760114719026502</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1033066767282412</v>
+        <v>0.1032378614163989</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0370787977655843</v>
+        <v>0.1223256374896068</v>
       </c>
       <c r="O196" t="n">
-        <v>0.104551707253316</v>
+        <v>0.1026286177931953</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0367283043154748</v>
+        <v>0.03332181198239374</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06304675141953711</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.03909189641497275</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1053498118888374</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.07602890200740406</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1043898775762298</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.1127213230583414</v>
+        <v>0.07552936242806207</v>
       </c>
       <c r="M197" t="n">
-        <v>0.104095277313953</v>
+        <v>0.1040259366943867</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0367283043154748</v>
+        <v>0.1202850453076559</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1053498118888374</v>
+        <v>0.1034120423565022</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03658600170473783</v>
+        <v>0.03283462341834958</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06304648289107311</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.03898218587688726</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.106147916524359</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.07645202127093104</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1051807099821103</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1129017792362119</v>
+        <v>0.07405012060007704</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1048838778996647</v>
+        <v>0.1048140119723745</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03658600170473783</v>
+        <v>0.1203264298973429</v>
       </c>
       <c r="O198" t="n">
-        <v>0.106147916524359</v>
+        <v>0.104195466919809</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03635142364503446</v>
+        <v>0.03235821059874253</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06304621436260908</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03845760939867071</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1069460211598804</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.07608587695608887</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1059715423879909</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1120991928671269</v>
+        <v>0.07337381617179634</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1056724784853765</v>
+        <v>0.1056020872503622</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03635142364503446</v>
+        <v>0.1180509667790977</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1069460211598804</v>
+        <v>0.1049788914831158</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03592410384802573</v>
+        <v>0.03189314617739729</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06304594583414506</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03811992086292225</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1077441257954019</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.07522856131481936</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1067623747938714</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1121120715919925</v>
+        <v>0.07330051889632108</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1064610790710883</v>
+        <v>0.10639016252835</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03592410384802573</v>
+        <v>0.1169598314733499</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1077441257954019</v>
+        <v>0.1057623160464227</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03540357602537271</v>
+        <v>0.0314400028081991</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06304567730568104</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.03757087415224102</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1085422304309234</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.07477816659906442</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1075532071997519</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1123389230517149</v>
+        <v>0.07273029852675239</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1072496796568</v>
+        <v>0.1071782378063378</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03540357602537271</v>
+        <v>0.1172541995005296</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1085422304309234</v>
+        <v>0.1065457406097295</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03558937388873641</v>
+        <v>0.03099935314497219</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06304540877721702</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03691222314922621</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1093403350664449</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.07483278506076588</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1083440396056325</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1126782548871998</v>
+        <v>0.0725632248161916</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1080382802425118</v>
+        <v>0.1079663130843256</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03558937388873641</v>
+        <v>0.1158352463810667</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1093403350664449</v>
+        <v>0.1073291651730364</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03528103114977792</v>
+        <v>0.03057176984156124</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06304514024875302</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.03654572173647692</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1101384397019664</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.07419050895186552</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.109134872011513</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.1116285747393534</v>
+        <v>0.07179936751773983</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1088268808282236</v>
+        <v>0.1087543883623134</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03528103114977792</v>
+        <v>0.1155041476353907</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1101384397019664</v>
+        <v>0.1081125897363432</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03507808152015823</v>
+        <v>0.03015782555179325</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06304487172028898</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.03577312379659238</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1109365443374879</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.07454943052430524</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1099257044173935</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.1122883902490815</v>
+        <v>0.07093879638449821</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1096154814139353</v>
+        <v>0.1095424636403011</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03507808152015823</v>
+        <v>0.1132620787839318</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1109365443374879</v>
+        <v>0.10889601429965</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03468005871153845</v>
+        <v>0.02975809292954901</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06304460319182498</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.03549618321217171</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1117346489730094</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.07430764203002679</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1107165368232741</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.1119562090572905</v>
+        <v>0.07028158116956798</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1104040819996471</v>
+        <v>0.1103305389182889</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03468005871153845</v>
+        <v>0.1124102153471196</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1117346489730094</v>
+        <v>0.1096794388629568</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03478649643557961</v>
+        <v>0.02937314462865488</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06304433466336096</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.0350166538658141</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1125327536085309</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.07336323572097211</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1115073692291546</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.1125305388048858</v>
+        <v>0.06962779162605032</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1111926825853589</v>
+        <v>0.1111186141962767</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03478649643557961</v>
+        <v>0.111349732845384</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1125327536085309</v>
+        <v>0.1104628634262637</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03419692840394274</v>
+        <v>0.02900355330295559</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06304406613489695</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.03443628964011863</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1133308582440524</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.07311430384908293</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1122982016350351</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.1115098871327738</v>
+        <v>0.06987749750704644</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1119812831710706</v>
+        <v>0.1119066894742645</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03419692840394274</v>
+        <v>0.1110818067991549</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1133308582440524</v>
+        <v>0.1112462879895705</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0340108883282889</v>
+        <v>0.0286498916062808</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06304379760643292</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.03395684441768454</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1141289628795739</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.07315893866630122</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1130890340409156</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.1114927616818603</v>
+        <v>0.06923076856565746</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1127698837567824</v>
+        <v>0.1126947647522522</v>
       </c>
       <c r="N208" t="n">
-        <v>0.0340108883282889</v>
+        <v>0.1097076127288621</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1141289628795739</v>
+        <v>0.1120297125528773</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03432790992027915</v>
+        <v>0.02831273219250605</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06304352907796891</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.03338007208111095</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1149270675150954</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.07269523242456871</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1138798664467962</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.1115776700930515</v>
+        <v>0.06878767455498461</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1135584843424941</v>
+        <v>0.11348284003024</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03432790992027915</v>
+        <v>0.1074283261549354</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1149270675150954</v>
+        <v>0.1128131371161842</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03384752689157453</v>
+        <v>0.02799264771546028</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06304326054950489</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.032907726512997</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1157251721506169</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.0716212773758273</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1146706988526767</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.1105631200072532</v>
+        <v>0.06784828522812905</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1143470849282059</v>
+        <v>0.1142709153082278</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03384752689157453</v>
+        <v>0.1079451225978048</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1157251721506169</v>
+        <v>0.113596561679491</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03396927295383606</v>
+        <v>0.02769021082898819</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06304299202104087</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.03274156159594188</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1165232767861384</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.07153516577201882</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1154615312585572</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.1117476190653715</v>
+        <v>0.06731267033819199</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1151356855139177</v>
+        <v>0.1150589905862156</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03396927295383606</v>
+        <v>0.1057591775778999</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1165232767861384</v>
+        <v>0.1143799862427979</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03369268181872481</v>
+        <v>0.02740599418692258</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06304272349257685</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.03208333121254474</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1173213814216599</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.07063498986508507</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1162523636644378</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.1116296749083123</v>
+        <v>0.06658089963827457</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1159242860996295</v>
+        <v>0.1158470658642034</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03369268181872481</v>
+        <v>0.1057716666156506</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1173213814216599</v>
+        <v>0.1151634108061047</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03331728719790186</v>
+        <v>0.02714057044313285</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06304245496411283</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.03203478924540475</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1181194860571814</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.07051884190696792</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1170431960703183</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.1103077951769816</v>
+        <v>0.06675304288147804</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1167128866853412</v>
+        <v>0.1166351411421911</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03331728719790186</v>
+        <v>0.1039837652314868</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1181194860571814</v>
+        <v>0.1159468353694115</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03304262280302822</v>
+        <v>0.02689451225145098</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06304218643564882</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.03149768957712104</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1189175906927029</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.07058641868525631</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1178340284761988</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.1103804875122855</v>
+        <v>0.06552916982090354</v>
       </c>
       <c r="M214" t="n">
-        <v>0.117501487271053</v>
+        <v>0.1174232164201789</v>
       </c>
       <c r="N214" t="n">
-        <v>0.03304262280302822</v>
+        <v>0.1023966489458384</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1189175906927029</v>
+        <v>0.1167302599327184</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03276822234576496</v>
+        <v>0.02689451225145098</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06304218643564882</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.03067378609029278</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1197156953282244</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.07014930472933248</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1186248608820794</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.1114462595551299</v>
+        <v>0.06570935020965227</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1182900878567647</v>
+        <v>0.1182112916981667</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03276822234576496</v>
+        <v>0.1011114932791352</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1197156953282244</v>
+        <v>0.1175136844960252</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0327936195377731</v>
+        <v>0.02618336777753187</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06296282041791912</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.03046483266751913</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1205137999637459</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.06931016990638461</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1194156932879599</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.1097036189464209</v>
+        <v>0.06509365380082538</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1190786884424765</v>
+        <v>0.1189993669761545</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0327936195377731</v>
+        <v>0.100629473751807</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1205137999637459</v>
+        <v>0.1182971090593321</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0324183480907137</v>
+        <v>0.02548028747863552</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06288345440018941</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02987258319139924</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1213119045992674</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.0687690011432863</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1202065256938404</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.1101510733270643</v>
+        <v>0.06468215034752409</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1198672890281883</v>
+        <v>0.1197874422541423</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0324183480907137</v>
+        <v>0.09965176588428359</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1213119045992674</v>
+        <v>0.1190805336226389</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03264194171624782</v>
+        <v>0.02478567369010683</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06280408838245972</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02989879154453229</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1221100092347889</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.06892578536691099</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1209973580997209</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.1094871303379662</v>
+        <v>0.06317490960284955</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1206558896139</v>
+        <v>0.12057551753213</v>
       </c>
       <c r="N218" t="n">
-        <v>0.03264194171624782</v>
+        <v>0.09897954519699492</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1221100092347889</v>
+        <v>0.1198639581859457</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03246393412603651</v>
+        <v>0.02409992874729029</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06272472236473002</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.0295452116095174</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1229081138703104</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.06828050950413217</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1217881905056015</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.1091102976200327</v>
+        <v>0.06357200131990301</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1214444901996118</v>
+        <v>0.1213635928101178</v>
       </c>
       <c r="N219" t="n">
-        <v>0.03246393412603651</v>
+        <v>0.09681398721037082</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1229081138703104</v>
+        <v>0.1206473827492525</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0318838590317408</v>
+        <v>0.02342345498553079</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06264535634700032</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02891359726895376</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1237062185058319</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.06743316048182338</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.122579022911482</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.1096190828141695</v>
+        <v>0.0625734952517856</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1222330907853236</v>
+        <v>0.1221516680881056</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0318838590317408</v>
+        <v>0.09715626744484107</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1237062185058319</v>
+        <v>0.1214308073125594</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03170125014502177</v>
+        <v>0.02275665474017308</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06256599032927061</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.0286057024054405</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1245043231413533</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.06728372522685808</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1233698553173625</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.1096119935612829</v>
+        <v>0.06187946115159848</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1230216913710353</v>
+        <v>0.1229397433660934</v>
       </c>
       <c r="N221" t="n">
-        <v>0.03170125014502177</v>
+        <v>0.09480756142083546</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1245043231413533</v>
+        <v>0.1222142318758662</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03151564117754042</v>
+        <v>0.02209993034656199</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06248662431154093</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02832328090157681</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1253024277768749</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.06643219066610975</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.124160687723243</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.1097875375022788</v>
+        <v>0.06198996877244287</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1238102919567471</v>
+        <v>0.1237278186440812</v>
       </c>
       <c r="N222" t="n">
-        <v>0.03151564117754042</v>
+        <v>0.09506904465878396</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1253024277768749</v>
+        <v>0.122997656439173</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03172656584095783</v>
+        <v>0.02145368414004208</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06240725829381123</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.0280680866399618</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1261005324123964</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.06587854372645197</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1249515201291236</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.1099442222780631</v>
+        <v>0.06080508786741998</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1245988925424589</v>
+        <v>0.1245158939220689</v>
       </c>
       <c r="N223" t="n">
-        <v>0.03172656584095783</v>
+        <v>0.09354189267911639</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1261005324123964</v>
+        <v>0.1237810810024799</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03153355784693505</v>
+        <v>0.02081831845595818</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06232789227608152</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02804187350319468</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1268986370479178</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.06602277133475815</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1257423525350041</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.1085805555295418</v>
+        <v>0.06052488818963092</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1253874931281706</v>
+        <v>0.1253039692000567</v>
       </c>
       <c r="N224" t="n">
-        <v>0.03153355784693505</v>
+        <v>0.09262728100226247</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1268986370479178</v>
+        <v>0.1245645055657867</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03103615090713313</v>
+        <v>0.0201942356296551</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06224852625835182</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.0275463953738746</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1276967416834393</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.06546486041790181</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1265331849408846</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.1086903061119777</v>
+        <v>0.06034943949217697</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1261760937138824</v>
+        <v>0.1260920444780445</v>
       </c>
       <c r="N225" t="n">
-        <v>0.03103615090713313</v>
+        <v>0.0904263851486522</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1276967416834393</v>
+        <v>0.1253479301290935</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03083387882417582</v>
+        <v>0.01958183799647752</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06216916024062211</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02788340613460066</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1284948463189608</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.06530479790275648</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1273240173467652</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.1085526656043144</v>
+        <v>0.05937881152815927</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1269646942995941</v>
+        <v>0.1268801197560323</v>
       </c>
       <c r="N226" t="n">
-        <v>0.03083387882417582</v>
+        <v>0.09034038063871519</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1284948463189608</v>
+        <v>0.1261313546924004</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03072913526167395</v>
+        <v>0.01898152789177028</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06208979422289242</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02765465966797209</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1292929509544823</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.06434257071619565</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1281148497526457</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.1084662150523157</v>
+        <v>0.05911307405067898</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1277532948853059</v>
+        <v>0.12766819503402</v>
       </c>
       <c r="N227" t="n">
-        <v>0.03072913526167395</v>
+        <v>0.08897044299288159</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1292929509544823</v>
+        <v>0.1269147792557072</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03042456211345651</v>
+        <v>0.018393707650878</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06201042820516273</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02726190985658802</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1300910555900038</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.06347816578509283</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1289056821585262</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.1074319340884258</v>
+        <v>0.05865229681283726</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1285418954710177</v>
+        <v>0.1284562703120078</v>
       </c>
       <c r="N228" t="n">
-        <v>0.03042456211345651</v>
+        <v>0.08831774773158102</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1300910555900038</v>
+        <v>0.1276982038190141</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03012015992774524</v>
+        <v>0.0178187796091455</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06193106218743302</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02710691058304758</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1308891602255253</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.06401157003632146</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1296965145644068</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.1073508023450888</v>
+        <v>0.0581965495677354</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1293304960567295</v>
+        <v>0.1292443455899956</v>
       </c>
       <c r="N229" t="n">
-        <v>0.03012015992774524</v>
+        <v>0.08818347037524338</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1308891602255253</v>
+        <v>0.1284816283823209</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03041592925276183</v>
+        <v>0.01725714610191752</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06185169616970332</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02729113124854482</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1316872648610468</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.06324277039675505</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1304873469702873</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.105523799454749</v>
+        <v>0.05824588983701195</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1301190966424412</v>
+        <v>0.1300324208679834</v>
       </c>
       <c r="N230" t="n">
-        <v>0.03041592925276183</v>
+        <v>0.08606870755087392</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1316872648610468</v>
+        <v>0.1292650529456277</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03021187063672807</v>
+        <v>0.01670920946453887</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06177233015197363</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02759122993002079</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1324853694965683</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.06217175379326714</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1312781793761678</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.1059519050498501</v>
+        <v>0.0578990479416337</v>
       </c>
       <c r="M231" t="n">
-        <v>0.130907697228153</v>
+        <v>0.1308204961459711</v>
       </c>
       <c r="N231" t="n">
-        <v>0.03021187063672807</v>
+        <v>0.08536493956437963</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1324853694965683</v>
+        <v>0.1300484775089346</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02950798462786562</v>
+        <v>0.01617537203235418</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06169296413424392</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02739180315994118</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1332834741320898</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.06199850715273122</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1320690117820483</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.1052360987628367</v>
+        <v>0.05675516767376859</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1316962978138647</v>
+        <v>0.1316085714239589</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02950798462786562</v>
+        <v>0.08386583842371426</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1332834741320898</v>
+        <v>0.1308319020722414</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02940427177439625</v>
+        <v>0.01565603614070826</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06161359811651422</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02759327553239244</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1340815787676113</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.0619230174020208</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1328598441879288</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.1049773602261528</v>
+        <v>0.0562142904690717</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1324848983995765</v>
+        <v>0.1323966467019467</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02940427177439625</v>
+        <v>0.08387144053064993</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1340815787676113</v>
+        <v>0.1316153266355482</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02960073262454166</v>
+        <v>0.01515160412494587</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06153423209878452</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02719607164146101</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1348796834031328</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.06114527146800933</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1336506765938094</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.1035766690722426</v>
+        <v>0.05607645776319792</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1332734989852883</v>
+        <v>0.1331847219799345</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02960073262454166</v>
+        <v>0.08378178228695871</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1348796834031328</v>
+        <v>0.1323987511988551</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02919736772652354</v>
+        <v>0.01466247832041173</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06145486608105482</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02760061608123335</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1356777880386543</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.06066525627757033</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1344415089996899</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.1029350049335501</v>
+        <v>0.05554171099180213</v>
       </c>
       <c r="M235" t="n">
-        <v>0.134062099571</v>
+        <v>0.1339727972579222</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02919736772652354</v>
+        <v>0.08149690009441218</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1356777880386543</v>
+        <v>0.1331821757621619</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02879417762856366</v>
+        <v>0.01418906106245069</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06137550006332513</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02720733344579591</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1364758926741758</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.0607829587575773</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1352323414055704</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.1016533474425194</v>
+        <v>0.05571009159053927</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1348507001567118</v>
+        <v>0.13476087253591</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02879417762856366</v>
+        <v>0.08071683035478255</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1364758926741758</v>
+        <v>0.1339656003254687</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02889116287888371</v>
+        <v>0.01373175468640733</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06129613404559543</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02711664832923513</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1372739973096973</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.05939836583490371</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.136023173811451</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.1010326762315948</v>
+        <v>0.05438164099506423</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1356393007424236</v>
+        <v>0.1355489478138978</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02889116287888371</v>
+        <v>0.07954160946984157</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1372739973096973</v>
+        <v>0.1347490248887756</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02878832402570544</v>
+        <v>0.0132909615276265</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06121676802786572</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02762898532563748</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1380721019452188</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.05941146443642314</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1368140062173315</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.09997397093322047</v>
+        <v>0.05465640064103197</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1364279013281353</v>
+        <v>0.1363370230918856</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02878832402570544</v>
+        <v>0.07977127384136112</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1380721019452188</v>
+        <v>0.1355324494520824</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02808566161725057</v>
+        <v>0.01286708392145293</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06113740201013602</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02764476902908938</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1388702065807403</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.05932224148900903</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.137604838623212</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.1004782111798404</v>
+        <v>0.05393441196409737</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1372165019138471</v>
+        <v>0.1371250983698734</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02808566161725057</v>
+        <v>0.07940585987111315</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1388702065807403</v>
+        <v>0.1363158740153892</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0278831762017408</v>
+        <v>0.01245888133390704</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06105803599240633</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02716442403367732</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1396683112162618</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.05883068391953486</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1383956710290926</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.09894637660389871</v>
+        <v>0.05411571639991533</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1380051024995589</v>
+        <v>0.1379131736478612</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0278831762017408</v>
+        <v>0.07814540396086955</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1396683112162618</v>
+        <v>0.1370992985786961</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02778086832739786</v>
+        <v>0.01205689888438712</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06097866997467662</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02718837493348771</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1404664158517833</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.05783677865487416</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1391865034349731</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.09747944683783966</v>
+        <v>0.05260035538414082</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1387937030852706</v>
+        <v>0.1387012489258489</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02778086832739786</v>
+        <v>0.07748994251240232</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1404664158517833</v>
+        <v>0.1378827231420029</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02777873854244346</v>
+        <v>0.01165989603891357</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06089930395694693</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02721704632260701</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1412645204873048</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.0576405126219004</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1399773358408536</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.09627840151410738</v>
+        <v>0.05298837035242873</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1395823036709824</v>
+        <v>0.1394893242038367</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02777873854244346</v>
+        <v>0.07663951192748319</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1412645204873048</v>
+        <v>0.1386661477053097</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02747678739509936</v>
+        <v>0.01126827513283113</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06081993793921722</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02745086279512168</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1420626251228263</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.05684187274748714</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1407681682467341</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.09554422026514603</v>
+        <v>0.05267980274043399</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1403709042566942</v>
+        <v>0.1402773994818245</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02747678739509936</v>
+        <v>0.07429414860788425</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1420626251228263</v>
+        <v>0.1394495722686166</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02717501543358726</v>
+        <v>0.01088243850148456</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06074057192148752</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02779024894511817</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1428607297583478</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.05604084595850781</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1415590006526147</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.09407788272339956</v>
+        <v>0.05237469398381153</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1411595048424059</v>
+        <v>0.1410654747598123</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02717501543358726</v>
+        <v>0.07405388895537718</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1428607297583478</v>
+        <v>0.1402329968319234</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02697342320612887</v>
+        <v>0.01050278848021868</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06066120590375783</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.0276356293666829</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1436588343938693</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.05553741918183594</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1423498330584952</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.09328036852131238</v>
+        <v>0.0513730855182162</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1419481054281177</v>
+        <v>0.1418535500378001</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02697342320612887</v>
+        <v>0.07421876937173405</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1436588343938693</v>
+        <v>0.1410164213952302</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02707201126094594</v>
+        <v>0.01012972740437809</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06058183988602812</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02768742865390236</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1444569390293907</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.05573157934434506</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1431406654643757</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.09305265729132844</v>
+        <v>0.05157501877930304</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1427367060138295</v>
+        <v>0.1426416253157878</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02707201126094594</v>
+        <v>0.07268882625872675</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1444569390293907</v>
+        <v>0.1417998459585371</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02697078014626017</v>
+        <v>0.009763657609307634</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06050247386829842</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.027946071400863</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1452550436649122</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.05532331337290855</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1439314978702563</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.09139572866589196</v>
+        <v>0.05048053520272683</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1435253065995412</v>
+        <v>0.1434297005937756</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02697078014626017</v>
+        <v>0.07186409601812715</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1452550436649122</v>
+        <v>0.1425832705218439</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02666973041029327</v>
+        <v>0.009404981430352038</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06042310785056872</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02791198220165124</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1460531483004337</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.05481260819440001</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1447223302761368</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.0908105622774471</v>
+        <v>0.05068967622414255</v>
       </c>
       <c r="M248" t="n">
-        <v>0.144313907185253</v>
+        <v>0.1442177758717634</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02666973041029327</v>
+        <v>0.07094461505170718</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1460531483004337</v>
+        <v>0.1433666950851507</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02656886260126699</v>
+        <v>0.009054101202856109</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06034374183283903</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02758558565035354</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1468512529359552</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.05359945073569292</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1455131626820173</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.08909813775843795</v>
+        <v>0.05020248327920512</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1451025077709648</v>
+        <v>0.1450058511497512</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02656886260126699</v>
+        <v>0.07043041976123876</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1468512529359552</v>
+        <v>0.1441501196484576</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02606817726740307</v>
+        <v>0.008711419262164496</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06026437581510933</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02766730634105638</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1476493575714767</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.05378382792366077</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1463039950878978</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.0881594347413085</v>
+        <v>0.04921899780356945</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1458911083566765</v>
+        <v>0.1457939264277389</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02606817726740307</v>
+        <v>0.06982154654849365</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1476493575714767</v>
+        <v>0.1449335442117644</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02586767495692317</v>
+        <v>0.008377337943621999</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06018500979737963</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02795756886784616</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1484474622069982</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.05266572668517711</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1470948274937784</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.0860954328585033</v>
+        <v>0.04943926123289052</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1466797089423883</v>
+        <v>0.1465820017057267</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02586767495692317</v>
+        <v>0.06901803181524396</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1484474622069982</v>
+        <v>0.1457169687750712</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02596735621804906</v>
+        <v>0.008052259582573364</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06010564377964992</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02835679782480935</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1492455668425197</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.05204513394711532</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1478856598996589</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.08550711174246611</v>
+        <v>0.04936331500282312</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1474683095281001</v>
+        <v>0.1473700769837145</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02596735621804906</v>
+        <v>0.06781991196326154</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1492455668425197</v>
+        <v>0.1465003933383781</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02576722159900245</v>
+        <v>0.007736586514363389</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06002627776192023</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02846541780603241</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1500436714780412</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.05192203663634898</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1486764923055394</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.08319545102564124</v>
+        <v>0.04899120054902226</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1482569101138118</v>
+        <v>0.1481581522617023</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02576722159900245</v>
+        <v>0.06692722339431817</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1500436714780412</v>
+        <v>0.1472838179016849</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02536727164800506</v>
+        <v>0.007430721074336732</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05994691174419053</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02828385340560179</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1508417761135627</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.05119642167975158</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.14946732471142</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.08226143034047273</v>
+        <v>0.04862295930714286</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1490455106995236</v>
+        <v>0.14894622753969</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02536727164800506</v>
+        <v>0.06664000251018587</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1508417761135627</v>
+        <v>0.1480672424649918</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02536750691327862</v>
+        <v>0.007135065597838185</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05986754572646082</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02861252921760392</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1516398807490842</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.05116827600419663</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1502581571173005</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.08200602931940493</v>
+        <v>0.04825863271283978</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1498341112852353</v>
+        <v>0.1497343028176778</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02536750691327862</v>
+        <v>0.06555828571263661</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1516398807490842</v>
+        <v>0.1488506670282986</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02516792794304483</v>
+        <v>0.006850022420212501</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05978817970873113</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02875186983612527</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1524379853846057</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.05053758653655765</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.151048989523181</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.08003022759488171</v>
+        <v>0.04759826220176797</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1506227118709471</v>
+        <v>0.1505223780956656</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02516792794304483</v>
+        <v>0.06548210940344207</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1524379853846057</v>
+        <v>0.1496340915916054</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02486853528552545</v>
+        <v>0.00657599387680443</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05970881369100142</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02890229985525228</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1532360900201272</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.04960434020370802</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1518398219290616</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.07763500479934737</v>
+        <v>0.04754188920958236</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1514113124566589</v>
+        <v>0.1513104533736534</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02486853528552545</v>
+        <v>0.06361150998437437</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1532360900201272</v>
+        <v>0.1504175161549123</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02476932948894217</v>
+        <v>0.006313382302958755</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05962944767327173</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.0290642438690714</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1540341946556487</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.04846852393252135</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1526306543349421</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.07722134056524599</v>
+        <v>0.04628955517193784</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1521999130423707</v>
+        <v>0.1520985286516411</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02476932948894217</v>
+        <v>0.06324652385720531</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1540341946556487</v>
+        <v>0.1512009407182191</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02427031110151673</v>
+        <v>0.006062590034020147</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05955008165554203</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.02923812647166908</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1548322992911702</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.04833012464987108</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1534214867408226</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.07479021452502171</v>
+        <v>0.04674130152448938</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1529885136280824</v>
+        <v>0.1528866039296289</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02427031110151673</v>
+        <v>0.06248718742370674</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1548322992911702</v>
+        <v>0.151984365281526</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02387148067147081</v>
+        <v>0.005824019405333399</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05947071563781232</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02922437225713179</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1556304039266917</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.04738912928263078</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1542123191467032</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.07364260631111874</v>
+        <v>0.04539716970289179</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1537771142137942</v>
+        <v>0.1536746792076167</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02387148067147081</v>
+        <v>0.0618335370856507</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1556304039266917</v>
+        <v>0.1527677898448327</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02407283874702619</v>
+        <v>0.005598072752243263</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05939134962008262</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.02932340581954594</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1564285085622132</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.04774552475767388</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1550031515525837</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.07287949555598117</v>
+        <v>0.04525720114280007</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1545657147995059</v>
+        <v>0.1544627544856045</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02407283874702619</v>
+        <v>0.06138560924480896</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1564285085622132</v>
+        <v>0.1535512144081396</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02367438587640458</v>
+        <v>0.005385152410094504</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05931198360235293</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02993565175299802</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1572266131977347</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.0468992980018739</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1557939839584642</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.07030186189205317</v>
+        <v>0.04512143727986914</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1553543153852177</v>
+        <v>0.1552508297635923</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02367438587640458</v>
+        <v>0.06034344030295369</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1572266131977347</v>
+        <v>0.1543346389714464</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02377612260782767</v>
+        <v>0.005185660714231821</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05923261758462323</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.03006153465157443</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1580247178332562</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.0459504359421043</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1565848163643447</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.06921068495177879</v>
+        <v>0.04468991954975393</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1561429159709295</v>
+        <v>0.1560389050415801</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02377612260782767</v>
+        <v>0.06010706666185645</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1580247178332562</v>
+        <v>0.1551180635347533</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02317804948951724</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05915325156689353</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.03040147910936168</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1588228224687777</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.04599892550523868</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1573756487702253</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.06820694436760233</v>
+        <v>0.04466268938810927</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1569315165566412</v>
+        <v>0.1568269803195678</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02317804948951724</v>
+        <v>0.05897652472328935</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1588228224687777</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1559014880980601</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05914009367215668</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005721793996161913</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0591403622006207</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006439322677309317</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05914063072908471</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007152532982275299</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05914089925754874</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007861371849799938</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05914116778601275</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008565786218716523</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05914143631447676</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009265723027827195</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05914170484294078</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009961129215964301</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.0591419733714048</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01065195172186945</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05914224189986882</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01133813748437514</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05914251042833283</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01201963344228355</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05914277895679685</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01269638653442618</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05914304748526087</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01336834369954626</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05914331601372489</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01403545187647552</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0591435845421889</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.0146976580040161</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05914385307065292</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01535490902099866</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05914412159911694</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01600715186616815</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05914439012758096</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01665433347835542</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05914465865604497</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0172964007963626</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05914492718450898</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01793330075901951</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05914519571297301</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01856498030507284</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05914546424143702</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01919138637335256</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05914573276990104</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01981246590266084</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05914600129836506</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02042816583182648</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05914626982682908</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02103843309959809</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0591465383552931</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02164343131136257</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05914680688375711</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02224440740526928</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05914707541222113</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02284152498670426</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05914734394068515</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02343473099441759</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05914761246914917</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02402397236723755</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05914788099761318</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02460919604396627</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05914814952607719</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02519034896343114</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05914841805454122</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02576737806438367</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05914868658300523</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02634023028565145</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05914895511146925</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.0269088525660366</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05914922363993327</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02747319184436577</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05914949216839729</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02803319505939197</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05914976069686131</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02858880914994201</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05915002922532532</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02913998105481805</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05915029775378933</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02968665771284593</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05915056628225336</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03022878606278022</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05915083481071737</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03076631304344697</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05915110333918139</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03129918559364832</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.0591513718676454</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03182735065220932</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05915164039610943</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03235075515788616</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05915190892457344</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03286934604950405</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05915217745303746</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03338307026586515</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05915244598150147</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03389187474579368</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0591527145099655</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.0343957064280475</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05915298303842951</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.034894512251451</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05915325156689353</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03489451225145099</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05914009367215668</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03545240656541862</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05921999674681441</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03600504873940141</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05929989982147216</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03655229192830085</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05937980289612989</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03709398928701871</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05945970597078762</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03762999397045655</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05953960904544535</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03816015913351618</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05961951212010309</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03868433793109903</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05969941519476082</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03920238351810688</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05977931826941855</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03971414904944134</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05985922134407629</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04021948768000413</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05993912441873403</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04071825256469677</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06001902749339176</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04121029685842098</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06009893056804949</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0416954737160784</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06017883364270722</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04217363629257076</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06025873671736497</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04264463774279954</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0603386397920227</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04310833122166646</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06041854286668043</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04356456988407327</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06049844594133817</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04401320688492144</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0605783490159959</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04445409537911273</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06065825209065363</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04488708852154877</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06073815516531136</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04531203946713123</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06081805823996911</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04572880137076168</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06089796131462684</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04613722738734183</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06097786438928457</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04653717067177331</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0610577674639423</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04692908399644276</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06113767053860004</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04731641822116135</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06121757361325778</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04769962611831573</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06129747668791551</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04807856084280755</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06137737976257324</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04845307554953852</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06145728283723098</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04882302339341016</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06153718591188871</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04918825752932419</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06161708898654644</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04954863111218223</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06169699206120418</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04990399729688601</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06177689513586192</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05025420923833707</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06185679821051965</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05059912009143708</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06193670128517739</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05093858301108775</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06201660435983512</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05127245115219066</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06209650743449285</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05160057766964747</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06217641050915059</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05192281571835985</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06225631358380832</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05223901845322947</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06233621665846606</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0525490390291579</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0624161197331238</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05285273060104684</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06249602280778153</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05314994632379794</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06257592588243925</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05344053935231287</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.062655828957097</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05372436284149319</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06273573203175473</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05400126994624063</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06281563510641246</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05427111382145679</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06289553818107019</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05453374762204338</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06297544125572793</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05478902450290198</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06305534433038566</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04585934966860132</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06305534433038566</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05500852680223139</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06478858566766617</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05521135080487811</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06652182700494667</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.0553981555044602</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06825506834222717</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05556959989459581</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06998830967950767</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05572634296890307</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07172155101678816</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05586904372100006</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07345479235406867</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05599836114450495</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07518803369134917</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05611495423303582</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07692127502862967</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0562194819802108</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07865451636591017</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05631260337964804</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08038775770319066</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05639497742496562</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08212099904047117</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05646726310978167</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08385424037775167</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05653011942771433</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08558748171503217</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05658420537238172</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08732072305231267</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05663017993740192</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08905396438959316</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05666870211639309</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09078720572687367</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05670043090297334</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09252044706415417</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05672602529076079</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09425368840143467</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05674614427337354</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09598692973871516</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05676144684442976</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09772017107599566</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05677259199754753</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09945341241327617</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05678023872634495</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1011866537505567</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05678504602444021</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1029198950878372</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05678767288545136</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1046531364251177</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05678877830299657</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1063863777623982</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05678902127069392</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1081196190996787</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05676619570985335</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1098528604369592</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05665572931578962</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1115861017742397</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05646000307401829</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1133193431115202</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05618606046481597</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1150525844488007</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05584094496845933</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1167858257860812</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05543170006522498</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1185190671233617</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05496536923538958</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1202523084606422</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05444899595922974</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1219855497979227</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05388962371702211</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1237187911352032</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05329429598904332</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1254520324724837</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05267005625557006</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1271852738097642</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0520239479968789</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1289185151470447</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.0513630146932465</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1306517564843252</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05069429982494951</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1323849978216056</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05002484687226455</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1341182391588862</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04936169931546829</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1358514804961667</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04871190063483734</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1375847218334472</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0480824943106483</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1393179631707277</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0474805238231779</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1410512045080082</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.0469130326527027</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1427844458452887</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0463870642794994</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1445176871825692</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04590966218384458</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1462509285198497</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04548786984601491</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1479841698571302</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04512873074628702</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.044814717028856</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1514506525316912</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04451714694859238</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1531838938689717</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04423465409538758</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1549171352062522</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04396595393020282</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1566503765435327</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04370976191399928</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1583836178808132</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04346479350773817</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1601168592180937</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04322976417238071</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1618501005553742</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.0430033893688881</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1635833418926547</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04278438455822156</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1653165832299352</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04257146520134228</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1670498245672156</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04236334675921145</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1687830659044962</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0421587446927903</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1705163072417767</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04195637446304004</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1722495485790572</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04175495153092186</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1739827899163377</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04155319135739698</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1757160312536182</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04134980940342659</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1774492725908987</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04114352112997191</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1791825139281792</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.04093304199799414</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1809157552654597</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.0407170874684545</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1826489966027402</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04049437300231416</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1843822379400206</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.04026361406053437</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1861154792773012</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.04002352610407631</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1878487206145817</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03977282459390118</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1895819619518622</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03951022499097022</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1913152032891427</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.0392344427562446</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1930484446264232</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03894432189725563</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1947816859637037</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0386429839272379</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1965149273009842</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03833241752650955</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1982481686382647</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03801284687849221</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1999814099755452</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03768449616660755</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2017146513128256</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03734758957427727</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2034478926501062</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03700235128492298</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2051811339873867</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0366490054819664</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2069143753246672</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03628777634882917</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2086476166619477</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03591888806893297</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2103808579992282</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03554256482569945</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2121140993365087</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03515903080255031</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2138473406737892</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03476851018290718</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2155805820110697</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03437122715019174</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2173138233483502</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03396740588782568</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2190470646856306</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03355727057923061</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2207803060229112</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03314104540782825</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2225135473601917</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03271895455704026</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2242467886974722</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.0322912222102883</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2259800300347527</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03185807255099402</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2277132713720332</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0314197297625791</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2294465127093137</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03097641802846522</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2311797540465942</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03052836153207404</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2329129953838747</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03007578445682721</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2346462367211552</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1256.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1256.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.1020689496686013</v>
+        <v>0.07988575857601569</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03785934966860131</v>
+        <v>0.01567615857601569</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01309284433038567</v>
+        <v>0.008951086546904951</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0001104237923727214</v>
+        <v>0.003466448352979989</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006369226700038956</v>
+        <v>0.001627202487759575</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002003736127243888</v>
+        <v>0.003873057832860752</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007981046355214959</v>
+        <v>0.001640257629252515</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004965743740781292</v>
+        <v>0.01026431307897435</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000788075277987778</v>
+        <v>0.001644625890879359</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009618061225792007</v>
+        <v>0.01896164824151853</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007834245633068347</v>
+        <v>0.001638025495564073</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0004359711389426701</v>
+        <v>0.007464837417150323</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001273845340007791</v>
+        <v>0.002983695515634984</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004251519527633835</v>
+        <v>0.009631439999999991</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001596209271042992</v>
+        <v>0.003849686567999996</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01079039999999998</v>
+        <v>0.0192951844972393</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001703483452361103</v>
+        <v>0.003289251781758718</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01983050985127111</v>
+        <v>0.03963143999999996</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001566849126613669</v>
+        <v>0.003701621699999996</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0009680559938874816</v>
+        <v>0.007682420128645895</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001910768010011687</v>
+        <v>0.004881607463278724</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.006514003992770773</v>
+        <v>0.01209197392920626</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002394313906564487</v>
+        <v>0.004920772887757545</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01374335257194995</v>
+        <v>0.02463143999999998</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002364225833963334</v>
+        <v>0.004139447922580641</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0292050819303396</v>
+        <v>0.04853829752641831</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002350273689920504</v>
+        <v>0.004914076486692218</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.001698092311384805</v>
+        <v>0.01300279173591291</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002547690680015582</v>
+        <v>0.006508809951038299</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008461843314255771</v>
+        <v>0.01611390877833688</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003192418542085984</v>
+        <v>0.006561030517010059</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01796844786165858</v>
+        <v>0.03525869623343375</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003152301111951112</v>
+        <v>0.006578503563517435</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03750951351689974</v>
+        <v>0.05891339462195522</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003133698253227339</v>
+        <v>0.00655210198225629</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01193478206253994</v>
+        <v>0.002983695515634984</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02985934966860131</v>
+        <v>0.007464837417150323</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.002617494045612304</v>
+        <v>0.01189559015374594</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003184613350019478</v>
+        <v>0.008136012438797875</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01016569128368978</v>
+        <v>0.02053721940382688</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003990523177607479</v>
+        <v>0.008201288146262573</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0212854017376862</v>
+        <v>0.04124161834530385</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00394037638993889</v>
+        <v>0.008223129454396794</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04571154066485389</v>
+        <v>0.06933119288633682</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003917122816534173</v>
+        <v>0.008190127477820363</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.003717675150747612</v>
+        <v>0.01567615857601569</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003821536020023374</v>
+        <v>0.008951086546904951</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01219620169267384</v>
+        <v>0.0239484351751228</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004788627813128975</v>
+        <v>0.00984154577551509</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02568717417002622</v>
+        <v>0.04789040234751202</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004728451667926668</v>
+        <v>0.009867755345276152</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0528788994281042</v>
+        <v>0.07935785123673034</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004700547379841008</v>
+        <v>0.009828152973384435</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.004990049580968388</v>
+        <v>0.01676789146186346</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00445845869002727</v>
+        <v>0.01139041741431702</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01379039999999999</v>
+        <v>0.02743647067927105</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005512022879999997</v>
+        <v>0.01154905970399999</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02906672512867173</v>
+        <v>0.05338099372076588</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005516526945914446</v>
+        <v>0.01151238123615551</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05879039999999996</v>
+        <v>0.08548468959618805</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005438794317684743</v>
+        <v>0.01110486509999999</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.006426031290452279</v>
+        <v>0.01907906127396242</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005095381360031165</v>
+        <v>0.0130176199020766</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01500967065422691</v>
+        <v>0.02946779060385467</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006384837084171967</v>
+        <v>0.01312206103402012</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03291701458361593</v>
+        <v>0.0564605801377295</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006304602223902224</v>
+        <v>0.01241834376774192</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06361667746091715</v>
+        <v>0.09353590962649555</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006267396506454677</v>
+        <v>0.01310420396451258</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008017034233376928</v>
+        <v>0.01731941580351921</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005732304030035061</v>
+        <v>0.01464482238983617</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01651103920134586</v>
+        <v>0.03180278212434068</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007182941719693463</v>
+        <v>0.01476231866327263</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03623100250485203</v>
+        <v>0.06256377585683323</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007092677501890002</v>
+        <v>0.01480163301791423</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06714813232580219</v>
+        <v>0.1006927685536314</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007050821069761512</v>
+        <v>0.01474222946007665</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009754472363919998</v>
+        <v>0.02148598661268944</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006369226700038956</v>
+        <v>0.01627202487759575</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01753705477703399</v>
+        <v>0.03383191603701045</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007981046355214958</v>
+        <v>0.01640257629252515</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03930164886237325</v>
+        <v>0.06717529521013263</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00788075277987778</v>
+        <v>0.01644625890879359</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07115111725503348</v>
+        <v>0.1068144618666295</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007834245633068346</v>
+        <v>0.01638025495564073</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01162975963625913</v>
+        <v>0.01957580526362866</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007006149370042853</v>
+        <v>0.01789922736535532</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01899603491667125</v>
+        <v>0.03614724350036304</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008779150990736456</v>
+        <v>0.01804283392177766</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04262191362617285</v>
+        <v>0.07175636063288729</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008668828057865558</v>
+        <v>0.01809088479967295</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07400187814494968</v>
+        <v>0.1127605256428599</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008617670196375183</v>
+        <v>0.0180182804512048</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01363431000457198</v>
+        <v>0.02358590331849252</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007643072040046749</v>
+        <v>0.0195264298531149</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0195962971556377</v>
+        <v>0.03804081567289741</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00957725562625795</v>
+        <v>0.01968309155103018</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04588475676624398</v>
+        <v>0.07567456611382622</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009456903335853336</v>
+        <v>0.0197355106905523</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07787666089188977</v>
+        <v>0.1192904959596929</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009401094759682016</v>
+        <v>0.01965630594676887</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01575953742303618</v>
+        <v>0.02151331233943655</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008279994710050644</v>
+        <v>0.02115363234087447</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02094615902931334</v>
+        <v>0.04020468371311255</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01037536026177945</v>
+        <v>0.02132334918028269</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04868313825257994</v>
+        <v>0.07989750564167836</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01024497861384111</v>
+        <v>0.02138013658143166</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08115171139219252</v>
+        <v>0.1254639088944987</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01018451932298885</v>
+        <v>0.02129433144233294</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0179968558458294</v>
+        <v>0.02335506388861638</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00891691738005454</v>
+        <v>0.02278083482863405</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02195393807307822</v>
+        <v>0.04163089877950747</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01117346489730094</v>
+        <v>0.02296360680953521</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05061001805517382</v>
+        <v>0.08359277320517275</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01103305389182889</v>
+        <v>0.02302476247231102</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08548468959618805</v>
+        <v>0.1300403005246473</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01129760845368321</v>
+        <v>0.02293235693789701</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02033767922712927</v>
+        <v>0.02410818952818761</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009553840050058434</v>
+        <v>0.02440803731639362</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02262795182231232</v>
+        <v>0.04341151203058119</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01197156953282244</v>
+        <v>0.02460386443878772</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05325835614401891</v>
+        <v>0.08702796279303843</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01182112916981667</v>
+        <v>0.02466938836319038</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0855128463482982</v>
+        <v>0.1362792069275091</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01175136844960252</v>
+        <v>0.02457038243346109</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02277342152111347</v>
+        <v>0.02376972082030579</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01019076272006233</v>
+        <v>0.0260352398041532</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0235765178123957</v>
+        <v>0.04453857462483268</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01276967416834393</v>
+        <v>0.02624412206804023</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0564605801377295</v>
+        <v>0.08977066839400422</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01273349643801506</v>
+        <v>0.02631401425406974</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08874621286777434</v>
+        <v>0.1399401641804541</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01253479301290935</v>
+        <v>0.02620840792902516</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02529549668195964</v>
+        <v>0.02433668932712656</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01082768539006623</v>
+        <v>0.02766244229191277</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02450795357870834</v>
+        <v>0.04600413772076099</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01356777880386543</v>
+        <v>0.02788437969729275</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05726176329902785</v>
+        <v>0.09348848399679932</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01339727972579223</v>
+        <v>0.0279586401449491</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09230365336777063</v>
+        <v>0.1435827083608524</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01331821757621619</v>
+        <v>0.02784643342458923</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0278953186638454</v>
+        <v>0.0268061266108055</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01146460806007012</v>
+        <v>0.02928964477967235</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02553057665663028</v>
+        <v>0.04700025247686507</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01436588343938693</v>
+        <v>0.02952463732654527</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05930134597027539</v>
+        <v>0.09574900359015259</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01418535500378</v>
+        <v>0.02960326603582846</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0949802821896894</v>
+        <v>0.1468663755460744</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01410164213952302</v>
+        <v>0.02948445892015331</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02985934966860131</v>
+        <v>0.02619050893153958</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01193478206253994</v>
+        <v>0.03091684726743192</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02675270458154151</v>
+        <v>0.04791897005164394</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01516398807490842</v>
+        <v>0.03116489495579778</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06173929398154196</v>
+        <v>0.09761982116279305</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01497343028176778</v>
+        <v>0.03124789192670782</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09737121367493246</v>
+        <v>0.1499507018134901</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01488506670282986</v>
+        <v>0.03112248441571738</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03609147755485277</v>
+        <v>0.02755684504714118</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01273845340007791</v>
+        <v>0.0325440497551915</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02743647067927105</v>
+        <v>0.04885400999725008</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01566622475786377</v>
+        <v>0.03280515258505029</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06357258504482416</v>
+        <v>0.09956853070344973</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01576150555975556</v>
+        <v>0.03289251781758717</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1001715621649021</v>
+        <v>0.1518404671821568</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01566849126613669</v>
+        <v>0.03276050991128145</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03785934966860131</v>
+        <v>0.02591120133790187</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01309284433038567</v>
+        <v>0.03417125224295107</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02823882334269727</v>
+        <v>0.04950813210019264</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01676019734595141</v>
+        <v>0.03444541021430281</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06609819687211876</v>
+        <v>0.1011590202393041</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01654958083774334</v>
+        <v>0.03453714370846653</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1042764420010008</v>
+        <v>0.1540622832544151</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01645191582944353</v>
+        <v>0.03439853540684552</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03936783460085778</v>
+        <v>0.02625116912660609</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01401229874008571</v>
+        <v>0.03579845473071065</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02931864015860493</v>
+        <v>0.05024278310381683</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01755830198147291</v>
+        <v>0.03608566784355532</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0680131071754225</v>
+        <v>0.1026886249217826</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01733765611573112</v>
+        <v>0.03618176959934589</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1072809675246303</v>
+        <v>0.1570203475980756</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01723534039275037</v>
+        <v>0.0360365609024096</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.04031544781484224</v>
+        <v>0.02757433973603819</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0146492214100896</v>
+        <v>0.03742565721847022</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03051989447684497</v>
+        <v>0.05055364504825205</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0183564066169944</v>
+        <v>0.03772592547280783</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07101429366673212</v>
+        <v>0.104273224720021</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0181257313937189</v>
+        <v>0.03782639549022525</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1087802530771929</v>
+        <v>0.1578012614574452</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0180187649560572</v>
+        <v>0.03767458639797367</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.04118801083618878</v>
+        <v>0.02787830448898258</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0152861440800935</v>
+        <v>0.03905285970622979</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03173937418518644</v>
+        <v>0.05133639997362777</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0191545112525159</v>
+        <v>0.03936618310206036</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07269873405804433</v>
+        <v>0.104603862669313</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01891380667170667</v>
+        <v>0.03947102138110461</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1120694130000908</v>
+        <v>0.1598916260768303</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01880218951936403</v>
+        <v>0.03931261189353774</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0419895492059618</v>
+        <v>0.02916065470822367</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01592306675009739</v>
+        <v>0.04068006219398937</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03267386717139825</v>
+        <v>0.05168672992007341</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0199526158880374</v>
+        <v>0.04100644073131287</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07446340606135585</v>
+        <v>0.1060715818049524</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01970188194969445</v>
+        <v>0.04111564727198397</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1152435616347263</v>
+        <v>0.1622780427005376</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01958561408267087</v>
+        <v>0.04095063738910182</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04272408846522574</v>
+        <v>0.02841898171654582</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01655998942010129</v>
+        <v>0.04230726468174895</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03372016132324944</v>
+        <v>0.05220031692771838</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02075072052355889</v>
+        <v>0.04264669836056539</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07670528738866339</v>
+        <v>0.1074674251622328</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02048995722768223</v>
+        <v>0.04276027316286333</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1171978133225013</v>
+        <v>0.1625471125728739</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0203690386459777</v>
+        <v>0.04258866288466589</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04339565415504493</v>
+        <v>0.02965087683673344</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01719691209010518</v>
+        <v>0.04393446716950852</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03457504452850899</v>
+        <v>0.05267284303669217</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02154882515908039</v>
+        <v>0.0442869559898179</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07832135575196369</v>
+        <v>0.1086824357764479</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02127803250567</v>
+        <v>0.04440489905374269</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1200272824048182</v>
+        <v>0.1646854369381456</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02115246320928453</v>
+        <v>0.04422668838022996</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04400827181648378</v>
+        <v>0.02785393139157093</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01783383476010908</v>
+        <v>0.04556166965726809</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03593530467494579</v>
+        <v>0.05319999028712419</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02234692979460189</v>
+        <v>0.04592721361907041</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08070858886325349</v>
+        <v>0.1092076566828913</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02206610778365778</v>
+        <v>0.04604952494462205</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1229270832230789</v>
+        <v>0.1662796170406596</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02193588777259137</v>
+        <v>0.04586471387579403</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04456596699060665</v>
+        <v>0.02902573670384268</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01847075743011298</v>
+        <v>0.04718887214502767</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03669772965032891</v>
+        <v>0.0538774407191439</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02314503443012338</v>
+        <v>0.04756747124832292</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0826639644345295</v>
+        <v>0.109834130916857</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02285418306164556</v>
+        <v>0.04769415083550141</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1261923301186859</v>
+        <v>0.1681162541247224</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02271931233589821</v>
+        <v>0.04750273937135811</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04507276521847794</v>
+        <v>0.03016388409633307</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01910768010011687</v>
+        <v>0.04881607463278724</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03795910734242729</v>
+        <v>0.05370087637288071</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02394313906564487</v>
+        <v>0.04920772887757544</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08458446017778845</v>
+        <v>0.1102529015136382</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02364225833963334</v>
+        <v>0.04933877672638077</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1298181374330411</v>
+        <v>0.1677819494346407</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02350273689920504</v>
+        <v>0.04914076486692218</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04553269204116203</v>
+        <v>0.02926596489182651</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01974460277012077</v>
+        <v>0.05044327712054682</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03861622563900989</v>
+        <v>0.05426597928846408</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02474124370116637</v>
+        <v>0.05084798650682796</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08646705380502706</v>
+        <v>0.111755011508529</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02443033361762112</v>
+        <v>0.05098340261726012</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1319996195075467</v>
+        <v>0.1698633042147212</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02428616146251188</v>
+        <v>0.05077879036248625</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04594977299972333</v>
+        <v>0.03135231715203138</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02038152544012466</v>
+        <v>0.05207047960830639</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03966587242784571</v>
+        <v>0.05466843150602342</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02553934833668787</v>
+        <v>0.05248824413608047</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08840872302824215</v>
+        <v>0.1115315039368229</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0252184088956089</v>
+        <v>0.05262802850813948</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1336318906836051</v>
+        <v>0.1691469197092704</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02506958602581871</v>
+        <v>0.05241681585805032</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04632803363522621</v>
+        <v>0.03035229198296009</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02101844811012856</v>
+        <v>0.05369768209606597</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04080483559670374</v>
+        <v>0.05487294135854208</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02633745297220936</v>
+        <v>0.05412850176533299</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09000644555943027</v>
+        <v>0.1115734218338137</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02600648417359668</v>
+        <v>0.05427265439901884</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1371100653026182</v>
+        <v>0.170969379192376</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02585301058912555</v>
+        <v>0.05405484135361439</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04667149948873502</v>
+        <v>0.03034259027227429</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02165537078013246</v>
+        <v>0.05532488458382554</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04222990303335293</v>
+        <v>0.05456811200758789</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02713555760773086</v>
+        <v>0.0557687593945855</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09145719911058825</v>
+        <v>0.112921160275459</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02679455945158445</v>
+        <v>0.0559172802898982</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1395292577059882</v>
+        <v>0.1692673378190021</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02663643515243238</v>
+        <v>0.05569286684917846</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04698419610131419</v>
+        <v>0.02931284258133965</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02229229345013635</v>
+        <v>0.05695208707158512</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04283786262556227</v>
+        <v>0.05486517948086535</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02793366224325236</v>
+        <v>0.05740901702383802</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09375796139371284</v>
+        <v>0.1127194809059052</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02758263472957223</v>
+        <v>0.05756190618077756</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1418845822351174</v>
+        <v>0.1693257615343918</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02741985971573921</v>
+        <v>0.05733089234474254</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04727014901402807</v>
+        <v>0.03026433116924854</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02292921612014024</v>
+        <v>0.0585792895593447</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04372550226110074</v>
+        <v>0.05462347749677597</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02873176687877385</v>
+        <v>0.05904927465309053</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09500571012080078</v>
+        <v>0.1117655081694766</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02837071000756001</v>
+        <v>0.05920653207165692</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1442711532314078</v>
+        <v>0.1690718102244928</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02820328427904605</v>
+        <v>0.05896891784030661</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04753338376794108</v>
+        <v>0.028198325478356</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02356613879014414</v>
+        <v>0.06020649204710427</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04478960982773732</v>
+        <v>0.05474771131611064</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02952987151429535</v>
+        <v>0.06068953228234305</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0971974230038487</v>
+        <v>0.1116390182779265</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02915878528554779</v>
+        <v>0.06085115796253628</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1466840850362618</v>
+        <v>0.1705135811820912</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02898670884235288</v>
+        <v>0.06060694333587069</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04777792590411757</v>
+        <v>0.03111609495101704</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02420306146014804</v>
+        <v>0.06183369453486385</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04612697321324094</v>
+        <v>0.05444015662824421</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03032797614981684</v>
+        <v>0.06232978991159556</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09813007775485338</v>
+        <v>0.1114447318099597</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02994686056353556</v>
+        <v>0.06249578385341564</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1483184919910813</v>
+        <v>0.1700581359378359</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02977013340565971</v>
+        <v>0.06224496883143477</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04800780096362196</v>
+        <v>0.02801890902958666</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02483998413015193</v>
+        <v>0.06346089702262342</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04703438030538065</v>
+        <v>0.0540030891225515</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03112608078533834</v>
+        <v>0.06397004754084808</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09970065208581153</v>
+        <v>0.112287369344281</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03073493584152334</v>
+        <v>0.064140409744295</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1504694884372687</v>
+        <v>0.1693125360223761</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03055355796896655</v>
+        <v>0.06388299432699884</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0482270344875186</v>
+        <v>0.02790803715641993</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02547690680015582</v>
+        <v>0.065088099510383</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0474086189919254</v>
+        <v>0.05433878448840739</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03192418542085983</v>
+        <v>0.06561030517010058</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1007061237087199</v>
+        <v>0.111171651459595</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03152301111951112</v>
+        <v>0.06578503563517435</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1529321887162259</v>
+        <v>0.168483842966361</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03133698253227338</v>
+        <v>0.06552101982256291</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04843965201687191</v>
+        <v>0.02878474877387184</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02611382947015972</v>
+        <v>0.06671530199814256</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04824647716064415</v>
+        <v>0.0538495184151867</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03272229005638133</v>
+        <v>0.06725056279935311</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1020434703355752</v>
+        <v>0.1107022987346065</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0323110863974989</v>
+        <v>0.06742966152605372</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1542017071693554</v>
+        <v>0.1682791183004393</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03212040709558023</v>
+        <v>0.06715904531812697</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04864967909274626</v>
+        <v>0.03065031332429742</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02675075214016362</v>
+        <v>0.06834250448590214</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04954474269930589</v>
+        <v>0.05383756659226427</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03352039469190283</v>
+        <v>0.06889082042860561</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1042096696783742</v>
+        <v>0.1102840317480204</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03309916167548668</v>
+        <v>0.06907428741693307</v>
       </c>
       <c r="N107" t="n">
-        <v>0.157473158138059</v>
+        <v>0.1665054235552605</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03290383165888706</v>
+        <v>0.06879707081369105</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.048861141256206</v>
+        <v>0.02850600025005172</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02738767481016751</v>
+        <v>0.06996970697366171</v>
       </c>
       <c r="J108" t="n">
-        <v>0.05020020349567959</v>
+        <v>0.05350520470901496</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03431849932742432</v>
+        <v>0.07053107805785813</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1045016994491135</v>
+        <v>0.1101215710785414</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03388723695347445</v>
+        <v>0.07071891330781244</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1581416559637391</v>
+        <v>0.1665698202614734</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03368725622219389</v>
+        <v>0.07043509630925512</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04907806404831556</v>
+        <v>0.02935307899348974</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02802459748017141</v>
+        <v>0.07159690946142129</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05050964743753425</v>
+        <v>0.05295470845481363</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03511660396294582</v>
+        <v>0.07217133568711065</v>
       </c>
       <c r="L109" t="n">
-        <v>0.10631653735979</v>
+        <v>0.1092196373048742</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03467531223146223</v>
+        <v>0.07236353919869179</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1595023149877979</v>
+        <v>0.1658793699497274</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03447068078550073</v>
+        <v>0.0720731218048192</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04930426972423028</v>
+        <v>0.02819281899696649</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02866152015017531</v>
+        <v>0.07322411194918087</v>
       </c>
       <c r="J110" t="n">
-        <v>0.05126986241263881</v>
+        <v>0.05278835351903508</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03591470859846731</v>
+        <v>0.07381159331636317</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1066511611224004</v>
+        <v>0.1093829510057236</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03546338750945002</v>
+        <v>0.07400816508957116</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1616502495516374</v>
+        <v>0.1643411341506712</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03525410534880756</v>
+        <v>0.07371114730038326</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04953346499585229</v>
+        <v>0.02902648970283703</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0292984428201792</v>
+        <v>0.07485131443694044</v>
       </c>
       <c r="J111" t="n">
-        <v>0.05177763630876228</v>
+        <v>0.05260841559105418</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0367128132339888</v>
+        <v>0.07545185094561567</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1085025484489413</v>
+        <v>0.1080162327597945</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03625146278743779</v>
+        <v>0.07565279098045051</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1626805739966599</v>
+        <v>0.1640621743949541</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0360375299121144</v>
+        <v>0.07534917279594734</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04976092459995742</v>
+        <v>0.02985536055345638</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0299353654901831</v>
+        <v>0.07647851692470002</v>
       </c>
       <c r="J112" t="n">
-        <v>0.05242975701367363</v>
+        <v>0.05261717036024577</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03751091786951031</v>
+        <v>0.07709210857486819</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1084676770514095</v>
+        <v>0.1082242031457914</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03703953806542557</v>
+        <v>0.07729741687132986</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1641884026642674</v>
+        <v>0.1633495522132252</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03682095447542123</v>
+        <v>0.07698719829151141</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04998655145342711</v>
+        <v>0.02768070099117952</v>
       </c>
       <c r="G113" t="n">
-        <v>0.030572288160187</v>
+        <v>0.07810571941245958</v>
       </c>
       <c r="J113" t="n">
-        <v>0.05302301241514182</v>
+        <v>0.05201689351598471</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0383090225050318</v>
+        <v>0.07873236620412072</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1097435246418017</v>
+        <v>0.1068115827424194</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03782761334341334</v>
+        <v>0.07894204276220922</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1665688498958622</v>
+        <v>0.1625103291361334</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03760437903872806</v>
+        <v>0.07862522378707548</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05021024847314279</v>
+        <v>0.02750378045836153</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03120921083019089</v>
+        <v>0.07973292190021916</v>
       </c>
       <c r="J114" t="n">
-        <v>0.05345419040093584</v>
+        <v>0.05180986074764581</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0391071271405533</v>
+        <v>0.08037262383337322</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1099270689321146</v>
+        <v>0.1063830921283829</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03861568862140112</v>
+        <v>0.08058666865308858</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1663170300328465</v>
+        <v>0.1615515666943281</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0383878036020349</v>
+        <v>0.08026324928263956</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05043191857598599</v>
+        <v>0.0263258683973574</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03184613350019478</v>
+        <v>0.08136012438797874</v>
       </c>
       <c r="J115" t="n">
-        <v>0.05372007885882467</v>
+        <v>0.05119834774460395</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03990523177607479</v>
+        <v>0.08201288146262574</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1108152876343452</v>
+        <v>0.1056434518823869</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0394037638993889</v>
+        <v>0.08223129454396794</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1670280574166225</v>
+        <v>0.1605803264184582</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03917122816534174</v>
+        <v>0.08190127477820364</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05065146467883812</v>
+        <v>0.02914823425052217</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03248305617019868</v>
+        <v>0.08298732687573832</v>
       </c>
       <c r="J116" t="n">
-        <v>0.05391746567657728</v>
+        <v>0.05118463019623395</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04070333641159629</v>
+        <v>0.08365313909187826</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1111051584604898</v>
+        <v>0.1054973825831361</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04019183917737668</v>
+        <v>0.0838759204348473</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1682970463885922</v>
+        <v>0.1588036698391728</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03995465272864857</v>
+        <v>0.0835393002737677</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05086878969858066</v>
+        <v>0.02897214746021086</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03311997884020258</v>
+        <v>0.08461452936349789</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05444313874196266</v>
+        <v>0.05057098379191069</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04150144104711778</v>
+        <v>0.08529339672113077</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1118936591225454</v>
+        <v>0.1047496048093353</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04097991445536445</v>
+        <v>0.08552054632572666</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1695191112901577</v>
+        <v>0.1580286584871209</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0407380772919554</v>
+        <v>0.08517732576933178</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.05108379655209509</v>
+        <v>0.02779257595452322</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03375690151020647</v>
+        <v>0.08624173185125747</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05469388594274976</v>
+        <v>0.05055968422100895</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04229954568263928</v>
+        <v>0.08693365435038328</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1124777673325086</v>
+        <v>0.1038048391396892</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04176798973335223</v>
+        <v>0.08716517221660602</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1696893664627215</v>
+        <v>0.1565623538929516</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04152150185526224</v>
+        <v>0.08681535126489585</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05129638815626283</v>
+        <v>0.02558838825533637</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03439382418021036</v>
+        <v>0.08786893433901705</v>
       </c>
       <c r="J119" t="n">
-        <v>0.05487294135854208</v>
+        <v>0.0499469580956599</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04309765031816078</v>
+        <v>0.08857391197963579</v>
       </c>
       <c r="L119" t="n">
-        <v>0.112921160275459</v>
+        <v>0.1034674938337178</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04255606501134001</v>
+        <v>0.08880979810748538</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1696029262476855</v>
+        <v>0.156773475558972</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04230492641856907</v>
+        <v>0.08845337676045992</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05150646742796537</v>
+        <v>0.02836139182132658</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03503074685021426</v>
+        <v>0.08949613682677662</v>
       </c>
       <c r="J120" t="n">
-        <v>0.05477091635829427</v>
+        <v>0.05009381121919357</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04389575495368227</v>
+        <v>0.09021416960888831</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1128207172441451</v>
+        <v>0.102976024741804</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04334414028932779</v>
+        <v>0.09045442399836473</v>
       </c>
       <c r="N120" t="n">
-        <v>0.170969379192376</v>
+        <v>0.1558473195382364</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0430883509818759</v>
+        <v>0.09009140225602399</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05171393728408415</v>
+        <v>0.02811572264742963</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03566766952021816</v>
+        <v>0.09112333931453619</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05485881039841795</v>
+        <v>0.04929895882834225</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04469385958920377</v>
+        <v>0.09185442723814083</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1121107274753908</v>
+        <v>0.1020923909952183</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04413221556731556</v>
+        <v>0.0920990498892441</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1694602740880409</v>
+        <v>0.1536960884255382</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04387177554518275</v>
+        <v>0.09172942775158806</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05191870064150067</v>
+        <v>0.02585551672858125</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03630459219022206</v>
+        <v>0.09275054180229576</v>
       </c>
       <c r="J122" t="n">
-        <v>0.05463609610121328</v>
+        <v>0.04906981539111419</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04549196422472526</v>
+        <v>0.09349468486739333</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1124757584136318</v>
+        <v>0.1015319728036565</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04492029084530334</v>
+        <v>0.09374367578012345</v>
       </c>
       <c r="N122" t="n">
-        <v>0.170903332602054</v>
+        <v>0.151842789531834</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04465520010848958</v>
+        <v>0.09336745324715214</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05212066041709633</v>
+        <v>0.02458491005971715</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03694151486022595</v>
+        <v>0.09437774429005534</v>
       </c>
       <c r="J123" t="n">
-        <v>0.05430312601838656</v>
+        <v>0.04851379537551773</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04629006886024676</v>
+        <v>0.09513494249664585</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1124169243313028</v>
+        <v>0.09981015037681401</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04570836612329112</v>
+        <v>0.09538830167100282</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1700959095184602</v>
+        <v>0.15101043016808</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04543862467179641</v>
+        <v>0.09500547874271621</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05231971952775266</v>
+        <v>0.02530803863577315</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03757843753022985</v>
+        <v>0.0960049467778149</v>
       </c>
       <c r="J124" t="n">
-        <v>0.05456025270164405</v>
+        <v>0.04803831324956107</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04708817349576826</v>
+        <v>0.09677520012589837</v>
       </c>
       <c r="L124" t="n">
-        <v>0.111934995338816</v>
+        <v>0.09924230392438638</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0464964414012789</v>
+        <v>0.09703292756188217</v>
       </c>
       <c r="N124" t="n">
-        <v>0.169740011869681</v>
+        <v>0.1498220176452326</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04622204923510325</v>
+        <v>0.09664350423828029</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05251578089035108</v>
+        <v>0.02502903845168494</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03821536020023374</v>
+        <v>0.09763214926557448</v>
       </c>
       <c r="J125" t="n">
-        <v>0.05460782870269201</v>
+        <v>0.04765078348125254</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04788627813128975</v>
+        <v>0.09841545775515088</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1126307415465833</v>
+        <v>0.09824381365606921</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04728451667926668</v>
+        <v>0.09867755345276154</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1702376466881383</v>
+        <v>0.1481005592742482</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04700547379841008</v>
+        <v>0.09828152973384437</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05270874742177303</v>
+        <v>0.0267520455023883</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03885228287023763</v>
+        <v>0.09925935175333406</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05444620657323675</v>
+        <v>0.04705862053860045</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04868438276681125</v>
+        <v>0.1000557153844034</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1122049330650168</v>
+        <v>0.0970300597815581</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04807259195725446</v>
+        <v>0.1003221793436409</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1698908210062539</v>
+        <v>0.1459690623660831</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04778889836171692</v>
+        <v>0.09991955522940843</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05289852203890004</v>
+        <v>0.02348119578281896</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03948920554024153</v>
+        <v>0.1008865542410936</v>
       </c>
       <c r="J127" t="n">
-        <v>0.05457573886498451</v>
+        <v>0.04656923888961303</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04948248740233274</v>
+        <v>0.1016959730136559</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1120583400045286</v>
+        <v>0.09611642251054858</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04886066723524224</v>
+        <v>0.1019668052345202</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1685015418564496</v>
+        <v>0.1449505342316937</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04857232292502375</v>
+        <v>0.1015575807249725</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05308500765861353</v>
+        <v>0.02522062528791268</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04012612821024543</v>
+        <v>0.1025137567288532</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0543967781296416</v>
+        <v>0.0462900530022986</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05028059203785424</v>
+        <v>0.1033362306429084</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1110917324755306</v>
+        <v>0.09511828205273626</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04964874251323002</v>
+        <v>0.1036114311253996</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1691718162711471</v>
+        <v>0.1428679821820366</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04935574748833058</v>
+        <v>0.1031956062205366</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05326810719779493</v>
+        <v>0.02296885450968914</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04076305088024932</v>
+        <v>0.1041409592166128</v>
       </c>
       <c r="J129" t="n">
-        <v>0.05440967691891425</v>
+        <v>0.04592847734466543</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05107869667337574</v>
+        <v>0.1049764882721609</v>
       </c>
       <c r="L129" t="n">
-        <v>0.111105880588435</v>
+        <v>0.09435101861781658</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05043681779121779</v>
+        <v>0.105256057016279</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1687036512827683</v>
+        <v>0.1411444135280678</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05013917205163742</v>
+        <v>0.1048336317161006</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05344772357332575</v>
+        <v>0.02469646493839769</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04139997355025322</v>
+        <v>0.1057681617043724</v>
       </c>
       <c r="J130" t="n">
-        <v>0.05381478778450879</v>
+        <v>0.04518484109664268</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05187680130889723</v>
+        <v>0.1066167459014135</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1108015544536537</v>
+        <v>0.09392970177866866</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05122489306920557</v>
+        <v>0.1069006829071583</v>
       </c>
       <c r="N130" t="n">
-        <v>0.167599053923735</v>
+        <v>0.1402573854496565</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05092259661494426</v>
+        <v>0.1064716572116647</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05362375970208745</v>
+        <v>0.02440350955475826</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04203689622025712</v>
+        <v>0.1073953641921319</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05371246327813148</v>
+        <v>0.04480726254168015</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05267490594441872</v>
+        <v>0.108257003530666</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1114795241815989</v>
+        <v>0.09267692214007045</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05201296834719335</v>
+        <v>0.1085453087980377</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1683600312264688</v>
+        <v>0.1392478714012612</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05170602117825109</v>
+        <v>0.1081096827072288</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05379611850096144</v>
+        <v>0.022095909036733</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04267381889026101</v>
+        <v>0.1090225666798915</v>
       </c>
       <c r="J132" t="n">
-        <v>0.05410305595148858</v>
+        <v>0.04409240356995758</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05347301057994022</v>
+        <v>0.1098972611599185</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1110405598826825</v>
+        <v>0.09103923760831445</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05280104362518112</v>
+        <v>0.1101899346889171</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1675885902233916</v>
+        <v>0.136628486585016</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05248944574155792</v>
+        <v>0.1097477082027929</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05396470288682925</v>
+        <v>0.02177958406228409</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04331074156026491</v>
+        <v>0.1106497691676511</v>
       </c>
       <c r="J133" t="n">
-        <v>0.05378691835628636</v>
+        <v>0.04355087799460088</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05427111521546171</v>
+        <v>0.111537518789171</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1106854316673166</v>
+        <v>0.09073866495808547</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05358911890316891</v>
+        <v>0.1118345605797964</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1673867379469253</v>
+        <v>0.1350321659732951</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05327287030486476</v>
+        <v>0.1113857336983569</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05412941577657231</v>
+        <v>0.02346045530937367</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0439476642302688</v>
+        <v>0.1122769716554107</v>
       </c>
       <c r="J134" t="n">
-        <v>0.05336440304423112</v>
+        <v>0.04339329962873596</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05506921985098322</v>
+        <v>0.1131777764184235</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1102149096459133</v>
+        <v>0.08909722096406825</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05437719418115668</v>
+        <v>0.1134791864706758</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1655564814294914</v>
+        <v>0.1344918445384724</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05405629486817159</v>
+        <v>0.113023759193921</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05429016008707206</v>
+        <v>0.02214444345596393</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04458458690027269</v>
+        <v>0.1139041741431702</v>
       </c>
       <c r="J135" t="n">
-        <v>0.05353586256702914</v>
+        <v>0.04233028228548881</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05586732448650471</v>
+        <v>0.114818034047676</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1097297639288846</v>
+        <v>0.0883369224009477</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05516526945914446</v>
+        <v>0.1151238123615551</v>
       </c>
       <c r="N135" t="n">
-        <v>0.164999827703512</v>
+        <v>0.1326404572529222</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05483971943147842</v>
+        <v>0.1146617846894851</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05444683873521</v>
+        <v>0.02283746918001703</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04522150957027659</v>
+        <v>0.1155313766309298</v>
       </c>
       <c r="J136" t="n">
-        <v>0.05310164947638667</v>
+        <v>0.0420724397779853</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0566654291220262</v>
+        <v>0.1164582916769285</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1096307646266426</v>
+        <v>0.08677978604340869</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05595334473713223</v>
+        <v>0.1167684382524345</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1656187838014087</v>
+        <v>0.1312109390890185</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05562314399478527</v>
+        <v>0.1162998101850492</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05459935463786755</v>
+        <v>0.02154545315949512</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04585843224028049</v>
+        <v>0.1171585791186894</v>
       </c>
       <c r="J137" t="n">
-        <v>0.05326211632401001</v>
+        <v>0.04123038591935144</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0574635337575477</v>
+        <v>0.1180985493061811</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1095186818495992</v>
+        <v>0.08614782866613602</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05674142001512002</v>
+        <v>0.1184130641433138</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1638153567556033</v>
+        <v>0.1294362250191351</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0564065685580921</v>
+        <v>0.1179378356806132</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0547476107119262</v>
+        <v>0.0222743160723604</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04649535491028439</v>
+        <v>0.118785781606449</v>
       </c>
       <c r="J138" t="n">
-        <v>0.05301761566160543</v>
+        <v>0.04081473452271309</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05826163839306919</v>
+        <v>0.1197388069354336</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1085942857081666</v>
+        <v>0.08436306704381455</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05752949529310779</v>
+        <v>0.1200576900341932</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1636915535985177</v>
+        <v>0.1278492500156464</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05718999312139893</v>
+        <v>0.1195758611761773</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05489150987426743</v>
+        <v>0.022029978596575</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04713227758028828</v>
+        <v>0.1204129840942085</v>
       </c>
       <c r="J139" t="n">
-        <v>0.05306850004087919</v>
+        <v>0.04053609940119622</v>
       </c>
       <c r="K139" t="n">
-        <v>0.0590597430285907</v>
+        <v>0.1213790645646861</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1092583463127567</v>
+        <v>0.08384751795112916</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05831757057109557</v>
+        <v>0.1217023159250726</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1628493813625736</v>
+        <v>0.1256829490509263</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05797341768470576</v>
+        <v>0.1212138866717414</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05503095504177265</v>
+        <v>0.02081836141010111</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04776920025029217</v>
+        <v>0.1220401865819681</v>
       </c>
       <c r="J140" t="n">
-        <v>0.05291512201353758</v>
+        <v>0.03980509436792679</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05985784766411219</v>
+        <v>0.1230193221939386</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1078116337737817</v>
+        <v>0.08252319816276465</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05910564584908334</v>
+        <v>0.1233469418159519</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1618908470801927</v>
+        <v>0.123770257097349</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05875684224801261</v>
+        <v>0.1228519121673054</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05516584913132333</v>
+        <v>0.02164538519090088</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04840612292029607</v>
+        <v>0.1236673890697277</v>
       </c>
       <c r="J141" t="n">
-        <v>0.05245783413128689</v>
+        <v>0.0396323332360307</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06065595229963369</v>
+        <v>0.1246595798231911</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1076549182016535</v>
+        <v>0.08241212445340593</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05989372112707113</v>
+        <v>0.1249915677068313</v>
       </c>
       <c r="N141" t="n">
-        <v>0.161417957783797</v>
+        <v>0.1233441091272883</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05954026681131943</v>
+        <v>0.1244899376628695</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05529609505980099</v>
+        <v>0.01951697061693647</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04904304559029997</v>
+        <v>0.1252945915574873</v>
       </c>
       <c r="J142" t="n">
-        <v>0.05229698894583339</v>
+        <v>0.03962842981863389</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06145405693515518</v>
+        <v>0.1262998374524436</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1078889697067843</v>
+        <v>0.08123631359773772</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06068179640505891</v>
+        <v>0.1266361935977106</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1601327205058081</v>
+        <v>0.1218374401131185</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06032369137462627</v>
+        <v>0.1261279631584336</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05542159574408703</v>
+        <v>0.02043903836617006</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04967996826030387</v>
+        <v>0.1269217940452468</v>
       </c>
       <c r="J143" t="n">
-        <v>0.05223293900888333</v>
+        <v>0.03900399792886231</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06225216157067667</v>
+        <v>0.1279400950816962</v>
       </c>
       <c r="L143" t="n">
-        <v>0.107414558399586</v>
+        <v>0.08121778237044497</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06146987168304668</v>
+        <v>0.12828081948859</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1607371422786478</v>
+        <v>0.1212831850272135</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0611071159379331</v>
+        <v>0.1277659886539977</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05554225410106292</v>
+        <v>0.02041699400908162</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05031689093030776</v>
+        <v>0.1285489965330064</v>
       </c>
       <c r="J144" t="n">
-        <v>0.05216603687214298</v>
+        <v>0.03926965137984184</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06305026620619818</v>
+        <v>0.1295803527109486</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1063324543904708</v>
+        <v>0.08047854754621253</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06225794696103446</v>
+        <v>0.1299254453794693</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1593332301347379</v>
+        <v>0.1206142788419476</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06189054050123994</v>
+        <v>0.1294040141495617</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05565797304761015</v>
+        <v>0.02042262290734749</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05095381360031165</v>
+        <v>0.130176199020766</v>
       </c>
       <c r="J145" t="n">
-        <v>0.05169663508731868</v>
+        <v>0.03913442057603665</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06384837084171967</v>
+        <v>0.1312206103402012</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1062434277898505</v>
+        <v>0.08034062589972521</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06304602223902224</v>
+        <v>0.1315700712703487</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1588229911065003</v>
+        <v>0.1220460529754635</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06267396506454677</v>
+        <v>0.1310420396451258</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05576865550061015</v>
+        <v>0.02043672343695557</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05159073627031555</v>
+        <v>0.1318034015085256</v>
       </c>
       <c r="J146" t="n">
-        <v>0.05182508620611666</v>
+        <v>0.03904510515019244</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06464647547724116</v>
+        <v>0.1328608679694537</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1058482487081374</v>
+        <v>0.08045085067441476</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06383409751701001</v>
+        <v>0.1332146971612281</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1579084322263568</v>
+        <v>0.1208870011193849</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06345738962785361</v>
+        <v>0.1326800651406899</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0558742043769444</v>
+        <v>0.02245886054864592</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05222765894031944</v>
+        <v>0.1334306039962851</v>
       </c>
       <c r="J147" t="n">
-        <v>0.05185174278024321</v>
+        <v>0.03917081445477189</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06544458011276266</v>
+        <v>0.1345011255987062</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1053476872557434</v>
+        <v>0.08039436958068019</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0646221727949978</v>
+        <v>0.1348593230521074</v>
       </c>
       <c r="N147" t="n">
-        <v>0.158091560526729</v>
+        <v>0.1215742458329466</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06424081419116046</v>
+        <v>0.1343180906362539</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05597452259349438</v>
+        <v>0.01948859919315857</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05286458161032334</v>
+        <v>0.1350578064840447</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0516769573614046</v>
+        <v>0.03881076859065279</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06624268474828417</v>
+        <v>0.1361413832279587</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1049425135430807</v>
+        <v>0.08066786152946137</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06541024807298557</v>
+        <v>0.1365039489429868</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1567743830400387</v>
+        <v>0.1219053670663757</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06502423875446728</v>
+        <v>0.135956116131818</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05606951306714149</v>
+        <v>0.02052550432123361</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05350150428032724</v>
+        <v>0.1366850089718043</v>
       </c>
       <c r="J149" t="n">
-        <v>0.05130108250130708</v>
+        <v>0.03906418765871292</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06704078938380566</v>
+        <v>0.1377816408572112</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1046334976805611</v>
+        <v>0.08026970873617442</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06619832335097335</v>
+        <v>0.1381485748338661</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1551589067987079</v>
+        <v>0.1215779447698993</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06580766331777411</v>
+        <v>0.1375941416273821</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05615907871476725</v>
+        <v>0.02256914088361105</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05413842695033113</v>
+        <v>0.1383122114595638</v>
       </c>
       <c r="J150" t="n">
-        <v>0.05112447075165698</v>
+        <v>0.03903029175983004</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06783889401932715</v>
+        <v>0.1394218984864637</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1047214097785969</v>
+        <v>0.07999829341623554</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06698639862896112</v>
+        <v>0.1397932007247455</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1559471388351581</v>
+        <v>0.1226895588937446</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06659108788108095</v>
+        <v>0.1392321671229462</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05624312245325308</v>
+        <v>0.02261907383103098</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05477534962033503</v>
+        <v>0.1399394139473234</v>
       </c>
       <c r="J151" t="n">
-        <v>0.05064747466416054</v>
+        <v>0.03950830099488195</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06863699865484864</v>
+        <v>0.1410621561157163</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1045070199475999</v>
+        <v>0.08105199778506084</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06777447390694891</v>
+        <v>0.1414378266156249</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1550410861818113</v>
+        <v>0.1227377893881385</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06737451244438779</v>
+        <v>0.1408701926185102</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05632154719948049</v>
+        <v>0.01967486811423344</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05541227229033893</v>
+        <v>0.141566616435083</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05087044679052405</v>
+        <v>0.03959743546474644</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06943510329037013</v>
+        <v>0.1427024137449688</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1031910982979824</v>
+        <v>0.08082920405806657</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06856254918493669</v>
+        <v>0.1430824525065042</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1536427558710893</v>
+        <v>0.1226202162033082</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06815793700769461</v>
+        <v>0.1425082181140743</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05639425587033087</v>
+        <v>0.0217360886839585</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05604919496034282</v>
+        <v>0.1431938189228426</v>
       </c>
       <c r="J153" t="n">
-        <v>0.05049373968245378</v>
+        <v>0.03949691527030123</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07023320792589165</v>
+        <v>0.1443426713742213</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1034744149401562</v>
+        <v>0.08162829445066883</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06935062446292446</v>
+        <v>0.1447270783973836</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1534541549354138</v>
+        <v>0.122934419289481</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06894136157100146</v>
+        <v>0.1441462436096384</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05646115138268575</v>
+        <v>0.02180230049094618</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05668611763034672</v>
+        <v>0.1448210214106022</v>
       </c>
       <c r="J154" t="n">
-        <v>0.050317705891656</v>
+        <v>0.03950596051242418</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07103131256141314</v>
+        <v>0.1459829290034738</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1027577399845335</v>
+        <v>0.0818476511782838</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07013869974091225</v>
+        <v>0.1463717042882629</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1524772904072064</v>
+        <v>0.1233779785968838</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06972478613430828</v>
+        <v>0.1457842691052025</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05652213665342656</v>
+        <v>0.01987306848593658</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05732304030035061</v>
+        <v>0.1464482238983617</v>
       </c>
       <c r="J155" t="n">
-        <v>0.049942697969837</v>
+        <v>0.03952379129199303</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07182941719693463</v>
+        <v>0.1476231866327263</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1027418435415263</v>
+        <v>0.08138565645632767</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07092677501890003</v>
+        <v>0.1480163301791423</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1515141693188893</v>
+        <v>0.1233484740757438</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07050821069761512</v>
+        <v>0.1474222946007665</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05657711459943476</v>
+        <v>0.02194808174028758</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05795996297035451</v>
+        <v>0.1480754263861213</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04976906846870305</v>
+        <v>0.04004962770988556</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07262752183245612</v>
+        <v>0.1492634442619789</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1017274957215467</v>
+        <v>0.08234069250021661</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0717148502968878</v>
+        <v>0.1496609560700216</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1505667987028839</v>
+        <v>0.124343485676288</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07129163526092196</v>
+        <v>0.1490603200963306</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05662598813759182</v>
+        <v>0.02306760148770105</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05859688564035841</v>
+        <v>0.1497026288738809</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04999716993996042</v>
+        <v>0.03978533951838244</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07342562646797761</v>
+        <v>0.1509037018912313</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1021154666350066</v>
+        <v>0.08251114152536673</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07250292557487559</v>
+        <v>0.151305581960901</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1506371855916122</v>
+        <v>0.1252854229448548</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07207505982422879</v>
+        <v>0.1506983455918947</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0566686601847792</v>
+        <v>0.02225501883411515</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0592338083103623</v>
+        <v>0.1513298313616405</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04982379863781264</v>
+        <v>0.03991506134424459</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07422373110349911</v>
+        <v>0.1525439595204839</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1012926194823693</v>
+        <v>0.08290878782430758</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07329100085286336</v>
+        <v>0.1529502078517804</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1497178011690322</v>
+        <v>0.1253576243163599</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07285848438753562</v>
+        <v>0.1523363710874588</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05670503365787836</v>
+        <v>0.02249720069240101</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05987073098036619</v>
+        <v>0.1529570338494</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04954333912175729</v>
+        <v>0.04056203927548013</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07502183573902062</v>
+        <v>0.1541842171497364</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1007368476047437</v>
+        <v>0.0829616434604053</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07407907613085114</v>
+        <v>0.1545948337426597</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1493927763343464</v>
+        <v>0.1268836180601022</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07364190895084247</v>
+        <v>0.1539743965830228</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05673501147377076</v>
+        <v>0.02378101397542964</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06050765365037009</v>
+        <v>0.1545842363371596</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04955591639435478</v>
+        <v>0.04070273003994286</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07581994037454211</v>
+        <v>0.1558244747789889</v>
       </c>
       <c r="L160" t="n">
-        <v>0.099949462573246</v>
+        <v>0.08392199617598817</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07486715140883891</v>
+        <v>0.1562394596335391</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1488617717744025</v>
+        <v>0.1285903487144368</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07442533351414929</v>
+        <v>0.1556124220785869</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05675849654933786</v>
+        <v>0.02209332559607211</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06114457632037399</v>
+        <v>0.1562114388249192</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04906174340450402</v>
+        <v>0.04121359036548658</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0766180450100636</v>
+        <v>0.1574647324082414</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09933215319788874</v>
+        <v>0.08454100895913247</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07565522668682668</v>
+        <v>0.1578840855244184</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1472247493823982</v>
+        <v>0.1297047608177183</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07520875807745613</v>
+        <v>0.157250447574151</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05677539180146111</v>
+        <v>0.0244210024671995</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06178149899037787</v>
+        <v>0.1578386413126787</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0488610331011039</v>
+        <v>0.04177107697996511</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07741614964558509</v>
+        <v>0.1591049900374939</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09888660828868395</v>
+        <v>0.08616984479791456</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07644330196481447</v>
+        <v>0.1595287114152978</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1470816710515313</v>
+        <v>0.1316537989083018</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07599218264076298</v>
+        <v>0.158888473069715</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05678560014702201</v>
+        <v>0.02275091150168285</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06241842166038177</v>
+        <v>0.1594658438004383</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04845399843305336</v>
+        <v>0.04265164661123225</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07821425428110659</v>
+        <v>0.1607452476667464</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09881451665564439</v>
+        <v>0.08705966668041082</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07723137724280224</v>
+        <v>0.1611733373061772</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1471324986749996</v>
+        <v>0.1333644075245422</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0767756072040698</v>
+        <v>0.1605264985652791</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05678902450290198</v>
+        <v>0.0230699196123932</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06305534433038566</v>
+        <v>0.1610930462881979</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04834085234925128</v>
+        <v>0.04313175598714185</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0790123589166281</v>
+        <v>0.162385505295999</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09801756710878218</v>
+        <v>0.08896163759469766</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07801945252079003</v>
+        <v>0.1628179631970565</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1459771941460006</v>
+        <v>0.1339635312047945</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07755903176737663</v>
+        <v>0.1621645240608432</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05678902450290196</v>
+        <v>0.02536489371220164</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06305534433038566</v>
+        <v>0.1627202487759575</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04812180779859661</v>
+        <v>0.04388786183554767</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07981046355214959</v>
+        <v>0.1640257629252515</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09729744845810978</v>
+        <v>0.09002692052885125</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0788075277987778</v>
+        <v>0.1644625890879359</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1453157193577323</v>
+        <v>0.1366781144874136</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07834245633068347</v>
+        <v>0.1638025495564073</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05581041273261796</v>
+        <v>0.02562270071397922</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06305507580192166</v>
+        <v>0.1643474512637171</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04809707772998824</v>
+        <v>0.04409642088430356</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08060856818767108</v>
+        <v>0.165666020554504</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09675584951363947</v>
+        <v>0.0907066784709481</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07959560307676558</v>
+        <v>0.1661072149788152</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1441480362033923</v>
+        <v>0.1375351019107542</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07912588089399031</v>
+        <v>0.1654405750519713</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05484295847600083</v>
+        <v>0.02385424677564445</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06305480727345764</v>
+        <v>0.1659746537514766</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04806687509232509</v>
+        <v>0.04473572127756946</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08140667282319258</v>
+        <v>0.1673062781837565</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09589445908538369</v>
+        <v>0.09225207440906458</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08038367835475335</v>
+        <v>0.1677518408696946</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1447741065761785</v>
+        <v>0.1393765826619094</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07990930545729713</v>
+        <v>0.1670786005475354</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05388723438685397</v>
+        <v>0.02608005128761356</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06305453874499362</v>
+        <v>0.1676018562392362</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04753141283450607</v>
+        <v>0.04504187336908833</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08220477745871407</v>
+        <v>0.168946535813009</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09571496598335472</v>
+        <v>0.09199584160800867</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08117175363274114</v>
+        <v>0.169396466760574</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1434938923692884</v>
+        <v>0.1401360869108511</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08069273002060398</v>
+        <v>0.1687166260430995</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05294381311910534</v>
+        <v>0.0243005318326856</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0630542702165296</v>
+        <v>0.1692290587269958</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04749090390543009</v>
+        <v>0.04523798665017062</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08300288209423556</v>
+        <v>0.1705867934422615</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09421905901756494</v>
+        <v>0.09391828284707965</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08195982891072891</v>
+        <v>0.1710410926514533</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1426073554759199</v>
+        <v>0.1421647011666696</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0814761545839108</v>
+        <v>0.1703546515386636</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05201326732655775</v>
+        <v>0.02451610503191201</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06305400168806559</v>
+        <v>0.1708562612147554</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0468455612539961</v>
+        <v>0.04562480798426898</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08380098672975707</v>
+        <v>0.172227051071514</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09450842699802675</v>
+        <v>0.0947211096006364</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08274790418871669</v>
+        <v>0.1726857185423327</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1413144577892708</v>
+        <v>0.1437647429684892</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08225957914721764</v>
+        <v>0.1719926770342276</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05109616966305593</v>
+        <v>0.02472718750634427</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06305373315960157</v>
+        <v>0.1724834637025149</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04659559782910296</v>
+        <v>0.04610308423483601</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08459909136527856</v>
+        <v>0.1738673087007666</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09288475873475249</v>
+        <v>0.09550587112568587</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08353597946670446</v>
+        <v>0.174330344433212</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1417151612025387</v>
+        <v>0.1434385298554346</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08304300371052448</v>
+        <v>0.1736307025297917</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05019309278240562</v>
+        <v>0.0269341958770339</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06305346463113755</v>
+        <v>0.1741106661902745</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04684122657964959</v>
+        <v>0.04647356226532437</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08539719600080006</v>
+        <v>0.1755075663300191</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09214974303775453</v>
+        <v>0.09547411667923511</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08432405474469225</v>
+        <v>0.1759749703240914</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1408094276089215</v>
+        <v>0.1452883793666302</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08382642827383131</v>
+        <v>0.1752687280253558</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04930460933853012</v>
+        <v>0.02413754676503234</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06305319610267353</v>
+        <v>0.1757378686780341</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04608266045453493</v>
+        <v>0.04723698893918668</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08619530063632155</v>
+        <v>0.1771478239592716</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09220506871704526</v>
+        <v>0.09622739551829124</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08511213002268002</v>
+        <v>0.1776195962149708</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1405972189016167</v>
+        <v>0.1468166090412006</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08460985283713814</v>
+        <v>0.1769067535209198</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04843129198523458</v>
+        <v>0.02533765679139109</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06305292757420951</v>
+        <v>0.1773650711657936</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04582011240265788</v>
+        <v>0.04739411111987557</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08699340527184304</v>
+        <v>0.1787880815885241</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09085242458263681</v>
+        <v>0.09676725689986138</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0859002053006678</v>
+        <v>0.1792642221058501</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1388784969738223</v>
+        <v>0.1481255364182702</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08539327740044499</v>
+        <v>0.1785447790164839</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04757371337636367</v>
+        <v>0.02553494257716164</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0630526590457455</v>
+        <v>0.1789922736535532</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04575379537291735</v>
+        <v>0.04764567567084371</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08779150990736455</v>
+        <v>0.1804283392177766</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0897934994445419</v>
+        <v>0.09789525008095246</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08668828057865557</v>
+        <v>0.1809088479967295</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1390532237187359</v>
+        <v>0.1486174790369637</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08617670196375181</v>
+        <v>0.180182804512048</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04673244616572585</v>
+        <v>0.02672982074339546</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06305239051728147</v>
+        <v>0.1806194761413128</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04568392231421226</v>
+        <v>0.04829242945554368</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08858961454288604</v>
+        <v>0.1820685968470291</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09002998211277263</v>
+        <v>0.09841292431857157</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08747635585664336</v>
+        <v>0.1825534738876088</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1376213610295554</v>
+        <v>0.1499947544364054</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08696012652705865</v>
+        <v>0.1818208300076121</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0459080630072391</v>
+        <v>0.02692270791114403</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06305212198881746</v>
+        <v>0.1822466786290724</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04501070617544151</v>
+        <v>0.04863511933742813</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08938771917840754</v>
+        <v>0.1837088544762817</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08836356139734147</v>
+        <v>0.09922182886972575</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08826443113463113</v>
+        <v>0.1841980997784882</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1371828707994783</v>
+        <v>0.1511596801557199</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0877435510903655</v>
+        <v>0.1834588555031761</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04510113655471115</v>
+        <v>0.02511771834472229</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06305185346035344</v>
+        <v>0.1838738811168319</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04513435990550403</v>
+        <v>0.04877449217994971</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09018582381392903</v>
+        <v>0.1853491121055342</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08739592610826075</v>
+        <v>0.1004235129914222</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08905250641261891</v>
+        <v>0.1858427256693675</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1359377149217025</v>
+        <v>0.1510149503754161</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08852697565367232</v>
+        <v>0.1850968809987402</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04431223946198673</v>
+        <v>0.02832416326875051</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06305158493188943</v>
+        <v>0.1855010836045915</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04465509645329874</v>
+        <v>0.04932485865860507</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09098392844945052</v>
+        <v>0.1869893697347867</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08662876505554284</v>
+        <v>0.1003364980138939</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08984058169060669</v>
+        <v>0.1874873515602469</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1349858552894257</v>
+        <v>0.1523137505450769</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08931040021697915</v>
+        <v>0.1867349064943043</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0435419443828774</v>
+        <v>0.02753602837310157</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0630513164034254</v>
+        <v>0.1871282860923511</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0442731287677245</v>
+        <v>0.0495935277623295</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09178203308497201</v>
+        <v>0.1886296273640392</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08626376704920014</v>
+        <v>0.1010909864819187</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09062865696859447</v>
+        <v>0.1891319774511263</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1341272537958457</v>
+        <v>0.1541648613250159</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09009382478028599</v>
+        <v>0.1883729319898683</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04279082397129498</v>
+        <v>0.0267461568429174</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06305104787496139</v>
+        <v>0.1887554885801107</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04408866979768028</v>
+        <v>0.04956768608977866</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09258013772049352</v>
+        <v>0.1902698849932917</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08520262089924491</v>
+        <v>0.1021627690462145</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09141673224658224</v>
+        <v>0.1907766033420056</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1344618723341602</v>
+        <v>0.1547284714805834</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09087724934359283</v>
+        <v>0.1900109574854324</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04205945088105024</v>
+        <v>0.02594739186333984</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06305077934649737</v>
+        <v>0.1903826910678703</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04390193249206495</v>
+        <v>0.05043450384410043</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09337824235601502</v>
+        <v>0.1919101426225442</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08464701541568956</v>
+        <v>0.1029252322038683</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09220480752457003</v>
+        <v>0.192421229232885</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1330896727975669</v>
+        <v>0.1560647697771294</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09166067390689965</v>
+        <v>0.1916489829809965</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04134839776598788</v>
+        <v>0.02713257661951084</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06305051081803337</v>
+        <v>0.1920098935556298</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04361312979977748</v>
+        <v>0.05028115122844284</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09417634699153651</v>
+        <v>0.1935504002517967</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08459863940854648</v>
+        <v>0.1038517624519674</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0929928828025578</v>
+        <v>0.1940658551237643</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1332106170792637</v>
+        <v>0.156933944980004</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0924440984702065</v>
+        <v>0.1932870084765606</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04065823727992306</v>
+        <v>0.02829455429657227</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06305024228956933</v>
+        <v>0.1936370960433894</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04322247466971674</v>
+        <v>0.05069479844595386</v>
       </c>
       <c r="K184" t="n">
-        <v>0.094974451627058</v>
+        <v>0.1951906578810493</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08385918168782797</v>
+        <v>0.1042157462875991</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09378095808054558</v>
+        <v>0.1957104810146437</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1318246670724481</v>
+        <v>0.1577961858545574</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09322752303351332</v>
+        <v>0.1949250339721246</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03998954207676056</v>
+        <v>0.02642616807966601</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06304997376110533</v>
+        <v>0.195264298531149</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04273018005078166</v>
+        <v>0.05126261569978144</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09577255626257949</v>
+        <v>0.1968309155103018</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08243033106354641</v>
+        <v>0.1048905702078502</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09456903335853335</v>
+        <v>0.1973551069055231</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1313317846703181</v>
+        <v>0.1592116811661399</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09401094759682016</v>
+        <v>0.1965630594676887</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03934288481031459</v>
+        <v>0.02852052030999386</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06304970523264131</v>
+        <v>0.1968915010189086</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04293645889187113</v>
+        <v>0.05157177319307361</v>
       </c>
       <c r="K186" t="n">
-        <v>0.096570660898101</v>
+        <v>0.1984711731395543</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08181377634571418</v>
+        <v>0.1060496207098082</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09535710863652114</v>
+        <v>0.1989997327964024</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1302319317660713</v>
+        <v>0.1599406196801014</v>
       </c>
       <c r="O186" t="n">
-        <v>0.094794372160127</v>
+        <v>0.1982010849632528</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0387188381344299</v>
+        <v>0.02659735352442053</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06304943670417729</v>
+        <v>0.1985187035066681</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04234152414188409</v>
+        <v>0.05151866361601266</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0973687655336225</v>
+        <v>0.2001114307688068</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08171120634434365</v>
+        <v>0.1059726052854041</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09614518391450892</v>
+        <v>0.2006443586872818</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1288250702529053</v>
+        <v>0.1601858129024887</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09557779672343383</v>
+        <v>0.1998391104588169</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03811797470292552</v>
+        <v>0.02967252377689807</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06304916817571327</v>
+        <v>0.2001459059944277</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04194558874971942</v>
+        <v>0.05155308859186353</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09816687016914399</v>
+        <v>0.2017516883980593</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08012430986944707</v>
+        <v>0.1058512094970178</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09693325919249669</v>
+        <v>0.2022889845781611</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1291111620240183</v>
+        <v>0.1608031181166242</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09636122128674067</v>
+        <v>0.2014771359543809</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03754086716969854</v>
+        <v>0.02674600472937938</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06304889964724925</v>
+        <v>0.2017731084821873</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04174886566427607</v>
+        <v>0.05158453787659981</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09896497480466548</v>
+        <v>0.2033919460273118</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07935477573103697</v>
+        <v>0.1063236772462217</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09772133447048448</v>
+        <v>0.2039336104690405</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1272901689726076</v>
+        <v>0.1614111619181797</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09714464585004751</v>
+        <v>0.203115161449945</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03698574985203415</v>
+        <v>0.02881777004381733</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06304863111878524</v>
+        <v>0.2034003109699468</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04175156783445294</v>
+        <v>0.05211296425483301</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09976307944018697</v>
+        <v>0.2050322036565644</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07910429273912559</v>
+        <v>0.1069899105917239</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09850940974847226</v>
+        <v>0.2055782363599199</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1264620529918711</v>
+        <v>0.1612097977964245</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09792807041335433</v>
+        <v>0.2047531869455091</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03643916538458154</v>
+        <v>0.02888779338216481</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06304836259032122</v>
+        <v>0.2050275134577064</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04115390820914892</v>
+        <v>0.05223832051117466</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1005611840757085</v>
+        <v>0.2066724612858168</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07817454970372537</v>
+        <v>0.1068498115922324</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09929748502646003</v>
+        <v>0.2072228622507992</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1265267759750065</v>
+        <v>0.1620988792406279</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09871149497666117</v>
+        <v>0.2063912124410731</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03589934808462968</v>
+        <v>0.02695604840637469</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0630480940618572</v>
+        <v>0.206654715945466</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04085609973726297</v>
+        <v>0.05186055943023621</v>
       </c>
       <c r="K192" t="n">
-        <v>0.10135928871123</v>
+        <v>0.2083127189150694</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07826723543484862</v>
+        <v>0.1066032823064552</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1000855603044478</v>
+        <v>0.2088674881416786</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1244842998152117</v>
+        <v>0.1626782597400593</v>
       </c>
       <c r="O192" t="n">
-        <v>0.099494919539968</v>
+        <v>0.2080292379366372</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03536687060607029</v>
+        <v>0.02902250877839986</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06304782553339318</v>
+        <v>0.2082819184332256</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04044700151402086</v>
+        <v>0.05207963379662919</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1021573933467515</v>
+        <v>0.2099529765443219</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07687430867502126</v>
+        <v>0.1076502247931002</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1008736355824356</v>
+        <v>0.2105121140325579</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1249275194609886</v>
+        <v>0.162147792783988</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1002783441032748</v>
+        <v>0.2096672634322013</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03484230560272443</v>
+        <v>0.02808714816019321</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06304755700492917</v>
+        <v>0.2099091209209851</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04011429356245122</v>
+        <v>0.05259549639496508</v>
       </c>
       <c r="K194" t="n">
-        <v>0.102955497982273</v>
+        <v>0.2115932341735744</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07668401477923095</v>
+        <v>0.1070905411108756</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1016617108604234</v>
+        <v>0.2121567399234373</v>
       </c>
       <c r="N194" t="n">
-        <v>0.123648050086703</v>
+        <v>0.1635073318616835</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1010617686665817</v>
+        <v>0.2113052889277654</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03432622572843683</v>
+        <v>0.02914994021370762</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06304728847646515</v>
+        <v>0.2115363234087447</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0396597041403539</v>
+        <v>0.05260810000985537</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1037536026177945</v>
+        <v>0.2132334918028269</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07639637927074019</v>
+        <v>0.1077241333184894</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1024497861384111</v>
+        <v>0.2138013658143167</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1230470309227658</v>
+        <v>0.163956730462415</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1018451932298885</v>
+        <v>0.2129433144233294</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0338192036370303</v>
+        <v>0.02921085860089598</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06304701994800113</v>
+        <v>0.2131635258965043</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03958498713032801</v>
+        <v>0.05261739742591157</v>
       </c>
       <c r="K196" t="n">
-        <v>0.104551707253316</v>
+        <v>0.2148737494320795</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0760114719026502</v>
+        <v>0.1086509034746496</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1032378614163989</v>
+        <v>0.215445991705196</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1223256374896068</v>
+        <v>0.1634958420754519</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1026286177931953</v>
+        <v>0.2145813399188935</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03332181198239374</v>
+        <v>0.03026987698371116</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06304675141953711</v>
+        <v>0.2147907283842639</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03909189641497275</v>
+        <v>0.05282334142774515</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1053498118888374</v>
+        <v>0.216514007061332</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07552936242806207</v>
+        <v>0.1077707536380642</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1040259366943867</v>
+        <v>0.2170906175960753</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1202850453076559</v>
+        <v>0.1639245201900636</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1034120423565022</v>
+        <v>0.2162193654144576</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03283462341834958</v>
+        <v>0.02732696902410603</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06304648289107311</v>
+        <v>0.2164179308720234</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03898218587688726</v>
+        <v>0.05302588479996764</v>
       </c>
       <c r="K198" t="n">
-        <v>0.106147916524359</v>
+        <v>0.2181542646905844</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07405012060007704</v>
+        <v>0.1089835858674412</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1048140119723745</v>
+        <v>0.2187352434869547</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1203264298973429</v>
+        <v>0.1646426182955194</v>
       </c>
       <c r="O198" t="n">
-        <v>0.104195466919809</v>
+        <v>0.2178573909100217</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03235821059874253</v>
+        <v>0.02838210838403352</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06304621436260908</v>
+        <v>0.218045133359783</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03845760939867071</v>
+        <v>0.0530249803271905</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1069460211598804</v>
+        <v>0.219794522319837</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07337381617179634</v>
+        <v>0.1089893022214886</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1056020872503622</v>
+        <v>0.2203798693778341</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1180509667790977</v>
+        <v>0.1639499898810887</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1049788914831158</v>
+        <v>0.2194954164055857</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03189314617739729</v>
+        <v>0.03043526872544648</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06304594583414506</v>
+        <v>0.2196723358475426</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03811992086292225</v>
+        <v>0.05292058079402524</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1077441257954019</v>
+        <v>0.2214347799490895</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07330051889632108</v>
+        <v>0.1089878047589146</v>
       </c>
       <c r="M200" t="n">
-        <v>0.10639016252835</v>
+        <v>0.2220244952687135</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1169598314733499</v>
+        <v>0.1657464884360407</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1057623160464227</v>
+        <v>0.2211334419011498</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0314400028081991</v>
+        <v>0.02948642371029779</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06304567730568104</v>
+        <v>0.2212995383353022</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03757087415224102</v>
+        <v>0.05321263898508334</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1085422304309234</v>
+        <v>0.223075037578342</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07273029852675239</v>
+        <v>0.1093789955384269</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1071782378063378</v>
+        <v>0.2236691211595928</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1172541995005296</v>
+        <v>0.1653319674496448</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1065457406097295</v>
+        <v>0.2227714673967139</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03099935314497219</v>
+        <v>0.02853554700054035</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06304540877721702</v>
+        <v>0.2229267408230617</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03691222314922621</v>
+        <v>0.05340110768497633</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1093403350664449</v>
+        <v>0.2247152952075945</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0725632248161916</v>
+        <v>0.1095627766187338</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1079663130843256</v>
+        <v>0.2253137470504722</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1158352463810667</v>
+        <v>0.1654062804111706</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1073291651730364</v>
+        <v>0.2244094928922779</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03057176984156124</v>
+        <v>0.02758261225812703</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06304514024875302</v>
+        <v>0.2245539433108213</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03654572173647692</v>
+        <v>0.05318593967831567</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1101384397019664</v>
+        <v>0.2263555528368471</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07179936751773983</v>
+        <v>0.1098390500585433</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1087543883623134</v>
+        <v>0.2269583729413515</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1155041476353907</v>
+        <v>0.165569280809887</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1081125897363432</v>
+        <v>0.226047518387842</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03015782555179325</v>
+        <v>0.02962759314501072</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06304487172028898</v>
+        <v>0.2261811457985809</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03577312379659238</v>
+        <v>0.05326708774971287</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1109365443374879</v>
+        <v>0.2279958104660996</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07093879638449821</v>
+        <v>0.1098077179165634</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1095424636403011</v>
+        <v>0.2286029988322309</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1132620787839318</v>
+        <v>0.1665208221350638</v>
       </c>
       <c r="O204" t="n">
-        <v>0.10889601429965</v>
+        <v>0.2276855438834061</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02975809292954901</v>
+        <v>0.0306704633231443</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06304460319182498</v>
+        <v>0.2278083482863405</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03549618321217171</v>
+        <v>0.05314450468377942</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1117346489730094</v>
+        <v>0.2296360680953521</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07028158116956798</v>
+        <v>0.110068682251502</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1103305389182889</v>
+        <v>0.2302476247231102</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1124102153471196</v>
+        <v>0.1659607578759701</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1096794388629568</v>
+        <v>0.2293235693789702</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02937314462865488</v>
+        <v>0.03071119645448066</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06304433466336096</v>
+        <v>0.2294355507741</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0350166538658141</v>
+        <v>0.05371814326512681</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1125327536085309</v>
+        <v>0.2312763257246045</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06962779162605032</v>
+        <v>0.1098218451220672</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1111186141962767</v>
+        <v>0.2318922506139896</v>
       </c>
       <c r="N206" t="n">
-        <v>0.111349732845384</v>
+        <v>0.1663889415218754</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1104628634262637</v>
+        <v>0.2309615948745342</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02900355330295559</v>
+        <v>0.02974976620097267</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06304406613489695</v>
+        <v>0.2310627532618596</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03443628964011863</v>
+        <v>0.05378795627836655</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1133308582440524</v>
+        <v>0.2329165833538571</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06987749750704644</v>
+        <v>0.1097671085869669</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1119066894742645</v>
+        <v>0.233536876504869</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1110818067991549</v>
+        <v>0.1676052265620488</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1112462879895705</v>
+        <v>0.2325996203700983</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0286498916062808</v>
+        <v>0.03078614622457322</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06304379760643292</v>
+        <v>0.2326899557496192</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03395684441768454</v>
+        <v>0.05345389650811011</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1141289628795739</v>
+        <v>0.2345568409831096</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06923076856565746</v>
+        <v>0.1097043747049095</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1126947647522522</v>
+        <v>0.2351815023957483</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1097076127288621</v>
+        <v>0.1672094664857599</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1120297125528773</v>
+        <v>0.2342376458656624</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02831273219250605</v>
+        <v>0.02782031018723521</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06304352907796891</v>
+        <v>0.2343171582373788</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03338007208111095</v>
+        <v>0.05341591673896902</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1149270675150954</v>
+        <v>0.2361970986123621</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06878767455498461</v>
+        <v>0.1103335455346025</v>
       </c>
       <c r="M209" t="n">
-        <v>0.11348284003024</v>
+        <v>0.2368261282866277</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1074283261549354</v>
+        <v>0.167301514782278</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1128131371161842</v>
+        <v>0.2358756713612264</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02799264771546028</v>
+        <v>0.02885223175091151</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06304326054950489</v>
+        <v>0.2359443607251384</v>
       </c>
       <c r="J210" t="n">
-        <v>0.032907726512997</v>
+        <v>0.05397396975555473</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1157251721506169</v>
+        <v>0.2378373562416146</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06784828522812905</v>
+        <v>0.1108545231347543</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1142709153082278</v>
+        <v>0.238470754177507</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1079451225978048</v>
+        <v>0.1679812249408724</v>
       </c>
       <c r="O210" t="n">
-        <v>0.113596561679491</v>
+        <v>0.2375136968567905</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02769021082898819</v>
+        <v>0.02888188457755497</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06304299202104087</v>
+        <v>0.2375715632128979</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03274156159594188</v>
+        <v>0.05382800834247878</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1165232767861384</v>
+        <v>0.2394776138708672</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06731267033819199</v>
+        <v>0.1102672095640727</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1150589905862156</v>
+        <v>0.2401153800683864</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1057591775778999</v>
+        <v>0.1681484504508124</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1143799862427979</v>
+        <v>0.2391517223523546</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02740599418692258</v>
+        <v>0.02890924232911853</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06304272349257685</v>
+        <v>0.2391987657006575</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03208333121254474</v>
+        <v>0.05397798528435264</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1173213814216599</v>
+        <v>0.2411178715001197</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06658089963827457</v>
+        <v>0.1104715068812659</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1158470658642034</v>
+        <v>0.2417600059592658</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1057716666156506</v>
+        <v>0.1668030448013675</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1151634108061047</v>
+        <v>0.2407897478479187</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02714057044313285</v>
+        <v>0.02793427866755503</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06304245496411283</v>
+        <v>0.2408259681884171</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03203478924540475</v>
+        <v>0.0539238533657878</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1181194860571814</v>
+        <v>0.2427581291293722</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06675304288147804</v>
+        <v>0.1113673171450419</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1166351411421911</v>
+        <v>0.2434046318501451</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1039837652314868</v>
+        <v>0.1673448614818068</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1159468353694115</v>
+        <v>0.2424277733434828</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02689451225145098</v>
+        <v>0.02795696725481739</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06304218643564882</v>
+        <v>0.2424531706761766</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03149768957712104</v>
+        <v>0.05366556537139577</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1189175906927029</v>
+        <v>0.2443983867586247</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06552916982090354</v>
+        <v>0.1105545424141086</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1174232164201789</v>
+        <v>0.2450492577410245</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1023966489458384</v>
+        <v>0.1671737539814</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1167302599327184</v>
+        <v>0.2440657988390468</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02689451225145098</v>
+        <v>0.02997728175285848</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06304218643564882</v>
+        <v>0.2440803731639362</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03067378609029278</v>
+        <v>0.05390307408578804</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1197156953282244</v>
+        <v>0.2460386443878772</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06570935020965227</v>
+        <v>0.111033084747174</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1182112916981667</v>
+        <v>0.2466938836319038</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1011114932791352</v>
+        <v>0.1686895757894162</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1175136844960252</v>
+        <v>0.2457038243346109</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02618336777753187</v>
+        <v>0.02899519582363116</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06296282041791912</v>
+        <v>0.2457075756516958</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03046483266751913</v>
+        <v>0.05423633229357611</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1205137999637459</v>
+        <v>0.2476789020171297</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06509365380082538</v>
+        <v>0.1116028462029463</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1189993669761545</v>
+        <v>0.2483385095227832</v>
       </c>
       <c r="N216" t="n">
-        <v>0.100629473751807</v>
+        <v>0.1685921803951248</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1182971090593321</v>
+        <v>0.2473418498301749</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02548028747863552</v>
+        <v>0.02901068312908835</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06288345440018941</v>
+        <v>0.2473347781394554</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02987258319139924</v>
+        <v>0.05406529277937144</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1213119045992674</v>
+        <v>0.2493191596463822</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06468215034752409</v>
+        <v>0.1110637288401334</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1197874422541423</v>
+        <v>0.2499831354136626</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09965176588428359</v>
+        <v>0.1689814212877951</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1190805336226389</v>
+        <v>0.2489798753257391</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02478567369010683</v>
+        <v>0.03102371733118289</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06280408838245972</v>
+        <v>0.2489619806272149</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02989879154453229</v>
+        <v>0.05428990832778557</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1221100092347889</v>
+        <v>0.2509594172756348</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06317490960284955</v>
+        <v>0.1108156347174433</v>
       </c>
       <c r="M218" t="n">
-        <v>0.12057551753213</v>
+        <v>0.2516277613045419</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09897954519699492</v>
+        <v>0.1682571519566967</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1198639581859457</v>
+        <v>0.2506179008213031</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02409992874729029</v>
+        <v>0.02903427209186771</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06272472236473002</v>
+        <v>0.2505891831149745</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0295452116095174</v>
+        <v>0.05391013172342997</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1229081138703104</v>
+        <v>0.2525996749048873</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06357200131990301</v>
+        <v>0.1117584658935842</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1213635928101178</v>
+        <v>0.2532723871954213</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09681398721037082</v>
+        <v>0.1689192258910986</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1206473827492525</v>
+        <v>0.2522559263168672</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02342345498553079</v>
+        <v>0.02804232107309566</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06264535634700032</v>
+        <v>0.2522163856027341</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02891359726895376</v>
+        <v>0.05432591575091615</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1237062185058319</v>
+        <v>0.2542399325341398</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0625734952517856</v>
+        <v>0.1109921244272638</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1221516680881056</v>
+        <v>0.2549170130863006</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09715626744484107</v>
+        <v>0.1687674965802704</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1214308073125594</v>
+        <v>0.2538939518124312</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02275665474017308</v>
+        <v>0.03004783793681963</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06256599032927061</v>
+        <v>0.2538435880904937</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0286057024054405</v>
+        <v>0.0543372131948556</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1245043231413533</v>
+        <v>0.2558801901633923</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06187946115159848</v>
+        <v>0.1117165123771904</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1229397433660934</v>
+        <v>0.25656163897718</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09480756142083546</v>
+        <v>0.1680018175134813</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1222142318758662</v>
+        <v>0.2555319773079954</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02209993034656199</v>
+        <v>0.03105079634499251</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06248662431154093</v>
+        <v>0.2554707905782532</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02832328090157681</v>
+        <v>0.05404397683985979</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1253024277768749</v>
+        <v>0.2575204477926448</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06198996877244287</v>
+        <v>0.111431531802072</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1237278186440812</v>
+        <v>0.2582062648680593</v>
       </c>
       <c r="N222" t="n">
-        <v>0.09506904465878396</v>
+        <v>0.1686220421800008</v>
       </c>
       <c r="O222" t="n">
-        <v>0.122997656439173</v>
+        <v>0.2571700028035594</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02145368414004208</v>
+        <v>0.03104618311582308</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06240725829381123</v>
+        <v>0.2570979930660128</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0280680866399618</v>
+        <v>0.05434610892884081</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1261005324123964</v>
+        <v>0.2591607054218973</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06080508786741998</v>
+        <v>0.1110370847606164</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1245158939220689</v>
+        <v>0.2598508907589387</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09354189267911639</v>
+        <v>0.1684265246620267</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1237810810024799</v>
+        <v>0.2588080282991235</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02081831845595818</v>
+        <v>0.02897906685532711</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06232789227608152</v>
+        <v>0.2587251955537724</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02804187350319468</v>
+        <v>0.05417164315830239</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1268986370479178</v>
+        <v>0.2608009630511498</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06052488818963092</v>
+        <v>0.1116134841399484</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1253039692000567</v>
+        <v>0.2614955166498181</v>
       </c>
       <c r="N224" t="n">
-        <v>0.09262728100226247</v>
+        <v>0.1676711098608408</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1245645055657867</v>
+        <v>0.2604460537946875</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0201942356296551</v>
+        <v>0.02984075133967874</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06224852625835182</v>
+        <v>0.260352398041532</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0275463953738746</v>
+        <v>0.05396587052216889</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1276967416834393</v>
+        <v>0.2624412206804023</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06034943949217697</v>
+        <v>0.1112159818366797</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1260920444780445</v>
+        <v>0.2631401425406974</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0904263851486522</v>
+        <v>0.1679101803684115</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1253479301290935</v>
+        <v>0.2620840792902516</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01958183799647752</v>
+        <v>0.02863944728077475</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06216916024062211</v>
+        <v>0.2619796005292915</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02788340613460066</v>
+        <v>0.05374351010535937</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1284948463189608</v>
+        <v>0.2640814783096548</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05937881152815927</v>
+        <v>0.1101741151210116</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1268801197560323</v>
+        <v>0.2647847684315768</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09034038063871519</v>
+        <v>0.1666894099354851</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1261313546924004</v>
+        <v>0.2637221047858157</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01898152789177028</v>
+        <v>0.03038336539051195</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06208979422289242</v>
+        <v>0.2636068030170511</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02765465966797209</v>
+        <v>0.05321928099279288</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1292929509544823</v>
+        <v>0.2657217359389074</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05911307405067898</v>
+        <v>0.1092184165425927</v>
       </c>
       <c r="M227" t="n">
-        <v>0.12766819503402</v>
+        <v>0.2664293943224562</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08897044299288159</v>
+        <v>0.1650544723128078</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1269147792557072</v>
+        <v>0.2653601302813798</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.018393707650878</v>
+        <v>0.03008071638078713</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06201042820516273</v>
+        <v>0.2652340055048107</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02726190985658802</v>
+        <v>0.05240790226938852</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1300910555900038</v>
+        <v>0.2673619935681599</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05865229681283726</v>
+        <v>0.107979418651072</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1284562703120078</v>
+        <v>0.2680740202133355</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08831774773158102</v>
+        <v>0.1637510412511259</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1276982038190141</v>
+        <v>0.2669981557769439</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0178187796091455</v>
+        <v>0.02773971096349712</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06193106218743302</v>
+        <v>0.2668612079925702</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02710691058304758</v>
+        <v>0.05202409302006529</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1308891602255253</v>
+        <v>0.2690022511974124</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0581965495677354</v>
+        <v>0.1071876539960981</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1292443455899956</v>
+        <v>0.2697186461042149</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08818347037524338</v>
+        <v>0.1610247905011854</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1284816283823209</v>
+        <v>0.2686361812725079</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01725714610191752</v>
+        <v>0.02636855985053867</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06185169616970332</v>
+        <v>0.2684884104803298</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02729113124854482</v>
+        <v>0.0515825723297423</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1316872648610468</v>
+        <v>0.270642508826665</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05824588983701195</v>
+        <v>0.1054736551273197</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1300324208679834</v>
+        <v>0.2713632719950942</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08606870755087392</v>
+        <v>0.1601213938137326</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1292650529456277</v>
+        <v>0.270274206768072</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01670920946453887</v>
+        <v>0.0289754737538086</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06177233015197363</v>
+        <v>0.2701156129680894</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02759122993002079</v>
+        <v>0.05049805928333859</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1324853694965683</v>
+        <v>0.2722827664559175</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0578990479416337</v>
+        <v>0.1038679545943856</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1308204961459711</v>
+        <v>0.2730078978859736</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08536493956437963</v>
+        <v>0.1568865249395137</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1300484775089346</v>
+        <v>0.2719122322636361</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01617537203235418</v>
+        <v>0.02756866338520375</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06169296413424392</v>
+        <v>0.271742815455849</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02739180315994118</v>
+        <v>0.04988527296577325</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1332834741320898</v>
+        <v>0.2739230240851699</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05675516767376859</v>
+        <v>0.1027010849469446</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1316085714239589</v>
+        <v>0.2746525237768529</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08386583842371426</v>
+        <v>0.156065857629275</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1308319020722414</v>
+        <v>0.2735502577592001</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01565603614070826</v>
+        <v>0.02715633945662084</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06161359811651422</v>
+        <v>0.2733700179436085</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02759327553239244</v>
+        <v>0.04945893246196525</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1340815787676113</v>
+        <v>0.2755632817144225</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0562142904690717</v>
+        <v>0.1018035787346452</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1323966467019467</v>
+        <v>0.2762971496677323</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08387144053064993</v>
+        <v>0.1530050656337625</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1316153266355482</v>
+        <v>0.2751882832547642</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01515160412494587</v>
+        <v>0.02774671267995674</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06153423209878452</v>
+        <v>0.2749972204313682</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02719607164146101</v>
+        <v>0.04833375685683373</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1348796834031328</v>
+        <v>0.277203539343675</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05607645776319792</v>
+        <v>0.09990596850713634</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1331847219799345</v>
+        <v>0.2779417755586117</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08378178228695871</v>
+        <v>0.1516498227037226</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1323987511988551</v>
+        <v>0.2768263087503283</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01466247832041173</v>
+        <v>0.02534799376710821</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06145486608105482</v>
+        <v>0.2766244229191277</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02760061608123335</v>
+        <v>0.04792446523529774</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1356777880386543</v>
+        <v>0.2788437969729275</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05554171099180213</v>
+        <v>0.09813878681406674</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1339727972579222</v>
+        <v>0.279586401449491</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08149690009441218</v>
+        <v>0.1486458025899013</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1331821757621619</v>
+        <v>0.2784643342458923</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01418906106245069</v>
+        <v>0.02396839342997206</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06137550006332513</v>
+        <v>0.2782516254068873</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02720733344579591</v>
+        <v>0.04704577668227633</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1364758926741758</v>
+        <v>0.28048405460218</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05571009159053927</v>
+        <v>0.09743256620508522</v>
       </c>
       <c r="M236" t="n">
-        <v>0.13476087253591</v>
+        <v>0.2812310273403704</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08071683035478255</v>
+        <v>0.1467386790430451</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1339656003254687</v>
+        <v>0.2801023597414564</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01373175468640733</v>
+        <v>0.02561612238044511</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06129613404559543</v>
+        <v>0.2798788278946469</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02711664832923513</v>
+        <v>0.04641241028268855</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1372739973096973</v>
+        <v>0.2821243122314325</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05438164099506423</v>
+        <v>0.09551783922984031</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1355489478138978</v>
+        <v>0.2828756532312497</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07954160946984157</v>
+        <v>0.1449741258138999</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1347490248887756</v>
+        <v>0.2817403852370205</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0132909615276265</v>
+        <v>0.02429054190252085</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06121676802786572</v>
+        <v>0.2815060303824065</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02762898532563748</v>
+        <v>0.04613200019391893</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1380721019452188</v>
+        <v>0.283764569860685</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05465640064103197</v>
+        <v>0.09501481828037495</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1363370230918856</v>
+        <v>0.2845202791221291</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07977127384136112</v>
+        <v>0.1431720037936493</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1355324494520824</v>
+        <v>0.2833784107325846</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01286708392145293</v>
+        <v>0.02296606217991178</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06113740201013602</v>
+        <v>0.283133232870166</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02764476902908938</v>
+        <v>0.04555997803496577</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1388702065807403</v>
+        <v>0.2854048274899376</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05393441196409737</v>
+        <v>0.09383484137729275</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1371250983698734</v>
+        <v>0.2861649050130084</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07940585987111315</v>
+        <v>0.1405919277871729</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1363158740153892</v>
+        <v>0.2850164362281486</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01245888133390704</v>
+        <v>0.02364035222957017</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06105803599240633</v>
+        <v>0.2847604353579256</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02716442403367732</v>
+        <v>0.04448577497705201</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1396683112162618</v>
+        <v>0.2870450851191901</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05411571639991533</v>
+        <v>0.09255035734313011</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1379131736478612</v>
+        <v>0.2878095309038878</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07814540396086955</v>
+        <v>0.1399050714793688</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1370992985786961</v>
+        <v>0.2866544617237127</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01205689888438712</v>
+        <v>0.02331339260001503</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06097866997467662</v>
+        <v>0.2863876378456852</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02718837493348771</v>
+        <v>0.04440935615011969</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1404664158517833</v>
+        <v>0.2886853427484426</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05260035538414082</v>
+        <v>0.09106129384514455</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1387012489258489</v>
+        <v>0.2894541567947672</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07748994251240232</v>
+        <v>0.1376113266674278</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1378827231420029</v>
+        <v>0.2882924872192768</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01165989603891357</v>
+        <v>0.02298516383976539</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06089930395694693</v>
+        <v>0.2880148403334447</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02721704632260701</v>
+        <v>0.04343068668411075</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1412645204873048</v>
+        <v>0.2903256003776951</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05298837035242873</v>
+        <v>0.0893675785505938</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1394893242038367</v>
+        <v>0.2910987826856465</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07663951192748319</v>
+        <v>0.1356105851485405</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1386661477053097</v>
+        <v>0.2899305127148408</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01126827513283113</v>
+        <v>0.02165564649734027</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06081993793921722</v>
+        <v>0.2896420428212043</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02745086279512168</v>
+        <v>0.04294973170896722</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1420626251228263</v>
+        <v>0.2919658580069476</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05267980274043399</v>
+        <v>0.08876913912673534</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1402773994818245</v>
+        <v>0.2927434085765259</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07429414860788425</v>
+        <v>0.1341027387198979</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1394495722686166</v>
+        <v>0.2915685382104049</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01088243850148456</v>
+        <v>0.02232482112125875</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06074057192148752</v>
+        <v>0.2912692453089639</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02779024894511817</v>
+        <v>0.04216645635463107</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1428607297583478</v>
+        <v>0.2936061156362001</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05237469398381153</v>
+        <v>0.08786590324082694</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1410654747598123</v>
+        <v>0.2943880344674052</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07405388895537718</v>
+        <v>0.1314876791786904</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1402329968319234</v>
+        <v>0.293206563705969</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01050278848021868</v>
+        <v>0.02099266826003984</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06066120590375783</v>
+        <v>0.2928964477967235</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0276356293666829</v>
+        <v>0.04178082575104429</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1436588343938693</v>
+        <v>0.2952463732654527</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0513730855182162</v>
+        <v>0.08605779856012613</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1418535500378001</v>
+        <v>0.2960326603582846</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07421876937173405</v>
+        <v>0.1305652983221089</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1410164213952302</v>
+        <v>0.2948445892015331</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01012972740437809</v>
+        <v>0.02165916846220256</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06058183988602812</v>
+        <v>0.294523650284483</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02768742865390236</v>
+        <v>0.04139280502814888</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1444569390293907</v>
+        <v>0.2968866308947052</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05157501877930304</v>
+        <v>0.08494475275189065</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1426416253157878</v>
+        <v>0.297677286249164</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07268882625872675</v>
+        <v>0.1286354879473443</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1417998459585371</v>
+        <v>0.2964826146970971</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009763657609307634</v>
+        <v>0.02232430227626597</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06050247386829842</v>
+        <v>0.2961508527722426</v>
       </c>
       <c r="J247" t="n">
-        <v>0.027946071400863</v>
+        <v>0.04050235931588686</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1452550436649122</v>
+        <v>0.2985268885239577</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05048053520272683</v>
+        <v>0.08322669348337799</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1434297005937756</v>
+        <v>0.2993219121400433</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07186409601812715</v>
+        <v>0.126498139851587</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1425832705218439</v>
+        <v>0.2981206401926612</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009404981430352038</v>
+        <v>0.0219880502507491</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06042310785056872</v>
+        <v>0.2977780552600022</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02791198220165124</v>
+        <v>0.04010945374420015</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1460531483004337</v>
+        <v>0.3001671461532102</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05068967622414255</v>
+        <v>0.08220354842184588</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1442177758717634</v>
+        <v>0.3009665380309227</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07094461505170718</v>
+        <v>0.1238531458320281</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1433666950851507</v>
+        <v>0.2997586656882253</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009054101202856109</v>
+        <v>0.01965039293417097</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06034374183283903</v>
+        <v>0.2994052577477618</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02758558565035354</v>
+        <v>0.03931405344303084</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1468512529359552</v>
+        <v>0.3018074037824627</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05020248327920512</v>
+        <v>0.08147524523455188</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1450058511497512</v>
+        <v>0.302611163921802</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07043041976123876</v>
+        <v>0.1220003976858581</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1441501196484576</v>
+        <v>0.3013966911837894</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008711419262164496</v>
+        <v>0.01931131087505064</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06026437581510933</v>
+        <v>0.3010324602355213</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02766730634105638</v>
+        <v>0.03881612354232084</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1476493575714767</v>
+        <v>0.3034476614117152</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04921899780356945</v>
+        <v>0.07974171158875368</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1457939264277389</v>
+        <v>0.3042557898126814</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06982154654849365</v>
+        <v>0.1202397872102677</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1449335442117644</v>
+        <v>0.3030347166793534</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008377337943621999</v>
+        <v>0.0219707846219071</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06018500979737963</v>
+        <v>0.3026596627232809</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02795756886784616</v>
+        <v>0.03841562917201213</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1484474622069982</v>
+        <v>0.3050879190409677</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04943926123289052</v>
+        <v>0.0792028751517089</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1465820017057267</v>
+        <v>0.3059004157035607</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06901803181524396</v>
+        <v>0.1185712062024479</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1457169687750712</v>
+        <v>0.3046727421749175</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008052259582573364</v>
+        <v>0.02062879472325944</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06010564377964992</v>
+        <v>0.3042868652110405</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02835679782480935</v>
+        <v>0.0374125354620468</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1492455668425197</v>
+        <v>0.3067281766702202</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04936331500282312</v>
+        <v>0.07755866359067512</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1473700769837145</v>
+        <v>0.3075450415944401</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06781991196326154</v>
+        <v>0.1178945464595892</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1465003933383781</v>
+        <v>0.3063107676704815</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007736586514363389</v>
+        <v>0.02128532172762666</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06002627776192023</v>
+        <v>0.3059140676988001</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02846541780603241</v>
+        <v>0.03680680754236677</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1500436714780412</v>
+        <v>0.3083684342994727</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04899120054902226</v>
+        <v>0.07680900457291001</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1481581522617023</v>
+        <v>0.3091896674853195</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06692722339431817</v>
+        <v>0.1158096997788826</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1472838179016849</v>
+        <v>0.3079487931660456</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007430721074336732</v>
+        <v>0.01794034618352781</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05994691174419053</v>
+        <v>0.3075412701865596</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02828385340560179</v>
+        <v>0.03619841054291402</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1508417761135627</v>
+        <v>0.3100086919287253</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04862295930714286</v>
+        <v>0.07495382576567119</v>
       </c>
       <c r="M254" t="n">
-        <v>0.14894622753969</v>
+        <v>0.3108342933761988</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06664000251018587</v>
+        <v>0.1130165579575184</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1480672424649918</v>
+        <v>0.3095868186616098</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007135065597838185</v>
+        <v>0.0205938486394819</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05986754572646082</v>
+        <v>0.3091684726743192</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02861252921760392</v>
+        <v>0.0358873095936306</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1516398807490842</v>
+        <v>0.3116489495579778</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04825863271283978</v>
+        <v>0.07429305483621626</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1497343028176778</v>
+        <v>0.3124789192670782</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06555828571263661</v>
+        <v>0.1122150127926879</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1488506670282986</v>
+        <v>0.3112248441571738</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006850022420212501</v>
+        <v>0.02024580964400799</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05978817970873113</v>
+        <v>0.3107956751620788</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02875186983612527</v>
+        <v>0.03517346982445846</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1524379853846057</v>
+        <v>0.3132892071872304</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04759826220176797</v>
+        <v>0.0724266194518029</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1505223780956656</v>
+        <v>0.3141235451579575</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06548210940344207</v>
+        <v>0.1102049560815813</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1496340915916054</v>
+        <v>0.3128628696527379</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.00657599387680443</v>
+        <v>0.01889620974562511</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05970881369100142</v>
+        <v>0.3124228776498383</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02890229985525228</v>
+        <v>0.03455685636533957</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1532360900201272</v>
+        <v>0.3149294648164829</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04754188920958236</v>
+        <v>0.07095444727968878</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1513104533736534</v>
+        <v>0.3157681710488369</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06361150998437437</v>
+        <v>0.1081862796213898</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1504175161549123</v>
+        <v>0.3145008951483019</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006313382302958755</v>
+        <v>0.01654502949285229</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05962944767327173</v>
+        <v>0.3140500801375979</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0290642438690714</v>
+        <v>0.03413743434621601</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1540341946556487</v>
+        <v>0.3165697224457353</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04628955517193784</v>
+        <v>0.0693764659871314</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1520985286516411</v>
+        <v>0.3174127969397162</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06324652385720531</v>
+        <v>0.1052588752093039</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1512009407182191</v>
+        <v>0.316138920643866</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006062590034020147</v>
+        <v>0.01719224943420858</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05955008165554203</v>
+        <v>0.3156772826253575</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02923812647166908</v>
+        <v>0.03331516889702968</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1548322992911702</v>
+        <v>0.3182099800749879</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04674130152448938</v>
+        <v>0.06819260324138843</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1528866039296289</v>
+        <v>0.3190574228305956</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06248718742370674</v>
+        <v>0.1037226346425142</v>
       </c>
       <c r="O259" t="n">
-        <v>0.151984365281526</v>
+        <v>0.3177769461394301</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005824019405333399</v>
+        <v>0.01683785011821298</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05947071563781232</v>
+        <v>0.3173044851131171</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02922437225713179</v>
+        <v>0.0329900251477226</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1556304039266917</v>
+        <v>0.3198502377042404</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04539716970289179</v>
+        <v>0.06790278670971758</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1536746792076167</v>
+        <v>0.320702048721475</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0618335370856507</v>
+        <v>0.1020774497182118</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1527677898448327</v>
+        <v>0.3194149716349942</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005598072752243263</v>
+        <v>0.01548181209338456</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05939134962008262</v>
+        <v>0.3189316876008766</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02932340581954594</v>
+        <v>0.03216196822823676</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1564285085622132</v>
+        <v>0.3214904953334929</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04525720114280007</v>
+        <v>0.06590694405937639</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1544627544856045</v>
+        <v>0.3223466746123543</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06138560924480896</v>
+        <v>0.09962321223358728</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1535512144081396</v>
+        <v>0.3210529971305582</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005385152410094504</v>
+        <v>0.01712411590824234</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05931198360235293</v>
+        <v>0.3205588900886363</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02993565175299802</v>
+        <v>0.03153096326851418</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1572266131977347</v>
+        <v>0.3231307529627454</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04512143727986914</v>
+        <v>0.06420500295762252</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1552508297635923</v>
+        <v>0.3239913005032337</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06034344030295369</v>
+        <v>0.09835981398583127</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1543346389714464</v>
+        <v>0.3226910226261223</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005185660714231821</v>
+        <v>0.01576474211130535</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05923261758462323</v>
+        <v>0.3221860925763958</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03006153465157443</v>
+        <v>0.03089697539849683</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1580247178332562</v>
+        <v>0.3247710105919979</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04468991954975393</v>
+        <v>0.06389689107171362</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1560389050415801</v>
+        <v>0.3256359263941131</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06010706666185645</v>
+        <v>0.09658714677213454</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1551180635347533</v>
+        <v>0.3243290481216864</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01540367125109261</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05915325156689353</v>
+        <v>0.3238132950641554</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03040147910936168</v>
+        <v>0.0302599697481267</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1588228224687777</v>
+        <v>0.3264112682212504</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04466268938810927</v>
+        <v>0.0619825360689073</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1568269803195678</v>
+        <v>0.3272805522849924</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05897652472328935</v>
+        <v>0.09490510238968797</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1559014880980601</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05914009367215668</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005721793996161913</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.0591403622006207</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006439322677309317</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05914063072908471</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007152532982275299</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05914089925754874</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007861371849799938</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05914116778601275</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008565786218716523</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05914143631447676</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009265723027827195</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05914170484294078</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009961129215964301</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.0591419733714048</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01065195172186945</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05914224189986882</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01133813748437514</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05914251042833283</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01201963344228355</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05914277895679685</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01269638653442618</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05914304748526087</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01336834369954626</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05914331601372489</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01403545187647552</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.0591435845421889</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.0146976580040161</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05914385307065292</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01535490902099866</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05914412159911694</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01600715186616815</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05914439012758096</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01665433347835542</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05914465865604497</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.0172964007963626</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05914492718450898</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01793330075901951</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05914519571297301</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01856498030507284</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05914546424143702</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01919138637335256</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05914573276990104</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01981246590266084</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05914600129836506</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02042816583182648</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05914626982682908</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02103843309959809</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.0591465383552931</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02164343131136257</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05914680688375711</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02224440740526928</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05914707541222113</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02284152498670426</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05914734394068515</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02343473099441759</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05914761246914917</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02402397236723755</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05914788099761318</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02460919604396627</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05914814952607719</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02519034896343114</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05914841805454122</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02576737806438367</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05914868658300523</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02634023028565145</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05914895511146925</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.0269088525660366</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05914922363993327</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02747319184436577</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05914949216839729</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02803319505939197</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05914976069686131</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02858880914994201</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05915002922532532</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02913998105481805</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05915029775378933</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02968665771284593</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05915056628225336</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03022878606278022</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05915083481071737</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03076631304344697</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05915110333918139</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03129918559364832</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.0591513718676454</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03182735065220932</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05915164039610943</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03235075515788616</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05915190892457344</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03286934604950405</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05915217745303746</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03338307026586515</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05915244598150147</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03389187474579368</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0591527145099655</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.0343957064280475</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05915298303842951</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.034894512251451</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05915325156689353</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03489451225145099</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05914009367215668</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03545240656541862</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05921999674681441</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03600504873940141</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05929989982147216</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03655229192830085</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05937980289612989</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03709398928701871</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05945970597078762</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03762999397045655</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05953960904544535</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03816015913351618</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05961951212010309</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03868433793109903</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05969941519476082</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03920238351810688</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05977931826941855</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03971414904944134</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05985922134407629</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.04021948768000413</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05993912441873403</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04071825256469677</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06001902749339176</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04121029685842098</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06009893056804949</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.0416954737160784</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06017883364270722</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04217363629257076</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06025873671736497</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04264463774279954</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.0603386397920227</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04310833122166646</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06041854286668043</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04356456988407327</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06049844594133817</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04401320688492144</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.0605783490159959</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04445409537911273</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06065825209065363</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04488708852154877</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06073815516531136</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04531203946713123</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06081805823996911</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04572880137076168</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06089796131462684</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04613722738734183</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06097786438928457</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04653717067177331</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.0610577674639423</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04692908399644276</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06113767053860004</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04731641822116135</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06121757361325778</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04769962611831573</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06129747668791551</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04807856084280755</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06137737976257324</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04845307554953852</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06145728283723098</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04882302339341016</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06153718591188871</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04918825752932419</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06161708898654644</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04954863111218223</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06169699206120418</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04990399729688601</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06177689513586192</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05025420923833707</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06185679821051965</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05059912009143708</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06193670128517739</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05093858301108775</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06201660435983512</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05127245115219066</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06209650743449285</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05160057766964747</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06217641050915059</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05192281571835985</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06225631358380832</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05223901845322947</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06233621665846606</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.0525490390291579</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.0624161197331238</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05285273060104684</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06249602280778153</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05314994632379794</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06257592588243925</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05344053935231287</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.062655828957097</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05372436284149319</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06273573203175473</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05400126994624063</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06281563510641246</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05427111382145679</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06289553818107019</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05453374762204338</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06297544125572793</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05478902450290198</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06305534433038566</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04585934966860132</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06305534433038566</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05500852680223139</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06478858566766617</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05521135080487811</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06652182700494667</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.0553981555044602</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06825506834222717</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05556959989459581</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06998830967950767</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05572634296890307</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07172155101678816</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05586904372100006</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07345479235406867</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05599836114450495</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07518803369134917</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05611495423303582</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07692127502862967</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.0562194819802108</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07865451636591017</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05631260337964804</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08038775770319066</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05639497742496562</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08212099904047117</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05646726310978167</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08385424037775167</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05653011942771433</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08558748171503217</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05658420537238172</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08732072305231267</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05663017993740192</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08905396438959316</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05666870211639309</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09078720572687367</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05670043090297334</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09252044706415417</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05672602529076079</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09425368840143467</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05674614427337354</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09598692973871516</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05676144684442976</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09772017107599566</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05677259199754753</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.09945341241327617</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05678023872634495</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1011866537505567</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05678504602444021</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1029198950878372</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05678767288545136</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1046531364251177</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05678877830299657</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1063863777623982</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05678902127069392</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1081196190996787</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05676619570985335</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1098528604369592</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05665572931578962</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1115861017742397</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05646000307401829</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1133193431115202</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05618606046481597</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1150525844488007</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05584094496845933</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1167858257860812</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05543170006522498</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1185190671233617</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05496536923538958</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1202523084606422</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05444899595922974</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1219855497979227</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05388962371702211</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1237187911352032</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05329429598904332</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1254520324724837</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05267005625557006</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1271852738097642</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.0520239479968789</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1289185151470447</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.0513630146932465</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1306517564843252</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05069429982494951</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1323849978216056</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05002484687226455</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1341182391588862</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04936169931546829</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1358514804961667</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04871190063483734</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1375847218334472</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.0480824943106483</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1393179631707277</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.0474805238231779</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1410512045080082</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.0469130326527027</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1427844458452887</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.0463870642794994</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1445176871825692</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04590966218384458</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1462509285198497</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04548786984601491</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1479841698571302</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04512873074628702</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.044814717028856</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1514506525316912</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04451714694859238</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1531838938689717</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04423465409538758</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1549171352062522</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04396595393020282</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1566503765435327</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04370976191399928</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1583836178808132</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04346479350773817</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1601168592180937</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04322976417238071</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1618501005553742</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.0430033893688881</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1635833418926547</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04278438455822156</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1653165832299352</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04257146520134228</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1670498245672156</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04236334675921145</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1687830659044962</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.0421587446927903</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1705163072417767</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04195637446304004</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1722495485790572</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04175495153092186</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1739827899163377</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04155319135739698</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1757160312536182</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.04134980940342659</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1774492725908987</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.04114352112997191</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1791825139281792</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.04093304199799414</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1809157552654597</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.0407170874684545</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1826489966027402</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.04049437300231416</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1843822379400206</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.04026361406053437</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1861154792773012</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.04002352610407631</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1878487206145817</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03977282459390118</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1895819619518622</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03951022499097022</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1913152032891427</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.0392344427562446</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1930484446264232</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03894432189725563</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1947816859637037</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.0386429839272379</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1965149273009842</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03833241752650955</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1982481686382647</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03801284687849221</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1999814099755452</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03768449616660755</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2017146513128256</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03734758957427727</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2034478926501062</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03700235128492298</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2051811339873867</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.0366490054819664</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2069143753246672</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03628777634882917</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2086476166619477</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03591888806893297</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2103808579992282</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03554256482569945</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2121140993365087</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03515903080255031</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2138473406737892</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03476851018290718</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2155805820110697</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03437122715019174</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2173138233483502</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03396740588782568</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2190470646856306</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03355727057923061</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2207803060229112</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03314104540782825</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2225135473601917</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03271895455704026</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2242467886974722</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.0322912222102883</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2259800300347527</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03185807255099402</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2277132713720332</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.0314197297625791</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2294465127093137</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03097641802846522</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2311797540465942</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03052836153207404</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2329129953838747</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03007578445682721</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2346462367211552</v>
-      </c>
-    </row>
+        <v>0.3259670736172505</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1256.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1256.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003466448352979989</v>
+        <v>0.001695350937796873</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001627202487759575</v>
+        <v>0.0005950867327970198</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003873057832860752</v>
+        <v>0.002374908952637408</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001640257629252515</v>
+        <v>0.0008659212581928954</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01026431307897435</v>
+        <v>0.005410505627767515</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001644625890879359</v>
+        <v>0.0008505440557595845</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01896164824151853</v>
+        <v>0.008800955851753556</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001638025495564073</v>
+        <v>0.0008486506311465271</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.007464837417150323</v>
+        <v>0.003329448938562234</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002983695515634984</v>
+        <v>0.00119017346559404</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.009631439999999991</v>
+        <v>0.004391796466447995</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003849686567999996</v>
+        <v>0.001731842516385791</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0192951844972393</v>
+        <v>0.01099845634531491</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003289251781758718</v>
+        <v>0.001701088111519169</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03963143999999996</v>
+        <v>0.01793108501537077</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003701621699999996</v>
+        <v>0.001697301262293054</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007682420128645895</v>
+        <v>0.00486083721030265</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004881607463278724</v>
+        <v>0.001785260198391059</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01209197392920626</v>
+        <v>0.006873404072547315</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004920772887757545</v>
+        <v>0.002597763774578686</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02463143999999998</v>
+        <v>0.01687788124394352</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004139447922580641</v>
+        <v>0.002551632167278753</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04853829752641831</v>
+        <v>0.02721920651230525</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004914076486692218</v>
+        <v>0.002545951893439581</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01300279173591291</v>
+        <v>0.006248058961024712</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006508809951038299</v>
+        <v>0.002380346931188079</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01611390877833688</v>
+        <v>0.009631439999999991</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006561030517010059</v>
+        <v>0.003849686567999996</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03525869623343375</v>
+        <v>0.02206280941495473</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006578503563517435</v>
+        <v>0.003402176223038338</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05891339462195522</v>
+        <v>0.03369413936401061</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00655210198225629</v>
+        <v>0.003394602524586109</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.007464837417150323</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01189559015374594</v>
+        <v>0.007464837417150323</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008136012438797875</v>
+        <v>0.002983695515634984</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02053721940382688</v>
+        <v>0.01015815217322118</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008201288146262573</v>
+        <v>0.004329606290964477</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04124161834530385</v>
+        <v>0.02463143999999998</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008223129454396794</v>
+        <v>0.003849686567999996</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06933119288633682</v>
+        <v>0.03963143999999996</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008190127477820363</v>
+        <v>0.003968749039175252</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01567615857601569</v>
+        <v>0.008544237594304151</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.008951086546904951</v>
+        <v>0.003570520396782118</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0239484351751228</v>
+        <v>0.01165538671250521</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00984154577551509</v>
+        <v>0.005195527549157372</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04789040234751202</v>
+        <v>0.02974178567540628</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009867755345276152</v>
+        <v>0.005103264334557506</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07935785123673034</v>
+        <v>0.04690032767420166</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009828152973384435</v>
+        <v>0.005091903786879163</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01676789146186346</v>
+        <v>0.009631337478982815</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01139041741431702</v>
+        <v>0.004165607129579138</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02743647067927105</v>
+        <v>0.01366481013823906</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01154905970399999</v>
+        <v>0.006061448807350268</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05338099372076588</v>
+        <v>0.03348946383101531</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01151238123615551</v>
+        <v>0.005953808390317092</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08548468959618805</v>
+        <v>0.0515383439059266</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01110486509999999</v>
+        <v>0.00594055441802569</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01907906127396242</v>
+        <v>0.01069104264844452</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.0130176199020766</v>
+        <v>0.004760693862376158</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02946779060385467</v>
+        <v>0.01479639300064613</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01312206103402012</v>
+        <v>0.006927370065543163</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0564605801377295</v>
+        <v>0.0361114819721452</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01241834376774192</v>
+        <v>0.006804352446076676</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.09353590962649555</v>
+        <v>0.05750363487965499</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01310420396451258</v>
+        <v>0.006789205049172217</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01731941580351921</v>
+        <v>0.01170341559153994</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01464482238983617</v>
+        <v>0.005355780595173177</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03180278212434068</v>
+        <v>0.01626010584994983</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01476231866327263</v>
+        <v>0.007793291323736059</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06256377585683323</v>
+        <v>0.04014109280061545</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01480163301791423</v>
+        <v>0.00765489650183626</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.1006927685536314</v>
+        <v>0.06185422258981249</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01474222946007665</v>
+        <v>0.007637855680318745</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02148598661268944</v>
+        <v>0.01264851879711981</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01627202487759575</v>
+        <v>0.005950867327970198</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03383191603701045</v>
+        <v>0.01746591923637361</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01640257629252515</v>
+        <v>0.008659212581928954</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06717529521013263</v>
+        <v>0.0433115490182456</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01644625890879359</v>
+        <v>0.008505440557595846</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1068144618666295</v>
+        <v>0.06594812903082486</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01638025495564073</v>
+        <v>0.008486506311465272</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01957580526362866</v>
+        <v>0.0135064147540348</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01789922736535532</v>
+        <v>0.006545954060767217</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03614724350036304</v>
+        <v>0.0189238037101408</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01804283392177766</v>
+        <v>0.009525133840121849</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.07175636063288729</v>
+        <v>0.04505610332685503</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01809088479967295</v>
+        <v>0.009355984613355428</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1127605256428599</v>
+        <v>0.07114337619711775</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.0180182804512048</v>
+        <v>0.0093351569426118</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02358590331849252</v>
+        <v>0.01425716595113562</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0195264298531149</v>
+        <v>0.007141040793564236</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03804081567289741</v>
+        <v>0.01994372982147485</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01968309155103018</v>
+        <v>0.01039105509831474</v>
       </c>
       <c r="L77" t="n">
-        <v>0.07567456611382622</v>
+        <v>0.0487080084282632</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0197355106905523</v>
+        <v>0.01020652866911501</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1192904959596929</v>
+        <v>0.0750979860831168</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01965630594676887</v>
+        <v>0.01018380757375833</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02151331233943655</v>
+        <v>0.01488083487727297</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02115363234087447</v>
+        <v>0.007736127526361256</v>
       </c>
       <c r="J78" t="n">
-        <v>0.04020468371311255</v>
+        <v>0.02113566812059919</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02132334918028269</v>
+        <v>0.01125697635650764</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07989750564167836</v>
+        <v>0.05090051702428966</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02138013658143166</v>
+        <v>0.0110570727248746</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1254639088944987</v>
+        <v>0.07916998068324771</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02129433144233294</v>
+        <v>0.01103245820490485</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02335506388861638</v>
+        <v>0.01535748402129754</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02278083482863405</v>
+        <v>0.008331214259158276</v>
       </c>
       <c r="J79" t="n">
-        <v>0.04163089877950747</v>
+        <v>0.02260958915773718</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02296360680953521</v>
+        <v>0.01212289761470054</v>
       </c>
       <c r="L79" t="n">
-        <v>0.08359277320517275</v>
+        <v>0.05386688181675384</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02302476247231102</v>
+        <v>0.01190761678063418</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1300403005246473</v>
+        <v>0.08548468959618805</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02293235693789701</v>
+        <v>0.01222936997563646</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02410818952818761</v>
+        <v>0.01567615857601569</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02440803731639362</v>
+        <v>0.008951086546904951</v>
       </c>
       <c r="J80" t="n">
-        <v>0.04341151203058119</v>
+        <v>0.02377546348311227</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02460386443878772</v>
+        <v>0.01298881887289343</v>
       </c>
       <c r="L80" t="n">
-        <v>0.08702796279303843</v>
+        <v>0.0564605801377295</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02466938836319038</v>
+        <v>0.01260616147363491</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1362792069275091</v>
+        <v>0.08681613784051062</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02457038243346109</v>
+        <v>0.01272975946719791</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02376972082030579</v>
+        <v>0.01587753808509677</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0260352398041532</v>
+        <v>0.009521387724752316</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04453857462483268</v>
+        <v>0.02474326164694785</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02624412206804023</v>
+        <v>0.01385474013108633</v>
       </c>
       <c r="L81" t="n">
-        <v>0.08977066839400422</v>
+        <v>0.05879947617530254</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02631401425406974</v>
+        <v>0.01360870489215335</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1399401641804541</v>
+        <v>0.0913647482441613</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02620840792902516</v>
+        <v>0.01357841009834443</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02433668932712656</v>
+        <v>0.01608434366804877</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02766244229191277</v>
+        <v>0.01011647445754934</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04600413772076099</v>
+        <v>0.02612295419946734</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02788437969729275</v>
+        <v>0.01472066138927922</v>
       </c>
       <c r="L82" t="n">
-        <v>0.09348848399679932</v>
+        <v>0.06205545092446005</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0279586401449491</v>
+        <v>0.01445924894791294</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1435827083608524</v>
+        <v>0.09614675721618027</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02784643342458923</v>
+        <v>0.01442706072949096</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0268061266108055</v>
+        <v>0.01628777356860925</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02928964477967235</v>
+        <v>0.01071156119034635</v>
       </c>
       <c r="J83" t="n">
-        <v>0.04700025247686507</v>
+        <v>0.02743647067927105</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02952463732654527</v>
+        <v>0.01566622475786377</v>
       </c>
       <c r="L83" t="n">
-        <v>0.09574900359015259</v>
+        <v>0.0645911397337848</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02960326603582846</v>
+        <v>0.01530979300367252</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1468663755460744</v>
+        <v>0.1008346241921468</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02948445892015331</v>
+        <v>0.01527571136063749</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02619050893153958</v>
+        <v>0.01648784911092113</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03091684726743192</v>
+        <v>0.01130664792314338</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04791897005164394</v>
+        <v>0.02807405620611694</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03116489495579778</v>
+        <v>0.01645250390566501</v>
       </c>
       <c r="L84" t="n">
-        <v>0.09761982116279305</v>
+        <v>0.06748808638417822</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03124789192670782</v>
+        <v>0.01616033705943211</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1499507018134901</v>
+        <v>0.1048008086076397</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03112248441571738</v>
+        <v>0.01612436199178402</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02755684504714118</v>
+        <v>0.0166845916191273</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0325440497551915</v>
+        <v>0.0119017346559404</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04885400999725008</v>
+        <v>0.02969196292826991</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03280515258505029</v>
+        <v>0.01731842516385791</v>
       </c>
       <c r="L85" t="n">
-        <v>0.09956853070344973</v>
+        <v>0.07102783465654153</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03289251781758717</v>
+        <v>0.01701088111519169</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1518404671821568</v>
+        <v>0.1097177698982384</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03276050991128145</v>
+        <v>0.01697301262293054</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02591120133790187</v>
+        <v>0.01687802241737062</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03417125224295107</v>
+        <v>0.01249682138873742</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04950813210019264</v>
+        <v>0.03116786745259506</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03444541021430281</v>
+        <v>0.0181843464220508</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1011590202393041</v>
+        <v>0.07459192833177594</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03453714370846653</v>
+        <v>0.01786142517095127</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1540622832544151</v>
+        <v>0.1140579674995219</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03439853540684552</v>
+        <v>0.01782166325407707</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02625116912660609</v>
+        <v>0.01706816282979394</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03579845473071065</v>
+        <v>0.01309190812153443</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05024278310381683</v>
+        <v>0.03239121072147755</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03608566784355532</v>
+        <v>0.0190502676802437</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1026886249217826</v>
+        <v>0.07726191119078285</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03618176959934589</v>
+        <v>0.01871196922671086</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1570203475980756</v>
+        <v>0.1182938608470692</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0360365609024096</v>
+        <v>0.0186703138852236</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02757433973603819</v>
+        <v>0.01725503418054022</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03742565721847022</v>
+        <v>0.01368699485433146</v>
       </c>
       <c r="J88" t="n">
-        <v>0.05055364504825205</v>
+        <v>0.03365143367730249</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03772592547280783</v>
+        <v>0.01991618893843659</v>
       </c>
       <c r="L88" t="n">
-        <v>0.104273224720021</v>
+        <v>0.08031932701446348</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03782639549022525</v>
+        <v>0.01956251328247044</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1578012614574452</v>
+        <v>0.1238979093764594</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03767458639797367</v>
+        <v>0.01951896451637013</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02787830448898258</v>
+        <v>0.0174386577937523</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03905285970622979</v>
+        <v>0.01428208158712847</v>
       </c>
       <c r="J89" t="n">
-        <v>0.05133639997362777</v>
+        <v>0.03523797726245505</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03936618310206036</v>
+        <v>0.02078211019662949</v>
       </c>
       <c r="L89" t="n">
-        <v>0.104603862669313</v>
+        <v>0.08284571958371917</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03947102138110461</v>
+        <v>0.02041305733823003</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1598916260768303</v>
+        <v>0.1278425725232717</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03931261189353774</v>
+        <v>0.02036761514751665</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02916065470822367</v>
+        <v>0.01761905499357305</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04068006219398937</v>
+        <v>0.01487716831992549</v>
       </c>
       <c r="J90" t="n">
-        <v>0.05168672992007341</v>
+        <v>0.03684028241932039</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04100644073131287</v>
+        <v>0.02164803145482239</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1060715818049524</v>
+        <v>0.08572263267945124</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04111564727198397</v>
+        <v>0.02126360139398961</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1622780427005376</v>
+        <v>0.1319003097230853</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04095063738910182</v>
+        <v>0.02121626577866318</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02841898171654582</v>
+        <v>0.01779624710414537</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04230726468174895</v>
+        <v>0.01547225505272251</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05220031692771838</v>
+        <v>0.03824779009028363</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04264669836056539</v>
+        <v>0.02251395271301528</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1074674251622328</v>
+        <v>0.08863161008256076</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04276027316286333</v>
+        <v>0.0221141454497492</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1625471125728739</v>
+        <v>0.1358435804114791</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04258866288466589</v>
+        <v>0.0220649164098097</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02965087683673344</v>
+        <v>0.01797025544961214</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04393446716950852</v>
+        <v>0.01606734178551953</v>
       </c>
       <c r="J92" t="n">
-        <v>0.05267284303669217</v>
+        <v>0.03974994121772991</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0442869559898179</v>
+        <v>0.02337987397120818</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1086824357764479</v>
+        <v>0.09205419557394928</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04440489905374269</v>
+        <v>0.02296468950550878</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1646854369381456</v>
+        <v>0.1401448440240324</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04422668838022996</v>
+        <v>0.02291356704095623</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02785393139157093</v>
+        <v>0.01814110135411623</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04556166965726809</v>
+        <v>0.01666242851831655</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05319999028712419</v>
+        <v>0.04123617674404446</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04592721361907041</v>
+        <v>0.02424579522940107</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1092076566828913</v>
+        <v>0.09507193293451804</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04604952494462205</v>
+        <v>0.02381523356126837</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1662796170406596</v>
+        <v>0.1447765599963241</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04586471387579403</v>
+        <v>0.02376221767210276</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02902573670384268</v>
+        <v>0.01830880614180055</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04718887214502767</v>
+        <v>0.01725751525111357</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0538774407191439</v>
+        <v>0.04299593761161234</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04756747124832292</v>
+        <v>0.02511171648759396</v>
       </c>
       <c r="L94" t="n">
-        <v>0.109834130916857</v>
+        <v>0.09756636594516815</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04769415083550141</v>
+        <v>0.02466577761702795</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1681162541247224</v>
+        <v>0.1479111877639335</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04750273937135811</v>
+        <v>0.02461086830324929</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03016388409633307</v>
+        <v>0.01847339113680796</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04881607463278724</v>
+        <v>0.01785260198391059</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05370087637288071</v>
+        <v>0.04401866476281874</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04920772887757544</v>
+        <v>0.02597763774578686</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1102529015136382</v>
+        <v>0.100019038386801</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04933877672638077</v>
+        <v>0.02551632167278754</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1677819494346407</v>
+        <v>0.1521211867624396</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04914076486692218</v>
+        <v>0.02545951893439581</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02926596489182651</v>
+        <v>0.01863487766328134</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05044327712054682</v>
+        <v>0.01844768871670761</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05426597928846408</v>
+        <v>0.0455937991400488</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05084798650682796</v>
+        <v>0.02684355900397976</v>
       </c>
       <c r="L96" t="n">
-        <v>0.111755011508529</v>
+        <v>0.1015114940403181</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05098340261726012</v>
+        <v>0.02636686572854712</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1698633042147212</v>
+        <v>0.1562790164274216</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05077879036248625</v>
+        <v>0.02630816956554234</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03135231715203138</v>
+        <v>0.01879328704536359</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05207047960830639</v>
+        <v>0.01904277544950463</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05466843150602342</v>
+        <v>0.04701078168568766</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05248824413608047</v>
+        <v>0.02770948026217265</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1115315039368229</v>
+        <v>0.1043252766866203</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05262802850813948</v>
+        <v>0.0272174097843067</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1691469197092704</v>
+        <v>0.1588571361944585</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05241681585805032</v>
+        <v>0.02715682019668887</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03035229198296009</v>
+        <v>0.01894864060719757</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05369768209606597</v>
+        <v>0.01963786218230165</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05487294135854208</v>
+        <v>0.0483590533421205</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05412850176533299</v>
+        <v>0.02857540152036555</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1115734218338137</v>
+        <v>0.1064419301066093</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05427265439901884</v>
+        <v>0.02806795384006629</v>
       </c>
       <c r="N98" t="n">
-        <v>0.170969379192376</v>
+        <v>0.1620280054991294</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05405484135361439</v>
+        <v>0.0280054708278354</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03034259027227429</v>
+        <v>0.01910095967292619</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05532488458382554</v>
+        <v>0.02023294891509867</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05456811200758789</v>
+        <v>0.04922805505173243</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0557687593945855</v>
+        <v>0.02944132277855844</v>
       </c>
       <c r="L99" t="n">
-        <v>0.112921160275459</v>
+        <v>0.1072429980811861</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0559172802898982</v>
+        <v>0.02891849789582587</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1692673378190021</v>
+        <v>0.1642640837770135</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05569286684917846</v>
+        <v>0.02885412145898193</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02931284258133965</v>
+        <v>0.01925026556669229</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05695208707158512</v>
+        <v>0.02082803564789569</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05486517948086535</v>
+        <v>0.05030722775690864</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05740901702383802</v>
+        <v>0.03030724403675134</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1127194809059052</v>
+        <v>0.1095100243912521</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05756190618077756</v>
+        <v>0.02976904195158546</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1693257615343918</v>
+        <v>0.1656378304636899</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05733089234474254</v>
+        <v>0.02970277209012845</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03026433116924854</v>
+        <v>0.01939657961263881</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0585792895593447</v>
+        <v>0.02142312238069271</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05462347749677597</v>
+        <v>0.05118601240003423</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05904927465309053</v>
+        <v>0.03117316529494423</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1117655081694766</v>
+        <v>0.1099245528177086</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05920653207165692</v>
+        <v>0.03061958600734504</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1690718102244928</v>
+        <v>0.1677217049947376</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05896891784030661</v>
+        <v>0.03055142272127498</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.028198325478356</v>
+        <v>0.01953992313490857</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06020649204710427</v>
+        <v>0.02201820911348973</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05474771131611064</v>
+        <v>0.05205384992349438</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06068953228234305</v>
+        <v>0.03203908655313713</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1116390182779265</v>
+        <v>0.1114681271414569</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06085115796253628</v>
+        <v>0.03147013006310462</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1705135811820912</v>
+        <v>0.1680881668057359</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06060694333587069</v>
+        <v>0.03140007335242151</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03111609495101704</v>
+        <v>0.01968031745764451</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06183369453486385</v>
+        <v>0.02261329584628675</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05444015662824421</v>
+        <v>0.05310018126967425</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06232978991159556</v>
+        <v>0.03290500781133002</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1114447318099597</v>
+        <v>0.1114222911433982</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06249578385341564</v>
+        <v>0.03232067411886421</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1700581359378359</v>
+        <v>0.1701096753322636</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06224496883143477</v>
+        <v>0.03224872398356803</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02801890902958666</v>
+        <v>0.01981778390498945</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06346089702262342</v>
+        <v>0.02320838257908377</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0540030891225515</v>
+        <v>0.05351444738095895</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06397004754084808</v>
+        <v>0.03377092906952292</v>
       </c>
       <c r="L104" t="n">
-        <v>0.112287369344281</v>
+        <v>0.112921160275459</v>
       </c>
       <c r="M104" t="n">
-        <v>0.064140409744295</v>
+        <v>0.0331712181746238</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1693125360223761</v>
+        <v>0.170969379192376</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06388299432699884</v>
+        <v>0.03309737461471456</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02790803715641993</v>
+        <v>0.01995234380108633</v>
       </c>
       <c r="G105" t="n">
-        <v>0.065088099510383</v>
+        <v>0.02380346931188079</v>
       </c>
       <c r="J105" t="n">
-        <v>0.05433878448840739</v>
+        <v>0.05428608919973366</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06561030517010058</v>
+        <v>0.03463685032771582</v>
       </c>
       <c r="L105" t="n">
-        <v>0.111171651459595</v>
+        <v>0.112021160275459</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06578503563517435</v>
+        <v>0.03402176223038338</v>
       </c>
       <c r="N105" t="n">
-        <v>0.168483842966361</v>
+        <v>0.170369379192376</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06552101982256291</v>
+        <v>0.03394602524586109</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02878474877387184</v>
+        <v>0.02008401847007801</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06671530199814256</v>
+        <v>0.02439855604467781</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0538495184151867</v>
+        <v>0.05460454766838352</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06725056279935311</v>
+        <v>0.03550277158590871</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1107022987346065</v>
+        <v>0.112821160275459</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06742966152605372</v>
+        <v>0.03487230628614296</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1682791183004393</v>
+        <v>0.169669379192376</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06715904531812697</v>
+        <v>0.03479467587700762</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03065031332429742</v>
+        <v>0.02021282923610737</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06834250448590214</v>
+        <v>0.02499364277747483</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05383756659226427</v>
+        <v>0.05487294135854208</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06889082042860561</v>
+        <v>0.03636869284410161</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1102840317480204</v>
+        <v>0.112221160275459</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06907428741693307</v>
+        <v>0.03572285034190255</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1665054235552605</v>
+        <v>0.170669379192376</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06879707081369105</v>
+        <v>0.03564332650815414</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02850600025005172</v>
+        <v>0.02033879742331728</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06996970697366171</v>
+        <v>0.02558872951027185</v>
       </c>
       <c r="J108" t="n">
-        <v>0.05350520470901496</v>
+        <v>0.05457294135854208</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07053107805785813</v>
+        <v>0.03723461410229451</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1101215710785414</v>
+        <v>0.112521160275459</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07071891330781244</v>
+        <v>0.03657339439766213</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1665698202614734</v>
+        <v>0.170469379192376</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07043509630925512</v>
+        <v>0.03649197713930067</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02935307899348974</v>
+        <v>0.02046194435585065</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07159690946142129</v>
+        <v>0.02618381624306887</v>
       </c>
       <c r="J109" t="n">
-        <v>0.05295470845481363</v>
+        <v>0.05477294135854208</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07217133568711065</v>
+        <v>0.03810053536048739</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1092196373048742</v>
+        <v>0.112921160275459</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07236353919869179</v>
+        <v>0.03742393845342171</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1658793699497274</v>
+        <v>0.169669379192376</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0720731218048192</v>
+        <v>0.0373406277704472</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02819281899696649</v>
+        <v>0.02058229135785035</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07322411194918087</v>
+        <v>0.02677890297586589</v>
       </c>
       <c r="J110" t="n">
-        <v>0.05278835351903508</v>
+        <v>0.05487294135854208</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07381159331636317</v>
+        <v>0.03896645661868029</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1093829510057236</v>
+        <v>0.112321160275459</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07400816508957116</v>
+        <v>0.0382744825091813</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1643411341506712</v>
+        <v>0.1702693791923761</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07371114730038326</v>
+        <v>0.03818927840159372</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02902648970283703</v>
+        <v>0.02069985975345924</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07485131443694044</v>
+        <v>0.02737398970866291</v>
       </c>
       <c r="J111" t="n">
-        <v>0.05260841559105418</v>
+        <v>0.05447294135854208</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07545185094561567</v>
+        <v>0.03983237787687319</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1080162327597945</v>
+        <v>0.111921160275459</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07565279098045051</v>
+        <v>0.03912502656494089</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1640621743949541</v>
+        <v>0.169669379192376</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07534917279594734</v>
+        <v>0.03903792903274025</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02985536055345638</v>
+        <v>0.02081467086682022</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07647851692470002</v>
+        <v>0.02796907644145993</v>
       </c>
       <c r="J112" t="n">
-        <v>0.05261717036024577</v>
+        <v>0.05457294135854208</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07709210857486819</v>
+        <v>0.04069829913506608</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1082242031457914</v>
+        <v>0.112621160275459</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07729741687132986</v>
+        <v>0.03997557062070047</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1633495522132252</v>
+        <v>0.1707693791923761</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07698719829151141</v>
+        <v>0.03988657966388678</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02768070099117952</v>
+        <v>0.02092674602207618</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07810571941245958</v>
+        <v>0.02856416317425695</v>
       </c>
       <c r="J113" t="n">
-        <v>0.05201689351598471</v>
+        <v>0.05457294135854208</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07873236620412072</v>
+        <v>0.04156422039325898</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1068115827424194</v>
+        <v>0.112421160275459</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07894204276220922</v>
+        <v>0.04082611467646005</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1625103291361334</v>
+        <v>0.170069379192376</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07862522378707548</v>
+        <v>0.0407352302950333</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02750378045836153</v>
+        <v>0.02103610654337</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07973292190021916</v>
+        <v>0.02915924990705397</v>
       </c>
       <c r="J114" t="n">
-        <v>0.05180986074764581</v>
+        <v>0.05487294135854208</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08037262383337322</v>
+        <v>0.04243014165145188</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1063830921283829</v>
+        <v>0.111821160275459</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08058666865308858</v>
+        <v>0.04167665873221964</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1615515666943281</v>
+        <v>0.170669379192376</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08026324928263956</v>
+        <v>0.04158388092617983</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0263258683973574</v>
+        <v>0.02114277375484458</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08136012438797874</v>
+        <v>0.02975433663985099</v>
       </c>
       <c r="J115" t="n">
-        <v>0.05119834774460395</v>
+        <v>0.05477294135854208</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08201288146262574</v>
+        <v>0.04329606290964477</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1056434518823869</v>
+        <v>0.112221160275459</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08223129454396794</v>
+        <v>0.04252720278797922</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1605803264184582</v>
+        <v>0.169369379192376</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08190127477820364</v>
+        <v>0.04243253155732635</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02914823425052217</v>
+        <v>0.02124676898064275</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08298732687573832</v>
+        <v>0.03034942337264801</v>
       </c>
       <c r="J116" t="n">
-        <v>0.05118463019623395</v>
+        <v>0.05487294135854208</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08365313909187826</v>
+        <v>0.04416198416783766</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1054973825831361</v>
+        <v>0.112121160275459</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0838759204348473</v>
+        <v>0.04337774684373881</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1588036698391728</v>
+        <v>0.170569379192376</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0835393002737677</v>
+        <v>0.04328118218847288</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02897214746021086</v>
+        <v>0.02134811354490744</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08461452936349789</v>
+        <v>0.03094451010544503</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05057098379191069</v>
+        <v>0.05447294135854208</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08529339672113077</v>
+        <v>0.04502790542603056</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1047496048093353</v>
+        <v>0.112521160275459</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08552054632572666</v>
+        <v>0.0442282908994984</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1580286584871209</v>
+        <v>0.169369379192376</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08517732576933178</v>
+        <v>0.04412983281961941</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02779257595452322</v>
+        <v>0.02144682877178151</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08624173185125747</v>
+        <v>0.03153959683824205</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05055968422100895</v>
+        <v>0.05477294135854208</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08693365435038328</v>
+        <v>0.04589382668422345</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1038048391396892</v>
+        <v>0.112721160275459</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08716517221660602</v>
+        <v>0.04507883495525798</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1565623538929516</v>
+        <v>0.1702693791923761</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08681535126489585</v>
+        <v>0.04497848345076594</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02558838825533637</v>
+        <v>0.02154293598540785</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08786893433901705</v>
+        <v>0.03213468357103907</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0499469580956599</v>
+        <v>0.05487294135854208</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08857391197963579</v>
+        <v>0.04675974794241635</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1034674938337178</v>
+        <v>0.112521160275459</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08880979810748538</v>
+        <v>0.04592937901101756</v>
       </c>
       <c r="N119" t="n">
-        <v>0.156773475558972</v>
+        <v>0.169969379192376</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08845337676045992</v>
+        <v>0.04582713408191247</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02836139182132658</v>
+        <v>0.02163645650992932</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08949613682677662</v>
+        <v>0.03272977030383609</v>
       </c>
       <c r="J120" t="n">
-        <v>0.05009381121919357</v>
+        <v>0.05477294135854208</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09021416960888831</v>
+        <v>0.04762566920060925</v>
       </c>
       <c r="L120" t="n">
-        <v>0.102976024741804</v>
+        <v>0.112721160275459</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09045442399836473</v>
+        <v>0.04677992306677715</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1558473195382364</v>
+        <v>0.1697693791923761</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09009140225602399</v>
+        <v>0.04667578471305899</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02811572264742963</v>
+        <v>0.02172741166948884</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09112333931453619</v>
+        <v>0.03332485703663311</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04929895882834225</v>
+        <v>0.05467294135854207</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09185442723814083</v>
+        <v>0.04849159045880214</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1020923909952183</v>
+        <v>0.112321160275459</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0920990498892441</v>
+        <v>0.04763046712253673</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1536960884255382</v>
+        <v>0.1702693791923761</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09172942775158806</v>
+        <v>0.04752443534420552</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02585551672858125</v>
+        <v>0.02181582278822927</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09275054180229576</v>
+        <v>0.03391994376943012</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04906981539111419</v>
+        <v>0.05477294135854208</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09349468486739333</v>
+        <v>0.04935751171699504</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1015319728036565</v>
+        <v>0.112621160275459</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09374367578012345</v>
+        <v>0.04848101117829631</v>
       </c>
       <c r="N122" t="n">
-        <v>0.151842789531834</v>
+        <v>0.169869379192376</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09336745324715214</v>
+        <v>0.04837308597535205</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02458491005971715</v>
+        <v>0.02190171119029349</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09437774429005534</v>
+        <v>0.03451503050222714</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04851379537551773</v>
+        <v>0.05477294135854208</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09513494249664585</v>
+        <v>0.05022343297518793</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09981015037681401</v>
+        <v>0.112321160275459</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09538830167100282</v>
+        <v>0.0493315552340559</v>
       </c>
       <c r="N123" t="n">
-        <v>0.15101043016808</v>
+        <v>0.170569379192376</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09500547874271621</v>
+        <v>0.04922173660649858</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02530803863577315</v>
+        <v>0.0219850981998244</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0960049467778149</v>
+        <v>0.03511011723502416</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04803831324956107</v>
+        <v>0.05437294135854208</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09677520012589837</v>
+        <v>0.05108935423338083</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09924230392438638</v>
+        <v>0.112321160275459</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09703292756188217</v>
+        <v>0.05018209928981548</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1498220176452326</v>
+        <v>0.1702693791923761</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09664350423828029</v>
+        <v>0.0500703872376451</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02502903845168494</v>
+        <v>0.02206600514096485</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09763214926557448</v>
+        <v>0.03570520396782119</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04765078348125254</v>
+        <v>0.05467294135854207</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09841545775515088</v>
+        <v>0.05195527549157372</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09824381365606921</v>
+        <v>0.112121160275459</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09867755345276154</v>
+        <v>0.05103264334557507</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1481005592742482</v>
+        <v>0.170669379192376</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09828152973384437</v>
+        <v>0.05091903786879163</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0267520455023883</v>
+        <v>0.02214445333785775</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09925935175333406</v>
+        <v>0.03630029070061821</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04705862053860045</v>
+        <v>0.05477294135854208</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1000557153844034</v>
+        <v>0.05282119674976662</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0970300597815581</v>
+        <v>0.112021160275459</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1003221793436409</v>
+        <v>0.05188318740133466</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1459690623660831</v>
+        <v>0.170869379192376</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09991955522940843</v>
+        <v>0.05176768849993816</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02348119578281896</v>
+        <v>0.022220464114646</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1008865542410936</v>
+        <v>0.03689537743341522</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04656923888961303</v>
+        <v>0.05457294135854208</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1016959730136559</v>
+        <v>0.05368711800795951</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09611642251054858</v>
+        <v>0.111921160275459</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1019668052345202</v>
+        <v>0.05273373145709424</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1449505342316937</v>
+        <v>0.170469379192376</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1015575807249725</v>
+        <v>0.05261633913108468</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02522062528791268</v>
+        <v>0.02229405879547243</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1025137567288532</v>
+        <v>0.03749046416621225</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0462900530022986</v>
+        <v>0.05467294135854207</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1033362306429084</v>
+        <v>0.0545530392661524</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09511828205273626</v>
+        <v>0.111921160275459</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1036114311253996</v>
+        <v>0.05358427551285382</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1428679821820366</v>
+        <v>0.1707693791923761</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1031956062205366</v>
+        <v>0.05346498976223122</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02296885450968914</v>
+        <v>0.02236525870447995</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1041409592166128</v>
+        <v>0.03808555089900927</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04592847734466543</v>
+        <v>0.05467294135854207</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1049764882721609</v>
+        <v>0.05541896052434531</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09435101861781658</v>
+        <v>0.112221160275459</v>
       </c>
       <c r="M129" t="n">
-        <v>0.105256057016279</v>
+        <v>0.05443481956861341</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1411444135280678</v>
+        <v>0.1707693791923761</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1048336317161006</v>
+        <v>0.05431364039337774</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02469646493839769</v>
+        <v>0.02243408516581145</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1057681617043724</v>
+        <v>0.03868063763180628</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04518484109664268</v>
+        <v>0.05447294135854208</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1066167459014135</v>
+        <v>0.0562848817825382</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09392970177866866</v>
+        <v>0.112621160275459</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1069006829071583</v>
+        <v>0.05528536362437299</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1402573854496565</v>
+        <v>0.1707693791923761</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1064716572116647</v>
+        <v>0.05516229102452426</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02440350955475826</v>
+        <v>0.02250055950360978</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1073953641921319</v>
+        <v>0.0392757243646033</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04480726254168015</v>
+        <v>0.05437294135854208</v>
       </c>
       <c r="K131" t="n">
-        <v>0.108257003530666</v>
+        <v>0.05715080304073109</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09267692214007045</v>
+        <v>0.112121160275459</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1085453087980377</v>
+        <v>0.05613590768013257</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1392478714012612</v>
+        <v>0.1702693791923761</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1081096827072288</v>
+        <v>0.0560109416556708</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.022095909036733</v>
+        <v>0.02256470304201787</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1090225666798915</v>
+        <v>0.03987081109740032</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04409240356995758</v>
+        <v>0.05477294135854208</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1098972611599185</v>
+        <v>0.058016724298924</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09103923760831445</v>
+        <v>0.111821160275459</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1101899346889171</v>
+        <v>0.05698645173589216</v>
       </c>
       <c r="N132" t="n">
-        <v>0.136628486585016</v>
+        <v>0.169869379192376</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1097477082027929</v>
+        <v>0.05685959228681731</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02177958406228409</v>
+        <v>0.02262653710517858</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1106497691676511</v>
+        <v>0.04046589783019734</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04355087799460088</v>
+        <v>0.05437294135854208</v>
       </c>
       <c r="K133" t="n">
-        <v>0.111537518789171</v>
+        <v>0.05888264555711688</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09073866495808547</v>
+        <v>0.112821160275459</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1118345605797964</v>
+        <v>0.05783699579165175</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1350321659732951</v>
+        <v>0.169869379192376</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1113857336983569</v>
+        <v>0.05770824291796385</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02346045530937367</v>
+        <v>0.02268608301723476</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1122769716554107</v>
+        <v>0.04106098456299436</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04339329962873596</v>
+        <v>0.05457294135854208</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1131777764184235</v>
+        <v>0.05974856681530978</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08909722096406825</v>
+        <v>0.112121160275459</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1134791864706758</v>
+        <v>0.05868753984741133</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1344918445384724</v>
+        <v>0.169669379192376</v>
       </c>
       <c r="O134" t="n">
-        <v>0.113023759193921</v>
+        <v>0.05855689354911037</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02214444345596393</v>
+        <v>0.02274336210232934</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1139041741431702</v>
+        <v>0.04165607129579139</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04233028228548881</v>
+        <v>0.05487294135854208</v>
       </c>
       <c r="K135" t="n">
-        <v>0.114818034047676</v>
+        <v>0.06061448807350267</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0883369224009477</v>
+        <v>0.112321160275459</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1151238123615551</v>
+        <v>0.05953808390317091</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1326404572529222</v>
+        <v>0.170969379192376</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1146617846894851</v>
+        <v>0.0594055441802569</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02283746918001703</v>
+        <v>0.02279839568460519</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1155313766309298</v>
+        <v>0.04225115802858841</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0420724397779853</v>
+        <v>0.05477294135854208</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1164582916769285</v>
+        <v>0.06148040933169557</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08677978604340869</v>
+        <v>0.112621160275459</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1167684382524345</v>
+        <v>0.0603886279589305</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1312109390890185</v>
+        <v>0.169869379192376</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1162998101850492</v>
+        <v>0.06025419481140343</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02154545315949512</v>
+        <v>0.02285120508820518</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1171585791186894</v>
+        <v>0.04284624476138542</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04123038591935144</v>
+        <v>0.05437294135854208</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1180985493061811</v>
+        <v>0.06234633058988847</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08614782866613602</v>
+        <v>0.112121160275459</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1184130641433138</v>
+        <v>0.06123917201469008</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1294362250191351</v>
+        <v>0.170469379192376</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1179378356806132</v>
+        <v>0.06110284544254996</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0222743160723604</v>
+        <v>0.0229018116372722</v>
       </c>
       <c r="G138" t="n">
-        <v>0.118785781606449</v>
+        <v>0.04344133149418244</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04081473452271309</v>
+        <v>0.05437294135854208</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1197388069354336</v>
+        <v>0.06321225184808137</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08436306704381455</v>
+        <v>0.112921160275459</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1200576900341932</v>
+        <v>0.06208971607044966</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1278492500156464</v>
+        <v>0.169569379192376</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1195758611761773</v>
+        <v>0.06195149607369648</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.022029978596575</v>
+        <v>0.02295023665594914</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1204129840942085</v>
+        <v>0.04403641822697946</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04053609940119622</v>
+        <v>0.05457294135854208</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1213790645646861</v>
+        <v>0.06407817310627426</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08384751795112916</v>
+        <v>0.112521160275459</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1217023159250726</v>
+        <v>0.06294026012620925</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1256829490509263</v>
+        <v>0.170669379192376</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1212138866717414</v>
+        <v>0.06280014670484302</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02081836141010111</v>
+        <v>0.02299650146837885</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1220401865819681</v>
+        <v>0.04463150495977648</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03980509436792679</v>
+        <v>0.05457294135854208</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1230193221939386</v>
+        <v>0.06494409436446714</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08252319816276465</v>
+        <v>0.112421160275459</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1233469418159519</v>
+        <v>0.06379080418196885</v>
       </c>
       <c r="N140" t="n">
-        <v>0.123770257097349</v>
+        <v>0.1707693791923761</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1228519121673054</v>
+        <v>0.06364879733598953</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02164538519090088</v>
+        <v>0.02304062739870424</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1236673890697277</v>
+        <v>0.0452265916925735</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0396323332360307</v>
+        <v>0.05457294135854208</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1246595798231911</v>
+        <v>0.06581001562266005</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08241212445340593</v>
+        <v>0.111821160275459</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1249915677068313</v>
+        <v>0.06464134823772842</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1233441091272883</v>
+        <v>0.169669379192376</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1244899376628695</v>
+        <v>0.06449744796713607</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01951697061693647</v>
+        <v>0.02308263577106819</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1252945915574873</v>
+        <v>0.04582167842537052</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03962842981863389</v>
+        <v>0.05447294135854208</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1262998374524436</v>
+        <v>0.06667593688085295</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08123631359773772</v>
+        <v>0.112121160275459</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1266361935977106</v>
+        <v>0.06549189229348801</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1218374401131185</v>
+        <v>0.169669379192376</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1261279631584336</v>
+        <v>0.0653460985982826</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02043903836617006</v>
+        <v>0.0231225479096136</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1269217940452468</v>
+        <v>0.04641676515816754</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03900399792886231</v>
+        <v>0.05437294135854208</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1279400950816962</v>
+        <v>0.06754185813904584</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08121778237044497</v>
+        <v>0.112621160275459</v>
       </c>
       <c r="M143" t="n">
-        <v>0.12828081948859</v>
+        <v>0.06634243634924759</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1212831850272135</v>
+        <v>0.1692693791923761</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1277659886539977</v>
+        <v>0.06619474922942913</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02041699400908162</v>
+        <v>0.0231603851384833</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1285489965330064</v>
+        <v>0.04701185189096456</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03926965137984184</v>
+        <v>0.05457294135854208</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1295803527109486</v>
+        <v>0.06840777939723874</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08047854754621253</v>
+        <v>0.112521160275459</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1299254453794693</v>
+        <v>0.06719298040500718</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1206142788419476</v>
+        <v>0.169869379192376</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1294040141495617</v>
+        <v>0.06704339986057564</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02042262290734749</v>
+        <v>0.02319616878182022</v>
       </c>
       <c r="G145" t="n">
-        <v>0.130176199020766</v>
+        <v>0.04760693862376159</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03913442057603665</v>
+        <v>0.05447294135854208</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1312206103402012</v>
+        <v>0.06927370065543163</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08034062589972521</v>
+        <v>0.111921160275459</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1315700712703487</v>
+        <v>0.06804352446076677</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1220460529754635</v>
+        <v>0.170369379192376</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1310420396451258</v>
+        <v>0.06789205049172217</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02043672343695557</v>
+        <v>0.02322992016376722</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1318034015085256</v>
+        <v>0.0482020253565586</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03904510515019244</v>
+        <v>0.05437294135854208</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1328608679694537</v>
+        <v>0.07013962191362452</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08045085067441476</v>
+        <v>0.112521160275459</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1332146971612281</v>
+        <v>0.06889406851652635</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1208870011193849</v>
+        <v>0.170669379192376</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1326800651406899</v>
+        <v>0.0687407011228687</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02245886054864592</v>
+        <v>0.02326166060846718</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1334306039962851</v>
+        <v>0.04879711208935562</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03917081445477189</v>
+        <v>0.05477294135854208</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1345011255987062</v>
+        <v>0.07100554317181741</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08039436958068019</v>
+        <v>0.112521160275459</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1348593230521074</v>
+        <v>0.06974461257228592</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1215742458329466</v>
+        <v>0.1707693791923761</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1343180906362539</v>
+        <v>0.06958935175401523</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01948859919315857</v>
+        <v>0.02329141144006301</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1350578064840447</v>
+        <v>0.04939219882215264</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03881076859065279</v>
+        <v>0.05467294135854207</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1361413832279587</v>
+        <v>0.07187146443001032</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08066786152946137</v>
+        <v>0.112421160275459</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1365039489429868</v>
+        <v>0.07059515662804551</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1219053670663757</v>
+        <v>0.170169379192376</v>
       </c>
       <c r="O148" t="n">
-        <v>0.135956116131818</v>
+        <v>0.07043800238516175</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02052550432123361</v>
+        <v>0.02331919398269755</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1366850089718043</v>
+        <v>0.04998728555494966</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03906418765871292</v>
+        <v>0.05467294135854207</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1377816408572112</v>
+        <v>0.07273738568820322</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08026970873617442</v>
+        <v>0.1124202673788781</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1381485748338661</v>
+        <v>0.0714457006838051</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1215779447698993</v>
+        <v>0.1697662543618394</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1375941416273821</v>
+        <v>0.07128665301630828</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02256914088361105</v>
+        <v>0.02334502956051372</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1383122114595638</v>
+        <v>0.05058237228774668</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03903029175983004</v>
+        <v>0.05457294135854208</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1394218984864637</v>
+        <v>0.07360330694639611</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07999829341623554</v>
+        <v>0.1120130011972242</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1397932007247455</v>
+        <v>0.07229624473956468</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1226895588937446</v>
+        <v>0.1697525133755481</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1392321671229462</v>
+        <v>0.07213530364745481</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02261907383103098</v>
+        <v>0.0233689394976544</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1399394139473234</v>
+        <v>0.0511774590205437</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03950830099488195</v>
+        <v>0.05447258005438553</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1410621561157163</v>
+        <v>0.07446922820458901</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08105199778506084</v>
+        <v>0.1117986624092983</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1414378266156249</v>
+        <v>0.07314678879532427</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1227377893881385</v>
+        <v>0.1692282198331477</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1408701926185102</v>
+        <v>0.07298395427860134</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01967486811423344</v>
+        <v>0.02339094511826242</v>
       </c>
       <c r="G152" t="n">
-        <v>0.141566616435083</v>
+        <v>0.05177254575334072</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03959743546474644</v>
+        <v>0.05446910662540867</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1427024137449688</v>
+        <v>0.0753351494627819</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08082920405806657</v>
+        <v>0.112477533788427</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1430824525065042</v>
+        <v>0.07399733285108386</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1226202162033082</v>
+        <v>0.169893799017438</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1425082181140743</v>
+        <v>0.07383260490974786</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0217360886839585</v>
+        <v>0.02341106774648072</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1431938189228426</v>
+        <v>0.05236763248613774</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03949691527030123</v>
+        <v>0.0548620673938061</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1443426713742213</v>
+        <v>0.07620107072097479</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08162829445066883</v>
+        <v>0.1126498981079372</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1447270783973836</v>
+        <v>0.07484787690684343</v>
       </c>
       <c r="N153" t="n">
-        <v>0.122934419289481</v>
+        <v>0.1705496762112186</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1441462436096384</v>
+        <v>0.0746812555408944</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02180230049094618</v>
+        <v>0.02342932870645216</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1448210214106022</v>
+        <v>0.05296271921893476</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03950596051242418</v>
+        <v>0.05485160735894712</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1459829290034738</v>
+        <v>0.07706699197916768</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0818476511782838</v>
+        <v>0.1126160381411553</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1463717042882629</v>
+        <v>0.07569842096260301</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1233779785968838</v>
+        <v>0.1691962766972894</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1457842691052025</v>
+        <v>0.07552990617204092</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01987306848593658</v>
+        <v>0.02344574932231963</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1464482238983617</v>
+        <v>0.05355780595173178</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03952379129199303</v>
+        <v>0.05453787152020102</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1476231866327263</v>
+        <v>0.07793291323736058</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08138565645632767</v>
+        <v>0.1118762366614081</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1480163301791423</v>
+        <v>0.0765489650183626</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1233484740757438</v>
+        <v>0.1701340257584499</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1474222946007665</v>
+        <v>0.07637855680318745</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02194808174028758</v>
+        <v>0.023460350918226</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1480754263861213</v>
+        <v>0.0541528926845288</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04004962770988556</v>
+        <v>0.05442100487693709</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1492634442619789</v>
+        <v>0.07879883449555349</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08234069250021661</v>
+        <v>0.1124307764420223</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1496609560700216</v>
+        <v>0.07739950907412219</v>
       </c>
       <c r="N156" t="n">
-        <v>0.124343485676288</v>
+        <v>0.1697633486774999</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1490603200963306</v>
+        <v>0.07722720743433398</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02306760148770105</v>
+        <v>0.02347315481831418</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1497026288738809</v>
+        <v>0.05474797941732582</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03978533951838244</v>
+        <v>0.05470115242852458</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1509037018912313</v>
+        <v>0.07966475575374637</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08251114152536673</v>
+        <v>0.1121799402563247</v>
       </c>
       <c r="M157" t="n">
-        <v>0.151305581960901</v>
+        <v>0.07825005312988177</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1252854229448548</v>
+        <v>0.1692846707372392</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1506983455918947</v>
+        <v>0.07807585806548051</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02225501883411515</v>
+        <v>0.02348418234672701</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1513298313616405</v>
+        <v>0.05534306615012284</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03991506134424459</v>
+        <v>0.05447845917433282</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1525439595204839</v>
+        <v>0.08053067701193928</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08290878782430758</v>
+        <v>0.1121240108776417</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1529502078517804</v>
+        <v>0.07910059718564136</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1253576243163599</v>
+        <v>0.1696984172204674</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1523363710874588</v>
+        <v>0.07892450869662702</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02249720069240101</v>
+        <v>0.0234934548276074</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1529570338494</v>
+        <v>0.05593815288291985</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04056203927548013</v>
+        <v>0.05465307011373105</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1541842171497364</v>
+        <v>0.08139659827013217</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0829616434604053</v>
+        <v>0.1125632710793003</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1545948337426597</v>
+        <v>0.07995114124140094</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1268836180601022</v>
+        <v>0.1698050134099844</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1539743965830228</v>
+        <v>0.07977315932777355</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02378101397542964</v>
+        <v>0.02350099358509822</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1545842363371596</v>
+        <v>0.05653323961571687</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04070273003994286</v>
+        <v>0.05422513024608856</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1558244747789889</v>
+        <v>0.08226251952832506</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08392199617598817</v>
+        <v>0.1119980036346268</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1562394596335391</v>
+        <v>0.08080168529716052</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1285903487144368</v>
+        <v>0.1696048845885898</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1556124220785869</v>
+        <v>0.08062180995892008</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02209332559607211</v>
+        <v>0.02350681994334236</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1562114388249192</v>
+        <v>0.05712832634851389</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04121359036548658</v>
+        <v>0.05439478457077467</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1574647324082414</v>
+        <v>0.08312844078651796</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08454100895913247</v>
+        <v>0.1121284913169482</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1578840855244184</v>
+        <v>0.0816522293529201</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1297047608177183</v>
+        <v>0.1696984560390832</v>
       </c>
       <c r="O161" t="n">
-        <v>0.157250447574151</v>
+        <v>0.0814704605900666</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0244210024671995</v>
+        <v>0.02351095522648271</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1578386413126787</v>
+        <v>0.05772341308131092</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04177107697996511</v>
+        <v>0.0543621780871586</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1591049900374939</v>
+        <v>0.08399436204471085</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08616984479791456</v>
+        <v>0.1121550168995911</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1595287114152978</v>
+        <v>0.0825027734086797</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1316537989083018</v>
+        <v>0.1688861530442646</v>
       </c>
       <c r="O162" t="n">
-        <v>0.158888473069715</v>
+        <v>0.08231911122121313</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02275091150168285</v>
+        <v>0.02351342075866214</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1594658438004383</v>
+        <v>0.05831849981410794</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04265164661123225</v>
+        <v>0.05432745579460967</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1607452476667464</v>
+        <v>0.08486028330290375</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08705966668041082</v>
+        <v>0.1122778631558821</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1611733373061772</v>
+        <v>0.08335331746443929</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1333644075245422</v>
+        <v>0.1687684008869335</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1605264985652791</v>
+        <v>0.08316776185235966</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0230699196123932</v>
+        <v>0.02351423786402353</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1610930462881979</v>
+        <v>0.05891358654690496</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04313175598714185</v>
+        <v>0.05409076269249714</v>
       </c>
       <c r="K164" t="n">
-        <v>0.162385505295999</v>
+        <v>0.08572620456109664</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08896163759469766</v>
+        <v>0.112097312859148</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1628179631970565</v>
+        <v>0.08420386152019887</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1339635312047945</v>
+        <v>0.1684456248498896</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1621645240608432</v>
+        <v>0.08401641248350619</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02536489371220164</v>
+        <v>0.02351423786402353</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1627202487759575</v>
+        <v>0.05891358654690496</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04388786183554767</v>
+        <v>0.05415224378019033</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1640257629252515</v>
+        <v>0.08659212581928954</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09002692052885125</v>
+        <v>0.1121136487827153</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1644625890879359</v>
+        <v>0.08505440557595845</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1366781144874136</v>
+        <v>0.1691182502159328</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1638025495564073</v>
+        <v>0.08486506311465271</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02562270071397922</v>
+        <v>0.02297451304821795</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1643474512637171</v>
+        <v>0.05891331801844094</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04409642088430356</v>
+        <v>0.0542120440570585</v>
       </c>
       <c r="K166" t="n">
-        <v>0.165666020554504</v>
+        <v>0.08745804707748243</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0907066784709481</v>
+        <v>0.1115271536999108</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1661072149788152</v>
+        <v>0.08590494963171803</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1375351019107542</v>
+        <v>0.1679867022678627</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1654405750519713</v>
+        <v>0.08571371374579924</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02385424677564445</v>
+        <v>0.02244099314527076</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1659746537514766</v>
+        <v>0.05891304948997693</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04473572127756946</v>
+        <v>0.05417030852247093</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1673062781837565</v>
+        <v>0.08832396833567532</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09225207440906458</v>
+        <v>0.1112381103840613</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1677518408696946</v>
+        <v>0.08675549368747762</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1393765826619094</v>
+        <v>0.168451406288479</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1670786005475354</v>
+        <v>0.08656236437694577</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02608005128761356</v>
+        <v>0.02191436173711818</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1676018562392362</v>
+        <v>0.0589127809615129</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04504187336908833</v>
+        <v>0.05422718217579689</v>
       </c>
       <c r="K168" t="n">
-        <v>0.168946535813009</v>
+        <v>0.08918988959386823</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09199584160800867</v>
+        <v>0.1107468016084932</v>
       </c>
       <c r="M168" t="n">
-        <v>0.169396466760574</v>
+        <v>0.08760603774323721</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1401360869108511</v>
+        <v>0.1677127875605816</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1687166260430995</v>
+        <v>0.0874110150080923</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0243005318326856</v>
+        <v>0.021395302405765</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1692290587269958</v>
+        <v>0.05891251243304889</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04523798665017062</v>
+        <v>0.05398281001640569</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1705867934422615</v>
+        <v>0.09005581085206112</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09391828284707965</v>
+        <v>0.1113535101465334</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1710410926514533</v>
+        <v>0.08845658179899679</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1421647011666696</v>
+        <v>0.16827127136697</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1703546515386636</v>
+        <v>0.08825966563923882</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02451610503191201</v>
+        <v>0.02088449873314707</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1708562612147554</v>
+        <v>0.05891224390458488</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04562480798426898</v>
+        <v>0.05413733704366659</v>
       </c>
       <c r="K170" t="n">
-        <v>0.172227051071514</v>
+        <v>0.09092173211025402</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0947211096006364</v>
+        <v>0.1114585187715085</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1726857185423327</v>
+        <v>0.08930712585475638</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1437647429684892</v>
+        <v>0.168327282990444</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1719926770342276</v>
+        <v>0.08910831627038536</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02472718750634427</v>
+        <v>0.02038263430122335</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1724834637025149</v>
+        <v>0.05891197537612086</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04610308423483601</v>
+        <v>0.05409090825694887</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1738673087007666</v>
+        <v>0.09178765336844691</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09550587112568587</v>
+        <v>0.1115621102567452</v>
       </c>
       <c r="M171" t="n">
-        <v>0.174330344433212</v>
+        <v>0.09015766991051595</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1434385298554346</v>
+        <v>0.1686812477138033</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1736307025297917</v>
+        <v>0.08995696690153188</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0269341958770339</v>
+        <v>0.01989039269193155</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1741106661902745</v>
+        <v>0.05891170684765683</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04647356226532437</v>
+        <v>0.05414366865562185</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1755075663300191</v>
+        <v>0.09265357462663981</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09547411667923511</v>
+        <v>0.1113645673755702</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1759749703240914</v>
+        <v>0.09100821396627554</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1452883793666302</v>
+        <v>0.1676335908198477</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1752687280253558</v>
+        <v>0.09080561753267841</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02413754676503234</v>
+        <v>0.01940845748727349</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1757378686780341</v>
+        <v>0.05891143831919282</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04723698893918668</v>
+        <v>0.05409576323905477</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1771478239592716</v>
+        <v>0.0935194958848327</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09622739551829124</v>
+        <v>0.1102661729013101</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1776195962149708</v>
+        <v>0.09185875802203512</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1468166090412006</v>
+        <v>0.1677847375913769</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1769067535209198</v>
+        <v>0.09165426816382494</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02533765679139109</v>
+        <v>0.0189375122691865</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1773650711657936</v>
+        <v>0.0589111697907288</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04739411111987557</v>
+        <v>0.05364733700661692</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1787880815885241</v>
+        <v>0.09438541714302559</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09676725689986138</v>
+        <v>0.1105672096072916</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1792642221058501</v>
+        <v>0.09270930207779471</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1481255364182702</v>
+        <v>0.1677351133111905</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1785447790164839</v>
+        <v>0.09250291879497147</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02553494257716164</v>
+        <v>0.01847824061962947</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1789922736535532</v>
+        <v>0.05891090126226479</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04764567567084371</v>
+        <v>0.05389853495767759</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1804283392177766</v>
+        <v>0.09525133840121849</v>
       </c>
       <c r="L175" t="n">
-        <v>0.09789525008095246</v>
+        <v>0.1104631056635607</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1809088479967295</v>
+        <v>0.09355984613355429</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1486174790369637</v>
+        <v>0.1665722015515684</v>
       </c>
       <c r="O175" t="n">
-        <v>0.180182804512048</v>
+        <v>0.09335156942611798</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02672982074339546</v>
+        <v>0.0180313261205422</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1806194761413128</v>
+        <v>0.05891063273380076</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04829242945554368</v>
+        <v>0.05374950174736813</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1820685968470291</v>
+        <v>0.09611725965941138</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09841292431857157</v>
+        <v>0.1106351827361351</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1825534738876088</v>
+        <v>0.09441039018931388</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1499947544364054</v>
+        <v>0.1664717102312812</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1818208300076121</v>
+        <v>0.09420022005726451</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02692270791114403</v>
+        <v>0.01759745235392253</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1822466786290724</v>
+        <v>0.05891036420533675</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04863511933742813</v>
+        <v>0.05379354913975939</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1837088544762817</v>
+        <v>0.09698318091760429</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09922182886972575</v>
+        <v>0.1105841191709037</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1841980997784882</v>
+        <v>0.09526093424507347</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1511596801557199</v>
+        <v>0.1661372069564602</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1834588555031761</v>
+        <v>0.09504887068841104</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02511771834472229</v>
+        <v>0.0171773029017097</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1838738811168319</v>
+        <v>0.05891009567687273</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04877449217994971</v>
+        <v>0.0537250925608151</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1853491121055342</v>
+        <v>0.09784910217579718</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1004235129914222</v>
+        <v>0.1103128563159942</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1858427256693675</v>
+        <v>0.09611147830083304</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1510149503754161</v>
+        <v>0.1670731154285254</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1850968809987402</v>
+        <v>0.09589752131955757</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02832416326875051</v>
+        <v>0.01677156134586265</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1855010836045915</v>
+        <v>0.05890982714840872</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04932485865860507</v>
+        <v>0.05344564026319963</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1869893697347867</v>
+        <v>0.09871502343399008</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1003364980138939</v>
+        <v>0.1096243355195345</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1874873515602469</v>
+        <v>0.09696202235659263</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1523137505450769</v>
+        <v>0.1672838593488969</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1867349064943043</v>
+        <v>0.09674617195070409</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02753602837310157</v>
+        <v>0.01638091126832364</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1871282860923511</v>
+        <v>0.05890955861994469</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0495935277623295</v>
+        <v>0.05375670049957725</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1886296273640392</v>
+        <v>0.09958094469218297</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1010909864819187</v>
+        <v>0.1098214981296523</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1891319774511263</v>
+        <v>0.09781256641235221</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1541648613250159</v>
+        <v>0.1656738624189942</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1883729319898683</v>
+        <v>0.09759482258185063</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0267461568429174</v>
+        <v>0.01600603625108565</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1887554885801107</v>
+        <v>0.05890929009148068</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04956768608977866</v>
+        <v>0.05365978152261233</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1902698849932917</v>
+        <v>0.1004468659503759</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1021627690462145</v>
+        <v>0.1093072854944754</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1907766033420056</v>
+        <v>0.0986631104681118</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1547284714805834</v>
+        <v>0.1662475483402376</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1900109574854324</v>
+        <v>0.09844347321299715</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02594739186333984</v>
+        <v>0.01564761987609026</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1903826910678703</v>
+        <v>0.05890902156301667</v>
       </c>
       <c r="J182" t="n">
-        <v>0.05043450384410043</v>
+        <v>0.05335639158496923</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1919101426225442</v>
+        <v>0.1013127872085688</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1029252322038683</v>
+        <v>0.1098846389621316</v>
       </c>
       <c r="M182" t="n">
-        <v>0.192421229232885</v>
+        <v>0.09951365452387138</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1560647697771294</v>
+        <v>0.1655093408140467</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1916489829809965</v>
+        <v>0.09929212384414368</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02713257661951084</v>
+        <v>0.01530634572529642</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1920098935556298</v>
+        <v>0.05890875303455265</v>
       </c>
       <c r="J183" t="n">
-        <v>0.05028115122844284</v>
+        <v>0.0534480389393123</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1935504002517967</v>
+        <v>0.1021787084667617</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1038517624519674</v>
+        <v>0.1087564998807486</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1940658551237643</v>
+        <v>0.100364198579631</v>
       </c>
       <c r="N183" t="n">
-        <v>0.156933944980004</v>
+        <v>0.1653636635418416</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1932870084765606</v>
+        <v>0.1001407744752902</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02829455429657227</v>
+        <v>0.01498289738064941</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1936370960433894</v>
+        <v>0.05890848450608863</v>
       </c>
       <c r="J184" t="n">
-        <v>0.05069479844595386</v>
+        <v>0.05323623183830586</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1951906578810493</v>
+        <v>0.1030446297249546</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1042157462875991</v>
+        <v>0.1083258095984546</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1957104810146437</v>
+        <v>0.1012147426353906</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1577961858545574</v>
+        <v>0.164014940225042</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1949250339721246</v>
+        <v>0.1009894251064367</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02642616807966601</v>
+        <v>0.01467795842413633</v>
       </c>
       <c r="G185" t="n">
-        <v>0.195264298531149</v>
+        <v>0.05890821597762461</v>
       </c>
       <c r="J185" t="n">
-        <v>0.05126261569978144</v>
+        <v>0.05312247853461426</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1968309155103018</v>
+        <v>0.1039105509831474</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1048905702078502</v>
+        <v>0.108795509463377</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1973551069055231</v>
+        <v>0.1020652866911501</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1592116811661399</v>
+        <v>0.164567594565068</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1965630594676887</v>
+        <v>0.1018380757375833</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02852052030999386</v>
+        <v>0.01439221243770165</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1968915010189086</v>
+        <v>0.05890794744916059</v>
       </c>
       <c r="J186" t="n">
-        <v>0.05157177319307361</v>
+        <v>0.05300828728090184</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1984711731395543</v>
+        <v>0.1047764722413403</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1060496207098082</v>
+        <v>0.1087685408236438</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1989997327964024</v>
+        <v>0.1029158307469097</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1599406196801014</v>
+        <v>0.1647260502633394</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1982010849632528</v>
+        <v>0.1026867263687298</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02659735352442053</v>
+        <v>0.01412634300330431</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1985187035066681</v>
+        <v>0.05890767892069658</v>
       </c>
       <c r="J187" t="n">
-        <v>0.05151866361601266</v>
+        <v>0.05299516632983295</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2001114307688068</v>
+        <v>0.1056423934995332</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1059726052854041</v>
+        <v>0.1084478450273827</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2006443586872818</v>
+        <v>0.1037663748026693</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1601858129024887</v>
+        <v>0.1639947310212762</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1998391104588169</v>
+        <v>0.1035353769998763</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02967252377689807</v>
+        <v>0.01388103370289302</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2001459059944277</v>
+        <v>0.05890741039223255</v>
       </c>
       <c r="J188" t="n">
-        <v>0.05155308859186353</v>
+        <v>0.05248462393407194</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2017516883980593</v>
+        <v>0.1065083147577261</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1058512094970178</v>
+        <v>0.1083363634227216</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2022889845781611</v>
+        <v>0.1046169188584289</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1608031181166242</v>
+        <v>0.1639780605402981</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2014771359543809</v>
+        <v>0.1043840276310228</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02674600472937938</v>
+        <v>0.01365696811844812</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2017731084821873</v>
+        <v>0.05890714186376854</v>
       </c>
       <c r="J189" t="n">
-        <v>0.05158453787659981</v>
+        <v>0.05227816834628314</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2033919460273118</v>
+        <v>0.107374236015919</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1063236772462217</v>
+        <v>0.1077370373577882</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2039336104690405</v>
+        <v>0.1054674629141885</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1614111619181797</v>
+        <v>0.1636804625218251</v>
       </c>
       <c r="O189" t="n">
-        <v>0.203115161449945</v>
+        <v>0.1052326782621694</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02881777004381733</v>
+        <v>0.0134520534578664</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2034003109699468</v>
+        <v>0.05890687333530453</v>
       </c>
       <c r="J190" t="n">
-        <v>0.05211296425483301</v>
+        <v>0.0524773078191309</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2050322036565644</v>
+        <v>0.1082401572741119</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1069899105917239</v>
+        <v>0.1074528081807104</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2055782363599199</v>
+        <v>0.1063180069699481</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1612097977964245</v>
+        <v>0.1628063606672771</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2047531869455091</v>
+        <v>0.1060813288933159</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02888779338216481</v>
+        <v>0.01325030946419405</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2050275134577064</v>
+        <v>0.05890660480684051</v>
       </c>
       <c r="J191" t="n">
-        <v>0.05223832051117466</v>
+        <v>0.05228355060527959</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2066724612858168</v>
+        <v>0.1091060785323048</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1068498115922324</v>
+        <v>0.1076866172396159</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2072228622507992</v>
+        <v>0.1071685510257076</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1620988792406279</v>
+        <v>0.1619601786780741</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2063912124410731</v>
+        <v>0.1069299795244624</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02695604840637469</v>
+        <v>0.0130496290480048</v>
       </c>
       <c r="G192" t="n">
-        <v>0.206654715945466</v>
+        <v>0.05890633627837649</v>
       </c>
       <c r="J192" t="n">
-        <v>0.05186055943023621</v>
+        <v>0.05239840495739349</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2083127189150694</v>
+        <v>0.1099719997904977</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1066032823064552</v>
+        <v>0.1076414058826327</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2088674881416786</v>
+        <v>0.1080190950814672</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1626782597400593</v>
+        <v>0.1616463402556358</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2080292379366372</v>
+        <v>0.1077786301556089</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02902250877839986</v>
+        <v>0.0128506808723273</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2082819184332256</v>
+        <v>0.05890606774991247</v>
       </c>
       <c r="J193" t="n">
-        <v>0.05207963379662919</v>
+        <v>0.052323379128137</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2099529765443219</v>
+        <v>0.1108379210486906</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1076502247931002</v>
+        <v>0.1068201154578883</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2105121140325579</v>
+        <v>0.1088696391372268</v>
       </c>
       <c r="N193" t="n">
-        <v>0.162147792783988</v>
+        <v>0.1629692691013824</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2096672634322013</v>
+        <v>0.1086272807867555</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02808714816019321</v>
+        <v>0.01265413360016392</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2099091209209851</v>
+        <v>0.05890579922144846</v>
       </c>
       <c r="J194" t="n">
-        <v>0.05259549639496508</v>
+        <v>0.05235998137017445</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2115932341735744</v>
+        <v>0.1117038423068835</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1070905411108756</v>
+        <v>0.1073223376385871</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2121567399234373</v>
+        <v>0.1097201831929864</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1635073318616835</v>
+        <v>0.1621246932797565</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2113052889277654</v>
+        <v>0.109475931417902</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02914994021370762</v>
+        <v>0.01246065589452582</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2115363234087447</v>
+        <v>0.05890553069298445</v>
       </c>
       <c r="J195" t="n">
-        <v>0.05260810000985537</v>
+        <v>0.0519092924778979</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2132334918028269</v>
+        <v>0.1125697635650764</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1077241333184894</v>
+        <v>0.1068305606145721</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2138013658143167</v>
+        <v>0.110570727248746</v>
       </c>
       <c r="N195" t="n">
-        <v>0.163956730462415</v>
+        <v>0.1626867434343456</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2129433144233294</v>
+        <v>0.1103245820490485</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02921085860089598</v>
+        <v>0.01227091641841594</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2131635258965043</v>
+        <v>0.05890526216452042</v>
       </c>
       <c r="J196" t="n">
-        <v>0.05261739742591157</v>
+        <v>0.05176353416500719</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2148737494320795</v>
+        <v>0.1134356848232693</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1086509034746496</v>
+        <v>0.1067417245177669</v>
       </c>
       <c r="M196" t="n">
-        <v>0.215445991705196</v>
+        <v>0.1114212713045056</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1634958420754519</v>
+        <v>0.1624532047033794</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2145813399188935</v>
+        <v>0.111173232680195</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03026987698371116</v>
+        <v>0.01208558383486197</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2147907283842639</v>
+        <v>0.0589049936360564</v>
       </c>
       <c r="J197" t="n">
-        <v>0.05282334142774515</v>
+        <v>0.05201926799850076</v>
       </c>
       <c r="K197" t="n">
-        <v>0.216514007061332</v>
+        <v>0.1143016060814622</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1077707536380642</v>
+        <v>0.1066557350959285</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2170906175960753</v>
+        <v>0.1122718153602651</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1639245201900636</v>
+        <v>0.1609239353342451</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2162193654144576</v>
+        <v>0.1120218833113416</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02732696902410603</v>
+        <v>0.01190532680686669</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2164179308720234</v>
+        <v>0.05890472510759239</v>
       </c>
       <c r="J198" t="n">
-        <v>0.05302588479996764</v>
+        <v>0.0517764456480924</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2181542646905844</v>
+        <v>0.1151675273396551</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1089835858674412</v>
+        <v>0.1063724980968134</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2187352434869547</v>
+        <v>0.1131223594160247</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1646426182955194</v>
+        <v>0.1608987935743301</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2178573909100217</v>
+        <v>0.1128705339424881</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02838210838403352</v>
+        <v>0.01173081399744125</v>
       </c>
       <c r="G199" t="n">
-        <v>0.218045133359783</v>
+        <v>0.05890445657912837</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0530249803271905</v>
+        <v>0.05203501878349587</v>
       </c>
       <c r="K199" t="n">
-        <v>0.219794522319837</v>
+        <v>0.116033448597848</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1089893022214886</v>
+        <v>0.1067919192681785</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2203798693778341</v>
+        <v>0.1139729034717843</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1639499898810887</v>
+        <v>0.1606776376710216</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2194954164055857</v>
+        <v>0.1137191845736346</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03043526872544648</v>
+        <v>0.0115627140695896</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2196723358475426</v>
+        <v>0.05890418805066435</v>
       </c>
       <c r="J200" t="n">
-        <v>0.05292058079402524</v>
+        <v>0.05169493907442489</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2214347799490895</v>
+        <v>0.1168993698560409</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1089878047589146</v>
+        <v>0.1065139043577807</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2220244952687135</v>
+        <v>0.1148234475275439</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1657464884360407</v>
+        <v>0.1607603258717068</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2211334419011498</v>
+        <v>0.1145678352047812</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02948642371029779</v>
+        <v>0.01140169568633755</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2212995383353022</v>
+        <v>0.05890391952220033</v>
       </c>
       <c r="J201" t="n">
-        <v>0.05321263898508334</v>
+        <v>0.05165615819059326</v>
       </c>
       <c r="K201" t="n">
-        <v>0.223075037578342</v>
+        <v>0.1177652911142338</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1093789955384269</v>
+        <v>0.1068383591133767</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2236691211595928</v>
+        <v>0.1156739915833035</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1653319674496448</v>
+        <v>0.161446716423773</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2227714673967139</v>
+        <v>0.1154164858359277</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02853554700054035</v>
+        <v>0.01124842751068877</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2229267408230617</v>
+        <v>0.05890365099373632</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05340110768497633</v>
+        <v>0.05171862780171467</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2247152952075945</v>
+        <v>0.1186312123724267</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1095627766187338</v>
+        <v>0.1058651892827231</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2253137470504722</v>
+        <v>0.1165245356390631</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1654062804111706</v>
+        <v>0.1605366675746073</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2244094928922779</v>
+        <v>0.1162651364670742</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02758261225812703</v>
+        <v>0.0111035782056544</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2245539433108213</v>
+        <v>0.0589033824652723</v>
       </c>
       <c r="J203" t="n">
-        <v>0.05318593967831567</v>
+        <v>0.05168229957750295</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2263555528368471</v>
+        <v>0.1194971336306196</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1098390500585433</v>
+        <v>0.1064943006135769</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2269583729413515</v>
+        <v>0.1173750796948227</v>
       </c>
       <c r="N203" t="n">
-        <v>0.165569280809887</v>
+        <v>0.161430037571597</v>
       </c>
       <c r="O203" t="n">
-        <v>0.226047518387842</v>
+        <v>0.1171137870982207</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02962759314501072</v>
+        <v>0.01096781643423986</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2261811457985809</v>
+        <v>0.05890311393680828</v>
       </c>
       <c r="J204" t="n">
-        <v>0.05326708774971287</v>
+        <v>0.05194712518767181</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2279958104660996</v>
+        <v>0.1203630548888125</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1098077179165634</v>
+        <v>0.1063255988536947</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2286029988322309</v>
+        <v>0.1182256237505822</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1665208221350638</v>
+        <v>0.1608266846621293</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2276855438834061</v>
+        <v>0.1179624377293673</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0306704633231443</v>
+        <v>0.01084181085946814</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2278083482863405</v>
+        <v>0.05890284540834426</v>
       </c>
       <c r="J205" t="n">
-        <v>0.05314450468377942</v>
+        <v>0.05171305630193501</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2296360680953521</v>
+        <v>0.1212289761470053</v>
       </c>
       <c r="L205" t="n">
-        <v>0.110068682251502</v>
+        <v>0.1064589897508335</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2302476247231102</v>
+        <v>0.1190761678063418</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1659607578759701</v>
+        <v>0.1600264670935916</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2293235693789702</v>
+        <v>0.1188110883605138</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03071119645448066</v>
+        <v>0.01072623014434426</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2294355507741</v>
+        <v>0.05890257687988025</v>
       </c>
       <c r="J206" t="n">
-        <v>0.05371814326512681</v>
+        <v>0.05148004459000634</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2312763257246045</v>
+        <v>0.1220948974051983</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1098218451220672</v>
+        <v>0.1059943790527501</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2318922506139896</v>
+        <v>0.1199267118621014</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1663889415218754</v>
+        <v>0.1598292431133709</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2309615948745342</v>
+        <v>0.1196597389916603</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02974976620097267</v>
+        <v>0.01062174295187936</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2310627532618596</v>
+        <v>0.05890230835141624</v>
       </c>
       <c r="J207" t="n">
-        <v>0.05378795627836655</v>
+        <v>0.05164804172159949</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2329165833538571</v>
+        <v>0.1229608186633911</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1097671085869669</v>
+        <v>0.1066316725072008</v>
       </c>
       <c r="M207" t="n">
-        <v>0.233536876504869</v>
+        <v>0.120777255917861</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1676052265620488</v>
+        <v>0.1599348709688546</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2325996203700983</v>
+        <v>0.1205083896228069</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03078614622457322</v>
+        <v>0.01052901794508079</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2326899557496192</v>
+        <v>0.05890203982295221</v>
       </c>
       <c r="J208" t="n">
-        <v>0.05345389650811011</v>
+        <v>0.05151699936642831</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2345568409831096</v>
+        <v>0.123826739921584</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1097043747049095</v>
+        <v>0.106170775861943</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2351815023957483</v>
+        <v>0.1216277999736206</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1672094664857599</v>
+        <v>0.1599432089074298</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2342376458656624</v>
+        <v>0.1213570402539534</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02782031018723521</v>
+        <v>0.0104487237869678</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2343171582373788</v>
+        <v>0.0589017712944882</v>
       </c>
       <c r="J209" t="n">
-        <v>0.05341591673896902</v>
+        <v>0.05128686919420644</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2361970986123621</v>
+        <v>0.1246926611797769</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1103335455346025</v>
+        <v>0.106411594864733</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2368261282866277</v>
+        <v>0.1224783440293802</v>
       </c>
       <c r="N209" t="n">
-        <v>0.167301514782278</v>
+        <v>0.1608541151764839</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2358756713612264</v>
+        <v>0.1222056908850999</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02885223175091151</v>
+        <v>0.01038152914054723</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2359443607251384</v>
+        <v>0.05890150276602418</v>
       </c>
       <c r="J210" t="n">
-        <v>0.05397396975555473</v>
+        <v>0.05135760287464775</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2378373562416146</v>
+        <v>0.1255585824379698</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1108545231347543</v>
+        <v>0.1059540352633279</v>
       </c>
       <c r="M210" t="n">
-        <v>0.238470754177507</v>
+        <v>0.1233288880851397</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1679812249408724</v>
+        <v>0.1595674480234041</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2375136968567905</v>
+        <v>0.1230543415162464</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02888188457755497</v>
+        <v>0.0103281026688302</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2375715632128979</v>
+        <v>0.05890123423756016</v>
       </c>
       <c r="J211" t="n">
-        <v>0.05382800834247878</v>
+        <v>0.05142915207746593</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2394776138708672</v>
+        <v>0.1264245036961627</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1102672095640727</v>
+        <v>0.1062980028054842</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2401153800683864</v>
+        <v>0.1241794321408993</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1681484504508124</v>
+        <v>0.1601830656955774</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2391517223523546</v>
+        <v>0.123902992147393</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02890924232911853</v>
+        <v>0.01028911303482648</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2391987657006575</v>
+        <v>0.05890096570909614</v>
       </c>
       <c r="J212" t="n">
-        <v>0.05397798528435264</v>
+        <v>0.05150146847237472</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2411178715001197</v>
+        <v>0.1272904249543556</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1104715068812659</v>
+        <v>0.105643403238959</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2417600059592658</v>
+        <v>0.1250299761966589</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1668030448013675</v>
+        <v>0.1609008264403913</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2407897478479187</v>
+        <v>0.1247516427785395</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02793427866755503</v>
+        <v>0.01026522890155063</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2408259681884171</v>
+        <v>0.05890069718063212</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0539238533657878</v>
+        <v>0.05167450372908793</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2427581291293722</v>
+        <v>0.1281563462125485</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1113673171450419</v>
+        <v>0.1052901423115087</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2434046318501451</v>
+        <v>0.1258805202524185</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1673448614818068</v>
+        <v>0.159220588505233</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2424277733434828</v>
+        <v>0.125600293409686</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02795696725481739</v>
+        <v>0.01025711893201176</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2424531706761766</v>
+        <v>0.05890042865216811</v>
       </c>
       <c r="J214" t="n">
-        <v>0.05366556537139577</v>
+        <v>0.05164820951731929</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2443983867586247</v>
+        <v>0.1290222674707414</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1105545424141086</v>
+        <v>0.1052381257708905</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2450492577410245</v>
+        <v>0.1267310643081781</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1671737539814</v>
+        <v>0.1607422101374895</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2440657988390468</v>
+        <v>0.1264489440408326</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02997728175285848</v>
+        <v>0.01025711893201176</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2440803731639362</v>
+        <v>0.05890042865216811</v>
       </c>
       <c r="J215" t="n">
-        <v>0.05390307408578804</v>
+        <v>0.05142253750678254</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2460386443878772</v>
+        <v>0.1298881887289343</v>
       </c>
       <c r="L215" t="n">
-        <v>0.111033084747174</v>
+        <v>0.1051872593648608</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2466938836319038</v>
+        <v>0.1275816083639377</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1686895757894162</v>
+        <v>0.1599655495845483</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2457038243346109</v>
+        <v>0.1272975946719791</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02899519582363116</v>
+        <v>0.00991614946989678</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2457075756516958</v>
+        <v>0.05887203569181645</v>
       </c>
       <c r="J216" t="n">
-        <v>0.05423633229357611</v>
+        <v>0.05139743936719146</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2476789020171297</v>
+        <v>0.1307541099871272</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1116028462029463</v>
+        <v>0.1057374488411765</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2483385095227832</v>
+        <v>0.1284321524196973</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1685921803951248</v>
+        <v>0.1602904650937966</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2473418498301749</v>
+        <v>0.1281462453031256</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02901068312908835</v>
+        <v>0.009577055933048792</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2473347781394554</v>
+        <v>0.05884364273146479</v>
       </c>
       <c r="J217" t="n">
-        <v>0.05406529277937144</v>
+        <v>0.05157286676825981</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2493191596463822</v>
+        <v>0.1316200312453201</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1110637288401334</v>
+        <v>0.1056885999475945</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2499831354136626</v>
+        <v>0.1292826964754568</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1689814212877951</v>
+        <v>0.1599168149126216</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2489798753257391</v>
+        <v>0.1289948959342721</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03102371733118289</v>
+        <v>0.009240910756034747</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2489619806272149</v>
+        <v>0.05881524977111313</v>
       </c>
       <c r="J218" t="n">
-        <v>0.05428990832778557</v>
+        <v>0.05114877137970134</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2509594172756348</v>
+        <v>0.132485952503513</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1108156347174433</v>
+        <v>0.1051406184318716</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2516277613045419</v>
+        <v>0.1301332405312164</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1682571519566967</v>
+        <v>0.1595444572884104</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2506179008213031</v>
+        <v>0.1298435465654187</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02903427209186771</v>
+        <v>0.00890878637342174</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2505891831149745</v>
+        <v>0.05878685681076148</v>
       </c>
       <c r="J219" t="n">
-        <v>0.05391013172342997</v>
+        <v>0.05112510487122979</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2525996749048873</v>
+        <v>0.1333518737617059</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1117584658935842</v>
+        <v>0.1053934100417643</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2532723871954213</v>
+        <v>0.130983784586976</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1689192258910986</v>
+        <v>0.1602732504685504</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2522559263168672</v>
+        <v>0.1306921971965652</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02804232107309566</v>
+        <v>0.008581755219776457</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2522163856027341</v>
+        <v>0.05875846385040982</v>
       </c>
       <c r="J220" t="n">
-        <v>0.05432591575091615</v>
+        <v>0.05110181891255891</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2542399325341398</v>
+        <v>0.1342177950198988</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1109921244272638</v>
+        <v>0.1054468805250296</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2549170130863006</v>
+        <v>0.1318343286427356</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1687674965802704</v>
+        <v>0.1598030527004288</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2538939518124312</v>
+        <v>0.1315408478277117</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03004783793681963</v>
+        <v>0.008260889729666009</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2538435880904937</v>
+        <v>0.05873007089005816</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0543372131948556</v>
+        <v>0.05097886517340249</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2558801901633923</v>
+        <v>0.1350837162780917</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1117165123771904</v>
+        <v>0.1050009356294241</v>
       </c>
       <c r="M221" t="n">
-        <v>0.25656163897718</v>
+        <v>0.1326848726984952</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1680018175134813</v>
+        <v>0.1590337222314328</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2555319773079954</v>
+        <v>0.1323894984588583</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03105079634499251</v>
+        <v>0.007947262337657336</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2554707905782532</v>
+        <v>0.0587016779297065</v>
       </c>
       <c r="J222" t="n">
-        <v>0.05404397683985979</v>
+        <v>0.05095619532347426</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2575204477926448</v>
+        <v>0.1359496375362846</v>
       </c>
       <c r="L222" t="n">
-        <v>0.111431531802072</v>
+        <v>0.1057554811027049</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2582062648680593</v>
+        <v>0.1335354167542548</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1686220421800008</v>
+        <v>0.1598651173089496</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2571700028035594</v>
+        <v>0.1332381490900048</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03104618311582308</v>
+        <v>0.007641945478317411</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2570979930660128</v>
+        <v>0.05867328496935484</v>
       </c>
       <c r="J223" t="n">
-        <v>0.05434610892884081</v>
+        <v>0.05143376103248798</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2591607054218973</v>
+        <v>0.1368155587944775</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1110370847606164</v>
+        <v>0.1051104226926285</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2598508907589387</v>
+        <v>0.1343859608100144</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1684265246620267</v>
+        <v>0.1591970961803665</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2588080282991235</v>
+        <v>0.1340867997211513</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02897906685532711</v>
+        <v>0.007346011586213189</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2587251955537724</v>
+        <v>0.05864489200900318</v>
       </c>
       <c r="J224" t="n">
-        <v>0.05417164315830239</v>
+        <v>0.05141151397015742</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2608009630511498</v>
+        <v>0.1376814800526704</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1116134841399484</v>
+        <v>0.1056656661469518</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2614955166498181</v>
+        <v>0.1352365048657739</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1676711098608408</v>
+        <v>0.1590295170930708</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2604460537946875</v>
+        <v>0.1349354503522978</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02984075133967874</v>
+        <v>0.007060533095911634</v>
       </c>
       <c r="G225" t="n">
-        <v>0.260352398041532</v>
+        <v>0.05861649904865152</v>
       </c>
       <c r="J225" t="n">
-        <v>0.05396587052216889</v>
+        <v>0.05128940580619631</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2624412206804023</v>
+        <v>0.1385474013108633</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1112159818366797</v>
+        <v>0.1048211172134314</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2631401425406974</v>
+        <v>0.1360870489215335</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1679101803684115</v>
+        <v>0.1591622382944495</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2620840792902516</v>
+        <v>0.1357841009834443</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02863944728077475</v>
+        <v>0.006786582441979813</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2619796005292915</v>
+        <v>0.05858810608829987</v>
       </c>
       <c r="J226" t="n">
-        <v>0.05374351010535937</v>
+        <v>0.05096738821031843</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2640814783096548</v>
+        <v>0.1394133225690562</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1101741151210116</v>
+        <v>0.1052766816398243</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2647847684315768</v>
+        <v>0.1369375929772931</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1666894099354851</v>
+        <v>0.1594951180318902</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2637221047858157</v>
+        <v>0.1366327516145909</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03038336539051195</v>
+        <v>0.006525232058984469</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2636068030170511</v>
+        <v>0.05855971312794821</v>
       </c>
       <c r="J227" t="n">
-        <v>0.05321928099279288</v>
+        <v>0.05094541285223754</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2657217359389074</v>
+        <v>0.140279243827249</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1092184165425927</v>
+        <v>0.1048322651738872</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2664293943224562</v>
+        <v>0.1377881370330527</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1650544723128078</v>
+        <v>0.1586280145527798</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2653601302813798</v>
+        <v>0.1374814022457374</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03008071638078713</v>
+        <v>0.006277554381492662</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2652340055048107</v>
+        <v>0.05853132016759655</v>
       </c>
       <c r="J228" t="n">
-        <v>0.05240790226938852</v>
+        <v>0.05112343140166736</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2673619935681599</v>
+        <v>0.1411451650854419</v>
       </c>
       <c r="L228" t="n">
-        <v>0.107979418651072</v>
+        <v>0.1055877735633768</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2680740202133355</v>
+        <v>0.1386386810888123</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1637510412511259</v>
+        <v>0.1581607861045057</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2669981557769439</v>
+        <v>0.1383300528768839</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02773971096349712</v>
+        <v>0.006044621844071361</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2668612079925702</v>
+        <v>0.05850292720724488</v>
       </c>
       <c r="J229" t="n">
-        <v>0.05202409302006529</v>
+        <v>0.05090139552832168</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2690022511974124</v>
+        <v>0.1420110863436348</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1071876539960981</v>
+        <v>0.10534311255605</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2697186461042149</v>
+        <v>0.1394892251445718</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1610247905011854</v>
+        <v>0.159093290934455</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2686361812725079</v>
+        <v>0.1391787035080305</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02636855985053867</v>
+        <v>0.005827506881287525</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2684884104803298</v>
+        <v>0.05847453424689322</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0515825723297423</v>
+        <v>0.05097925690191427</v>
       </c>
       <c r="K230" t="n">
-        <v>0.270642508826665</v>
+        <v>0.1428770076018278</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1054736551273197</v>
+        <v>0.1046981878996635</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2713632719950942</v>
+        <v>0.1403397692003314</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1601213938137326</v>
+        <v>0.159125387290015</v>
       </c>
       <c r="O230" t="n">
-        <v>0.270274206768072</v>
+        <v>0.140027354139177</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0289754737538086</v>
+        <v>0.005627281927708123</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2701156129680894</v>
+        <v>0.05844614128654156</v>
       </c>
       <c r="J231" t="n">
-        <v>0.05049805928333859</v>
+        <v>0.05125696719215882</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2722827664559175</v>
+        <v>0.1437429288600206</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1038679545943856</v>
+        <v>0.1047529053419742</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2730078978859736</v>
+        <v>0.141190313256091</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1568865249395137</v>
+        <v>0.1588569334185729</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2719122322636361</v>
+        <v>0.1408760047703235</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02756866338520375</v>
+        <v>0.005445019417900106</v>
       </c>
       <c r="G232" t="n">
-        <v>0.271742815455849</v>
+        <v>0.0584177483261899</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04988527296577325</v>
+        <v>0.05073447806876913</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2739230240851699</v>
+        <v>0.1446088501182135</v>
       </c>
       <c r="L232" t="n">
-        <v>0.1027010849469446</v>
+        <v>0.1053071706307387</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2746525237768529</v>
+        <v>0.1420408573118506</v>
       </c>
       <c r="N232" t="n">
-        <v>0.156065857629275</v>
+        <v>0.1580877875675161</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2735502577592001</v>
+        <v>0.14172465540147</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02715633945662084</v>
+        <v>0.005281791786430498</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2733700179436085</v>
+        <v>0.05838935536583825</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04945893246196525</v>
+        <v>0.05111174185386269</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2755632817144225</v>
+        <v>0.1454747713764064</v>
       </c>
       <c r="L233" t="n">
-        <v>0.1018035787346452</v>
+        <v>0.1048610773565194</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2762971496677323</v>
+        <v>0.1428914013676102</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1530050656337625</v>
+        <v>0.1578181608859474</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2751882832547642</v>
+        <v>0.1425733060326166</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02774671267995674</v>
+        <v>0.005138671467866125</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2749972204313682</v>
+        <v>0.05836096240548659</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04833375685683373</v>
+        <v>0.05118899113991675</v>
       </c>
       <c r="K234" t="n">
-        <v>0.277203539343675</v>
+        <v>0.1463406926345993</v>
       </c>
       <c r="L234" t="n">
-        <v>0.09990596850713634</v>
+        <v>0.1044153133614419</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2779417755586117</v>
+        <v>0.1437419454233698</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1516498227037226</v>
+        <v>0.1582490673646693</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2768263087503283</v>
+        <v>0.1434219566637631</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02534799376710821</v>
+        <v>0.00501673089677402</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2766244229191277</v>
+        <v>0.05833256944513493</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04792446523529774</v>
+        <v>0.05076644465386397</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2788437969729275</v>
+        <v>0.1472066138927922</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09813878681406674</v>
+        <v>0.104969959282203</v>
       </c>
       <c r="M235" t="n">
-        <v>0.279586401449491</v>
+        <v>0.1445924894791294</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1486458025899013</v>
+        <v>0.1590805925436526</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2784643342458923</v>
+        <v>0.1442706072949096</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02396839342997206</v>
+        <v>0.004917042507721146</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2782516254068873</v>
+        <v>0.05830417648478328</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04704577668227633</v>
+        <v>0.05064410658985591</v>
       </c>
       <c r="K236" t="n">
-        <v>0.28048405460218</v>
+        <v>0.1480725351509851</v>
       </c>
       <c r="L236" t="n">
-        <v>0.09743256620508522</v>
+        <v>0.1048250232981086</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2812310273403704</v>
+        <v>0.1454430335348889</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1467386790430451</v>
+        <v>0.1576127487243343</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2801023597414564</v>
+        <v>0.1451192579260561</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02561612238044511</v>
+        <v>0.004840678735274453</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2798788278946469</v>
+        <v>0.05827578352443161</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04641241028268855</v>
+        <v>0.0510219811420442</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2821243122314325</v>
+        <v>0.148938456409178</v>
       </c>
       <c r="L237" t="n">
-        <v>0.09551783922984031</v>
+        <v>0.1046805135884645</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2828756532312497</v>
+        <v>0.1462935775906485</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1449741258138999</v>
+        <v>0.1586455482081505</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2817403852370205</v>
+        <v>0.1459679085572027</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02429054190252085</v>
+        <v>0.004788712014000912</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2815060303824065</v>
+        <v>0.05824739056407995</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04613200019391893</v>
+        <v>0.05110007250458043</v>
       </c>
       <c r="K238" t="n">
-        <v>0.283764569860685</v>
+        <v>0.1498043776673709</v>
       </c>
       <c r="L238" t="n">
-        <v>0.09501481828037495</v>
+        <v>0.1043364383325768</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2845202791221291</v>
+        <v>0.1471441216464081</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1431720037936493</v>
+        <v>0.1591790032965378</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2833784107325846</v>
+        <v>0.1468165591883492</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02296606217991178</v>
+        <v>0.004762214778467479</v>
       </c>
       <c r="G239" t="n">
-        <v>0.283133232870166</v>
+        <v>0.05821899760372829</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04555997803496577</v>
+        <v>0.05057838487161617</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2854048274899376</v>
+        <v>0.1506702989255638</v>
       </c>
       <c r="L239" t="n">
-        <v>0.09383484137729275</v>
+        <v>0.1041928057097513</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2861649050130084</v>
+        <v>0.1479946657021677</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1405919277871729</v>
+        <v>0.1588131262909326</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2850164362281486</v>
+        <v>0.1476652098194957</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02364035222957017</v>
+        <v>0.004758854403376644</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2847604353579256</v>
+        <v>0.05819060464337664</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04448577497705201</v>
+        <v>0.050556922437303</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2870450851191901</v>
+        <v>0.1515362201837567</v>
       </c>
       <c r="L240" t="n">
-        <v>0.09255035734313011</v>
+        <v>0.1041496238992938</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2878095309038878</v>
+        <v>0.1488452097579273</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1399050714793688</v>
+        <v>0.1588479294927715</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2866544617237127</v>
+        <v>0.1485138604506423</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02331339260001503</v>
+        <v>0.004758907696127156</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2863876378456852</v>
+        <v>0.05816221168302498</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04440935615011969</v>
+        <v>0.05073568939579255</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2886853427484426</v>
+        <v>0.1524021414419496</v>
       </c>
       <c r="L241" t="n">
-        <v>0.09106129384514455</v>
+        <v>0.1050069010805104</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2894541567947672</v>
+        <v>0.1496957538136869</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1376113266674278</v>
+        <v>0.1588834252034909</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2882924872192768</v>
+        <v>0.1493625110817888</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02298516383976539</v>
+        <v>0.004759108568802163</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2880148403334447</v>
+        <v>0.05813381872267332</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04343068668411075</v>
+        <v>0.05051468994123638</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2903256003776951</v>
+        <v>0.1532680627001425</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0893675785505938</v>
+        <v>0.1045646454327069</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2910987826856465</v>
+        <v>0.1505462978694465</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1356105851485405</v>
+        <v>0.1589196257245273</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2899305127148408</v>
+        <v>0.1502111617129353</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02165564649734027</v>
+        <v>0.004759555408018</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2896420428212043</v>
+        <v>0.05810542576232166</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04294973170896722</v>
+        <v>0.05059392826778608</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2919658580069476</v>
+        <v>0.1541339839583354</v>
       </c>
       <c r="L243" t="n">
-        <v>0.08876913912673534</v>
+        <v>0.1048228651351893</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2927434085765259</v>
+        <v>0.151396841925206</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1341027387198979</v>
+        <v>0.1582565433573173</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2915685382104049</v>
+        <v>0.1510598123440818</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02232482112125875</v>
+        <v>0.004760346600390979</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2912692453089639</v>
+        <v>0.05807703280197</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04216645635463107</v>
+        <v>0.05097340856959326</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2936061156362001</v>
+        <v>0.1549999052165283</v>
       </c>
       <c r="L244" t="n">
-        <v>0.08786590324082694</v>
+        <v>0.1043815683672634</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2943880344674052</v>
+        <v>0.1522473859809656</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1314876791786904</v>
+        <v>0.1587941904032971</v>
       </c>
       <c r="O244" t="n">
-        <v>0.293206563705969</v>
+        <v>0.1519084629752284</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02099266826003984</v>
+        <v>0.004761580532537446</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2928964477967235</v>
+        <v>0.05804863984161834</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04178082575104429</v>
+        <v>0.0506531350408095</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2952463732654527</v>
+        <v>0.1558658264747212</v>
       </c>
       <c r="L245" t="n">
-        <v>0.08605779856012613</v>
+        <v>0.1039407633082352</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2960326603582846</v>
+        <v>0.1530979300367252</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1305652983221089</v>
+        <v>0.1585325791639035</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2948445892015331</v>
+        <v>0.1527571136063749</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02165916846220256</v>
+        <v>0.004763355591073722</v>
       </c>
       <c r="G246" t="n">
-        <v>0.294523650284483</v>
+        <v>0.05802024688126668</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04139280502814888</v>
+        <v>0.05093311187558638</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2968866308947052</v>
+        <v>0.1567317477329141</v>
       </c>
       <c r="L246" t="n">
-        <v>0.08494475275189065</v>
+        <v>0.1042004581374105</v>
       </c>
       <c r="M246" t="n">
-        <v>0.297677286249164</v>
+        <v>0.1539484740924848</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1286354879473443</v>
+        <v>0.1579717219405727</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2964826146970971</v>
+        <v>0.1536057642375214</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02232430227626597</v>
+        <v>0.004765770162616138</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2961508527722426</v>
+        <v>0.05799185392091503</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04050235931588686</v>
+        <v>0.05071334326807551</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2985268885239577</v>
+        <v>0.157597668991107</v>
       </c>
       <c r="L247" t="n">
-        <v>0.08322669348337799</v>
+        <v>0.1036606610340953</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2993219121400433</v>
+        <v>0.1547990181482444</v>
       </c>
       <c r="N247" t="n">
-        <v>0.126498139851587</v>
+        <v>0.1573116310347414</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2981206401926612</v>
+        <v>0.154454414868668</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0219880502507491</v>
+        <v>0.004768922633781023</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2977780552600022</v>
+        <v>0.05796346096056337</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04010945374420015</v>
+        <v>0.05039383341242849</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3001671461532102</v>
+        <v>0.1584635902492998</v>
       </c>
       <c r="L248" t="n">
-        <v>0.08220354842184588</v>
+        <v>0.1045213801775954</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3009665380309227</v>
+        <v>0.1556495622040039</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1238531458320281</v>
+        <v>0.1583523187478459</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2997586656882253</v>
+        <v>0.1553030654998145</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01965039293417097</v>
+        <v>0.004772911391184707</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2994052577477618</v>
+        <v>0.0579350680002117</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03931405344303084</v>
+        <v>0.05057458650279688</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3018074037824627</v>
+        <v>0.1593295115074927</v>
       </c>
       <c r="L249" t="n">
-        <v>0.08147524523455188</v>
+        <v>0.103982623747217</v>
       </c>
       <c r="M249" t="n">
-        <v>0.302611163921802</v>
+        <v>0.1565001062597635</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1220003976858581</v>
+        <v>0.1567937973813228</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3013966911837894</v>
+        <v>0.156151716130961</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01931131087505064</v>
+        <v>0.004777834821443526</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3010324602355213</v>
+        <v>0.05790667503986004</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03881612354232084</v>
+        <v>0.05055560673333227</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3034476614117152</v>
+        <v>0.1601954327656856</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07974171158875368</v>
+        <v>0.1042443999222655</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3042557898126814</v>
+        <v>0.1573506503155231</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1202397872102677</v>
+        <v>0.1582360792366085</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3030347166793534</v>
+        <v>0.1570003667621075</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0219707846219071</v>
+        <v>0.004783791311173798</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3026596627232809</v>
+        <v>0.05787828207950838</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03841562917201213</v>
+        <v>0.05053689829818629</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3050879190409677</v>
+        <v>0.1610613540238786</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0792028751517089</v>
+        <v>0.1046067168820473</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3059004157035607</v>
+        <v>0.1582011943712827</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1185712062024479</v>
+        <v>0.1576791766151396</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3046727421749175</v>
+        <v>0.157849017393254</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02062879472325944</v>
+        <v>0.004790879246991862</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3042868652110405</v>
+        <v>0.05784988911915673</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0374125354620468</v>
+        <v>0.0504184653915105</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3067281766702202</v>
+        <v>0.1619272752820714</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07755866359067512</v>
+        <v>0.1037695828058681</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3075450415944401</v>
+        <v>0.1590517384270423</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1178945464595892</v>
+        <v>0.1574231018183525</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3063107676704815</v>
+        <v>0.1586976680244006</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02128532172762666</v>
+        <v>0.004799197015514053</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3059140676988001</v>
+        <v>0.05782149615880507</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03680680754236677</v>
+        <v>0.05070031220745647</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3083684342994727</v>
+        <v>0.1627931965402643</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07680900457291001</v>
+        <v>0.1042330058730337</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3091896674853195</v>
+        <v>0.1599022824828019</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1158096997788826</v>
+        <v>0.1566678671476837</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3079487931660456</v>
+        <v>0.1595463186555471</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01794034618352781</v>
+        <v>0.004808843003356669</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3075412701865596</v>
+        <v>0.05779310319845341</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03619841054291402</v>
+        <v>0.05048244294017584</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3100086919287253</v>
+        <v>0.1636591177984572</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07495382576567119</v>
+        <v>0.1036969942628503</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3108342933761988</v>
+        <v>0.1607528265385615</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1130165579575184</v>
+        <v>0.1581134849045696</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3095868186616098</v>
+        <v>0.1603949692866936</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0205938486394819</v>
+        <v>0.004819915597136078</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3091684726743192</v>
+        <v>0.05776471023810176</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0358873095936306</v>
+        <v>0.05076486178382017</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3116489495579778</v>
+        <v>0.1645250390566501</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07429305483621626</v>
+        <v>0.1033615561546236</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3124789192670782</v>
+        <v>0.161603370594321</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1122150127926879</v>
+        <v>0.1576599673904468</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3112248441571738</v>
+        <v>0.1612436199178402</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02024580964400799</v>
+        <v>0.004832513183468584</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3107956751620788</v>
+        <v>0.0577363172777501</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03517346982445846</v>
+        <v>0.05024757293254103</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3132892071872304</v>
+        <v>0.165390960314843</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0724266194518029</v>
+        <v>0.1033266997276595</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3141235451579575</v>
+        <v>0.1624539146500806</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1102049560815813</v>
+        <v>0.1575073269067517</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3128628696527379</v>
+        <v>0.1620922705489867</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01889620974562511</v>
+        <v>0.004846734148970543</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3124228776498383</v>
+        <v>0.05770792431739843</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03455685636533957</v>
+        <v>0.05073058058049008</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3149294648164829</v>
+        <v>0.1662568815730359</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07095444727968878</v>
+        <v>0.1040924331612639</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3157681710488369</v>
+        <v>0.1633044587058402</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1081862796213898</v>
+        <v>0.1563555757549209</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3145008951483019</v>
+        <v>0.1629409211801332</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01654502949285229</v>
+        <v>0.004862676880258252</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3140500801375979</v>
+        <v>0.05767953135704677</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03413743434621601</v>
+        <v>0.05031388892181886</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3165697224457353</v>
+        <v>0.1671228028312288</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0693764659871314</v>
+        <v>0.1043587646347428</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3174127969397162</v>
+        <v>0.1641550027615998</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1052588752093039</v>
+        <v>0.1577047262363906</v>
       </c>
       <c r="O258" t="n">
-        <v>0.316138920643866</v>
+        <v>0.1637895718112797</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01719224943420858</v>
+        <v>0.004880439763948051</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3156772826253575</v>
+        <v>0.05765113839669511</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03331516889702968</v>
+        <v>0.05069750215067896</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3182099800749879</v>
+        <v>0.1679887240894217</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06819260324138843</v>
+        <v>0.1038257023274022</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3190574228305956</v>
+        <v>0.1650055468173594</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1037226346425142</v>
+        <v>0.1564547906525977</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3177769461394301</v>
+        <v>0.1646382224424263</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01683785011821298</v>
+        <v>0.004900121186656274</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3173044851131171</v>
+        <v>0.05762274543634345</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0329900251477226</v>
+        <v>0.05058142446122198</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3198502377042404</v>
+        <v>0.1688546453476146</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06790278670971758</v>
+        <v>0.1031932544185477</v>
       </c>
       <c r="M260" t="n">
-        <v>0.320702048721475</v>
+        <v>0.165856090873119</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1020774497182118</v>
+        <v>0.1563057813049783</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3194149716349942</v>
+        <v>0.1654868730735728</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01548181209338456</v>
+        <v>0.004921819534999247</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3189316876008766</v>
+        <v>0.0575943524759918</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03216196822823676</v>
+        <v>0.05056566004759951</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3214904953334929</v>
+        <v>0.1697205666058075</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06590694405937639</v>
+        <v>0.1035614290874856</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3223466746123543</v>
+        <v>0.1667066349288786</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09962321223358728</v>
+        <v>0.157557710494969</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3210529971305582</v>
+        <v>0.1663355237047193</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01712411590824234</v>
+        <v>0.004945633195593317</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3205588900886363</v>
+        <v>0.05756595951564014</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03153096326851418</v>
+        <v>0.05035021310396316</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3231307529627454</v>
+        <v>0.1705864878640004</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06420500295762252</v>
+        <v>0.1034302345135213</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3239913005032337</v>
+        <v>0.1675571789846381</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09835981398583127</v>
+        <v>0.1578105905240064</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3226910226261223</v>
+        <v>0.1671841743358659</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01576474211130535</v>
+        <v>0.00497166055505479</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3221860925763958</v>
+        <v>0.05753756655528848</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03089697539849683</v>
+        <v>0.05023508782446445</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3247710105919979</v>
+        <v>0.1714524091221933</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06389689107171362</v>
+        <v>0.1030996788759612</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3256359263941131</v>
+        <v>0.1684077230403977</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09658714677213454</v>
+        <v>0.1577644336935269</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3243290481216864</v>
+        <v>0.1680328249670124</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01540367125109261</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3238132950641554</v>
+        <v>0.05750917359493682</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0302599697481267</v>
+        <v>0.05022028840325507</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3264112682212504</v>
+        <v>0.1723183303803862</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0619825360689073</v>
+        <v>0.1038697703541109</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3272805522849924</v>
+        <v>0.1692582670961573</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09490510238968797</v>
+        <v>0.1565192523049669</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3259670736172505</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1688814755981589</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05749601570019997</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005369106629241401</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05749628422866399</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005734787086598844</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05749655275712801</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006096948572146176</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05749682128559203</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006455498285910015</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05749708981405605</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006810343427964369</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05749735834252006</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.007161391198367381</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05749762687098407</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.00750854879719224</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.0574978953994481</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007851723424466869</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05749816392791211</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.008190822280264631</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05749843245637613</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.00852575256464369</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05749870098484014</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008856421477676478</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05749896951330417</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.009182736219392369</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05749923804176818</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.009504603989864024</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05749950657023219</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009821931989149595</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05749977509869621</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01013462741732071</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05750004362716023</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01044259747440836</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05750031215562425</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01074574936048436</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05750058068408827</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0110439902756069</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05750084921255228</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01133722741984677</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05750111774101631</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01162536799323663</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05750138626948032</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01190831919584746</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05750165479794433</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01218598822773745</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05750192332640835</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01245828228897647</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05750219185487238</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.012725108579599</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05750246038333639</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01298675323277104</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0575027289118004</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01324539704712592</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05750299744026442</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01350132615582875</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05750326596872844</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01375444775891536</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05750353449719246</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01400466905645513</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05750380302565648</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01425189724850622</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05750407155412049</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01449603953513733</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05750434008258452</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01473700311638536</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05750460861104853</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01497469519231917</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05750487713951254</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01520902296299692</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05750514566797656</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01543989362848676</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05750541419644058</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01566721438882669</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.0575056827249046</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01589089244408504</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05750595125336861</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01611083499431994</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05750621978183262</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01632694923959888</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05750648831029665</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01653914237996118</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05750675683876066</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01674732161547451</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05750702536722468</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01695139414619704</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.0575072938956887</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01715126717219549</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05750756242415273</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01734684789351068</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05750783095261674</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01753804351020948</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05750809948108075</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0177247612223501</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05750836800954476</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01790690822999851</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05750863653800879</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01808439173319699</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05750890506647281</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01825711893201176</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05750917359493682</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01825711893201176</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05749601570019997</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01843689042455375</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05752494571747966</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01861550448494169</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05755387573475936</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01879247496648152</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05758280575203906</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01896731572247942</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05761173576931874</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01913954060624155</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05764066578659845</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01930866347107384</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05766959580387813</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01947419817028243</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05769852582115782</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.0196356585571735</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05772745583843752</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01979255848505303</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05775638585571721</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0199444118072271</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0577853158729969</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.02009073237700192</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0578142458902766</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.02023103404768342</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0578431759075563</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.02036483067257781</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05787210592483599</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.02049163610499109</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05790103594211569</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.02061096419822937</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05792996595939538</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.02072232880559879</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05795889597667508</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.02082524378040536</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05798782599395477</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.02091922297595522</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05801675601123445</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.02100378024555444</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05804568602851416</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.02107842944250907</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05807461604579384</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.02114268442012524</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05810354606307353</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.02119605903170906</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05813247608035323</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.02123806713056654</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05816140609763293</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.02126822257000383</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05819033611491262</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.02128755205379892</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05821926613219232</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.02130482363128761</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05824819614947201</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.02132151657775413</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05827712616675169</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.02133761699503277</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0583060561840314</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.02135311098495783</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05833498620131108</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.02136798464936358</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05836391621859077</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.02138222409008436</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05839284623587047</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.02139581540895445</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05842177625315017</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.02140874470780812</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05845070627042986</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.02142099808847972</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05847963628770956</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.02143256165280351</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05850856630498925</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.02144342150261379</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05853749632226895</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.02145356373974487</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05856642633954864</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.02146297446603102</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05859535635682833</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.02147163978330659</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05862428637410803</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.02147954579340579</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05865321639138771</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.02148667859816301</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0586821464086674</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.02149302429941249</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0587110764259471</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.02149856899898854</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0587400064432268</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.02150329879872548</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05876893646050649</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.02150719980045757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05879786647778619</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.02151025810601911</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05882679649506588</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.02151245981724442</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05885572651234557</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.0215137910359678</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05888465652962527</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.02151423786402352</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05891358654690496</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.02151423786402352</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05891358654690496</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.02199411953184785</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06049593104814256</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.02246459830562078</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06207827554938016</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02292546115225202</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06366062005061775</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02337649503865136</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06524296455185535</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02381748693172846</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06682530905309296</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02424822379839305</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06840765355433057</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02466849260555486</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06998999805556816</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02507808032012364</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07157234255680575</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0254767739090091</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07315468705804336</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02586436033912096</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07473703155928096</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02624062657736893</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07631937606051856</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02660535959066276</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07790172056175616</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02695834634591218</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07948406506299376</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02729937381002691</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08106640956423136</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02762822894991665</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08264875406546897</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02794469873249113</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08423109856670656</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0282485701246601</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08581344306794417</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02853963009333327</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08739578756918176</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02881766560542036</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08897813207041937</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02908246362783112</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09056047657165696</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02933381112747524</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09214282107289455</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02957149507126246</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09372516557413216</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.0297953024261025</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09530751007536976</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.03000502015890509</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09688985457660737</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.03020043523657998</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09847219907784496</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.03038133462603686</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1000545435790826</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.03054750529418544</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1016368880803202</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.03069873420793548</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1032192325815578</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.0308348083341967</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1048015770827954</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.03095551463987882</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.106383921584033</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.03106064009189156</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1079662660852706</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.03114997165714466</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1095486105865082</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.03122329630254782</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1111309550877458</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.03128040099501077</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1127132995889834</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.03132107270144326</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1142956440902209</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.03135231715203138</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1158779885914586</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.03135229518957894</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1174603330926962</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0313482371929525</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1190426775939338</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.03133752299882016</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1206250220951714</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.03132065813544158</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.122207366596409</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.03129814813107643</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1237897110976466</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.03127049851398433</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1253720555988841</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.03123821481242499</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1269544001001218</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.03120180255465803</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1285367446013594</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.03116176726894311</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.130119089102597</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03111861448353991</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1317014336038346</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03107284972670805</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1332837781050722</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03102497852670723</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1348661226063098</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03097550641179707</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1364484671075473</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03092493891023726</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.138030811608785</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03087344061735742</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1396131561100226</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03080586226518241</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1411955006112602</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03071763424483442</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1427778451124978</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03061401495397614</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1443601896137354</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03050026279027035</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.145942534114973</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03038163615137973</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1475248786162106</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03026339343496699</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1491072231174482</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03015079303869492</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.0300490933602262</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1522719121199234</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02996355279722354</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.153854256621161</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02989942974734972</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1554366011223986</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02985149016124125</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1570189456236362</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02980648016783145</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1586012901248738</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02976411277907025</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1601836346261114</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02972421949542813</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.161765979127349</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02968663181737569</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1633483236285866</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02965118124538345</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1649306681298242</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02961769927992199</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1665130126310618</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02958601742146186</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1680953571322994</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.0295559671704736</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.169677701633537</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02952738002742779</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1712600461347746</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02950008749279498</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1728423906360122</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02947392106704572</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1744247351372498</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02944871225065057</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1760070796384874</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02942429254408006</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.177589424139725</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02940049344780479</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1791717686409626</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02937714646229529</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1807541131422002</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02935408308802211</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1823364576434378</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02933113482545581</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1839188021446754</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02930813317506697</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.185501146645913</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02928490963732612</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1870834911471506</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02926129571270382</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1886658356483882</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02923761643385106</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1902481801496258</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.0292143328764308</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1918305246508634</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02919145968920502</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.193412869152101</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02916901149473494</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1949952136533386</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0291470029155818</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1965775581545762</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02912544857430681</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1981599026558138</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02910436309347118</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1997422471570514</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02908376109563615</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.201324591658289</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02906365720336293</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2029069361595266</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02904406603921274</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2044892806607642</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02902500222574682</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2060716251620018</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02900648038552636</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2076539696632394</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.0289885151411126</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.209236314164477</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02897112111506675</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2108186586657146</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02895431292995006</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2124010031669522</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02893810520832371</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2139833476681898</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02892251257274893</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2155656921694274</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
